--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -600,11 +600,11 @@
       <c r="C2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="b">
+      <c r="D2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="b">
         <v>1</v>
-      </c>
-      <c r="E2" s="7" t="b">
-        <v>0</v>
       </c>
       <c r="F2" s="7" t="b">
         <v>0</v>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,13 +224,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +520,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +542,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -591,52 +598,52 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="b">
+      <c r="B2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="F2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R1"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>TITAN</t>
   </si>
@@ -96,6 +96,99 @@
   </si>
   <si>
     <t>EXIST</t>
+  </si>
+  <si>
+    <t>Status_Integration</t>
+  </si>
+  <si>
+    <t>Status_GetCustomer</t>
+  </si>
+  <si>
+    <t>Status_Personel</t>
+  </si>
+  <si>
+    <t>Status_LaborCode</t>
+  </si>
+  <si>
+    <t>Status_ProcessService</t>
+  </si>
+  <si>
+    <t>Status_SearchService</t>
+  </si>
+  <si>
+    <t>Status_GetService</t>
+  </si>
+  <si>
+    <t>Status_Subscription</t>
+  </si>
+  <si>
+    <t>Status_Notification</t>
+  </si>
+  <si>
+    <t>Dealer_Code</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Opcode</t>
+  </si>
+  <si>
+    <t>Start_Search</t>
+  </si>
+  <si>
+    <t>End_Search</t>
+  </si>
+  <si>
+    <t>AddJobLine</t>
+  </si>
+  <si>
+    <t>ChangeCustomer</t>
+  </si>
+  <si>
+    <t>ChangeDate</t>
+  </si>
+  <si>
+    <t>ChangeVehicle</t>
+  </si>
+  <si>
+    <t>ChangeAdvisor</t>
+  </si>
+  <si>
+    <t>ChangeOpcodeContent</t>
+  </si>
+  <si>
+    <t>BookingId</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>765A</t>
+  </si>
+  <si>
+    <t>NOTEXIST</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Service Date</t>
   </si>
 </sst>
 </file>
@@ -141,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +271,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -206,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -231,6 +336,40 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,13 +653,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +677,9 @@
     <col min="15" max="15" width="8.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="7.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -601,14 +742,14 @@
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="b">
-        <v>0</v>
+      <c r="B2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E2" s="6" t="b">
         <v>1</v>
@@ -644,6 +785,336 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
+    </row>
+    <row r="33" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="18"/>
+      <c r="M34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="R36" s="12"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R1"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -656,10 +656,10 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -15,7 +15,7 @@
     <sheet name="DATATEST" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATATEST!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATATEST!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="527">
   <si>
     <t>TITAN</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>qateam@automation.com.au</t>
-  </si>
-  <si>
-    <t>7788</t>
   </si>
   <si>
     <t>19</t>
@@ -1632,6 +1629,24 @@
   </si>
   <si>
     <t>var_LineNumber</t>
+  </si>
+  <si>
+    <t>var_StartServiceDate</t>
+  </si>
+  <si>
+    <t>var_EndServiceDate</t>
+  </si>
+  <si>
+    <t>10717</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1753,6 +1768,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1781,7 +1802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1844,6 +1865,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2127,13 +2151,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:AP461"/>
+  <dimension ref="A1:AR461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AP2" sqref="AP2"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,16 +2172,27 @@
     <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
     <col min="10" max="11" width="8.5703125" style="1" customWidth="1"/>
     <col min="12" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="25" width="8.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="27" max="31" width="8.28515625" style="1" customWidth="1"/>
-    <col min="32" max="36" width="9.140625" style="1"/>
-    <col min="37" max="41" width="8.28515625" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="6.7109375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="8.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" style="1" customWidth="1"/>
+    <col min="32" max="33" width="8.28515625" style="1" customWidth="1"/>
+    <col min="34" max="38" width="9.140625" style="1"/>
+    <col min="39" max="43" width="8.28515625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -2174,13 +2209,13 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
@@ -2189,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -2197,107 +2232,115 @@
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AB1" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AC1" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AH1" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AK1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="AI1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR1" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="AN1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="b">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F2" s="10" t="b">
         <v>0</v>
@@ -2324,79 +2367,79 @@
         <v>18</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="S2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="T2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="V2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="W2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="X2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="Y2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="Z2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="AC2" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AG2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AH2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AI2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AL2" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="AK2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="6" t="b">
-        <v>1</v>
       </c>
       <c r="AM2" s="6" t="b">
         <v>1</v>
@@ -2404,60 +2447,154 @@
       <c r="AN2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AO2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="22" t="s">
+      <c r="AR2" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR3" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2499,11 +2636,13 @@
       <c r="AM4" s="19"/>
       <c r="AN4" s="19"/>
       <c r="AO4" s="19"/>
-      <c r="AP4" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2545,11 +2684,13 @@
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
       <c r="AO5" s="19"/>
-      <c r="AP5" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2591,11 +2732,13 @@
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
       <c r="AO6" s="19"/>
-      <c r="AP6" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2637,11 +2780,13 @@
       <c r="AM7" s="19"/>
       <c r="AN7" s="19"/>
       <c r="AO7" s="19"/>
-      <c r="AP7" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2683,11 +2828,13 @@
       <c r="AM8" s="19"/>
       <c r="AN8" s="19"/>
       <c r="AO8" s="19"/>
-      <c r="AP8" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -2729,11 +2876,13 @@
       <c r="AM9" s="19"/>
       <c r="AN9" s="19"/>
       <c r="AO9" s="19"/>
-      <c r="AP9" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -2775,11 +2924,13 @@
       <c r="AM10" s="19"/>
       <c r="AN10" s="19"/>
       <c r="AO10" s="19"/>
-      <c r="AP10" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -2821,11 +2972,13 @@
       <c r="AM11" s="19"/>
       <c r="AN11" s="19"/>
       <c r="AO11" s="19"/>
-      <c r="AP11" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2867,11 +3020,13 @@
       <c r="AM12" s="19"/>
       <c r="AN12" s="19"/>
       <c r="AO12" s="19"/>
-      <c r="AP12" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -2913,11 +3068,13 @@
       <c r="AM13" s="19"/>
       <c r="AN13" s="19"/>
       <c r="AO13" s="19"/>
-      <c r="AP13" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -2959,11 +3116,13 @@
       <c r="AM14" s="19"/>
       <c r="AN14" s="19"/>
       <c r="AO14" s="19"/>
-      <c r="AP14" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -3005,11 +3164,13 @@
       <c r="AM15" s="19"/>
       <c r="AN15" s="19"/>
       <c r="AO15" s="19"/>
-      <c r="AP15" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -3051,11 +3212,13 @@
       <c r="AM16" s="19"/>
       <c r="AN16" s="19"/>
       <c r="AO16" s="19"/>
-      <c r="AP16" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -3097,11 +3260,13 @@
       <c r="AM17" s="19"/>
       <c r="AN17" s="19"/>
       <c r="AO17" s="19"/>
-      <c r="AP17" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -3143,11 +3308,13 @@
       <c r="AM18" s="19"/>
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
-      <c r="AP18" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -3189,11 +3356,13 @@
       <c r="AM19" s="19"/>
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
-      <c r="AP19" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -3235,11 +3404,13 @@
       <c r="AM20" s="19"/>
       <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
-      <c r="AP20" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -3281,11 +3452,13 @@
       <c r="AM21" s="19"/>
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3327,11 +3500,13 @@
       <c r="AM22" s="19"/>
       <c r="AN22" s="19"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -3373,11 +3548,13 @@
       <c r="AM23" s="19"/>
       <c r="AN23" s="19"/>
       <c r="AO23" s="19"/>
-      <c r="AP23" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -3419,11 +3596,13 @@
       <c r="AM24" s="19"/>
       <c r="AN24" s="19"/>
       <c r="AO24" s="19"/>
-      <c r="AP24" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -3465,11 +3644,13 @@
       <c r="AM25" s="19"/>
       <c r="AN25" s="19"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -3511,11 +3692,13 @@
       <c r="AM26" s="19"/>
       <c r="AN26" s="19"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -3557,11 +3740,13 @@
       <c r="AM27" s="19"/>
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -3603,11 +3788,13 @@
       <c r="AM28" s="19"/>
       <c r="AN28" s="19"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -3649,11 +3836,13 @@
       <c r="AM29" s="19"/>
       <c r="AN29" s="19"/>
       <c r="AO29" s="19"/>
-      <c r="AP29" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -3695,11 +3884,13 @@
       <c r="AM30" s="19"/>
       <c r="AN30" s="19"/>
       <c r="AO30" s="19"/>
-      <c r="AP30" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -3741,11 +3932,13 @@
       <c r="AM31" s="19"/>
       <c r="AN31" s="19"/>
       <c r="AO31" s="19"/>
-      <c r="AP31" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -3787,11 +3980,13 @@
       <c r="AM32" s="19"/>
       <c r="AN32" s="19"/>
       <c r="AO32" s="19"/>
-      <c r="AP32" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -3833,11 +4028,13 @@
       <c r="AM33" s="19"/>
       <c r="AN33" s="19"/>
       <c r="AO33" s="19"/>
-      <c r="AP33" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -3879,11 +4076,13 @@
       <c r="AM34" s="19"/>
       <c r="AN34" s="19"/>
       <c r="AO34" s="19"/>
-      <c r="AP34" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -3925,11 +4124,13 @@
       <c r="AM35" s="19"/>
       <c r="AN35" s="19"/>
       <c r="AO35" s="19"/>
-      <c r="AP35" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP35" s="19"/>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -3971,11 +4172,13 @@
       <c r="AM36" s="19"/>
       <c r="AN36" s="19"/>
       <c r="AO36" s="19"/>
-      <c r="AP36" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP36" s="19"/>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -4017,11 +4220,13 @@
       <c r="AM37" s="19"/>
       <c r="AN37" s="19"/>
       <c r="AO37" s="19"/>
-      <c r="AP37" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -4063,11 +4268,13 @@
       <c r="AM38" s="19"/>
       <c r="AN38" s="19"/>
       <c r="AO38" s="19"/>
-      <c r="AP38" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19"/>
+      <c r="AR38" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -4109,11 +4316,13 @@
       <c r="AM39" s="19"/>
       <c r="AN39" s="19"/>
       <c r="AO39" s="19"/>
-      <c r="AP39" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP39" s="19"/>
+      <c r="AQ39" s="19"/>
+      <c r="AR39" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -4155,11 +4364,13 @@
       <c r="AM40" s="19"/>
       <c r="AN40" s="19"/>
       <c r="AO40" s="19"/>
-      <c r="AP40" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP40" s="19"/>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -4201,11 +4412,13 @@
       <c r="AM41" s="19"/>
       <c r="AN41" s="19"/>
       <c r="AO41" s="19"/>
-      <c r="AP41" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP41" s="19"/>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -4247,11 +4460,13 @@
       <c r="AM42" s="19"/>
       <c r="AN42" s="19"/>
       <c r="AO42" s="19"/>
-      <c r="AP42" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP42" s="19"/>
+      <c r="AQ42" s="19"/>
+      <c r="AR42" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -4293,11 +4508,13 @@
       <c r="AM43" s="19"/>
       <c r="AN43" s="19"/>
       <c r="AO43" s="19"/>
-      <c r="AP43" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP43" s="19"/>
+      <c r="AQ43" s="19"/>
+      <c r="AR43" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -4339,11 +4556,13 @@
       <c r="AM44" s="19"/>
       <c r="AN44" s="19"/>
       <c r="AO44" s="19"/>
-      <c r="AP44" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP44" s="19"/>
+      <c r="AQ44" s="19"/>
+      <c r="AR44" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -4385,11 +4604,13 @@
       <c r="AM45" s="19"/>
       <c r="AN45" s="19"/>
       <c r="AO45" s="19"/>
-      <c r="AP45" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP45" s="19"/>
+      <c r="AQ45" s="19"/>
+      <c r="AR45" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -4431,11 +4652,13 @@
       <c r="AM46" s="19"/>
       <c r="AN46" s="19"/>
       <c r="AO46" s="19"/>
-      <c r="AP46" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP46" s="19"/>
+      <c r="AQ46" s="19"/>
+      <c r="AR46" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -4477,11 +4700,13 @@
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
       <c r="AO47" s="19"/>
-      <c r="AP47" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP47" s="19"/>
+      <c r="AQ47" s="19"/>
+      <c r="AR47" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -4523,11 +4748,13 @@
       <c r="AM48" s="19"/>
       <c r="AN48" s="19"/>
       <c r="AO48" s="19"/>
-      <c r="AP48" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP48" s="19"/>
+      <c r="AQ48" s="19"/>
+      <c r="AR48" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -4569,11 +4796,13 @@
       <c r="AM49" s="19"/>
       <c r="AN49" s="19"/>
       <c r="AO49" s="19"/>
-      <c r="AP49" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP49" s="19"/>
+      <c r="AQ49" s="19"/>
+      <c r="AR49" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -4615,11 +4844,13 @@
       <c r="AM50" s="19"/>
       <c r="AN50" s="19"/>
       <c r="AO50" s="19"/>
-      <c r="AP50" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP50" s="19"/>
+      <c r="AQ50" s="19"/>
+      <c r="AR50" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -4661,11 +4892,13 @@
       <c r="AM51" s="19"/>
       <c r="AN51" s="19"/>
       <c r="AO51" s="19"/>
-      <c r="AP51" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP51" s="19"/>
+      <c r="AQ51" s="19"/>
+      <c r="AR51" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -4707,11 +4940,13 @@
       <c r="AM52" s="19"/>
       <c r="AN52" s="19"/>
       <c r="AO52" s="19"/>
-      <c r="AP52" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP52" s="19"/>
+      <c r="AQ52" s="19"/>
+      <c r="AR52" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -4753,11 +4988,13 @@
       <c r="AM53" s="19"/>
       <c r="AN53" s="19"/>
       <c r="AO53" s="19"/>
-      <c r="AP53" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP53" s="19"/>
+      <c r="AQ53" s="19"/>
+      <c r="AR53" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -4799,11 +5036,13 @@
       <c r="AM54" s="19"/>
       <c r="AN54" s="19"/>
       <c r="AO54" s="19"/>
-      <c r="AP54" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP54" s="19"/>
+      <c r="AQ54" s="19"/>
+      <c r="AR54" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -4845,11 +5084,13 @@
       <c r="AM55" s="19"/>
       <c r="AN55" s="19"/>
       <c r="AO55" s="19"/>
-      <c r="AP55" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP55" s="19"/>
+      <c r="AQ55" s="19"/>
+      <c r="AR55" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -4891,11 +5132,13 @@
       <c r="AM56" s="19"/>
       <c r="AN56" s="19"/>
       <c r="AO56" s="19"/>
-      <c r="AP56" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP56" s="19"/>
+      <c r="AQ56" s="19"/>
+      <c r="AR56" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -4937,11 +5180,13 @@
       <c r="AM57" s="19"/>
       <c r="AN57" s="19"/>
       <c r="AO57" s="19"/>
-      <c r="AP57" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP57" s="19"/>
+      <c r="AQ57" s="19"/>
+      <c r="AR57" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -4983,11 +5228,13 @@
       <c r="AM58" s="19"/>
       <c r="AN58" s="19"/>
       <c r="AO58" s="19"/>
-      <c r="AP58" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP58" s="19"/>
+      <c r="AQ58" s="19"/>
+      <c r="AR58" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -5029,11 +5276,13 @@
       <c r="AM59" s="19"/>
       <c r="AN59" s="19"/>
       <c r="AO59" s="19"/>
-      <c r="AP59" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP59" s="19"/>
+      <c r="AQ59" s="19"/>
+      <c r="AR59" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -5075,11 +5324,13 @@
       <c r="AM60" s="19"/>
       <c r="AN60" s="19"/>
       <c r="AO60" s="19"/>
-      <c r="AP60" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP60" s="19"/>
+      <c r="AQ60" s="19"/>
+      <c r="AR60" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -5121,11 +5372,13 @@
       <c r="AM61" s="19"/>
       <c r="AN61" s="19"/>
       <c r="AO61" s="19"/>
-      <c r="AP61" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP61" s="19"/>
+      <c r="AQ61" s="19"/>
+      <c r="AR61" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -5167,11 +5420,13 @@
       <c r="AM62" s="19"/>
       <c r="AN62" s="19"/>
       <c r="AO62" s="19"/>
-      <c r="AP62" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP62" s="19"/>
+      <c r="AQ62" s="19"/>
+      <c r="AR62" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -5213,11 +5468,13 @@
       <c r="AM63" s="19"/>
       <c r="AN63" s="19"/>
       <c r="AO63" s="19"/>
-      <c r="AP63" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP63" s="19"/>
+      <c r="AQ63" s="19"/>
+      <c r="AR63" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -5259,11 +5516,13 @@
       <c r="AM64" s="19"/>
       <c r="AN64" s="19"/>
       <c r="AO64" s="19"/>
-      <c r="AP64" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP64" s="19"/>
+      <c r="AQ64" s="19"/>
+      <c r="AR64" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -5305,11 +5564,13 @@
       <c r="AM65" s="19"/>
       <c r="AN65" s="19"/>
       <c r="AO65" s="19"/>
-      <c r="AP65" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP65" s="19"/>
+      <c r="AQ65" s="19"/>
+      <c r="AR65" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -5351,11 +5612,13 @@
       <c r="AM66" s="19"/>
       <c r="AN66" s="19"/>
       <c r="AO66" s="19"/>
-      <c r="AP66" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP66" s="19"/>
+      <c r="AQ66" s="19"/>
+      <c r="AR66" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -5397,11 +5660,13 @@
       <c r="AM67" s="19"/>
       <c r="AN67" s="19"/>
       <c r="AO67" s="19"/>
-      <c r="AP67" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP67" s="19"/>
+      <c r="AQ67" s="19"/>
+      <c r="AR67" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -5443,11 +5708,13 @@
       <c r="AM68" s="19"/>
       <c r="AN68" s="19"/>
       <c r="AO68" s="19"/>
-      <c r="AP68" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP68" s="19"/>
+      <c r="AQ68" s="19"/>
+      <c r="AR68" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -5489,11 +5756,13 @@
       <c r="AM69" s="19"/>
       <c r="AN69" s="19"/>
       <c r="AO69" s="19"/>
-      <c r="AP69" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP69" s="19"/>
+      <c r="AQ69" s="19"/>
+      <c r="AR69" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -5535,11 +5804,13 @@
       <c r="AM70" s="19"/>
       <c r="AN70" s="19"/>
       <c r="AO70" s="19"/>
-      <c r="AP70" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP70" s="19"/>
+      <c r="AQ70" s="19"/>
+      <c r="AR70" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -5581,11 +5852,13 @@
       <c r="AM71" s="19"/>
       <c r="AN71" s="19"/>
       <c r="AO71" s="19"/>
-      <c r="AP71" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP71" s="19"/>
+      <c r="AQ71" s="19"/>
+      <c r="AR71" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -5627,11 +5900,13 @@
       <c r="AM72" s="19"/>
       <c r="AN72" s="19"/>
       <c r="AO72" s="19"/>
-      <c r="AP72" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP72" s="19"/>
+      <c r="AQ72" s="19"/>
+      <c r="AR72" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -5673,11 +5948,13 @@
       <c r="AM73" s="19"/>
       <c r="AN73" s="19"/>
       <c r="AO73" s="19"/>
-      <c r="AP73" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP73" s="19"/>
+      <c r="AQ73" s="19"/>
+      <c r="AR73" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -5719,11 +5996,13 @@
       <c r="AM74" s="19"/>
       <c r="AN74" s="19"/>
       <c r="AO74" s="19"/>
-      <c r="AP74" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP74" s="19"/>
+      <c r="AQ74" s="19"/>
+      <c r="AR74" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -5765,11 +6044,13 @@
       <c r="AM75" s="19"/>
       <c r="AN75" s="19"/>
       <c r="AO75" s="19"/>
-      <c r="AP75" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP75" s="19"/>
+      <c r="AQ75" s="19"/>
+      <c r="AR75" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -5811,11 +6092,13 @@
       <c r="AM76" s="19"/>
       <c r="AN76" s="19"/>
       <c r="AO76" s="19"/>
-      <c r="AP76" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP76" s="19"/>
+      <c r="AQ76" s="19"/>
+      <c r="AR76" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -5857,11 +6140,13 @@
       <c r="AM77" s="19"/>
       <c r="AN77" s="19"/>
       <c r="AO77" s="19"/>
-      <c r="AP77" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP77" s="19"/>
+      <c r="AQ77" s="19"/>
+      <c r="AR77" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -5903,11 +6188,13 @@
       <c r="AM78" s="19"/>
       <c r="AN78" s="19"/>
       <c r="AO78" s="19"/>
-      <c r="AP78" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP78" s="19"/>
+      <c r="AQ78" s="19"/>
+      <c r="AR78" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -5949,11 +6236,13 @@
       <c r="AM79" s="19"/>
       <c r="AN79" s="19"/>
       <c r="AO79" s="19"/>
-      <c r="AP79" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP79" s="19"/>
+      <c r="AQ79" s="19"/>
+      <c r="AR79" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -5995,11 +6284,13 @@
       <c r="AM80" s="19"/>
       <c r="AN80" s="19"/>
       <c r="AO80" s="19"/>
-      <c r="AP80" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP80" s="19"/>
+      <c r="AQ80" s="19"/>
+      <c r="AR80" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -6041,11 +6332,13 @@
       <c r="AM81" s="19"/>
       <c r="AN81" s="19"/>
       <c r="AO81" s="19"/>
-      <c r="AP81" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP81" s="19"/>
+      <c r="AQ81" s="19"/>
+      <c r="AR81" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -6087,11 +6380,13 @@
       <c r="AM82" s="19"/>
       <c r="AN82" s="19"/>
       <c r="AO82" s="19"/>
-      <c r="AP82" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP82" s="19"/>
+      <c r="AQ82" s="19"/>
+      <c r="AR82" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -6133,11 +6428,13 @@
       <c r="AM83" s="19"/>
       <c r="AN83" s="19"/>
       <c r="AO83" s="19"/>
-      <c r="AP83" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP83" s="19"/>
+      <c r="AQ83" s="19"/>
+      <c r="AR83" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -6179,11 +6476,13 @@
       <c r="AM84" s="19"/>
       <c r="AN84" s="19"/>
       <c r="AO84" s="19"/>
-      <c r="AP84" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP84" s="19"/>
+      <c r="AQ84" s="19"/>
+      <c r="AR84" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -6225,11 +6524,13 @@
       <c r="AM85" s="19"/>
       <c r="AN85" s="19"/>
       <c r="AO85" s="19"/>
-      <c r="AP85" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP85" s="19"/>
+      <c r="AQ85" s="19"/>
+      <c r="AR85" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -6271,11 +6572,13 @@
       <c r="AM86" s="19"/>
       <c r="AN86" s="19"/>
       <c r="AO86" s="19"/>
-      <c r="AP86" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP86" s="19"/>
+      <c r="AQ86" s="19"/>
+      <c r="AR86" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -6317,11 +6620,13 @@
       <c r="AM87" s="19"/>
       <c r="AN87" s="19"/>
       <c r="AO87" s="19"/>
-      <c r="AP87" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP87" s="19"/>
+      <c r="AQ87" s="19"/>
+      <c r="AR87" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -6363,11 +6668,13 @@
       <c r="AM88" s="19"/>
       <c r="AN88" s="19"/>
       <c r="AO88" s="19"/>
-      <c r="AP88" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP88" s="19"/>
+      <c r="AQ88" s="19"/>
+      <c r="AR88" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -6409,11 +6716,13 @@
       <c r="AM89" s="19"/>
       <c r="AN89" s="19"/>
       <c r="AO89" s="19"/>
-      <c r="AP89" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP89" s="19"/>
+      <c r="AQ89" s="19"/>
+      <c r="AR89" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -6455,11 +6764,13 @@
       <c r="AM90" s="19"/>
       <c r="AN90" s="19"/>
       <c r="AO90" s="19"/>
-      <c r="AP90" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP90" s="19"/>
+      <c r="AQ90" s="19"/>
+      <c r="AR90" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -6501,11 +6812,13 @@
       <c r="AM91" s="19"/>
       <c r="AN91" s="19"/>
       <c r="AO91" s="19"/>
-      <c r="AP91" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP91" s="19"/>
+      <c r="AQ91" s="19"/>
+      <c r="AR91" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -6547,11 +6860,13 @@
       <c r="AM92" s="19"/>
       <c r="AN92" s="19"/>
       <c r="AO92" s="19"/>
-      <c r="AP92" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP92" s="19"/>
+      <c r="AQ92" s="19"/>
+      <c r="AR92" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -6593,11 +6908,13 @@
       <c r="AM93" s="19"/>
       <c r="AN93" s="19"/>
       <c r="AO93" s="19"/>
-      <c r="AP93" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP93" s="19"/>
+      <c r="AQ93" s="19"/>
+      <c r="AR93" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -6639,11 +6956,13 @@
       <c r="AM94" s="19"/>
       <c r="AN94" s="19"/>
       <c r="AO94" s="19"/>
-      <c r="AP94" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP94" s="19"/>
+      <c r="AQ94" s="19"/>
+      <c r="AR94" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -6685,11 +7004,13 @@
       <c r="AM95" s="19"/>
       <c r="AN95" s="19"/>
       <c r="AO95" s="19"/>
-      <c r="AP95" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP95" s="19"/>
+      <c r="AQ95" s="19"/>
+      <c r="AR95" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -6731,11 +7052,13 @@
       <c r="AM96" s="19"/>
       <c r="AN96" s="19"/>
       <c r="AO96" s="19"/>
-      <c r="AP96" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP96" s="19"/>
+      <c r="AQ96" s="19"/>
+      <c r="AR96" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -6777,11 +7100,13 @@
       <c r="AM97" s="19"/>
       <c r="AN97" s="19"/>
       <c r="AO97" s="19"/>
-      <c r="AP97" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP97" s="19"/>
+      <c r="AQ97" s="19"/>
+      <c r="AR97" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -6823,11 +7148,13 @@
       <c r="AM98" s="19"/>
       <c r="AN98" s="19"/>
       <c r="AO98" s="19"/>
-      <c r="AP98" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP98" s="19"/>
+      <c r="AQ98" s="19"/>
+      <c r="AR98" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -6869,11 +7196,13 @@
       <c r="AM99" s="19"/>
       <c r="AN99" s="19"/>
       <c r="AO99" s="19"/>
-      <c r="AP99" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP99" s="19"/>
+      <c r="AQ99" s="19"/>
+      <c r="AR99" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -6915,11 +7244,13 @@
       <c r="AM100" s="19"/>
       <c r="AN100" s="19"/>
       <c r="AO100" s="19"/>
-      <c r="AP100" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP100" s="19"/>
+      <c r="AQ100" s="19"/>
+      <c r="AR100" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -6961,11 +7292,13 @@
       <c r="AM101" s="19"/>
       <c r="AN101" s="19"/>
       <c r="AO101" s="19"/>
-      <c r="AP101" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP101" s="19"/>
+      <c r="AQ101" s="19"/>
+      <c r="AR101" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -7007,11 +7340,13 @@
       <c r="AM102" s="19"/>
       <c r="AN102" s="19"/>
       <c r="AO102" s="19"/>
-      <c r="AP102" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP102" s="19"/>
+      <c r="AQ102" s="19"/>
+      <c r="AR102" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -7053,11 +7388,13 @@
       <c r="AM103" s="19"/>
       <c r="AN103" s="19"/>
       <c r="AO103" s="19"/>
-      <c r="AP103" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP103" s="19"/>
+      <c r="AQ103" s="19"/>
+      <c r="AR103" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -7099,11 +7436,13 @@
       <c r="AM104" s="19"/>
       <c r="AN104" s="19"/>
       <c r="AO104" s="19"/>
-      <c r="AP104" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP104" s="19"/>
+      <c r="AQ104" s="19"/>
+      <c r="AR104" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -7145,11 +7484,13 @@
       <c r="AM105" s="19"/>
       <c r="AN105" s="19"/>
       <c r="AO105" s="19"/>
-      <c r="AP105" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP105" s="19"/>
+      <c r="AQ105" s="19"/>
+      <c r="AR105" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -7191,11 +7532,13 @@
       <c r="AM106" s="19"/>
       <c r="AN106" s="19"/>
       <c r="AO106" s="19"/>
-      <c r="AP106" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP106" s="19"/>
+      <c r="AQ106" s="19"/>
+      <c r="AR106" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -7237,11 +7580,13 @@
       <c r="AM107" s="19"/>
       <c r="AN107" s="19"/>
       <c r="AO107" s="19"/>
-      <c r="AP107" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP107" s="19"/>
+      <c r="AQ107" s="19"/>
+      <c r="AR107" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -7283,11 +7628,13 @@
       <c r="AM108" s="19"/>
       <c r="AN108" s="19"/>
       <c r="AO108" s="19"/>
-      <c r="AP108" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP108" s="19"/>
+      <c r="AQ108" s="19"/>
+      <c r="AR108" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -7329,11 +7676,13 @@
       <c r="AM109" s="19"/>
       <c r="AN109" s="19"/>
       <c r="AO109" s="19"/>
-      <c r="AP109" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP109" s="19"/>
+      <c r="AQ109" s="19"/>
+      <c r="AR109" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -7375,11 +7724,13 @@
       <c r="AM110" s="19"/>
       <c r="AN110" s="19"/>
       <c r="AO110" s="19"/>
-      <c r="AP110" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP110" s="19"/>
+      <c r="AQ110" s="19"/>
+      <c r="AR110" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -7421,11 +7772,13 @@
       <c r="AM111" s="19"/>
       <c r="AN111" s="19"/>
       <c r="AO111" s="19"/>
-      <c r="AP111" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP111" s="19"/>
+      <c r="AQ111" s="19"/>
+      <c r="AR111" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -7467,11 +7820,13 @@
       <c r="AM112" s="19"/>
       <c r="AN112" s="19"/>
       <c r="AO112" s="19"/>
-      <c r="AP112" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP112" s="19"/>
+      <c r="AQ112" s="19"/>
+      <c r="AR112" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -7513,11 +7868,13 @@
       <c r="AM113" s="19"/>
       <c r="AN113" s="19"/>
       <c r="AO113" s="19"/>
-      <c r="AP113" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP113" s="19"/>
+      <c r="AQ113" s="19"/>
+      <c r="AR113" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -7559,11 +7916,13 @@
       <c r="AM114" s="19"/>
       <c r="AN114" s="19"/>
       <c r="AO114" s="19"/>
-      <c r="AP114" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP114" s="19"/>
+      <c r="AQ114" s="19"/>
+      <c r="AR114" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -7605,11 +7964,13 @@
       <c r="AM115" s="19"/>
       <c r="AN115" s="19"/>
       <c r="AO115" s="19"/>
-      <c r="AP115" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP115" s="19"/>
+      <c r="AQ115" s="19"/>
+      <c r="AR115" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -7651,11 +8012,13 @@
       <c r="AM116" s="19"/>
       <c r="AN116" s="19"/>
       <c r="AO116" s="19"/>
-      <c r="AP116" s="22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP116" s="19"/>
+      <c r="AQ116" s="19"/>
+      <c r="AR116" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -7697,11 +8060,13 @@
       <c r="AM117" s="19"/>
       <c r="AN117" s="19"/>
       <c r="AO117" s="19"/>
-      <c r="AP117" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP117" s="19"/>
+      <c r="AQ117" s="19"/>
+      <c r="AR117" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -7743,11 +8108,13 @@
       <c r="AM118" s="19"/>
       <c r="AN118" s="19"/>
       <c r="AO118" s="19"/>
-      <c r="AP118" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP118" s="19"/>
+      <c r="AQ118" s="19"/>
+      <c r="AR118" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -7789,11 +8156,13 @@
       <c r="AM119" s="19"/>
       <c r="AN119" s="19"/>
       <c r="AO119" s="19"/>
-      <c r="AP119" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP119" s="19"/>
+      <c r="AQ119" s="19"/>
+      <c r="AR119" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -7835,11 +8204,13 @@
       <c r="AM120" s="19"/>
       <c r="AN120" s="19"/>
       <c r="AO120" s="19"/>
-      <c r="AP120" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP120" s="19"/>
+      <c r="AQ120" s="19"/>
+      <c r="AR120" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -7881,11 +8252,13 @@
       <c r="AM121" s="19"/>
       <c r="AN121" s="19"/>
       <c r="AO121" s="19"/>
-      <c r="AP121" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP121" s="19"/>
+      <c r="AQ121" s="19"/>
+      <c r="AR121" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -7927,11 +8300,13 @@
       <c r="AM122" s="19"/>
       <c r="AN122" s="19"/>
       <c r="AO122" s="19"/>
-      <c r="AP122" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP122" s="19"/>
+      <c r="AQ122" s="19"/>
+      <c r="AR122" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -7973,11 +8348,13 @@
       <c r="AM123" s="19"/>
       <c r="AN123" s="19"/>
       <c r="AO123" s="19"/>
-      <c r="AP123" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP123" s="19"/>
+      <c r="AQ123" s="19"/>
+      <c r="AR123" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -8019,11 +8396,13 @@
       <c r="AM124" s="19"/>
       <c r="AN124" s="19"/>
       <c r="AO124" s="19"/>
-      <c r="AP124" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP124" s="19"/>
+      <c r="AQ124" s="19"/>
+      <c r="AR124" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -8065,11 +8444,13 @@
       <c r="AM125" s="19"/>
       <c r="AN125" s="19"/>
       <c r="AO125" s="19"/>
-      <c r="AP125" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP125" s="19"/>
+      <c r="AQ125" s="19"/>
+      <c r="AR125" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -8111,11 +8492,13 @@
       <c r="AM126" s="19"/>
       <c r="AN126" s="19"/>
       <c r="AO126" s="19"/>
-      <c r="AP126" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP126" s="19"/>
+      <c r="AQ126" s="19"/>
+      <c r="AR126" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -8157,11 +8540,13 @@
       <c r="AM127" s="19"/>
       <c r="AN127" s="19"/>
       <c r="AO127" s="19"/>
-      <c r="AP127" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP127" s="19"/>
+      <c r="AQ127" s="19"/>
+      <c r="AR127" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -8203,11 +8588,13 @@
       <c r="AM128" s="19"/>
       <c r="AN128" s="19"/>
       <c r="AO128" s="19"/>
-      <c r="AP128" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP128" s="19"/>
+      <c r="AQ128" s="19"/>
+      <c r="AR128" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -8249,11 +8636,13 @@
       <c r="AM129" s="19"/>
       <c r="AN129" s="19"/>
       <c r="AO129" s="19"/>
-      <c r="AP129" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP129" s="19"/>
+      <c r="AQ129" s="19"/>
+      <c r="AR129" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -8295,11 +8684,13 @@
       <c r="AM130" s="19"/>
       <c r="AN130" s="19"/>
       <c r="AO130" s="19"/>
-      <c r="AP130" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP130" s="19"/>
+      <c r="AQ130" s="19"/>
+      <c r="AR130" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -8341,11 +8732,13 @@
       <c r="AM131" s="19"/>
       <c r="AN131" s="19"/>
       <c r="AO131" s="19"/>
-      <c r="AP131" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP131" s="19"/>
+      <c r="AQ131" s="19"/>
+      <c r="AR131" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -8387,11 +8780,13 @@
       <c r="AM132" s="19"/>
       <c r="AN132" s="19"/>
       <c r="AO132" s="19"/>
-      <c r="AP132" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP132" s="19"/>
+      <c r="AQ132" s="19"/>
+      <c r="AR132" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -8433,11 +8828,13 @@
       <c r="AM133" s="19"/>
       <c r="AN133" s="19"/>
       <c r="AO133" s="19"/>
-      <c r="AP133" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP133" s="19"/>
+      <c r="AQ133" s="19"/>
+      <c r="AR133" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -8479,11 +8876,13 @@
       <c r="AM134" s="19"/>
       <c r="AN134" s="19"/>
       <c r="AO134" s="19"/>
-      <c r="AP134" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP134" s="19"/>
+      <c r="AQ134" s="19"/>
+      <c r="AR134" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -8525,11 +8924,13 @@
       <c r="AM135" s="19"/>
       <c r="AN135" s="19"/>
       <c r="AO135" s="19"/>
-      <c r="AP135" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP135" s="19"/>
+      <c r="AQ135" s="19"/>
+      <c r="AR135" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -8571,11 +8972,13 @@
       <c r="AM136" s="19"/>
       <c r="AN136" s="19"/>
       <c r="AO136" s="19"/>
-      <c r="AP136" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP136" s="19"/>
+      <c r="AQ136" s="19"/>
+      <c r="AR136" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -8617,11 +9020,13 @@
       <c r="AM137" s="19"/>
       <c r="AN137" s="19"/>
       <c r="AO137" s="19"/>
-      <c r="AP137" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP137" s="19"/>
+      <c r="AQ137" s="19"/>
+      <c r="AR137" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -8663,11 +9068,13 @@
       <c r="AM138" s="19"/>
       <c r="AN138" s="19"/>
       <c r="AO138" s="19"/>
-      <c r="AP138" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP138" s="19"/>
+      <c r="AQ138" s="19"/>
+      <c r="AR138" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -8709,11 +9116,13 @@
       <c r="AM139" s="19"/>
       <c r="AN139" s="19"/>
       <c r="AO139" s="19"/>
-      <c r="AP139" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP139" s="19"/>
+      <c r="AQ139" s="19"/>
+      <c r="AR139" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -8755,11 +9164,13 @@
       <c r="AM140" s="19"/>
       <c r="AN140" s="19"/>
       <c r="AO140" s="19"/>
-      <c r="AP140" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP140" s="19"/>
+      <c r="AQ140" s="19"/>
+      <c r="AR140" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -8801,11 +9212,13 @@
       <c r="AM141" s="19"/>
       <c r="AN141" s="19"/>
       <c r="AO141" s="19"/>
-      <c r="AP141" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP141" s="19"/>
+      <c r="AQ141" s="19"/>
+      <c r="AR141" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -8847,11 +9260,13 @@
       <c r="AM142" s="19"/>
       <c r="AN142" s="19"/>
       <c r="AO142" s="19"/>
-      <c r="AP142" s="22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP142" s="19"/>
+      <c r="AQ142" s="19"/>
+      <c r="AR142" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -8893,11 +9308,13 @@
       <c r="AM143" s="19"/>
       <c r="AN143" s="19"/>
       <c r="AO143" s="19"/>
-      <c r="AP143" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP143" s="19"/>
+      <c r="AQ143" s="19"/>
+      <c r="AR143" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -8939,11 +9356,13 @@
       <c r="AM144" s="19"/>
       <c r="AN144" s="19"/>
       <c r="AO144" s="19"/>
-      <c r="AP144" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP144" s="19"/>
+      <c r="AQ144" s="19"/>
+      <c r="AR144" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -8985,11 +9404,13 @@
       <c r="AM145" s="19"/>
       <c r="AN145" s="19"/>
       <c r="AO145" s="19"/>
-      <c r="AP145" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP145" s="19"/>
+      <c r="AQ145" s="19"/>
+      <c r="AR145" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -9031,11 +9452,13 @@
       <c r="AM146" s="19"/>
       <c r="AN146" s="19"/>
       <c r="AO146" s="19"/>
-      <c r="AP146" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP146" s="19"/>
+      <c r="AQ146" s="19"/>
+      <c r="AR146" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -9077,11 +9500,13 @@
       <c r="AM147" s="19"/>
       <c r="AN147" s="19"/>
       <c r="AO147" s="19"/>
-      <c r="AP147" s="22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP147" s="19"/>
+      <c r="AQ147" s="19"/>
+      <c r="AR147" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -9123,11 +9548,13 @@
       <c r="AM148" s="19"/>
       <c r="AN148" s="19"/>
       <c r="AO148" s="19"/>
-      <c r="AP148" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP148" s="19"/>
+      <c r="AQ148" s="19"/>
+      <c r="AR148" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -9169,11 +9596,13 @@
       <c r="AM149" s="19"/>
       <c r="AN149" s="19"/>
       <c r="AO149" s="19"/>
-      <c r="AP149" s="22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP149" s="19"/>
+      <c r="AQ149" s="19"/>
+      <c r="AR149" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -9215,11 +9644,13 @@
       <c r="AM150" s="19"/>
       <c r="AN150" s="19"/>
       <c r="AO150" s="19"/>
-      <c r="AP150" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP150" s="19"/>
+      <c r="AQ150" s="19"/>
+      <c r="AR150" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -9261,11 +9692,13 @@
       <c r="AM151" s="19"/>
       <c r="AN151" s="19"/>
       <c r="AO151" s="19"/>
-      <c r="AP151" s="22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP151" s="19"/>
+      <c r="AQ151" s="19"/>
+      <c r="AR151" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -9307,11 +9740,13 @@
       <c r="AM152" s="19"/>
       <c r="AN152" s="19"/>
       <c r="AO152" s="19"/>
-      <c r="AP152" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP152" s="19"/>
+      <c r="AQ152" s="19"/>
+      <c r="AR152" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -9353,11 +9788,13 @@
       <c r="AM153" s="19"/>
       <c r="AN153" s="19"/>
       <c r="AO153" s="19"/>
-      <c r="AP153" s="22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP153" s="19"/>
+      <c r="AQ153" s="19"/>
+      <c r="AR153" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -9399,11 +9836,13 @@
       <c r="AM154" s="19"/>
       <c r="AN154" s="19"/>
       <c r="AO154" s="19"/>
-      <c r="AP154" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP154" s="19"/>
+      <c r="AQ154" s="19"/>
+      <c r="AR154" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -9445,11 +9884,13 @@
       <c r="AM155" s="19"/>
       <c r="AN155" s="19"/>
       <c r="AO155" s="19"/>
-      <c r="AP155" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP155" s="19"/>
+      <c r="AQ155" s="19"/>
+      <c r="AR155" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -9491,11 +9932,13 @@
       <c r="AM156" s="19"/>
       <c r="AN156" s="19"/>
       <c r="AO156" s="19"/>
-      <c r="AP156" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP156" s="19"/>
+      <c r="AQ156" s="19"/>
+      <c r="AR156" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -9537,11 +9980,13 @@
       <c r="AM157" s="19"/>
       <c r="AN157" s="19"/>
       <c r="AO157" s="19"/>
-      <c r="AP157" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP157" s="19"/>
+      <c r="AQ157" s="19"/>
+      <c r="AR157" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -9583,11 +10028,13 @@
       <c r="AM158" s="19"/>
       <c r="AN158" s="19"/>
       <c r="AO158" s="19"/>
-      <c r="AP158" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP158" s="19"/>
+      <c r="AQ158" s="19"/>
+      <c r="AR158" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -9629,11 +10076,13 @@
       <c r="AM159" s="19"/>
       <c r="AN159" s="19"/>
       <c r="AO159" s="19"/>
-      <c r="AP159" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP159" s="19"/>
+      <c r="AQ159" s="19"/>
+      <c r="AR159" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -9675,11 +10124,13 @@
       <c r="AM160" s="19"/>
       <c r="AN160" s="19"/>
       <c r="AO160" s="19"/>
-      <c r="AP160" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP160" s="19"/>
+      <c r="AQ160" s="19"/>
+      <c r="AR160" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -9721,11 +10172,13 @@
       <c r="AM161" s="19"/>
       <c r="AN161" s="19"/>
       <c r="AO161" s="19"/>
-      <c r="AP161" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP161" s="19"/>
+      <c r="AQ161" s="19"/>
+      <c r="AR161" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -9767,11 +10220,13 @@
       <c r="AM162" s="19"/>
       <c r="AN162" s="19"/>
       <c r="AO162" s="19"/>
-      <c r="AP162" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP162" s="19"/>
+      <c r="AQ162" s="19"/>
+      <c r="AR162" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -9813,11 +10268,13 @@
       <c r="AM163" s="19"/>
       <c r="AN163" s="19"/>
       <c r="AO163" s="19"/>
-      <c r="AP163" s="22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP163" s="19"/>
+      <c r="AQ163" s="19"/>
+      <c r="AR163" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -9859,11 +10316,13 @@
       <c r="AM164" s="19"/>
       <c r="AN164" s="19"/>
       <c r="AO164" s="19"/>
-      <c r="AP164" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP164" s="19"/>
+      <c r="AQ164" s="19"/>
+      <c r="AR164" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -9905,11 +10364,13 @@
       <c r="AM165" s="19"/>
       <c r="AN165" s="19"/>
       <c r="AO165" s="19"/>
-      <c r="AP165" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP165" s="19"/>
+      <c r="AQ165" s="19"/>
+      <c r="AR165" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -9951,11 +10412,13 @@
       <c r="AM166" s="19"/>
       <c r="AN166" s="19"/>
       <c r="AO166" s="19"/>
-      <c r="AP166" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP166" s="19"/>
+      <c r="AQ166" s="19"/>
+      <c r="AR166" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -9997,11 +10460,13 @@
       <c r="AM167" s="19"/>
       <c r="AN167" s="19"/>
       <c r="AO167" s="19"/>
-      <c r="AP167" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP167" s="19"/>
+      <c r="AQ167" s="19"/>
+      <c r="AR167" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -10043,11 +10508,13 @@
       <c r="AM168" s="19"/>
       <c r="AN168" s="19"/>
       <c r="AO168" s="19"/>
-      <c r="AP168" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP168" s="19"/>
+      <c r="AQ168" s="19"/>
+      <c r="AR168" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -10089,11 +10556,13 @@
       <c r="AM169" s="19"/>
       <c r="AN169" s="19"/>
       <c r="AO169" s="19"/>
-      <c r="AP169" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP169" s="19"/>
+      <c r="AQ169" s="19"/>
+      <c r="AR169" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -10135,11 +10604,13 @@
       <c r="AM170" s="19"/>
       <c r="AN170" s="19"/>
       <c r="AO170" s="19"/>
-      <c r="AP170" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP170" s="19"/>
+      <c r="AQ170" s="19"/>
+      <c r="AR170" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -10181,11 +10652,13 @@
       <c r="AM171" s="19"/>
       <c r="AN171" s="19"/>
       <c r="AO171" s="19"/>
-      <c r="AP171" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP171" s="19"/>
+      <c r="AQ171" s="19"/>
+      <c r="AR171" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -10227,11 +10700,13 @@
       <c r="AM172" s="19"/>
       <c r="AN172" s="19"/>
       <c r="AO172" s="19"/>
-      <c r="AP172" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP172" s="19"/>
+      <c r="AQ172" s="19"/>
+      <c r="AR172" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -10273,11 +10748,13 @@
       <c r="AM173" s="19"/>
       <c r="AN173" s="19"/>
       <c r="AO173" s="19"/>
-      <c r="AP173" s="22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP173" s="19"/>
+      <c r="AQ173" s="19"/>
+      <c r="AR173" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -10319,11 +10796,13 @@
       <c r="AM174" s="19"/>
       <c r="AN174" s="19"/>
       <c r="AO174" s="19"/>
-      <c r="AP174" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP174" s="19"/>
+      <c r="AQ174" s="19"/>
+      <c r="AR174" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -10365,11 +10844,13 @@
       <c r="AM175" s="19"/>
       <c r="AN175" s="19"/>
       <c r="AO175" s="19"/>
-      <c r="AP175" s="22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP175" s="19"/>
+      <c r="AQ175" s="19"/>
+      <c r="AR175" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -10411,11 +10892,13 @@
       <c r="AM176" s="19"/>
       <c r="AN176" s="19"/>
       <c r="AO176" s="19"/>
-      <c r="AP176" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP176" s="19"/>
+      <c r="AQ176" s="19"/>
+      <c r="AR176" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -10457,11 +10940,13 @@
       <c r="AM177" s="19"/>
       <c r="AN177" s="19"/>
       <c r="AO177" s="19"/>
-      <c r="AP177" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP177" s="19"/>
+      <c r="AQ177" s="19"/>
+      <c r="AR177" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -10503,11 +10988,13 @@
       <c r="AM178" s="19"/>
       <c r="AN178" s="19"/>
       <c r="AO178" s="19"/>
-      <c r="AP178" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP178" s="19"/>
+      <c r="AQ178" s="19"/>
+      <c r="AR178" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -10549,11 +11036,13 @@
       <c r="AM179" s="19"/>
       <c r="AN179" s="19"/>
       <c r="AO179" s="19"/>
-      <c r="AP179" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP179" s="19"/>
+      <c r="AQ179" s="19"/>
+      <c r="AR179" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -10595,11 +11084,13 @@
       <c r="AM180" s="19"/>
       <c r="AN180" s="19"/>
       <c r="AO180" s="19"/>
-      <c r="AP180" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP180" s="19"/>
+      <c r="AQ180" s="19"/>
+      <c r="AR180" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -10641,11 +11132,13 @@
       <c r="AM181" s="19"/>
       <c r="AN181" s="19"/>
       <c r="AO181" s="19"/>
-      <c r="AP181" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP181" s="19"/>
+      <c r="AQ181" s="19"/>
+      <c r="AR181" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -10687,11 +11180,13 @@
       <c r="AM182" s="19"/>
       <c r="AN182" s="19"/>
       <c r="AO182" s="19"/>
-      <c r="AP182" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP182" s="19"/>
+      <c r="AQ182" s="19"/>
+      <c r="AR182" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -10733,11 +11228,13 @@
       <c r="AM183" s="19"/>
       <c r="AN183" s="19"/>
       <c r="AO183" s="19"/>
-      <c r="AP183" s="22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP183" s="19"/>
+      <c r="AQ183" s="19"/>
+      <c r="AR183" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -10779,11 +11276,13 @@
       <c r="AM184" s="19"/>
       <c r="AN184" s="19"/>
       <c r="AO184" s="19"/>
-      <c r="AP184" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP184" s="19"/>
+      <c r="AQ184" s="19"/>
+      <c r="AR184" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="185" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -10825,11 +11324,13 @@
       <c r="AM185" s="19"/>
       <c r="AN185" s="19"/>
       <c r="AO185" s="19"/>
-      <c r="AP185" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP185" s="19"/>
+      <c r="AQ185" s="19"/>
+      <c r="AR185" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="186" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -10871,11 +11372,13 @@
       <c r="AM186" s="19"/>
       <c r="AN186" s="19"/>
       <c r="AO186" s="19"/>
-      <c r="AP186" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP186" s="19"/>
+      <c r="AQ186" s="19"/>
+      <c r="AR186" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="187" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -10917,11 +11420,13 @@
       <c r="AM187" s="19"/>
       <c r="AN187" s="19"/>
       <c r="AO187" s="19"/>
-      <c r="AP187" s="22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP187" s="19"/>
+      <c r="AQ187" s="19"/>
+      <c r="AR187" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -10963,11 +11468,13 @@
       <c r="AM188" s="19"/>
       <c r="AN188" s="19"/>
       <c r="AO188" s="19"/>
-      <c r="AP188" s="22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP188" s="19"/>
+      <c r="AQ188" s="19"/>
+      <c r="AR188" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -11009,11 +11516,13 @@
       <c r="AM189" s="19"/>
       <c r="AN189" s="19"/>
       <c r="AO189" s="19"/>
-      <c r="AP189" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP189" s="19"/>
+      <c r="AQ189" s="19"/>
+      <c r="AR189" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -11055,11 +11564,13 @@
       <c r="AM190" s="19"/>
       <c r="AN190" s="19"/>
       <c r="AO190" s="19"/>
-      <c r="AP190" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP190" s="19"/>
+      <c r="AQ190" s="19"/>
+      <c r="AR190" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="191" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -11101,11 +11612,13 @@
       <c r="AM191" s="19"/>
       <c r="AN191" s="19"/>
       <c r="AO191" s="19"/>
-      <c r="AP191" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP191" s="19"/>
+      <c r="AQ191" s="19"/>
+      <c r="AR191" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -11147,11 +11660,13 @@
       <c r="AM192" s="19"/>
       <c r="AN192" s="19"/>
       <c r="AO192" s="19"/>
-      <c r="AP192" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP192" s="19"/>
+      <c r="AQ192" s="19"/>
+      <c r="AR192" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="193" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -11193,11 +11708,13 @@
       <c r="AM193" s="19"/>
       <c r="AN193" s="19"/>
       <c r="AO193" s="19"/>
-      <c r="AP193" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP193" s="19"/>
+      <c r="AQ193" s="19"/>
+      <c r="AR193" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -11239,11 +11756,13 @@
       <c r="AM194" s="19"/>
       <c r="AN194" s="19"/>
       <c r="AO194" s="19"/>
-      <c r="AP194" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP194" s="19"/>
+      <c r="AQ194" s="19"/>
+      <c r="AR194" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="195" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -11285,11 +11804,13 @@
       <c r="AM195" s="19"/>
       <c r="AN195" s="19"/>
       <c r="AO195" s="19"/>
-      <c r="AP195" s="22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP195" s="19"/>
+      <c r="AQ195" s="19"/>
+      <c r="AR195" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -11331,11 +11852,13 @@
       <c r="AM196" s="19"/>
       <c r="AN196" s="19"/>
       <c r="AO196" s="19"/>
-      <c r="AP196" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP196" s="19"/>
+      <c r="AQ196" s="19"/>
+      <c r="AR196" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="197" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -11377,11 +11900,13 @@
       <c r="AM197" s="19"/>
       <c r="AN197" s="19"/>
       <c r="AO197" s="19"/>
-      <c r="AP197" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP197" s="19"/>
+      <c r="AQ197" s="19"/>
+      <c r="AR197" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="198" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -11423,11 +11948,13 @@
       <c r="AM198" s="19"/>
       <c r="AN198" s="19"/>
       <c r="AO198" s="19"/>
-      <c r="AP198" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP198" s="19"/>
+      <c r="AQ198" s="19"/>
+      <c r="AR198" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="199" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -11469,11 +11996,13 @@
       <c r="AM199" s="19"/>
       <c r="AN199" s="19"/>
       <c r="AO199" s="19"/>
-      <c r="AP199" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP199" s="19"/>
+      <c r="AQ199" s="19"/>
+      <c r="AR199" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -11515,11 +12044,13 @@
       <c r="AM200" s="19"/>
       <c r="AN200" s="19"/>
       <c r="AO200" s="19"/>
-      <c r="AP200" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP200" s="19"/>
+      <c r="AQ200" s="19"/>
+      <c r="AR200" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -11561,11 +12092,13 @@
       <c r="AM201" s="19"/>
       <c r="AN201" s="19"/>
       <c r="AO201" s="19"/>
-      <c r="AP201" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP201" s="19"/>
+      <c r="AQ201" s="19"/>
+      <c r="AR201" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="202" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -11607,11 +12140,13 @@
       <c r="AM202" s="19"/>
       <c r="AN202" s="19"/>
       <c r="AO202" s="19"/>
-      <c r="AP202" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="203" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP202" s="19"/>
+      <c r="AQ202" s="19"/>
+      <c r="AR202" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="203" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -11653,11 +12188,13 @@
       <c r="AM203" s="19"/>
       <c r="AN203" s="19"/>
       <c r="AO203" s="19"/>
-      <c r="AP203" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="204" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP203" s="19"/>
+      <c r="AQ203" s="19"/>
+      <c r="AR203" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="204" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -11699,11 +12236,13 @@
       <c r="AM204" s="19"/>
       <c r="AN204" s="19"/>
       <c r="AO204" s="19"/>
-      <c r="AP204" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP204" s="19"/>
+      <c r="AQ204" s="19"/>
+      <c r="AR204" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -11745,11 +12284,13 @@
       <c r="AM205" s="19"/>
       <c r="AN205" s="19"/>
       <c r="AO205" s="19"/>
-      <c r="AP205" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="206" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP205" s="19"/>
+      <c r="AQ205" s="19"/>
+      <c r="AR205" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="206" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -11791,11 +12332,13 @@
       <c r="AM206" s="19"/>
       <c r="AN206" s="19"/>
       <c r="AO206" s="19"/>
-      <c r="AP206" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="207" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP206" s="19"/>
+      <c r="AQ206" s="19"/>
+      <c r="AR206" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="207" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -11837,11 +12380,13 @@
       <c r="AM207" s="19"/>
       <c r="AN207" s="19"/>
       <c r="AO207" s="19"/>
-      <c r="AP207" s="22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="208" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP207" s="19"/>
+      <c r="AQ207" s="19"/>
+      <c r="AR207" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="208" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -11883,11 +12428,13 @@
       <c r="AM208" s="19"/>
       <c r="AN208" s="19"/>
       <c r="AO208" s="19"/>
-      <c r="AP208" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="209" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP208" s="19"/>
+      <c r="AQ208" s="19"/>
+      <c r="AR208" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
@@ -11929,11 +12476,13 @@
       <c r="AM209" s="19"/>
       <c r="AN209" s="19"/>
       <c r="AO209" s="19"/>
-      <c r="AP209" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP209" s="19"/>
+      <c r="AQ209" s="19"/>
+      <c r="AR209" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="210" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
@@ -11975,11 +12524,13 @@
       <c r="AM210" s="19"/>
       <c r="AN210" s="19"/>
       <c r="AO210" s="19"/>
-      <c r="AP210" s="22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP210" s="19"/>
+      <c r="AQ210" s="19"/>
+      <c r="AR210" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="211" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -12021,11 +12572,13 @@
       <c r="AM211" s="19"/>
       <c r="AN211" s="19"/>
       <c r="AO211" s="19"/>
-      <c r="AP211" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="212" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP211" s="19"/>
+      <c r="AQ211" s="19"/>
+      <c r="AR211" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -12067,11 +12620,13 @@
       <c r="AM212" s="19"/>
       <c r="AN212" s="19"/>
       <c r="AO212" s="19"/>
-      <c r="AP212" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="213" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP212" s="19"/>
+      <c r="AQ212" s="19"/>
+      <c r="AR212" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
@@ -12113,11 +12668,13 @@
       <c r="AM213" s="19"/>
       <c r="AN213" s="19"/>
       <c r="AO213" s="19"/>
-      <c r="AP213" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="214" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP213" s="19"/>
+      <c r="AQ213" s="19"/>
+      <c r="AR213" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="214" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
@@ -12159,11 +12716,13 @@
       <c r="AM214" s="19"/>
       <c r="AN214" s="19"/>
       <c r="AO214" s="19"/>
-      <c r="AP214" s="22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="215" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP214" s="19"/>
+      <c r="AQ214" s="19"/>
+      <c r="AR214" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="215" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -12205,11 +12764,13 @@
       <c r="AM215" s="19"/>
       <c r="AN215" s="19"/>
       <c r="AO215" s="19"/>
-      <c r="AP215" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="216" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP215" s="19"/>
+      <c r="AQ215" s="19"/>
+      <c r="AR215" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="216" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
@@ -12251,11 +12812,13 @@
       <c r="AM216" s="19"/>
       <c r="AN216" s="19"/>
       <c r="AO216" s="19"/>
-      <c r="AP216" s="22" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP216" s="19"/>
+      <c r="AQ216" s="19"/>
+      <c r="AR216" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="217" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -12297,11 +12860,13 @@
       <c r="AM217" s="19"/>
       <c r="AN217" s="19"/>
       <c r="AO217" s="19"/>
-      <c r="AP217" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="218" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP217" s="19"/>
+      <c r="AQ217" s="19"/>
+      <c r="AR217" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="218" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
@@ -12343,11 +12908,13 @@
       <c r="AM218" s="19"/>
       <c r="AN218" s="19"/>
       <c r="AO218" s="19"/>
-      <c r="AP218" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="219" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP218" s="19"/>
+      <c r="AQ218" s="19"/>
+      <c r="AR218" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -12389,11 +12956,13 @@
       <c r="AM219" s="19"/>
       <c r="AN219" s="19"/>
       <c r="AO219" s="19"/>
-      <c r="AP219" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="220" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP219" s="19"/>
+      <c r="AQ219" s="19"/>
+      <c r="AR219" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="220" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -12435,11 +13004,13 @@
       <c r="AM220" s="19"/>
       <c r="AN220" s="19"/>
       <c r="AO220" s="19"/>
-      <c r="AP220" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP220" s="19"/>
+      <c r="AQ220" s="19"/>
+      <c r="AR220" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -12481,11 +13052,13 @@
       <c r="AM221" s="19"/>
       <c r="AN221" s="19"/>
       <c r="AO221" s="19"/>
-      <c r="AP221" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="222" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP221" s="19"/>
+      <c r="AQ221" s="19"/>
+      <c r="AR221" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="222" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -12527,11 +13100,13 @@
       <c r="AM222" s="19"/>
       <c r="AN222" s="19"/>
       <c r="AO222" s="19"/>
-      <c r="AP222" s="22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="223" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP222" s="19"/>
+      <c r="AQ222" s="19"/>
+      <c r="AR222" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="223" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -12573,11 +13148,13 @@
       <c r="AM223" s="19"/>
       <c r="AN223" s="19"/>
       <c r="AO223" s="19"/>
-      <c r="AP223" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="224" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP223" s="19"/>
+      <c r="AQ223" s="19"/>
+      <c r="AR223" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="224" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -12619,11 +13196,13 @@
       <c r="AM224" s="19"/>
       <c r="AN224" s="19"/>
       <c r="AO224" s="19"/>
-      <c r="AP224" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="225" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP224" s="19"/>
+      <c r="AQ224" s="19"/>
+      <c r="AR224" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -12665,11 +13244,13 @@
       <c r="AM225" s="19"/>
       <c r="AN225" s="19"/>
       <c r="AO225" s="19"/>
-      <c r="AP225" s="22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="226" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP225" s="19"/>
+      <c r="AQ225" s="19"/>
+      <c r="AR225" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -12711,11 +13292,13 @@
       <c r="AM226" s="19"/>
       <c r="AN226" s="19"/>
       <c r="AO226" s="19"/>
-      <c r="AP226" s="22" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="227" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP226" s="19"/>
+      <c r="AQ226" s="19"/>
+      <c r="AR226" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="227" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -12757,11 +13340,13 @@
       <c r="AM227" s="19"/>
       <c r="AN227" s="19"/>
       <c r="AO227" s="19"/>
-      <c r="AP227" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="228" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP227" s="19"/>
+      <c r="AQ227" s="19"/>
+      <c r="AR227" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="228" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -12803,11 +13388,13 @@
       <c r="AM228" s="19"/>
       <c r="AN228" s="19"/>
       <c r="AO228" s="19"/>
-      <c r="AP228" s="22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="229" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP228" s="19"/>
+      <c r="AQ228" s="19"/>
+      <c r="AR228" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="229" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -12849,11 +13436,13 @@
       <c r="AM229" s="19"/>
       <c r="AN229" s="19"/>
       <c r="AO229" s="19"/>
-      <c r="AP229" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="230" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP229" s="19"/>
+      <c r="AQ229" s="19"/>
+      <c r="AR229" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="230" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -12895,11 +13484,13 @@
       <c r="AM230" s="19"/>
       <c r="AN230" s="19"/>
       <c r="AO230" s="19"/>
-      <c r="AP230" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="231" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP230" s="19"/>
+      <c r="AQ230" s="19"/>
+      <c r="AR230" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="231" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -12941,11 +13532,13 @@
       <c r="AM231" s="19"/>
       <c r="AN231" s="19"/>
       <c r="AO231" s="19"/>
-      <c r="AP231" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="232" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP231" s="19"/>
+      <c r="AQ231" s="19"/>
+      <c r="AR231" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="232" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -12987,11 +13580,13 @@
       <c r="AM232" s="19"/>
       <c r="AN232" s="19"/>
       <c r="AO232" s="19"/>
-      <c r="AP232" s="22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="233" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP232" s="19"/>
+      <c r="AQ232" s="19"/>
+      <c r="AR232" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="233" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -13033,11 +13628,13 @@
       <c r="AM233" s="19"/>
       <c r="AN233" s="19"/>
       <c r="AO233" s="19"/>
-      <c r="AP233" s="22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="234" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP233" s="19"/>
+      <c r="AQ233" s="19"/>
+      <c r="AR233" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="234" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -13079,11 +13676,13 @@
       <c r="AM234" s="19"/>
       <c r="AN234" s="19"/>
       <c r="AO234" s="19"/>
-      <c r="AP234" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="235" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP234" s="19"/>
+      <c r="AQ234" s="19"/>
+      <c r="AR234" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="235" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -13125,11 +13724,13 @@
       <c r="AM235" s="19"/>
       <c r="AN235" s="19"/>
       <c r="AO235" s="19"/>
-      <c r="AP235" s="22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="236" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP235" s="19"/>
+      <c r="AQ235" s="19"/>
+      <c r="AR235" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="236" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -13171,11 +13772,13 @@
       <c r="AM236" s="19"/>
       <c r="AN236" s="19"/>
       <c r="AO236" s="19"/>
-      <c r="AP236" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="237" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP236" s="19"/>
+      <c r="AQ236" s="19"/>
+      <c r="AR236" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -13217,11 +13820,13 @@
       <c r="AM237" s="19"/>
       <c r="AN237" s="19"/>
       <c r="AO237" s="19"/>
-      <c r="AP237" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="238" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP237" s="19"/>
+      <c r="AQ237" s="19"/>
+      <c r="AR237" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="238" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
@@ -13263,11 +13868,13 @@
       <c r="AM238" s="19"/>
       <c r="AN238" s="19"/>
       <c r="AO238" s="19"/>
-      <c r="AP238" s="22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="239" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP238" s="19"/>
+      <c r="AQ238" s="19"/>
+      <c r="AR238" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="239" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -13309,11 +13916,13 @@
       <c r="AM239" s="19"/>
       <c r="AN239" s="19"/>
       <c r="AO239" s="19"/>
-      <c r="AP239" s="22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="240" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP239" s="19"/>
+      <c r="AQ239" s="19"/>
+      <c r="AR239" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="240" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -13355,11 +13964,13 @@
       <c r="AM240" s="19"/>
       <c r="AN240" s="19"/>
       <c r="AO240" s="19"/>
-      <c r="AP240" s="22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="241" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP240" s="19"/>
+      <c r="AQ240" s="19"/>
+      <c r="AR240" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="241" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -13401,11 +14012,13 @@
       <c r="AM241" s="19"/>
       <c r="AN241" s="19"/>
       <c r="AO241" s="19"/>
-      <c r="AP241" s="22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="242" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP241" s="19"/>
+      <c r="AQ241" s="19"/>
+      <c r="AR241" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="242" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -13447,11 +14060,13 @@
       <c r="AM242" s="19"/>
       <c r="AN242" s="19"/>
       <c r="AO242" s="19"/>
-      <c r="AP242" s="22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="243" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP242" s="19"/>
+      <c r="AQ242" s="19"/>
+      <c r="AR242" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="243" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -13493,11 +14108,13 @@
       <c r="AM243" s="19"/>
       <c r="AN243" s="19"/>
       <c r="AO243" s="19"/>
-      <c r="AP243" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="244" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP243" s="19"/>
+      <c r="AQ243" s="19"/>
+      <c r="AR243" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="244" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -13539,11 +14156,13 @@
       <c r="AM244" s="19"/>
       <c r="AN244" s="19"/>
       <c r="AO244" s="19"/>
-      <c r="AP244" s="22" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="245" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP244" s="19"/>
+      <c r="AQ244" s="19"/>
+      <c r="AR244" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="245" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -13585,11 +14204,13 @@
       <c r="AM245" s="19"/>
       <c r="AN245" s="19"/>
       <c r="AO245" s="19"/>
-      <c r="AP245" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="246" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP245" s="19"/>
+      <c r="AQ245" s="19"/>
+      <c r="AR245" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="246" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -13631,11 +14252,13 @@
       <c r="AM246" s="19"/>
       <c r="AN246" s="19"/>
       <c r="AO246" s="19"/>
-      <c r="AP246" s="22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="247" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP246" s="19"/>
+      <c r="AQ246" s="19"/>
+      <c r="AR246" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="247" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -13677,11 +14300,13 @@
       <c r="AM247" s="19"/>
       <c r="AN247" s="19"/>
       <c r="AO247" s="19"/>
-      <c r="AP247" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="248" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP247" s="19"/>
+      <c r="AQ247" s="19"/>
+      <c r="AR247" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="248" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -13723,11 +14348,13 @@
       <c r="AM248" s="19"/>
       <c r="AN248" s="19"/>
       <c r="AO248" s="19"/>
-      <c r="AP248" s="22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="249" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP248" s="19"/>
+      <c r="AQ248" s="19"/>
+      <c r="AR248" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="249" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -13769,11 +14396,13 @@
       <c r="AM249" s="19"/>
       <c r="AN249" s="19"/>
       <c r="AO249" s="19"/>
-      <c r="AP249" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="250" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP249" s="19"/>
+      <c r="AQ249" s="19"/>
+      <c r="AR249" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="250" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -13815,11 +14444,13 @@
       <c r="AM250" s="19"/>
       <c r="AN250" s="19"/>
       <c r="AO250" s="19"/>
-      <c r="AP250" s="22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="251" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP250" s="19"/>
+      <c r="AQ250" s="19"/>
+      <c r="AR250" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="251" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -13861,11 +14492,13 @@
       <c r="AM251" s="19"/>
       <c r="AN251" s="19"/>
       <c r="AO251" s="19"/>
-      <c r="AP251" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="252" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP251" s="19"/>
+      <c r="AQ251" s="19"/>
+      <c r="AR251" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="252" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -13907,11 +14540,13 @@
       <c r="AM252" s="19"/>
       <c r="AN252" s="19"/>
       <c r="AO252" s="19"/>
-      <c r="AP252" s="22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="253" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP252" s="19"/>
+      <c r="AQ252" s="19"/>
+      <c r="AR252" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="253" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -13953,11 +14588,13 @@
       <c r="AM253" s="19"/>
       <c r="AN253" s="19"/>
       <c r="AO253" s="19"/>
-      <c r="AP253" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="254" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP253" s="19"/>
+      <c r="AQ253" s="19"/>
+      <c r="AR253" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="254" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -13999,11 +14636,13 @@
       <c r="AM254" s="19"/>
       <c r="AN254" s="19"/>
       <c r="AO254" s="19"/>
-      <c r="AP254" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="255" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP254" s="19"/>
+      <c r="AQ254" s="19"/>
+      <c r="AR254" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="255" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -14045,11 +14684,13 @@
       <c r="AM255" s="19"/>
       <c r="AN255" s="19"/>
       <c r="AO255" s="19"/>
-      <c r="AP255" s="22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="256" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP255" s="19"/>
+      <c r="AQ255" s="19"/>
+      <c r="AR255" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="256" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -14091,11 +14732,13 @@
       <c r="AM256" s="19"/>
       <c r="AN256" s="19"/>
       <c r="AO256" s="19"/>
-      <c r="AP256" s="22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="257" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP256" s="19"/>
+      <c r="AQ256" s="19"/>
+      <c r="AR256" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="257" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -14137,11 +14780,13 @@
       <c r="AM257" s="19"/>
       <c r="AN257" s="19"/>
       <c r="AO257" s="19"/>
-      <c r="AP257" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="258" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP257" s="19"/>
+      <c r="AQ257" s="19"/>
+      <c r="AR257" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="258" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -14183,11 +14828,13 @@
       <c r="AM258" s="19"/>
       <c r="AN258" s="19"/>
       <c r="AO258" s="19"/>
-      <c r="AP258" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="259" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP258" s="19"/>
+      <c r="AQ258" s="19"/>
+      <c r="AR258" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="259" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -14229,11 +14876,13 @@
       <c r="AM259" s="19"/>
       <c r="AN259" s="19"/>
       <c r="AO259" s="19"/>
-      <c r="AP259" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="260" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP259" s="19"/>
+      <c r="AQ259" s="19"/>
+      <c r="AR259" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="260" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
@@ -14275,11 +14924,13 @@
       <c r="AM260" s="19"/>
       <c r="AN260" s="19"/>
       <c r="AO260" s="19"/>
-      <c r="AP260" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="261" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP260" s="19"/>
+      <c r="AQ260" s="19"/>
+      <c r="AR260" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="261" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -14321,11 +14972,13 @@
       <c r="AM261" s="19"/>
       <c r="AN261" s="19"/>
       <c r="AO261" s="19"/>
-      <c r="AP261" s="22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="262" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP261" s="19"/>
+      <c r="AQ261" s="19"/>
+      <c r="AR261" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="262" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -14367,11 +15020,13 @@
       <c r="AM262" s="19"/>
       <c r="AN262" s="19"/>
       <c r="AO262" s="19"/>
-      <c r="AP262" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="263" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP262" s="19"/>
+      <c r="AQ262" s="19"/>
+      <c r="AR262" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="263" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -14413,11 +15068,13 @@
       <c r="AM263" s="19"/>
       <c r="AN263" s="19"/>
       <c r="AO263" s="19"/>
-      <c r="AP263" s="22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="264" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP263" s="19"/>
+      <c r="AQ263" s="19"/>
+      <c r="AR263" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="264" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
@@ -14459,11 +15116,13 @@
       <c r="AM264" s="19"/>
       <c r="AN264" s="19"/>
       <c r="AO264" s="19"/>
-      <c r="AP264" s="22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="265" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP264" s="19"/>
+      <c r="AQ264" s="19"/>
+      <c r="AR264" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="265" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
@@ -14505,11 +15164,13 @@
       <c r="AM265" s="19"/>
       <c r="AN265" s="19"/>
       <c r="AO265" s="19"/>
-      <c r="AP265" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="266" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP265" s="19"/>
+      <c r="AQ265" s="19"/>
+      <c r="AR265" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="266" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
@@ -14551,11 +15212,13 @@
       <c r="AM266" s="19"/>
       <c r="AN266" s="19"/>
       <c r="AO266" s="19"/>
-      <c r="AP266" s="22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="267" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP266" s="19"/>
+      <c r="AQ266" s="19"/>
+      <c r="AR266" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="267" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -14597,11 +15260,13 @@
       <c r="AM267" s="19"/>
       <c r="AN267" s="19"/>
       <c r="AO267" s="19"/>
-      <c r="AP267" s="22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="268" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP267" s="19"/>
+      <c r="AQ267" s="19"/>
+      <c r="AR267" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="268" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -14643,11 +15308,13 @@
       <c r="AM268" s="19"/>
       <c r="AN268" s="19"/>
       <c r="AO268" s="19"/>
-      <c r="AP268" s="22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="269" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP268" s="19"/>
+      <c r="AQ268" s="19"/>
+      <c r="AR268" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="269" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -14689,11 +15356,13 @@
       <c r="AM269" s="19"/>
       <c r="AN269" s="19"/>
       <c r="AO269" s="19"/>
-      <c r="AP269" s="22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="270" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP269" s="19"/>
+      <c r="AQ269" s="19"/>
+      <c r="AR269" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="270" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -14735,11 +15404,13 @@
       <c r="AM270" s="19"/>
       <c r="AN270" s="19"/>
       <c r="AO270" s="19"/>
-      <c r="AP270" s="22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="271" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP270" s="19"/>
+      <c r="AQ270" s="19"/>
+      <c r="AR270" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="271" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
@@ -14781,11 +15452,13 @@
       <c r="AM271" s="19"/>
       <c r="AN271" s="19"/>
       <c r="AO271" s="19"/>
-      <c r="AP271" s="22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="272" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP271" s="19"/>
+      <c r="AQ271" s="19"/>
+      <c r="AR271" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="272" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
@@ -14827,11 +15500,13 @@
       <c r="AM272" s="19"/>
       <c r="AN272" s="19"/>
       <c r="AO272" s="19"/>
-      <c r="AP272" s="22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="273" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP272" s="19"/>
+      <c r="AQ272" s="19"/>
+      <c r="AR272" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="273" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -14873,11 +15548,13 @@
       <c r="AM273" s="19"/>
       <c r="AN273" s="19"/>
       <c r="AO273" s="19"/>
-      <c r="AP273" s="22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="274" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP273" s="19"/>
+      <c r="AQ273" s="19"/>
+      <c r="AR273" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="274" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -14919,11 +15596,13 @@
       <c r="AM274" s="19"/>
       <c r="AN274" s="19"/>
       <c r="AO274" s="19"/>
-      <c r="AP274" s="22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="275" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP274" s="19"/>
+      <c r="AQ274" s="19"/>
+      <c r="AR274" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="275" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -14965,11 +15644,13 @@
       <c r="AM275" s="19"/>
       <c r="AN275" s="19"/>
       <c r="AO275" s="19"/>
-      <c r="AP275" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="276" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP275" s="19"/>
+      <c r="AQ275" s="19"/>
+      <c r="AR275" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="276" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -15011,11 +15692,13 @@
       <c r="AM276" s="19"/>
       <c r="AN276" s="19"/>
       <c r="AO276" s="19"/>
-      <c r="AP276" s="22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="277" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP276" s="19"/>
+      <c r="AQ276" s="19"/>
+      <c r="AR276" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="277" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
@@ -15057,11 +15740,13 @@
       <c r="AM277" s="19"/>
       <c r="AN277" s="19"/>
       <c r="AO277" s="19"/>
-      <c r="AP277" s="22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="278" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP277" s="19"/>
+      <c r="AQ277" s="19"/>
+      <c r="AR277" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="278" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -15103,11 +15788,13 @@
       <c r="AM278" s="19"/>
       <c r="AN278" s="19"/>
       <c r="AO278" s="19"/>
-      <c r="AP278" s="22" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="279" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP278" s="19"/>
+      <c r="AQ278" s="19"/>
+      <c r="AR278" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="279" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
@@ -15149,11 +15836,13 @@
       <c r="AM279" s="19"/>
       <c r="AN279" s="19"/>
       <c r="AO279" s="19"/>
-      <c r="AP279" s="22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="280" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP279" s="19"/>
+      <c r="AQ279" s="19"/>
+      <c r="AR279" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="280" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
@@ -15195,11 +15884,13 @@
       <c r="AM280" s="19"/>
       <c r="AN280" s="19"/>
       <c r="AO280" s="19"/>
-      <c r="AP280" s="22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="281" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP280" s="19"/>
+      <c r="AQ280" s="19"/>
+      <c r="AR280" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="281" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -15241,11 +15932,13 @@
       <c r="AM281" s="19"/>
       <c r="AN281" s="19"/>
       <c r="AO281" s="19"/>
-      <c r="AP281" s="22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="282" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP281" s="19"/>
+      <c r="AQ281" s="19"/>
+      <c r="AR281" s="22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="282" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
@@ -15287,11 +15980,13 @@
       <c r="AM282" s="19"/>
       <c r="AN282" s="19"/>
       <c r="AO282" s="19"/>
-      <c r="AP282" s="22" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="283" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP282" s="19"/>
+      <c r="AQ282" s="19"/>
+      <c r="AR282" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="283" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
@@ -15333,11 +16028,13 @@
       <c r="AM283" s="19"/>
       <c r="AN283" s="19"/>
       <c r="AO283" s="19"/>
-      <c r="AP283" s="22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="284" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP283" s="19"/>
+      <c r="AQ283" s="19"/>
+      <c r="AR283" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="284" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -15379,11 +16076,13 @@
       <c r="AM284" s="19"/>
       <c r="AN284" s="19"/>
       <c r="AO284" s="19"/>
-      <c r="AP284" s="22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="285" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP284" s="19"/>
+      <c r="AQ284" s="19"/>
+      <c r="AR284" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="285" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -15425,11 +16124,13 @@
       <c r="AM285" s="19"/>
       <c r="AN285" s="19"/>
       <c r="AO285" s="19"/>
-      <c r="AP285" s="22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="286" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP285" s="19"/>
+      <c r="AQ285" s="19"/>
+      <c r="AR285" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="286" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
@@ -15471,11 +16172,13 @@
       <c r="AM286" s="19"/>
       <c r="AN286" s="19"/>
       <c r="AO286" s="19"/>
-      <c r="AP286" s="22" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="287" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP286" s="19"/>
+      <c r="AQ286" s="19"/>
+      <c r="AR286" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="287" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -15517,11 +16220,13 @@
       <c r="AM287" s="19"/>
       <c r="AN287" s="19"/>
       <c r="AO287" s="19"/>
-      <c r="AP287" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="288" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP287" s="19"/>
+      <c r="AQ287" s="19"/>
+      <c r="AR287" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="288" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
@@ -15563,11 +16268,13 @@
       <c r="AM288" s="19"/>
       <c r="AN288" s="19"/>
       <c r="AO288" s="19"/>
-      <c r="AP288" s="22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="289" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP288" s="19"/>
+      <c r="AQ288" s="19"/>
+      <c r="AR288" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
@@ -15609,11 +16316,13 @@
       <c r="AM289" s="19"/>
       <c r="AN289" s="19"/>
       <c r="AO289" s="19"/>
-      <c r="AP289" s="22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="290" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP289" s="19"/>
+      <c r="AQ289" s="19"/>
+      <c r="AR289" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -15655,11 +16364,13 @@
       <c r="AM290" s="19"/>
       <c r="AN290" s="19"/>
       <c r="AO290" s="19"/>
-      <c r="AP290" s="22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="291" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP290" s="19"/>
+      <c r="AQ290" s="19"/>
+      <c r="AR290" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
@@ -15701,11 +16412,13 @@
       <c r="AM291" s="19"/>
       <c r="AN291" s="19"/>
       <c r="AO291" s="19"/>
-      <c r="AP291" s="22" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="292" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP291" s="19"/>
+      <c r="AQ291" s="19"/>
+      <c r="AR291" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -15747,11 +16460,13 @@
       <c r="AM292" s="19"/>
       <c r="AN292" s="19"/>
       <c r="AO292" s="19"/>
-      <c r="AP292" s="22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="293" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP292" s="19"/>
+      <c r="AQ292" s="19"/>
+      <c r="AR292" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -15793,11 +16508,13 @@
       <c r="AM293" s="19"/>
       <c r="AN293" s="19"/>
       <c r="AO293" s="19"/>
-      <c r="AP293" s="22" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="294" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP293" s="19"/>
+      <c r="AQ293" s="19"/>
+      <c r="AR293" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -15839,11 +16556,13 @@
       <c r="AM294" s="19"/>
       <c r="AN294" s="19"/>
       <c r="AO294" s="19"/>
-      <c r="AP294" s="22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="295" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP294" s="19"/>
+      <c r="AQ294" s="19"/>
+      <c r="AR294" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -15885,11 +16604,13 @@
       <c r="AM295" s="19"/>
       <c r="AN295" s="19"/>
       <c r="AO295" s="19"/>
-      <c r="AP295" s="22" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="296" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP295" s="19"/>
+      <c r="AQ295" s="19"/>
+      <c r="AR295" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -15931,11 +16652,13 @@
       <c r="AM296" s="19"/>
       <c r="AN296" s="19"/>
       <c r="AO296" s="19"/>
-      <c r="AP296" s="22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="297" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP296" s="19"/>
+      <c r="AQ296" s="19"/>
+      <c r="AR296" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -15977,11 +16700,13 @@
       <c r="AM297" s="19"/>
       <c r="AN297" s="19"/>
       <c r="AO297" s="19"/>
-      <c r="AP297" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="298" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP297" s="19"/>
+      <c r="AQ297" s="19"/>
+      <c r="AR297" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -16023,11 +16748,13 @@
       <c r="AM298" s="19"/>
       <c r="AN298" s="19"/>
       <c r="AO298" s="19"/>
-      <c r="AP298" s="22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="299" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP298" s="19"/>
+      <c r="AQ298" s="19"/>
+      <c r="AR298" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -16069,11 +16796,13 @@
       <c r="AM299" s="19"/>
       <c r="AN299" s="19"/>
       <c r="AO299" s="19"/>
-      <c r="AP299" s="22" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="300" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP299" s="19"/>
+      <c r="AQ299" s="19"/>
+      <c r="AR299" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
@@ -16115,11 +16844,13 @@
       <c r="AM300" s="19"/>
       <c r="AN300" s="19"/>
       <c r="AO300" s="19"/>
-      <c r="AP300" s="22" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="301" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP300" s="19"/>
+      <c r="AQ300" s="19"/>
+      <c r="AR300" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -16161,11 +16892,13 @@
       <c r="AM301" s="19"/>
       <c r="AN301" s="19"/>
       <c r="AO301" s="19"/>
-      <c r="AP301" s="22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="302" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP301" s="19"/>
+      <c r="AQ301" s="19"/>
+      <c r="AR301" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -16207,11 +16940,13 @@
       <c r="AM302" s="19"/>
       <c r="AN302" s="19"/>
       <c r="AO302" s="19"/>
-      <c r="AP302" s="22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="303" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP302" s="19"/>
+      <c r="AQ302" s="19"/>
+      <c r="AR302" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A303" s="8"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -16253,11 +16988,13 @@
       <c r="AM303" s="19"/>
       <c r="AN303" s="19"/>
       <c r="AO303" s="19"/>
-      <c r="AP303" s="22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="304" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP303" s="19"/>
+      <c r="AQ303" s="19"/>
+      <c r="AR303" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A304" s="8"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -16299,11 +17036,13 @@
       <c r="AM304" s="19"/>
       <c r="AN304" s="19"/>
       <c r="AO304" s="19"/>
-      <c r="AP304" s="22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="305" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP304" s="19"/>
+      <c r="AQ304" s="19"/>
+      <c r="AR304" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="305" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A305" s="8"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -16345,11 +17084,13 @@
       <c r="AM305" s="19"/>
       <c r="AN305" s="19"/>
       <c r="AO305" s="19"/>
-      <c r="AP305" s="22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="306" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP305" s="19"/>
+      <c r="AQ305" s="19"/>
+      <c r="AR305" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="306" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A306" s="8"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
@@ -16391,11 +17132,13 @@
       <c r="AM306" s="19"/>
       <c r="AN306" s="19"/>
       <c r="AO306" s="19"/>
-      <c r="AP306" s="22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="307" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP306" s="19"/>
+      <c r="AQ306" s="19"/>
+      <c r="AR306" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="307" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A307" s="8"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
@@ -16437,11 +17180,13 @@
       <c r="AM307" s="19"/>
       <c r="AN307" s="19"/>
       <c r="AO307" s="19"/>
-      <c r="AP307" s="22" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="308" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP307" s="19"/>
+      <c r="AQ307" s="19"/>
+      <c r="AR307" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="308" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A308" s="8"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -16483,11 +17228,13 @@
       <c r="AM308" s="19"/>
       <c r="AN308" s="19"/>
       <c r="AO308" s="19"/>
-      <c r="AP308" s="22" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="309" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP308" s="19"/>
+      <c r="AQ308" s="19"/>
+      <c r="AR308" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="309" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A309" s="8"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
@@ -16529,11 +17276,13 @@
       <c r="AM309" s="19"/>
       <c r="AN309" s="19"/>
       <c r="AO309" s="19"/>
-      <c r="AP309" s="22" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="310" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP309" s="19"/>
+      <c r="AQ309" s="19"/>
+      <c r="AR309" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="310" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A310" s="8"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
@@ -16575,11 +17324,13 @@
       <c r="AM310" s="19"/>
       <c r="AN310" s="19"/>
       <c r="AO310" s="19"/>
-      <c r="AP310" s="22" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="311" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP310" s="19"/>
+      <c r="AQ310" s="19"/>
+      <c r="AR310" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="311" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A311" s="8"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -16621,11 +17372,13 @@
       <c r="AM311" s="19"/>
       <c r="AN311" s="19"/>
       <c r="AO311" s="19"/>
-      <c r="AP311" s="22" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="312" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP311" s="19"/>
+      <c r="AQ311" s="19"/>
+      <c r="AR311" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="312" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A312" s="8"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
@@ -16667,11 +17420,13 @@
       <c r="AM312" s="19"/>
       <c r="AN312" s="19"/>
       <c r="AO312" s="19"/>
-      <c r="AP312" s="22" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="313" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP312" s="19"/>
+      <c r="AQ312" s="19"/>
+      <c r="AR312" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="313" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A313" s="8"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -16713,11 +17468,13 @@
       <c r="AM313" s="19"/>
       <c r="AN313" s="19"/>
       <c r="AO313" s="19"/>
-      <c r="AP313" s="22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="314" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP313" s="19"/>
+      <c r="AQ313" s="19"/>
+      <c r="AR313" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="314" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A314" s="8"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -16759,11 +17516,13 @@
       <c r="AM314" s="19"/>
       <c r="AN314" s="19"/>
       <c r="AO314" s="19"/>
-      <c r="AP314" s="22" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="315" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP314" s="19"/>
+      <c r="AQ314" s="19"/>
+      <c r="AR314" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="315" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A315" s="8"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -16805,11 +17564,13 @@
       <c r="AM315" s="19"/>
       <c r="AN315" s="19"/>
       <c r="AO315" s="19"/>
-      <c r="AP315" s="22" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="316" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP315" s="19"/>
+      <c r="AQ315" s="19"/>
+      <c r="AR315" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="316" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A316" s="8"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -16851,11 +17612,13 @@
       <c r="AM316" s="19"/>
       <c r="AN316" s="19"/>
       <c r="AO316" s="19"/>
-      <c r="AP316" s="22" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="317" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP316" s="19"/>
+      <c r="AQ316" s="19"/>
+      <c r="AR316" s="22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="317" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A317" s="8"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -16897,11 +17660,13 @@
       <c r="AM317" s="19"/>
       <c r="AN317" s="19"/>
       <c r="AO317" s="19"/>
-      <c r="AP317" s="22" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="318" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP317" s="19"/>
+      <c r="AQ317" s="19"/>
+      <c r="AR317" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="318" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A318" s="8"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -16943,11 +17708,13 @@
       <c r="AM318" s="19"/>
       <c r="AN318" s="19"/>
       <c r="AO318" s="19"/>
-      <c r="AP318" s="22" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="319" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP318" s="19"/>
+      <c r="AQ318" s="19"/>
+      <c r="AR318" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="319" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A319" s="8"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -16989,11 +17756,13 @@
       <c r="AM319" s="19"/>
       <c r="AN319" s="19"/>
       <c r="AO319" s="19"/>
-      <c r="AP319" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="320" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP319" s="19"/>
+      <c r="AQ319" s="19"/>
+      <c r="AR319" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="320" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A320" s="8"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
@@ -17035,11 +17804,13 @@
       <c r="AM320" s="19"/>
       <c r="AN320" s="19"/>
       <c r="AO320" s="19"/>
-      <c r="AP320" s="22" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="321" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP320" s="19"/>
+      <c r="AQ320" s="19"/>
+      <c r="AR320" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="321" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A321" s="8"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -17081,11 +17852,13 @@
       <c r="AM321" s="19"/>
       <c r="AN321" s="19"/>
       <c r="AO321" s="19"/>
-      <c r="AP321" s="22" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="322" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP321" s="19"/>
+      <c r="AQ321" s="19"/>
+      <c r="AR321" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="322" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A322" s="8"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -17127,11 +17900,13 @@
       <c r="AM322" s="19"/>
       <c r="AN322" s="19"/>
       <c r="AO322" s="19"/>
-      <c r="AP322" s="22" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="323" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP322" s="19"/>
+      <c r="AQ322" s="19"/>
+      <c r="AR322" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="323" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A323" s="8"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
@@ -17173,11 +17948,13 @@
       <c r="AM323" s="19"/>
       <c r="AN323" s="19"/>
       <c r="AO323" s="19"/>
-      <c r="AP323" s="22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="324" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP323" s="19"/>
+      <c r="AQ323" s="19"/>
+      <c r="AR323" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="324" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A324" s="8"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -17219,11 +17996,13 @@
       <c r="AM324" s="19"/>
       <c r="AN324" s="19"/>
       <c r="AO324" s="19"/>
-      <c r="AP324" s="22" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="325" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP324" s="19"/>
+      <c r="AQ324" s="19"/>
+      <c r="AR324" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="325" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A325" s="8"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -17265,11 +18044,13 @@
       <c r="AM325" s="19"/>
       <c r="AN325" s="19"/>
       <c r="AO325" s="19"/>
-      <c r="AP325" s="22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="326" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP325" s="19"/>
+      <c r="AQ325" s="19"/>
+      <c r="AR325" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="326" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A326" s="8"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -17311,11 +18092,13 @@
       <c r="AM326" s="19"/>
       <c r="AN326" s="19"/>
       <c r="AO326" s="19"/>
-      <c r="AP326" s="22" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="327" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP326" s="19"/>
+      <c r="AQ326" s="19"/>
+      <c r="AR326" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="327" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A327" s="8"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
@@ -17357,11 +18140,13 @@
       <c r="AM327" s="19"/>
       <c r="AN327" s="19"/>
       <c r="AO327" s="19"/>
-      <c r="AP327" s="22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="328" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP327" s="19"/>
+      <c r="AQ327" s="19"/>
+      <c r="AR327" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="328" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A328" s="8"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
@@ -17403,11 +18188,13 @@
       <c r="AM328" s="19"/>
       <c r="AN328" s="19"/>
       <c r="AO328" s="19"/>
-      <c r="AP328" s="22" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="329" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP328" s="19"/>
+      <c r="AQ328" s="19"/>
+      <c r="AR328" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="329" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A329" s="8"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
@@ -17449,11 +18236,13 @@
       <c r="AM329" s="19"/>
       <c r="AN329" s="19"/>
       <c r="AO329" s="19"/>
-      <c r="AP329" s="22" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="330" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP329" s="19"/>
+      <c r="AQ329" s="19"/>
+      <c r="AR329" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="330" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A330" s="8"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -17495,11 +18284,13 @@
       <c r="AM330" s="19"/>
       <c r="AN330" s="19"/>
       <c r="AO330" s="19"/>
-      <c r="AP330" s="22" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="331" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP330" s="19"/>
+      <c r="AQ330" s="19"/>
+      <c r="AR330" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="331" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A331" s="8"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
@@ -17541,11 +18332,13 @@
       <c r="AM331" s="19"/>
       <c r="AN331" s="19"/>
       <c r="AO331" s="19"/>
-      <c r="AP331" s="22" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="332" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP331" s="19"/>
+      <c r="AQ331" s="19"/>
+      <c r="AR331" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="332" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A332" s="8"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
@@ -17587,11 +18380,13 @@
       <c r="AM332" s="19"/>
       <c r="AN332" s="19"/>
       <c r="AO332" s="19"/>
-      <c r="AP332" s="22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="333" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP332" s="19"/>
+      <c r="AQ332" s="19"/>
+      <c r="AR332" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="333" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A333" s="8"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
@@ -17633,11 +18428,13 @@
       <c r="AM333" s="19"/>
       <c r="AN333" s="19"/>
       <c r="AO333" s="19"/>
-      <c r="AP333" s="22" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="334" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP333" s="19"/>
+      <c r="AQ333" s="19"/>
+      <c r="AR333" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="334" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A334" s="8"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -17679,11 +18476,13 @@
       <c r="AM334" s="19"/>
       <c r="AN334" s="19"/>
       <c r="AO334" s="19"/>
-      <c r="AP334" s="22" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="335" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP334" s="19"/>
+      <c r="AQ334" s="19"/>
+      <c r="AR334" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="335" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A335" s="8"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
@@ -17725,11 +18524,13 @@
       <c r="AM335" s="19"/>
       <c r="AN335" s="19"/>
       <c r="AO335" s="19"/>
-      <c r="AP335" s="22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="336" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP335" s="19"/>
+      <c r="AQ335" s="19"/>
+      <c r="AR335" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="336" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A336" s="8"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -17771,11 +18572,13 @@
       <c r="AM336" s="19"/>
       <c r="AN336" s="19"/>
       <c r="AO336" s="19"/>
-      <c r="AP336" s="22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="337" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP336" s="19"/>
+      <c r="AQ336" s="19"/>
+      <c r="AR336" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="337" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A337" s="8"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -17817,11 +18620,13 @@
       <c r="AM337" s="19"/>
       <c r="AN337" s="19"/>
       <c r="AO337" s="19"/>
-      <c r="AP337" s="22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="338" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP337" s="19"/>
+      <c r="AQ337" s="19"/>
+      <c r="AR337" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="338" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A338" s="8"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -17863,11 +18668,13 @@
       <c r="AM338" s="19"/>
       <c r="AN338" s="19"/>
       <c r="AO338" s="19"/>
-      <c r="AP338" s="22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="339" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP338" s="19"/>
+      <c r="AQ338" s="19"/>
+      <c r="AR338" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="339" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A339" s="8"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -17909,11 +18716,13 @@
       <c r="AM339" s="19"/>
       <c r="AN339" s="19"/>
       <c r="AO339" s="19"/>
-      <c r="AP339" s="22" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="340" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP339" s="19"/>
+      <c r="AQ339" s="19"/>
+      <c r="AR339" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="340" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A340" s="8"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
@@ -17955,11 +18764,13 @@
       <c r="AM340" s="19"/>
       <c r="AN340" s="19"/>
       <c r="AO340" s="19"/>
-      <c r="AP340" s="22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="341" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP340" s="19"/>
+      <c r="AQ340" s="19"/>
+      <c r="AR340" s="22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="341" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A341" s="8"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -18001,11 +18812,13 @@
       <c r="AM341" s="19"/>
       <c r="AN341" s="19"/>
       <c r="AO341" s="19"/>
-      <c r="AP341" s="22" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="342" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP341" s="19"/>
+      <c r="AQ341" s="19"/>
+      <c r="AR341" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="342" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A342" s="8"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
@@ -18047,11 +18860,13 @@
       <c r="AM342" s="19"/>
       <c r="AN342" s="19"/>
       <c r="AO342" s="19"/>
-      <c r="AP342" s="22" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="343" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP342" s="19"/>
+      <c r="AQ342" s="19"/>
+      <c r="AR342" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="343" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A343" s="8"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
@@ -18093,11 +18908,13 @@
       <c r="AM343" s="19"/>
       <c r="AN343" s="19"/>
       <c r="AO343" s="19"/>
-      <c r="AP343" s="22" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="344" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP343" s="19"/>
+      <c r="AQ343" s="19"/>
+      <c r="AR343" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="344" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A344" s="8"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -18139,11 +18956,13 @@
       <c r="AM344" s="19"/>
       <c r="AN344" s="19"/>
       <c r="AO344" s="19"/>
-      <c r="AP344" s="22" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="345" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP344" s="19"/>
+      <c r="AQ344" s="19"/>
+      <c r="AR344" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="345" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A345" s="8"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
@@ -18185,11 +19004,13 @@
       <c r="AM345" s="19"/>
       <c r="AN345" s="19"/>
       <c r="AO345" s="19"/>
-      <c r="AP345" s="22" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="346" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP345" s="19"/>
+      <c r="AQ345" s="19"/>
+      <c r="AR345" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="346" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A346" s="8"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
@@ -18231,11 +19052,13 @@
       <c r="AM346" s="19"/>
       <c r="AN346" s="19"/>
       <c r="AO346" s="19"/>
-      <c r="AP346" s="22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="347" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP346" s="19"/>
+      <c r="AQ346" s="19"/>
+      <c r="AR346" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="347" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A347" s="8"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
@@ -18277,11 +19100,13 @@
       <c r="AM347" s="19"/>
       <c r="AN347" s="19"/>
       <c r="AO347" s="19"/>
-      <c r="AP347" s="22" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="348" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP347" s="19"/>
+      <c r="AQ347" s="19"/>
+      <c r="AR347" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="348" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A348" s="8"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
@@ -18323,11 +19148,13 @@
       <c r="AM348" s="19"/>
       <c r="AN348" s="19"/>
       <c r="AO348" s="19"/>
-      <c r="AP348" s="22" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="349" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP348" s="19"/>
+      <c r="AQ348" s="19"/>
+      <c r="AR348" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="349" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A349" s="8"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
@@ -18369,11 +19196,13 @@
       <c r="AM349" s="19"/>
       <c r="AN349" s="19"/>
       <c r="AO349" s="19"/>
-      <c r="AP349" s="22" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="350" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP349" s="19"/>
+      <c r="AQ349" s="19"/>
+      <c r="AR349" s="22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="350" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A350" s="8"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
@@ -18415,11 +19244,13 @@
       <c r="AM350" s="19"/>
       <c r="AN350" s="19"/>
       <c r="AO350" s="19"/>
-      <c r="AP350" s="22" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="351" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP350" s="19"/>
+      <c r="AQ350" s="19"/>
+      <c r="AR350" s="22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="351" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A351" s="8"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
@@ -18461,11 +19292,13 @@
       <c r="AM351" s="19"/>
       <c r="AN351" s="19"/>
       <c r="AO351" s="19"/>
-      <c r="AP351" s="22" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="352" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP351" s="19"/>
+      <c r="AQ351" s="19"/>
+      <c r="AR351" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="352" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A352" s="8"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
@@ -18507,11 +19340,13 @@
       <c r="AM352" s="19"/>
       <c r="AN352" s="19"/>
       <c r="AO352" s="19"/>
-      <c r="AP352" s="22" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="353" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP352" s="19"/>
+      <c r="AQ352" s="19"/>
+      <c r="AR352" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="353" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A353" s="8"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
@@ -18553,11 +19388,13 @@
       <c r="AM353" s="19"/>
       <c r="AN353" s="19"/>
       <c r="AO353" s="19"/>
-      <c r="AP353" s="22" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="354" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP353" s="19"/>
+      <c r="AQ353" s="19"/>
+      <c r="AR353" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="354" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A354" s="8"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -18599,11 +19436,13 @@
       <c r="AM354" s="19"/>
       <c r="AN354" s="19"/>
       <c r="AO354" s="19"/>
-      <c r="AP354" s="22" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="355" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP354" s="19"/>
+      <c r="AQ354" s="19"/>
+      <c r="AR354" s="22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="355" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A355" s="8"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
@@ -18645,11 +19484,13 @@
       <c r="AM355" s="19"/>
       <c r="AN355" s="19"/>
       <c r="AO355" s="19"/>
-      <c r="AP355" s="22" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="356" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP355" s="19"/>
+      <c r="AQ355" s="19"/>
+      <c r="AR355" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="356" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A356" s="8"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -18691,11 +19532,13 @@
       <c r="AM356" s="19"/>
       <c r="AN356" s="19"/>
       <c r="AO356" s="19"/>
-      <c r="AP356" s="22" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="357" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP356" s="19"/>
+      <c r="AQ356" s="19"/>
+      <c r="AR356" s="22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="357" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A357" s="8"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -18737,11 +19580,13 @@
       <c r="AM357" s="19"/>
       <c r="AN357" s="19"/>
       <c r="AO357" s="19"/>
-      <c r="AP357" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="358" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP357" s="19"/>
+      <c r="AQ357" s="19"/>
+      <c r="AR357" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="358" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A358" s="8"/>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
@@ -18783,11 +19628,13 @@
       <c r="AM358" s="19"/>
       <c r="AN358" s="19"/>
       <c r="AO358" s="19"/>
-      <c r="AP358" s="22" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="359" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP358" s="19"/>
+      <c r="AQ358" s="19"/>
+      <c r="AR358" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="359" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A359" s="8"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
@@ -18829,11 +19676,13 @@
       <c r="AM359" s="19"/>
       <c r="AN359" s="19"/>
       <c r="AO359" s="19"/>
-      <c r="AP359" s="22" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="360" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP359" s="19"/>
+      <c r="AQ359" s="19"/>
+      <c r="AR359" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="360" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A360" s="8"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
@@ -18875,11 +19724,13 @@
       <c r="AM360" s="19"/>
       <c r="AN360" s="19"/>
       <c r="AO360" s="19"/>
-      <c r="AP360" s="22" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="361" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP360" s="19"/>
+      <c r="AQ360" s="19"/>
+      <c r="AR360" s="22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="361" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A361" s="8"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
@@ -18921,11 +19772,13 @@
       <c r="AM361" s="19"/>
       <c r="AN361" s="19"/>
       <c r="AO361" s="19"/>
-      <c r="AP361" s="22" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="362" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP361" s="19"/>
+      <c r="AQ361" s="19"/>
+      <c r="AR361" s="22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="362" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A362" s="8"/>
       <c r="B362" s="19"/>
       <c r="C362" s="19"/>
@@ -18967,11 +19820,13 @@
       <c r="AM362" s="19"/>
       <c r="AN362" s="19"/>
       <c r="AO362" s="19"/>
-      <c r="AP362" s="22" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="363" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP362" s="19"/>
+      <c r="AQ362" s="19"/>
+      <c r="AR362" s="22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="363" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A363" s="8"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -19013,11 +19868,13 @@
       <c r="AM363" s="19"/>
       <c r="AN363" s="19"/>
       <c r="AO363" s="19"/>
-      <c r="AP363" s="22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="364" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP363" s="19"/>
+      <c r="AQ363" s="19"/>
+      <c r="AR363" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="364" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A364" s="8"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
@@ -19059,11 +19916,13 @@
       <c r="AM364" s="19"/>
       <c r="AN364" s="19"/>
       <c r="AO364" s="19"/>
-      <c r="AP364" s="22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="365" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP364" s="19"/>
+      <c r="AQ364" s="19"/>
+      <c r="AR364" s="22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="365" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A365" s="8"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
@@ -19105,11 +19964,13 @@
       <c r="AM365" s="19"/>
       <c r="AN365" s="19"/>
       <c r="AO365" s="19"/>
-      <c r="AP365" s="22" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="366" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP365" s="19"/>
+      <c r="AQ365" s="19"/>
+      <c r="AR365" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="366" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A366" s="8"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -19151,11 +20012,13 @@
       <c r="AM366" s="19"/>
       <c r="AN366" s="19"/>
       <c r="AO366" s="19"/>
-      <c r="AP366" s="22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="367" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP366" s="19"/>
+      <c r="AQ366" s="19"/>
+      <c r="AR366" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="367" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A367" s="8"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -19197,11 +20060,13 @@
       <c r="AM367" s="19"/>
       <c r="AN367" s="19"/>
       <c r="AO367" s="19"/>
-      <c r="AP367" s="22" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="368" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP367" s="19"/>
+      <c r="AQ367" s="19"/>
+      <c r="AR367" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="368" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A368" s="8"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
@@ -19243,11 +20108,13 @@
       <c r="AM368" s="19"/>
       <c r="AN368" s="19"/>
       <c r="AO368" s="19"/>
-      <c r="AP368" s="22" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="369" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP368" s="19"/>
+      <c r="AQ368" s="19"/>
+      <c r="AR368" s="22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="369" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A369" s="8"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -19289,11 +20156,13 @@
       <c r="AM369" s="19"/>
       <c r="AN369" s="19"/>
       <c r="AO369" s="19"/>
-      <c r="AP369" s="22" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="370" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP369" s="19"/>
+      <c r="AQ369" s="19"/>
+      <c r="AR369" s="22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="370" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A370" s="8"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -19335,11 +20204,13 @@
       <c r="AM370" s="19"/>
       <c r="AN370" s="19"/>
       <c r="AO370" s="19"/>
-      <c r="AP370" s="22" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="371" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP370" s="19"/>
+      <c r="AQ370" s="19"/>
+      <c r="AR370" s="22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="371" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A371" s="8"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
@@ -19381,11 +20252,13 @@
       <c r="AM371" s="19"/>
       <c r="AN371" s="19"/>
       <c r="AO371" s="19"/>
-      <c r="AP371" s="22" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="372" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP371" s="19"/>
+      <c r="AQ371" s="19"/>
+      <c r="AR371" s="22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="372" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A372" s="8"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
@@ -19427,11 +20300,13 @@
       <c r="AM372" s="19"/>
       <c r="AN372" s="19"/>
       <c r="AO372" s="19"/>
-      <c r="AP372" s="22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="373" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP372" s="19"/>
+      <c r="AQ372" s="19"/>
+      <c r="AR372" s="22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="373" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A373" s="8"/>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
@@ -19473,11 +20348,13 @@
       <c r="AM373" s="19"/>
       <c r="AN373" s="19"/>
       <c r="AO373" s="19"/>
-      <c r="AP373" s="22" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="374" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP373" s="19"/>
+      <c r="AQ373" s="19"/>
+      <c r="AR373" s="22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="374" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A374" s="8"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
@@ -19519,11 +20396,13 @@
       <c r="AM374" s="19"/>
       <c r="AN374" s="19"/>
       <c r="AO374" s="19"/>
-      <c r="AP374" s="22" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="375" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP374" s="19"/>
+      <c r="AQ374" s="19"/>
+      <c r="AR374" s="22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="375" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A375" s="8"/>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
@@ -19565,11 +20444,13 @@
       <c r="AM375" s="19"/>
       <c r="AN375" s="19"/>
       <c r="AO375" s="19"/>
-      <c r="AP375" s="22" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="376" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP375" s="19"/>
+      <c r="AQ375" s="19"/>
+      <c r="AR375" s="22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="376" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A376" s="8"/>
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
@@ -19611,11 +20492,13 @@
       <c r="AM376" s="19"/>
       <c r="AN376" s="19"/>
       <c r="AO376" s="19"/>
-      <c r="AP376" s="22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="377" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP376" s="19"/>
+      <c r="AQ376" s="19"/>
+      <c r="AR376" s="22" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="377" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A377" s="8"/>
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
@@ -19657,11 +20540,13 @@
       <c r="AM377" s="19"/>
       <c r="AN377" s="19"/>
       <c r="AO377" s="19"/>
-      <c r="AP377" s="22" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="378" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP377" s="19"/>
+      <c r="AQ377" s="19"/>
+      <c r="AR377" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="378" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A378" s="8"/>
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
@@ -19703,11 +20588,13 @@
       <c r="AM378" s="19"/>
       <c r="AN378" s="19"/>
       <c r="AO378" s="19"/>
-      <c r="AP378" s="22" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="379" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP378" s="19"/>
+      <c r="AQ378" s="19"/>
+      <c r="AR378" s="22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="379" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A379" s="8"/>
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
@@ -19749,11 +20636,13 @@
       <c r="AM379" s="19"/>
       <c r="AN379" s="19"/>
       <c r="AO379" s="19"/>
-      <c r="AP379" s="22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="380" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP379" s="19"/>
+      <c r="AQ379" s="19"/>
+      <c r="AR379" s="22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="380" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A380" s="8"/>
       <c r="B380" s="19"/>
       <c r="C380" s="19"/>
@@ -19795,11 +20684,13 @@
       <c r="AM380" s="19"/>
       <c r="AN380" s="19"/>
       <c r="AO380" s="19"/>
-      <c r="AP380" s="22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="381" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP380" s="19"/>
+      <c r="AQ380" s="19"/>
+      <c r="AR380" s="22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="381" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A381" s="8"/>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
@@ -19841,11 +20732,13 @@
       <c r="AM381" s="19"/>
       <c r="AN381" s="19"/>
       <c r="AO381" s="19"/>
-      <c r="AP381" s="22" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="382" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP381" s="19"/>
+      <c r="AQ381" s="19"/>
+      <c r="AR381" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="382" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A382" s="8"/>
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
@@ -19887,11 +20780,13 @@
       <c r="AM382" s="19"/>
       <c r="AN382" s="19"/>
       <c r="AO382" s="19"/>
-      <c r="AP382" s="22" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="383" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP382" s="19"/>
+      <c r="AQ382" s="19"/>
+      <c r="AR382" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="383" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A383" s="8"/>
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
@@ -19933,11 +20828,13 @@
       <c r="AM383" s="19"/>
       <c r="AN383" s="19"/>
       <c r="AO383" s="19"/>
-      <c r="AP383" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="384" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP383" s="19"/>
+      <c r="AQ383" s="19"/>
+      <c r="AR383" s="22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="384" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A384" s="8"/>
       <c r="B384" s="19"/>
       <c r="C384" s="19"/>
@@ -19979,11 +20876,13 @@
       <c r="AM384" s="19"/>
       <c r="AN384" s="19"/>
       <c r="AO384" s="19"/>
-      <c r="AP384" s="22" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="385" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP384" s="19"/>
+      <c r="AQ384" s="19"/>
+      <c r="AR384" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="385" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A385" s="8"/>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
@@ -20025,11 +20924,13 @@
       <c r="AM385" s="19"/>
       <c r="AN385" s="19"/>
       <c r="AO385" s="19"/>
-      <c r="AP385" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="386" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP385" s="19"/>
+      <c r="AQ385" s="19"/>
+      <c r="AR385" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="386" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A386" s="8"/>
       <c r="B386" s="19"/>
       <c r="C386" s="19"/>
@@ -20071,11 +20972,13 @@
       <c r="AM386" s="19"/>
       <c r="AN386" s="19"/>
       <c r="AO386" s="19"/>
-      <c r="AP386" s="22" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="387" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP386" s="19"/>
+      <c r="AQ386" s="19"/>
+      <c r="AR386" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="387" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A387" s="8"/>
       <c r="B387" s="19"/>
       <c r="C387" s="19"/>
@@ -20117,11 +21020,13 @@
       <c r="AM387" s="19"/>
       <c r="AN387" s="19"/>
       <c r="AO387" s="19"/>
-      <c r="AP387" s="22" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="388" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP387" s="19"/>
+      <c r="AQ387" s="19"/>
+      <c r="AR387" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="388" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A388" s="8"/>
       <c r="B388" s="19"/>
       <c r="C388" s="19"/>
@@ -20163,11 +21068,13 @@
       <c r="AM388" s="19"/>
       <c r="AN388" s="19"/>
       <c r="AO388" s="19"/>
-      <c r="AP388" s="22" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="389" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP388" s="19"/>
+      <c r="AQ388" s="19"/>
+      <c r="AR388" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="389" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A389" s="8"/>
       <c r="B389" s="19"/>
       <c r="C389" s="19"/>
@@ -20209,11 +21116,13 @@
       <c r="AM389" s="19"/>
       <c r="AN389" s="19"/>
       <c r="AO389" s="19"/>
-      <c r="AP389" s="22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="390" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP389" s="19"/>
+      <c r="AQ389" s="19"/>
+      <c r="AR389" s="22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="390" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A390" s="8"/>
       <c r="B390" s="19"/>
       <c r="C390" s="19"/>
@@ -20255,11 +21164,13 @@
       <c r="AM390" s="19"/>
       <c r="AN390" s="19"/>
       <c r="AO390" s="19"/>
-      <c r="AP390" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="391" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP390" s="19"/>
+      <c r="AQ390" s="19"/>
+      <c r="AR390" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="391" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A391" s="8"/>
       <c r="B391" s="19"/>
       <c r="C391" s="19"/>
@@ -20301,11 +21212,13 @@
       <c r="AM391" s="19"/>
       <c r="AN391" s="19"/>
       <c r="AO391" s="19"/>
-      <c r="AP391" s="22" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="392" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP391" s="19"/>
+      <c r="AQ391" s="19"/>
+      <c r="AR391" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="392" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A392" s="8"/>
       <c r="B392" s="19"/>
       <c r="C392" s="19"/>
@@ -20347,11 +21260,13 @@
       <c r="AM392" s="19"/>
       <c r="AN392" s="19"/>
       <c r="AO392" s="19"/>
-      <c r="AP392" s="22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="393" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP392" s="19"/>
+      <c r="AQ392" s="19"/>
+      <c r="AR392" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="393" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A393" s="8"/>
       <c r="B393" s="19"/>
       <c r="C393" s="19"/>
@@ -20393,11 +21308,13 @@
       <c r="AM393" s="19"/>
       <c r="AN393" s="19"/>
       <c r="AO393" s="19"/>
-      <c r="AP393" s="22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="394" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP393" s="19"/>
+      <c r="AQ393" s="19"/>
+      <c r="AR393" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="394" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A394" s="8"/>
       <c r="B394" s="19"/>
       <c r="C394" s="19"/>
@@ -20439,11 +21356,13 @@
       <c r="AM394" s="19"/>
       <c r="AN394" s="19"/>
       <c r="AO394" s="19"/>
-      <c r="AP394" s="22" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="395" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP394" s="19"/>
+      <c r="AQ394" s="19"/>
+      <c r="AR394" s="22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="395" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A395" s="8"/>
       <c r="B395" s="19"/>
       <c r="C395" s="19"/>
@@ -20485,11 +21404,13 @@
       <c r="AM395" s="19"/>
       <c r="AN395" s="19"/>
       <c r="AO395" s="19"/>
-      <c r="AP395" s="22" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="396" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP395" s="19"/>
+      <c r="AQ395" s="19"/>
+      <c r="AR395" s="22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="396" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A396" s="8"/>
       <c r="B396" s="19"/>
       <c r="C396" s="19"/>
@@ -20531,11 +21452,13 @@
       <c r="AM396" s="19"/>
       <c r="AN396" s="19"/>
       <c r="AO396" s="19"/>
-      <c r="AP396" s="22" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="397" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP396" s="19"/>
+      <c r="AQ396" s="19"/>
+      <c r="AR396" s="22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="397" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A397" s="8"/>
       <c r="B397" s="19"/>
       <c r="C397" s="19"/>
@@ -20577,11 +21500,13 @@
       <c r="AM397" s="19"/>
       <c r="AN397" s="19"/>
       <c r="AO397" s="19"/>
-      <c r="AP397" s="22" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="398" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP397" s="19"/>
+      <c r="AQ397" s="19"/>
+      <c r="AR397" s="22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="398" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A398" s="8"/>
       <c r="B398" s="19"/>
       <c r="C398" s="19"/>
@@ -20623,11 +21548,13 @@
       <c r="AM398" s="19"/>
       <c r="AN398" s="19"/>
       <c r="AO398" s="19"/>
-      <c r="AP398" s="22" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="399" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP398" s="19"/>
+      <c r="AQ398" s="19"/>
+      <c r="AR398" s="22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="399" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A399" s="8"/>
       <c r="B399" s="19"/>
       <c r="C399" s="19"/>
@@ -20669,11 +21596,13 @@
       <c r="AM399" s="19"/>
       <c r="AN399" s="19"/>
       <c r="AO399" s="19"/>
-      <c r="AP399" s="22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="400" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP399" s="19"/>
+      <c r="AQ399" s="19"/>
+      <c r="AR399" s="22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="400" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A400" s="8"/>
       <c r="B400" s="19"/>
       <c r="C400" s="19"/>
@@ -20715,11 +21644,13 @@
       <c r="AM400" s="19"/>
       <c r="AN400" s="19"/>
       <c r="AO400" s="19"/>
-      <c r="AP400" s="22" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="401" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP400" s="19"/>
+      <c r="AQ400" s="19"/>
+      <c r="AR400" s="22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="401" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A401" s="8"/>
       <c r="B401" s="19"/>
       <c r="C401" s="19"/>
@@ -20761,11 +21692,13 @@
       <c r="AM401" s="19"/>
       <c r="AN401" s="19"/>
       <c r="AO401" s="19"/>
-      <c r="AP401" s="22" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="402" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP401" s="19"/>
+      <c r="AQ401" s="19"/>
+      <c r="AR401" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="402" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A402" s="8"/>
       <c r="B402" s="19"/>
       <c r="C402" s="19"/>
@@ -20807,11 +21740,13 @@
       <c r="AM402" s="19"/>
       <c r="AN402" s="19"/>
       <c r="AO402" s="19"/>
-      <c r="AP402" s="22" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="403" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP402" s="19"/>
+      <c r="AQ402" s="19"/>
+      <c r="AR402" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="403" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A403" s="8"/>
       <c r="B403" s="19"/>
       <c r="C403" s="19"/>
@@ -20853,11 +21788,13 @@
       <c r="AM403" s="19"/>
       <c r="AN403" s="19"/>
       <c r="AO403" s="19"/>
-      <c r="AP403" s="22" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="404" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP403" s="19"/>
+      <c r="AQ403" s="19"/>
+      <c r="AR403" s="22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="404" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A404" s="8"/>
       <c r="B404" s="19"/>
       <c r="C404" s="19"/>
@@ -20899,11 +21836,13 @@
       <c r="AM404" s="19"/>
       <c r="AN404" s="19"/>
       <c r="AO404" s="19"/>
-      <c r="AP404" s="22" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="405" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP404" s="19"/>
+      <c r="AQ404" s="19"/>
+      <c r="AR404" s="22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="405" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A405" s="8"/>
       <c r="B405" s="19"/>
       <c r="C405" s="19"/>
@@ -20945,11 +21884,13 @@
       <c r="AM405" s="19"/>
       <c r="AN405" s="19"/>
       <c r="AO405" s="19"/>
-      <c r="AP405" s="22" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="406" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP405" s="19"/>
+      <c r="AQ405" s="19"/>
+      <c r="AR405" s="22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="406" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A406" s="8"/>
       <c r="B406" s="19"/>
       <c r="C406" s="19"/>
@@ -20991,11 +21932,13 @@
       <c r="AM406" s="19"/>
       <c r="AN406" s="19"/>
       <c r="AO406" s="19"/>
-      <c r="AP406" s="22" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="407" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP406" s="19"/>
+      <c r="AQ406" s="19"/>
+      <c r="AR406" s="22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="407" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A407" s="8"/>
       <c r="B407" s="19"/>
       <c r="C407" s="19"/>
@@ -21037,11 +21980,13 @@
       <c r="AM407" s="19"/>
       <c r="AN407" s="19"/>
       <c r="AO407" s="19"/>
-      <c r="AP407" s="22" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="408" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP407" s="19"/>
+      <c r="AQ407" s="19"/>
+      <c r="AR407" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="408" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A408" s="8"/>
       <c r="B408" s="19"/>
       <c r="C408" s="19"/>
@@ -21083,11 +22028,13 @@
       <c r="AM408" s="19"/>
       <c r="AN408" s="19"/>
       <c r="AO408" s="19"/>
-      <c r="AP408" s="22" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="409" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP408" s="19"/>
+      <c r="AQ408" s="19"/>
+      <c r="AR408" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="409" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A409" s="8"/>
       <c r="B409" s="19"/>
       <c r="C409" s="19"/>
@@ -21129,11 +22076,13 @@
       <c r="AM409" s="19"/>
       <c r="AN409" s="19"/>
       <c r="AO409" s="19"/>
-      <c r="AP409" s="22" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="410" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP409" s="19"/>
+      <c r="AQ409" s="19"/>
+      <c r="AR409" s="22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="410" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A410" s="8"/>
       <c r="B410" s="19"/>
       <c r="C410" s="19"/>
@@ -21175,11 +22124,13 @@
       <c r="AM410" s="19"/>
       <c r="AN410" s="19"/>
       <c r="AO410" s="19"/>
-      <c r="AP410" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="411" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP410" s="19"/>
+      <c r="AQ410" s="19"/>
+      <c r="AR410" s="22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="411" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A411" s="8"/>
       <c r="B411" s="19"/>
       <c r="C411" s="19"/>
@@ -21221,11 +22172,13 @@
       <c r="AM411" s="19"/>
       <c r="AN411" s="19"/>
       <c r="AO411" s="19"/>
-      <c r="AP411" s="22" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="412" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP411" s="19"/>
+      <c r="AQ411" s="19"/>
+      <c r="AR411" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="412" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A412" s="8"/>
       <c r="B412" s="19"/>
       <c r="C412" s="19"/>
@@ -21267,11 +22220,13 @@
       <c r="AM412" s="19"/>
       <c r="AN412" s="19"/>
       <c r="AO412" s="19"/>
-      <c r="AP412" s="22" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="413" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP412" s="19"/>
+      <c r="AQ412" s="19"/>
+      <c r="AR412" s="22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="413" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A413" s="8"/>
       <c r="B413" s="19"/>
       <c r="C413" s="19"/>
@@ -21313,11 +22268,13 @@
       <c r="AM413" s="19"/>
       <c r="AN413" s="19"/>
       <c r="AO413" s="19"/>
-      <c r="AP413" s="22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="414" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP413" s="19"/>
+      <c r="AQ413" s="19"/>
+      <c r="AR413" s="22" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="414" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A414" s="8"/>
       <c r="B414" s="19"/>
       <c r="C414" s="19"/>
@@ -21359,11 +22316,13 @@
       <c r="AM414" s="19"/>
       <c r="AN414" s="19"/>
       <c r="AO414" s="19"/>
-      <c r="AP414" s="22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="415" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP414" s="19"/>
+      <c r="AQ414" s="19"/>
+      <c r="AR414" s="22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="415" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A415" s="8"/>
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
@@ -21405,11 +22364,13 @@
       <c r="AM415" s="19"/>
       <c r="AN415" s="19"/>
       <c r="AO415" s="19"/>
-      <c r="AP415" s="22" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="416" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP415" s="19"/>
+      <c r="AQ415" s="19"/>
+      <c r="AR415" s="22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="416" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
       <c r="B416" s="19"/>
       <c r="C416" s="19"/>
@@ -21451,11 +22412,13 @@
       <c r="AM416" s="19"/>
       <c r="AN416" s="19"/>
       <c r="AO416" s="19"/>
-      <c r="AP416" s="22" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="417" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP416" s="19"/>
+      <c r="AQ416" s="19"/>
+      <c r="AR416" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="417" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A417" s="8"/>
       <c r="B417" s="19"/>
       <c r="C417" s="19"/>
@@ -21497,11 +22460,13 @@
       <c r="AM417" s="19"/>
       <c r="AN417" s="19"/>
       <c r="AO417" s="19"/>
-      <c r="AP417" s="22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="418" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP417" s="19"/>
+      <c r="AQ417" s="19"/>
+      <c r="AR417" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="418" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A418" s="8"/>
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
@@ -21543,11 +22508,13 @@
       <c r="AM418" s="19"/>
       <c r="AN418" s="19"/>
       <c r="AO418" s="19"/>
-      <c r="AP418" s="22" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="419" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP418" s="19"/>
+      <c r="AQ418" s="19"/>
+      <c r="AR418" s="22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="419" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A419" s="8"/>
       <c r="B419" s="19"/>
       <c r="C419" s="19"/>
@@ -21589,11 +22556,13 @@
       <c r="AM419" s="19"/>
       <c r="AN419" s="19"/>
       <c r="AO419" s="19"/>
-      <c r="AP419" s="22" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="420" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP419" s="19"/>
+      <c r="AQ419" s="19"/>
+      <c r="AR419" s="22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="420" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A420" s="8"/>
       <c r="B420" s="19"/>
       <c r="C420" s="19"/>
@@ -21635,11 +22604,13 @@
       <c r="AM420" s="19"/>
       <c r="AN420" s="19"/>
       <c r="AO420" s="19"/>
-      <c r="AP420" s="22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="421" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP420" s="19"/>
+      <c r="AQ420" s="19"/>
+      <c r="AR420" s="22" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="421" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A421" s="8"/>
       <c r="B421" s="19"/>
       <c r="C421" s="19"/>
@@ -21681,11 +22652,13 @@
       <c r="AM421" s="19"/>
       <c r="AN421" s="19"/>
       <c r="AO421" s="19"/>
-      <c r="AP421" s="22" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="422" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP421" s="19"/>
+      <c r="AQ421" s="19"/>
+      <c r="AR421" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="422" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A422" s="8"/>
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
@@ -21727,11 +22700,13 @@
       <c r="AM422" s="19"/>
       <c r="AN422" s="19"/>
       <c r="AO422" s="19"/>
-      <c r="AP422" s="22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="423" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP422" s="19"/>
+      <c r="AQ422" s="19"/>
+      <c r="AR422" s="22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="423" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A423" s="8"/>
       <c r="B423" s="19"/>
       <c r="C423" s="19"/>
@@ -21773,11 +22748,13 @@
       <c r="AM423" s="19"/>
       <c r="AN423" s="19"/>
       <c r="AO423" s="19"/>
-      <c r="AP423" s="22" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="424" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP423" s="19"/>
+      <c r="AQ423" s="19"/>
+      <c r="AR423" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="424" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A424" s="8"/>
       <c r="B424" s="19"/>
       <c r="C424" s="19"/>
@@ -21819,11 +22796,13 @@
       <c r="AM424" s="19"/>
       <c r="AN424" s="19"/>
       <c r="AO424" s="19"/>
-      <c r="AP424" s="22" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="425" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP424" s="19"/>
+      <c r="AQ424" s="19"/>
+      <c r="AR424" s="22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="425" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A425" s="8"/>
       <c r="B425" s="19"/>
       <c r="C425" s="19"/>
@@ -21865,11 +22844,13 @@
       <c r="AM425" s="19"/>
       <c r="AN425" s="19"/>
       <c r="AO425" s="19"/>
-      <c r="AP425" s="22" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="426" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP425" s="19"/>
+      <c r="AQ425" s="19"/>
+      <c r="AR425" s="22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="426" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A426" s="8"/>
       <c r="B426" s="19"/>
       <c r="C426" s="19"/>
@@ -21911,11 +22892,13 @@
       <c r="AM426" s="19"/>
       <c r="AN426" s="19"/>
       <c r="AO426" s="19"/>
-      <c r="AP426" s="22" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="427" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP426" s="19"/>
+      <c r="AQ426" s="19"/>
+      <c r="AR426" s="22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="427" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A427" s="8"/>
       <c r="B427" s="19"/>
       <c r="C427" s="19"/>
@@ -21957,11 +22940,13 @@
       <c r="AM427" s="19"/>
       <c r="AN427" s="19"/>
       <c r="AO427" s="19"/>
-      <c r="AP427" s="22" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="428" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP427" s="19"/>
+      <c r="AQ427" s="19"/>
+      <c r="AR427" s="22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="428" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A428" s="8"/>
       <c r="B428" s="19"/>
       <c r="C428" s="19"/>
@@ -22003,11 +22988,13 @@
       <c r="AM428" s="19"/>
       <c r="AN428" s="19"/>
       <c r="AO428" s="19"/>
-      <c r="AP428" s="22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="429" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP428" s="19"/>
+      <c r="AQ428" s="19"/>
+      <c r="AR428" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="429" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A429" s="8"/>
       <c r="B429" s="19"/>
       <c r="C429" s="19"/>
@@ -22049,11 +23036,13 @@
       <c r="AM429" s="19"/>
       <c r="AN429" s="19"/>
       <c r="AO429" s="19"/>
-      <c r="AP429" s="22" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="430" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP429" s="19"/>
+      <c r="AQ429" s="19"/>
+      <c r="AR429" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="430" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A430" s="8"/>
       <c r="B430" s="19"/>
       <c r="C430" s="19"/>
@@ -22095,11 +23084,13 @@
       <c r="AM430" s="19"/>
       <c r="AN430" s="19"/>
       <c r="AO430" s="19"/>
-      <c r="AP430" s="22" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="431" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP430" s="19"/>
+      <c r="AQ430" s="19"/>
+      <c r="AR430" s="22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="431" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A431" s="8"/>
       <c r="B431" s="19"/>
       <c r="C431" s="19"/>
@@ -22141,11 +23132,13 @@
       <c r="AM431" s="19"/>
       <c r="AN431" s="19"/>
       <c r="AO431" s="19"/>
-      <c r="AP431" s="22" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="432" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP431" s="19"/>
+      <c r="AQ431" s="19"/>
+      <c r="AR431" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="432" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A432" s="8"/>
       <c r="B432" s="19"/>
       <c r="C432" s="19"/>
@@ -22187,11 +23180,13 @@
       <c r="AM432" s="19"/>
       <c r="AN432" s="19"/>
       <c r="AO432" s="19"/>
-      <c r="AP432" s="22" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="433" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP432" s="19"/>
+      <c r="AQ432" s="19"/>
+      <c r="AR432" s="22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="433" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A433" s="8"/>
       <c r="B433" s="19"/>
       <c r="C433" s="19"/>
@@ -22233,11 +23228,13 @@
       <c r="AM433" s="19"/>
       <c r="AN433" s="19"/>
       <c r="AO433" s="19"/>
-      <c r="AP433" s="22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="434" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP433" s="19"/>
+      <c r="AQ433" s="19"/>
+      <c r="AR433" s="22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="434" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A434" s="8"/>
       <c r="B434" s="19"/>
       <c r="C434" s="19"/>
@@ -22279,11 +23276,13 @@
       <c r="AM434" s="19"/>
       <c r="AN434" s="19"/>
       <c r="AO434" s="19"/>
-      <c r="AP434" s="22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="435" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP434" s="19"/>
+      <c r="AQ434" s="19"/>
+      <c r="AR434" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="435" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A435" s="8"/>
       <c r="B435" s="19"/>
       <c r="C435" s="19"/>
@@ -22325,11 +23324,13 @@
       <c r="AM435" s="19"/>
       <c r="AN435" s="19"/>
       <c r="AO435" s="19"/>
-      <c r="AP435" s="22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="436" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP435" s="19"/>
+      <c r="AQ435" s="19"/>
+      <c r="AR435" s="22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="436" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A436" s="8"/>
       <c r="B436" s="19"/>
       <c r="C436" s="19"/>
@@ -22371,11 +23372,13 @@
       <c r="AM436" s="19"/>
       <c r="AN436" s="19"/>
       <c r="AO436" s="19"/>
-      <c r="AP436" s="22" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="437" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP436" s="19"/>
+      <c r="AQ436" s="19"/>
+      <c r="AR436" s="22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="437" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A437" s="8"/>
       <c r="B437" s="19"/>
       <c r="C437" s="19"/>
@@ -22417,11 +23420,13 @@
       <c r="AM437" s="19"/>
       <c r="AN437" s="19"/>
       <c r="AO437" s="19"/>
-      <c r="AP437" s="22" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="438" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP437" s="19"/>
+      <c r="AQ437" s="19"/>
+      <c r="AR437" s="22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="438" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A438" s="8"/>
       <c r="B438" s="19"/>
       <c r="C438" s="19"/>
@@ -22463,11 +23468,13 @@
       <c r="AM438" s="19"/>
       <c r="AN438" s="19"/>
       <c r="AO438" s="19"/>
-      <c r="AP438" s="22" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="439" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP438" s="19"/>
+      <c r="AQ438" s="19"/>
+      <c r="AR438" s="22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="439" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A439" s="8"/>
       <c r="B439" s="19"/>
       <c r="C439" s="19"/>
@@ -22509,11 +23516,13 @@
       <c r="AM439" s="19"/>
       <c r="AN439" s="19"/>
       <c r="AO439" s="19"/>
-      <c r="AP439" s="22" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="440" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP439" s="19"/>
+      <c r="AQ439" s="19"/>
+      <c r="AR439" s="22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="440" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A440" s="8"/>
       <c r="B440" s="19"/>
       <c r="C440" s="19"/>
@@ -22555,11 +23564,13 @@
       <c r="AM440" s="19"/>
       <c r="AN440" s="19"/>
       <c r="AO440" s="19"/>
-      <c r="AP440" s="22" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="441" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP440" s="19"/>
+      <c r="AQ440" s="19"/>
+      <c r="AR440" s="22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="441" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A441" s="8"/>
       <c r="B441" s="19"/>
       <c r="C441" s="19"/>
@@ -22601,11 +23612,13 @@
       <c r="AM441" s="19"/>
       <c r="AN441" s="19"/>
       <c r="AO441" s="19"/>
-      <c r="AP441" s="22" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="442" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP441" s="19"/>
+      <c r="AQ441" s="19"/>
+      <c r="AR441" s="22" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="442" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A442" s="8"/>
       <c r="B442" s="19"/>
       <c r="C442" s="19"/>
@@ -22647,11 +23660,13 @@
       <c r="AM442" s="19"/>
       <c r="AN442" s="19"/>
       <c r="AO442" s="19"/>
-      <c r="AP442" s="22" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="443" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP442" s="19"/>
+      <c r="AQ442" s="19"/>
+      <c r="AR442" s="22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="443" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A443" s="8"/>
       <c r="B443" s="19"/>
       <c r="C443" s="19"/>
@@ -22693,11 +23708,13 @@
       <c r="AM443" s="19"/>
       <c r="AN443" s="19"/>
       <c r="AO443" s="19"/>
-      <c r="AP443" s="22" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="444" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP443" s="19"/>
+      <c r="AQ443" s="19"/>
+      <c r="AR443" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="444" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A444" s="8"/>
       <c r="B444" s="19"/>
       <c r="C444" s="19"/>
@@ -22739,11 +23756,13 @@
       <c r="AM444" s="19"/>
       <c r="AN444" s="19"/>
       <c r="AO444" s="19"/>
-      <c r="AP444" s="22" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="445" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP444" s="19"/>
+      <c r="AQ444" s="19"/>
+      <c r="AR444" s="22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="445" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A445" s="8"/>
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
@@ -22785,11 +23804,13 @@
       <c r="AM445" s="19"/>
       <c r="AN445" s="19"/>
       <c r="AO445" s="19"/>
-      <c r="AP445" s="22" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="446" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP445" s="19"/>
+      <c r="AQ445" s="19"/>
+      <c r="AR445" s="22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="446" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A446" s="8"/>
       <c r="B446" s="19"/>
       <c r="C446" s="19"/>
@@ -22831,11 +23852,13 @@
       <c r="AM446" s="19"/>
       <c r="AN446" s="19"/>
       <c r="AO446" s="19"/>
-      <c r="AP446" s="22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="447" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP446" s="19"/>
+      <c r="AQ446" s="19"/>
+      <c r="AR446" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="447" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A447" s="8"/>
       <c r="B447" s="19"/>
       <c r="C447" s="19"/>
@@ -22877,11 +23900,13 @@
       <c r="AM447" s="19"/>
       <c r="AN447" s="19"/>
       <c r="AO447" s="19"/>
-      <c r="AP447" s="22" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="448" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP447" s="19"/>
+      <c r="AQ447" s="19"/>
+      <c r="AR447" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="448" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A448" s="8"/>
       <c r="B448" s="19"/>
       <c r="C448" s="19"/>
@@ -22923,11 +23948,13 @@
       <c r="AM448" s="19"/>
       <c r="AN448" s="19"/>
       <c r="AO448" s="19"/>
-      <c r="AP448" s="22" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="449" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP448" s="19"/>
+      <c r="AQ448" s="19"/>
+      <c r="AR448" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="449" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A449" s="8"/>
       <c r="B449" s="19"/>
       <c r="C449" s="19"/>
@@ -22969,11 +23996,13 @@
       <c r="AM449" s="19"/>
       <c r="AN449" s="19"/>
       <c r="AO449" s="19"/>
-      <c r="AP449" s="22" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="450" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP449" s="19"/>
+      <c r="AQ449" s="19"/>
+      <c r="AR449" s="22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="450" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A450" s="8"/>
       <c r="B450" s="19"/>
       <c r="C450" s="19"/>
@@ -23015,11 +24044,13 @@
       <c r="AM450" s="19"/>
       <c r="AN450" s="19"/>
       <c r="AO450" s="19"/>
-      <c r="AP450" s="22" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="451" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP450" s="19"/>
+      <c r="AQ450" s="19"/>
+      <c r="AR450" s="22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="451" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A451" s="8"/>
       <c r="B451" s="19"/>
       <c r="C451" s="19"/>
@@ -23061,11 +24092,13 @@
       <c r="AM451" s="19"/>
       <c r="AN451" s="19"/>
       <c r="AO451" s="19"/>
-      <c r="AP451" s="22" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="452" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP451" s="19"/>
+      <c r="AQ451" s="19"/>
+      <c r="AR451" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="452" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A452" s="8"/>
       <c r="B452" s="19"/>
       <c r="C452" s="19"/>
@@ -23107,11 +24140,13 @@
       <c r="AM452" s="19"/>
       <c r="AN452" s="19"/>
       <c r="AO452" s="19"/>
-      <c r="AP452" s="22" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="453" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP452" s="19"/>
+      <c r="AQ452" s="19"/>
+      <c r="AR452" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="453" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A453" s="8"/>
       <c r="B453" s="19"/>
       <c r="C453" s="19"/>
@@ -23153,11 +24188,13 @@
       <c r="AM453" s="19"/>
       <c r="AN453" s="19"/>
       <c r="AO453" s="19"/>
-      <c r="AP453" s="22" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="454" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP453" s="19"/>
+      <c r="AQ453" s="19"/>
+      <c r="AR453" s="22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="454" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A454" s="8"/>
       <c r="B454" s="19"/>
       <c r="C454" s="19"/>
@@ -23199,11 +24236,13 @@
       <c r="AM454" s="19"/>
       <c r="AN454" s="19"/>
       <c r="AO454" s="19"/>
-      <c r="AP454" s="22" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="455" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP454" s="19"/>
+      <c r="AQ454" s="19"/>
+      <c r="AR454" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="455" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A455" s="8"/>
       <c r="B455" s="19"/>
       <c r="C455" s="19"/>
@@ -23245,11 +24284,13 @@
       <c r="AM455" s="19"/>
       <c r="AN455" s="19"/>
       <c r="AO455" s="19"/>
-      <c r="AP455" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="456" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP455" s="19"/>
+      <c r="AQ455" s="19"/>
+      <c r="AR455" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="456" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A456" s="8"/>
       <c r="B456" s="19"/>
       <c r="C456" s="19"/>
@@ -23291,11 +24332,13 @@
       <c r="AM456" s="19"/>
       <c r="AN456" s="19"/>
       <c r="AO456" s="19"/>
-      <c r="AP456" s="22" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="457" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP456" s="19"/>
+      <c r="AQ456" s="19"/>
+      <c r="AR456" s="22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="457" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A457" s="8"/>
       <c r="B457" s="19"/>
       <c r="C457" s="19"/>
@@ -23337,11 +24380,13 @@
       <c r="AM457" s="19"/>
       <c r="AN457" s="19"/>
       <c r="AO457" s="19"/>
-      <c r="AP457" s="22" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="458" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP457" s="19"/>
+      <c r="AQ457" s="19"/>
+      <c r="AR457" s="22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="458" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A458" s="8"/>
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
@@ -23383,11 +24428,13 @@
       <c r="AM458" s="19"/>
       <c r="AN458" s="19"/>
       <c r="AO458" s="19"/>
-      <c r="AP458" s="22" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="459" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP458" s="19"/>
+      <c r="AQ458" s="19"/>
+      <c r="AR458" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="459" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A459" s="8"/>
       <c r="B459" s="19"/>
       <c r="C459" s="19"/>
@@ -23429,11 +24476,13 @@
       <c r="AM459" s="19"/>
       <c r="AN459" s="19"/>
       <c r="AO459" s="19"/>
-      <c r="AP459" s="22" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="460" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP459" s="19"/>
+      <c r="AQ459" s="19"/>
+      <c r="AR459" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="460" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A460" s="8"/>
       <c r="B460" s="19"/>
       <c r="C460" s="19"/>
@@ -23475,11 +24524,13 @@
       <c r="AM460" s="19"/>
       <c r="AN460" s="19"/>
       <c r="AO460" s="19"/>
-      <c r="AP460" s="22" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="461" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP460" s="19"/>
+      <c r="AQ460" s="19"/>
+      <c r="AR460" s="22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="461" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A461" s="8"/>
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
@@ -23521,12 +24572,14 @@
       <c r="AM461" s="19"/>
       <c r="AN461" s="19"/>
       <c r="AO461" s="19"/>
-      <c r="AP461" s="22" t="s">
-        <v>495</v>
+      <c r="AP461" s="19"/>
+      <c r="AQ461" s="19"/>
+      <c r="AR461" s="22" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:T1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="534">
   <si>
     <t>TITAN</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>GENERIC - Carry out 75,000km intermediate service</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>3</t>
@@ -1643,17 +1640,41 @@
     <t>0</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>invalid</t>
+    <t>0983612137</t>
+  </si>
+  <si>
+    <t>182 Le Dai Hanh</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>levinh.hcmut@gmail.com</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>NOTEXIST</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>QATEST</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1696,6 +1717,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0066"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1799,10 +1828,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,8 +1898,12 @@
     <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2151,13 +2185,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:AR461"/>
+  <dimension ref="A1:AR464"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,13 +2243,13 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
@@ -2224,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -2233,10 +2267,10 @@
         <v>16</v>
       </c>
       <c r="N1" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>521</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>522</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>17</v>
@@ -2248,58 +2282,58 @@
         <v>7</v>
       </c>
       <c r="S1" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>515</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>516</v>
       </c>
       <c r="AK1" s="4" t="s">
         <v>4</v>
@@ -2308,13 +2342,13 @@
         <v>5</v>
       </c>
       <c r="AM1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="AP1" s="5" t="s">
         <v>3</v>
@@ -2323,13 +2357,11 @@
         <v>8</v>
       </c>
       <c r="AR1" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="A2" s="6"/>
       <c r="B2" s="6" t="b">
         <v>1</v>
       </c>
@@ -2409,16 +2441,16 @@
         <v>31</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AD2" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="AD2" s="20" t="s">
-        <v>524</v>
-      </c>
       <c r="AE2" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="20" t="s">
         <v>34</v>
@@ -2436,22 +2468,22 @@
         <v>19</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="6" t="b">
-        <v>1</v>
+      <c r="AM2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AQ2" s="10" t="s">
         <v>19</v>
@@ -2461,38 +2493,36 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="b">
-        <v>0</v>
+      <c r="A3" s="10"/>
+      <c r="B3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="b">
-        <v>0</v>
+      <c r="F3" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="G3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10" t="b">
-        <v>0</v>
+      <c r="H3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="L3" s="10" t="b">
         <v>0</v>
@@ -2507,59 +2537,49 @@
         <v>22</v>
       </c>
       <c r="P3" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>526</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="V3" s="20" t="s">
         <v>26</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>27</v>
+        <v>527</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>28</v>
+        <v>529</v>
       </c>
       <c r="Y3" s="20" t="s">
         <v>29</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>31</v>
+        <v>524</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>528</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>19</v>
+        <v>531</v>
       </c>
       <c r="AC3" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD3" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="AD3" s="20" t="s">
-        <v>524</v>
-      </c>
       <c r="AE3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG3" s="20" t="s">
-        <v>35</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
       <c r="AH3" s="10" t="s">
         <v>36</v>
       </c>
@@ -2575,17 +2595,17 @@
       <c r="AL3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AM3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="6" t="b">
-        <v>1</v>
+      <c r="AM3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AQ3" s="10" t="s">
         <v>19</v>
@@ -2595,195 +2615,491 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA4" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="AM4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="AR4" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="AR5" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA6" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="AM6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="AR6" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA7" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC7" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD7" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="AK7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="AR7" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -2831,7 +3147,7 @@
       <c r="AP8" s="19"/>
       <c r="AQ8" s="19"/>
       <c r="AR8" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -2879,7 +3195,7 @@
       <c r="AP9" s="19"/>
       <c r="AQ9" s="19"/>
       <c r="AR9" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -2927,7 +3243,7 @@
       <c r="AP10" s="19"/>
       <c r="AQ10" s="19"/>
       <c r="AR10" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -2975,7 +3291,7 @@
       <c r="AP11" s="19"/>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -3023,7 +3339,7 @@
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
       <c r="AR12" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -3071,7 +3387,7 @@
       <c r="AP13" s="19"/>
       <c r="AQ13" s="19"/>
       <c r="AR13" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -3119,7 +3435,7 @@
       <c r="AP14" s="19"/>
       <c r="AQ14" s="19"/>
       <c r="AR14" s="22" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -3167,7 +3483,7 @@
       <c r="AP15" s="19"/>
       <c r="AQ15" s="19"/>
       <c r="AR15" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -3215,7 +3531,7 @@
       <c r="AP16" s="19"/>
       <c r="AQ16" s="19"/>
       <c r="AR16" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -3263,7 +3579,7 @@
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
       <c r="AR17" s="22" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
@@ -3311,7 +3627,7 @@
       <c r="AP18" s="19"/>
       <c r="AQ18" s="19"/>
       <c r="AR18" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
@@ -3359,7 +3675,7 @@
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -3407,7 +3723,7 @@
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="22" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
@@ -3455,7 +3771,7 @@
       <c r="AP21" s="19"/>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
@@ -3503,7 +3819,7 @@
       <c r="AP22" s="19"/>
       <c r="AQ22" s="19"/>
       <c r="AR22" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
@@ -3551,7 +3867,7 @@
       <c r="AP23" s="19"/>
       <c r="AQ23" s="19"/>
       <c r="AR23" s="22" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
@@ -3599,7 +3915,7 @@
       <c r="AP24" s="19"/>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
@@ -3647,7 +3963,7 @@
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
@@ -3695,7 +4011,7 @@
       <c r="AP26" s="19"/>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
@@ -3743,7 +4059,7 @@
       <c r="AP27" s="19"/>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
@@ -3791,7 +4107,7 @@
       <c r="AP28" s="19"/>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
@@ -3839,7 +4155,7 @@
       <c r="AP29" s="19"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
@@ -3887,7 +4203,7 @@
       <c r="AP30" s="19"/>
       <c r="AQ30" s="19"/>
       <c r="AR30" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
@@ -3935,7 +4251,7 @@
       <c r="AP31" s="19"/>
       <c r="AQ31" s="19"/>
       <c r="AR31" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
@@ -3983,7 +4299,7 @@
       <c r="AP32" s="19"/>
       <c r="AQ32" s="19"/>
       <c r="AR32" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
@@ -4031,7 +4347,7 @@
       <c r="AP33" s="19"/>
       <c r="AQ33" s="19"/>
       <c r="AR33" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
@@ -4079,7 +4395,7 @@
       <c r="AP34" s="19"/>
       <c r="AQ34" s="19"/>
       <c r="AR34" s="22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -4127,7 +4443,7 @@
       <c r="AP35" s="19"/>
       <c r="AQ35" s="19"/>
       <c r="AR35" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
@@ -4175,7 +4491,7 @@
       <c r="AP36" s="19"/>
       <c r="AQ36" s="19"/>
       <c r="AR36" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
@@ -4223,7 +4539,7 @@
       <c r="AP37" s="19"/>
       <c r="AQ37" s="19"/>
       <c r="AR37" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
@@ -4271,7 +4587,7 @@
       <c r="AP38" s="19"/>
       <c r="AQ38" s="19"/>
       <c r="AR38" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
@@ -4319,7 +4635,7 @@
       <c r="AP39" s="19"/>
       <c r="AQ39" s="19"/>
       <c r="AR39" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
@@ -4367,7 +4683,7 @@
       <c r="AP40" s="19"/>
       <c r="AQ40" s="19"/>
       <c r="AR40" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
@@ -4415,7 +4731,7 @@
       <c r="AP41" s="19"/>
       <c r="AQ41" s="19"/>
       <c r="AR41" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
@@ -4463,7 +4779,7 @@
       <c r="AP42" s="19"/>
       <c r="AQ42" s="19"/>
       <c r="AR42" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
@@ -4511,7 +4827,7 @@
       <c r="AP43" s="19"/>
       <c r="AQ43" s="19"/>
       <c r="AR43" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
@@ -4559,7 +4875,7 @@
       <c r="AP44" s="19"/>
       <c r="AQ44" s="19"/>
       <c r="AR44" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
@@ -4607,7 +4923,7 @@
       <c r="AP45" s="19"/>
       <c r="AQ45" s="19"/>
       <c r="AR45" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
@@ -4655,7 +4971,7 @@
       <c r="AP46" s="19"/>
       <c r="AQ46" s="19"/>
       <c r="AR46" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
@@ -4703,7 +5019,7 @@
       <c r="AP47" s="19"/>
       <c r="AQ47" s="19"/>
       <c r="AR47" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
@@ -4751,7 +5067,7 @@
       <c r="AP48" s="19"/>
       <c r="AQ48" s="19"/>
       <c r="AR48" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.25">
@@ -4799,7 +5115,7 @@
       <c r="AP49" s="19"/>
       <c r="AQ49" s="19"/>
       <c r="AR49" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
@@ -4847,7 +5163,7 @@
       <c r="AP50" s="19"/>
       <c r="AQ50" s="19"/>
       <c r="AR50" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
@@ -4895,7 +5211,7 @@
       <c r="AP51" s="19"/>
       <c r="AQ51" s="19"/>
       <c r="AR51" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
@@ -4943,7 +5259,7 @@
       <c r="AP52" s="19"/>
       <c r="AQ52" s="19"/>
       <c r="AR52" s="22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
@@ -4991,7 +5307,7 @@
       <c r="AP53" s="19"/>
       <c r="AQ53" s="19"/>
       <c r="AR53" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
@@ -5039,7 +5355,7 @@
       <c r="AP54" s="19"/>
       <c r="AQ54" s="19"/>
       <c r="AR54" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
@@ -5087,7 +5403,7 @@
       <c r="AP55" s="19"/>
       <c r="AQ55" s="19"/>
       <c r="AR55" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
@@ -5135,7 +5451,7 @@
       <c r="AP56" s="19"/>
       <c r="AQ56" s="19"/>
       <c r="AR56" s="22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
@@ -5183,7 +5499,7 @@
       <c r="AP57" s="19"/>
       <c r="AQ57" s="19"/>
       <c r="AR57" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
@@ -5231,7 +5547,7 @@
       <c r="AP58" s="19"/>
       <c r="AQ58" s="19"/>
       <c r="AR58" s="22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
@@ -5279,7 +5595,7 @@
       <c r="AP59" s="19"/>
       <c r="AQ59" s="19"/>
       <c r="AR59" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
@@ -5327,7 +5643,7 @@
       <c r="AP60" s="19"/>
       <c r="AQ60" s="19"/>
       <c r="AR60" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
@@ -5375,7 +5691,7 @@
       <c r="AP61" s="19"/>
       <c r="AQ61" s="19"/>
       <c r="AR61" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
@@ -5423,7 +5739,7 @@
       <c r="AP62" s="19"/>
       <c r="AQ62" s="19"/>
       <c r="AR62" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
@@ -5471,7 +5787,7 @@
       <c r="AP63" s="19"/>
       <c r="AQ63" s="19"/>
       <c r="AR63" s="22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
@@ -5519,7 +5835,7 @@
       <c r="AP64" s="19"/>
       <c r="AQ64" s="19"/>
       <c r="AR64" s="22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
@@ -5567,7 +5883,7 @@
       <c r="AP65" s="19"/>
       <c r="AQ65" s="19"/>
       <c r="AR65" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
@@ -5615,7 +5931,7 @@
       <c r="AP66" s="19"/>
       <c r="AQ66" s="19"/>
       <c r="AR66" s="22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
@@ -5663,7 +5979,7 @@
       <c r="AP67" s="19"/>
       <c r="AQ67" s="19"/>
       <c r="AR67" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
@@ -5711,7 +6027,7 @@
       <c r="AP68" s="19"/>
       <c r="AQ68" s="19"/>
       <c r="AR68" s="22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
@@ -5759,7 +6075,7 @@
       <c r="AP69" s="19"/>
       <c r="AQ69" s="19"/>
       <c r="AR69" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
@@ -5807,7 +6123,7 @@
       <c r="AP70" s="19"/>
       <c r="AQ70" s="19"/>
       <c r="AR70" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
@@ -5855,7 +6171,7 @@
       <c r="AP71" s="19"/>
       <c r="AQ71" s="19"/>
       <c r="AR71" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
@@ -5903,7 +6219,7 @@
       <c r="AP72" s="19"/>
       <c r="AQ72" s="19"/>
       <c r="AR72" s="22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
@@ -5951,7 +6267,7 @@
       <c r="AP73" s="19"/>
       <c r="AQ73" s="19"/>
       <c r="AR73" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.25">
@@ -5999,7 +6315,7 @@
       <c r="AP74" s="19"/>
       <c r="AQ74" s="19"/>
       <c r="AR74" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.25">
@@ -6047,7 +6363,7 @@
       <c r="AP75" s="19"/>
       <c r="AQ75" s="19"/>
       <c r="AR75" s="22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.25">
@@ -6095,7 +6411,7 @@
       <c r="AP76" s="19"/>
       <c r="AQ76" s="19"/>
       <c r="AR76" s="22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
@@ -6143,7 +6459,7 @@
       <c r="AP77" s="19"/>
       <c r="AQ77" s="19"/>
       <c r="AR77" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.25">
@@ -6191,7 +6507,7 @@
       <c r="AP78" s="19"/>
       <c r="AQ78" s="19"/>
       <c r="AR78" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.25">
@@ -6239,7 +6555,7 @@
       <c r="AP79" s="19"/>
       <c r="AQ79" s="19"/>
       <c r="AR79" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.25">
@@ -6287,7 +6603,7 @@
       <c r="AP80" s="19"/>
       <c r="AQ80" s="19"/>
       <c r="AR80" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
@@ -6335,7 +6651,7 @@
       <c r="AP81" s="19"/>
       <c r="AQ81" s="19"/>
       <c r="AR81" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.25">
@@ -6383,7 +6699,7 @@
       <c r="AP82" s="19"/>
       <c r="AQ82" s="19"/>
       <c r="AR82" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
@@ -6431,7 +6747,7 @@
       <c r="AP83" s="19"/>
       <c r="AQ83" s="19"/>
       <c r="AR83" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
@@ -6479,7 +6795,7 @@
       <c r="AP84" s="19"/>
       <c r="AQ84" s="19"/>
       <c r="AR84" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
@@ -6527,7 +6843,7 @@
       <c r="AP85" s="19"/>
       <c r="AQ85" s="19"/>
       <c r="AR85" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
@@ -6575,7 +6891,7 @@
       <c r="AP86" s="19"/>
       <c r="AQ86" s="19"/>
       <c r="AR86" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
@@ -6623,7 +6939,7 @@
       <c r="AP87" s="19"/>
       <c r="AQ87" s="19"/>
       <c r="AR87" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
@@ -6671,7 +6987,7 @@
       <c r="AP88" s="19"/>
       <c r="AQ88" s="19"/>
       <c r="AR88" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
@@ -6719,7 +7035,7 @@
       <c r="AP89" s="19"/>
       <c r="AQ89" s="19"/>
       <c r="AR89" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.25">
@@ -6767,7 +7083,7 @@
       <c r="AP90" s="19"/>
       <c r="AQ90" s="19"/>
       <c r="AR90" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.25">
@@ -6815,7 +7131,7 @@
       <c r="AP91" s="19"/>
       <c r="AQ91" s="19"/>
       <c r="AR91" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.25">
@@ -6863,7 +7179,7 @@
       <c r="AP92" s="19"/>
       <c r="AQ92" s="19"/>
       <c r="AR92" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
@@ -6911,7 +7227,7 @@
       <c r="AP93" s="19"/>
       <c r="AQ93" s="19"/>
       <c r="AR93" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
@@ -6959,7 +7275,7 @@
       <c r="AP94" s="19"/>
       <c r="AQ94" s="19"/>
       <c r="AR94" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
@@ -7007,7 +7323,7 @@
       <c r="AP95" s="19"/>
       <c r="AQ95" s="19"/>
       <c r="AR95" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.25">
@@ -7055,7 +7371,7 @@
       <c r="AP96" s="19"/>
       <c r="AQ96" s="19"/>
       <c r="AR96" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.25">
@@ -7103,7 +7419,7 @@
       <c r="AP97" s="19"/>
       <c r="AQ97" s="19"/>
       <c r="AR97" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.25">
@@ -7151,7 +7467,7 @@
       <c r="AP98" s="19"/>
       <c r="AQ98" s="19"/>
       <c r="AR98" s="22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.25">
@@ -7199,7 +7515,7 @@
       <c r="AP99" s="19"/>
       <c r="AQ99" s="19"/>
       <c r="AR99" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.25">
@@ -7247,7 +7563,7 @@
       <c r="AP100" s="19"/>
       <c r="AQ100" s="19"/>
       <c r="AR100" s="22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.25">
@@ -7295,7 +7611,7 @@
       <c r="AP101" s="19"/>
       <c r="AQ101" s="19"/>
       <c r="AR101" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.25">
@@ -7343,7 +7659,7 @@
       <c r="AP102" s="19"/>
       <c r="AQ102" s="19"/>
       <c r="AR102" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.25">
@@ -7391,7 +7707,7 @@
       <c r="AP103" s="19"/>
       <c r="AQ103" s="19"/>
       <c r="AR103" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.25">
@@ -7439,7 +7755,7 @@
       <c r="AP104" s="19"/>
       <c r="AQ104" s="19"/>
       <c r="AR104" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.25">
@@ -7487,7 +7803,7 @@
       <c r="AP105" s="19"/>
       <c r="AQ105" s="19"/>
       <c r="AR105" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.25">
@@ -7535,7 +7851,7 @@
       <c r="AP106" s="19"/>
       <c r="AQ106" s="19"/>
       <c r="AR106" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
@@ -7583,7 +7899,7 @@
       <c r="AP107" s="19"/>
       <c r="AQ107" s="19"/>
       <c r="AR107" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
@@ -7631,7 +7947,7 @@
       <c r="AP108" s="19"/>
       <c r="AQ108" s="19"/>
       <c r="AR108" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.25">
@@ -7679,7 +7995,7 @@
       <c r="AP109" s="19"/>
       <c r="AQ109" s="19"/>
       <c r="AR109" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.25">
@@ -7727,7 +8043,7 @@
       <c r="AP110" s="19"/>
       <c r="AQ110" s="19"/>
       <c r="AR110" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.25">
@@ -7775,7 +8091,7 @@
       <c r="AP111" s="19"/>
       <c r="AQ111" s="19"/>
       <c r="AR111" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.25">
@@ -7823,7 +8139,7 @@
       <c r="AP112" s="19"/>
       <c r="AQ112" s="19"/>
       <c r="AR112" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.25">
@@ -7871,7 +8187,7 @@
       <c r="AP113" s="19"/>
       <c r="AQ113" s="19"/>
       <c r="AR113" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.25">
@@ -7919,7 +8235,7 @@
       <c r="AP114" s="19"/>
       <c r="AQ114" s="19"/>
       <c r="AR114" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.25">
@@ -7967,7 +8283,7 @@
       <c r="AP115" s="19"/>
       <c r="AQ115" s="19"/>
       <c r="AR115" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.25">
@@ -8015,7 +8331,7 @@
       <c r="AP116" s="19"/>
       <c r="AQ116" s="19"/>
       <c r="AR116" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.25">
@@ -8063,7 +8379,7 @@
       <c r="AP117" s="19"/>
       <c r="AQ117" s="19"/>
       <c r="AR117" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.25">
@@ -8111,7 +8427,7 @@
       <c r="AP118" s="19"/>
       <c r="AQ118" s="19"/>
       <c r="AR118" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.25">
@@ -8159,7 +8475,7 @@
       <c r="AP119" s="19"/>
       <c r="AQ119" s="19"/>
       <c r="AR119" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.25">
@@ -8207,7 +8523,7 @@
       <c r="AP120" s="19"/>
       <c r="AQ120" s="19"/>
       <c r="AR120" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.25">
@@ -8255,7 +8571,7 @@
       <c r="AP121" s="19"/>
       <c r="AQ121" s="19"/>
       <c r="AR121" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.25">
@@ -8303,7 +8619,7 @@
       <c r="AP122" s="19"/>
       <c r="AQ122" s="19"/>
       <c r="AR122" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.25">
@@ -8351,7 +8667,7 @@
       <c r="AP123" s="19"/>
       <c r="AQ123" s="19"/>
       <c r="AR123" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:44" x14ac:dyDescent="0.25">
@@ -8399,7 +8715,7 @@
       <c r="AP124" s="19"/>
       <c r="AQ124" s="19"/>
       <c r="AR124" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.25">
@@ -8447,7 +8763,7 @@
       <c r="AP125" s="19"/>
       <c r="AQ125" s="19"/>
       <c r="AR125" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.25">
@@ -8495,7 +8811,7 @@
       <c r="AP126" s="19"/>
       <c r="AQ126" s="19"/>
       <c r="AR126" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.25">
@@ -8543,7 +8859,7 @@
       <c r="AP127" s="19"/>
       <c r="AQ127" s="19"/>
       <c r="AR127" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.25">
@@ -8591,7 +8907,7 @@
       <c r="AP128" s="19"/>
       <c r="AQ128" s="19"/>
       <c r="AR128" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.25">
@@ -8639,7 +8955,7 @@
       <c r="AP129" s="19"/>
       <c r="AQ129" s="19"/>
       <c r="AR129" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.25">
@@ -8687,7 +9003,7 @@
       <c r="AP130" s="19"/>
       <c r="AQ130" s="19"/>
       <c r="AR130" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.25">
@@ -8735,7 +9051,7 @@
       <c r="AP131" s="19"/>
       <c r="AQ131" s="19"/>
       <c r="AR131" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.25">
@@ -8783,7 +9099,7 @@
       <c r="AP132" s="19"/>
       <c r="AQ132" s="19"/>
       <c r="AR132" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.25">
@@ -8831,7 +9147,7 @@
       <c r="AP133" s="19"/>
       <c r="AQ133" s="19"/>
       <c r="AR133" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:44" x14ac:dyDescent="0.25">
@@ -8879,7 +9195,7 @@
       <c r="AP134" s="19"/>
       <c r="AQ134" s="19"/>
       <c r="AR134" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:44" x14ac:dyDescent="0.25">
@@ -8927,7 +9243,7 @@
       <c r="AP135" s="19"/>
       <c r="AQ135" s="19"/>
       <c r="AR135" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:44" x14ac:dyDescent="0.25">
@@ -8975,7 +9291,7 @@
       <c r="AP136" s="19"/>
       <c r="AQ136" s="19"/>
       <c r="AR136" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:44" x14ac:dyDescent="0.25">
@@ -9023,7 +9339,7 @@
       <c r="AP137" s="19"/>
       <c r="AQ137" s="19"/>
       <c r="AR137" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:44" x14ac:dyDescent="0.25">
@@ -9071,7 +9387,7 @@
       <c r="AP138" s="19"/>
       <c r="AQ138" s="19"/>
       <c r="AR138" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:44" x14ac:dyDescent="0.25">
@@ -9119,7 +9435,7 @@
       <c r="AP139" s="19"/>
       <c r="AQ139" s="19"/>
       <c r="AR139" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.25">
@@ -9167,7 +9483,7 @@
       <c r="AP140" s="19"/>
       <c r="AQ140" s="19"/>
       <c r="AR140" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.25">
@@ -9215,7 +9531,7 @@
       <c r="AP141" s="19"/>
       <c r="AQ141" s="19"/>
       <c r="AR141" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:44" x14ac:dyDescent="0.25">
@@ -9263,7 +9579,7 @@
       <c r="AP142" s="19"/>
       <c r="AQ142" s="19"/>
       <c r="AR142" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:44" x14ac:dyDescent="0.25">
@@ -9311,7 +9627,7 @@
       <c r="AP143" s="19"/>
       <c r="AQ143" s="19"/>
       <c r="AR143" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:44" x14ac:dyDescent="0.25">
@@ -9359,7 +9675,7 @@
       <c r="AP144" s="19"/>
       <c r="AQ144" s="19"/>
       <c r="AR144" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.25">
@@ -9407,7 +9723,7 @@
       <c r="AP145" s="19"/>
       <c r="AQ145" s="19"/>
       <c r="AR145" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.25">
@@ -9455,7 +9771,7 @@
       <c r="AP146" s="19"/>
       <c r="AQ146" s="19"/>
       <c r="AR146" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.25">
@@ -9503,7 +9819,7 @@
       <c r="AP147" s="19"/>
       <c r="AQ147" s="19"/>
       <c r="AR147" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.25">
@@ -9551,7 +9867,7 @@
       <c r="AP148" s="19"/>
       <c r="AQ148" s="19"/>
       <c r="AR148" s="22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.25">
@@ -9599,7 +9915,7 @@
       <c r="AP149" s="19"/>
       <c r="AQ149" s="19"/>
       <c r="AR149" s="22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.25">
@@ -9647,7 +9963,7 @@
       <c r="AP150" s="19"/>
       <c r="AQ150" s="19"/>
       <c r="AR150" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:44" x14ac:dyDescent="0.25">
@@ -9695,7 +10011,7 @@
       <c r="AP151" s="19"/>
       <c r="AQ151" s="19"/>
       <c r="AR151" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:44" x14ac:dyDescent="0.25">
@@ -9743,7 +10059,7 @@
       <c r="AP152" s="19"/>
       <c r="AQ152" s="19"/>
       <c r="AR152" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.25">
@@ -9791,7 +10107,7 @@
       <c r="AP153" s="19"/>
       <c r="AQ153" s="19"/>
       <c r="AR153" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.25">
@@ -9839,7 +10155,7 @@
       <c r="AP154" s="19"/>
       <c r="AQ154" s="19"/>
       <c r="AR154" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.25">
@@ -9887,7 +10203,7 @@
       <c r="AP155" s="19"/>
       <c r="AQ155" s="19"/>
       <c r="AR155" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.25">
@@ -9935,7 +10251,7 @@
       <c r="AP156" s="19"/>
       <c r="AQ156" s="19"/>
       <c r="AR156" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.25">
@@ -9983,7 +10299,7 @@
       <c r="AP157" s="19"/>
       <c r="AQ157" s="19"/>
       <c r="AR157" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.25">
@@ -10031,7 +10347,7 @@
       <c r="AP158" s="19"/>
       <c r="AQ158" s="19"/>
       <c r="AR158" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.25">
@@ -10079,7 +10395,7 @@
       <c r="AP159" s="19"/>
       <c r="AQ159" s="19"/>
       <c r="AR159" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.25">
@@ -10127,7 +10443,7 @@
       <c r="AP160" s="19"/>
       <c r="AQ160" s="19"/>
       <c r="AR160" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.25">
@@ -10175,7 +10491,7 @@
       <c r="AP161" s="19"/>
       <c r="AQ161" s="19"/>
       <c r="AR161" s="22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.25">
@@ -10223,7 +10539,7 @@
       <c r="AP162" s="19"/>
       <c r="AQ162" s="19"/>
       <c r="AR162" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="163" spans="1:44" x14ac:dyDescent="0.25">
@@ -10271,7 +10587,7 @@
       <c r="AP163" s="19"/>
       <c r="AQ163" s="19"/>
       <c r="AR163" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="164" spans="1:44" x14ac:dyDescent="0.25">
@@ -10319,7 +10635,7 @@
       <c r="AP164" s="19"/>
       <c r="AQ164" s="19"/>
       <c r="AR164" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.25">
@@ -10367,7 +10683,7 @@
       <c r="AP165" s="19"/>
       <c r="AQ165" s="19"/>
       <c r="AR165" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="1:44" x14ac:dyDescent="0.25">
@@ -10415,7 +10731,7 @@
       <c r="AP166" s="19"/>
       <c r="AQ166" s="19"/>
       <c r="AR166" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:44" x14ac:dyDescent="0.25">
@@ -10463,7 +10779,7 @@
       <c r="AP167" s="19"/>
       <c r="AQ167" s="19"/>
       <c r="AR167" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:44" x14ac:dyDescent="0.25">
@@ -10511,7 +10827,7 @@
       <c r="AP168" s="19"/>
       <c r="AQ168" s="19"/>
       <c r="AR168" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="169" spans="1:44" x14ac:dyDescent="0.25">
@@ -10559,7 +10875,7 @@
       <c r="AP169" s="19"/>
       <c r="AQ169" s="19"/>
       <c r="AR169" s="22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="1:44" x14ac:dyDescent="0.25">
@@ -10607,7 +10923,7 @@
       <c r="AP170" s="19"/>
       <c r="AQ170" s="19"/>
       <c r="AR170" s="22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:44" x14ac:dyDescent="0.25">
@@ -10655,7 +10971,7 @@
       <c r="AP171" s="19"/>
       <c r="AQ171" s="19"/>
       <c r="AR171" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:44" x14ac:dyDescent="0.25">
@@ -10703,7 +11019,7 @@
       <c r="AP172" s="19"/>
       <c r="AQ172" s="19"/>
       <c r="AR172" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.25">
@@ -10751,7 +11067,7 @@
       <c r="AP173" s="19"/>
       <c r="AQ173" s="19"/>
       <c r="AR173" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:44" x14ac:dyDescent="0.25">
@@ -10799,7 +11115,7 @@
       <c r="AP174" s="19"/>
       <c r="AQ174" s="19"/>
       <c r="AR174" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="1:44" x14ac:dyDescent="0.25">
@@ -10847,7 +11163,7 @@
       <c r="AP175" s="19"/>
       <c r="AQ175" s="19"/>
       <c r="AR175" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="1:44" x14ac:dyDescent="0.25">
@@ -10895,7 +11211,7 @@
       <c r="AP176" s="19"/>
       <c r="AQ176" s="19"/>
       <c r="AR176" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="177" spans="1:44" x14ac:dyDescent="0.25">
@@ -10943,7 +11259,7 @@
       <c r="AP177" s="19"/>
       <c r="AQ177" s="19"/>
       <c r="AR177" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:44" x14ac:dyDescent="0.25">
@@ -10991,7 +11307,7 @@
       <c r="AP178" s="19"/>
       <c r="AQ178" s="19"/>
       <c r="AR178" s="22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:44" x14ac:dyDescent="0.25">
@@ -11039,7 +11355,7 @@
       <c r="AP179" s="19"/>
       <c r="AQ179" s="19"/>
       <c r="AR179" s="22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="1:44" x14ac:dyDescent="0.25">
@@ -11087,7 +11403,7 @@
       <c r="AP180" s="19"/>
       <c r="AQ180" s="19"/>
       <c r="AR180" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.25">
@@ -11135,7 +11451,7 @@
       <c r="AP181" s="19"/>
       <c r="AQ181" s="19"/>
       <c r="AR181" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="182" spans="1:44" x14ac:dyDescent="0.25">
@@ -11183,7 +11499,7 @@
       <c r="AP182" s="19"/>
       <c r="AQ182" s="19"/>
       <c r="AR182" s="22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="1:44" x14ac:dyDescent="0.25">
@@ -11231,7 +11547,7 @@
       <c r="AP183" s="19"/>
       <c r="AQ183" s="19"/>
       <c r="AR183" s="22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184" spans="1:44" x14ac:dyDescent="0.25">
@@ -11279,7 +11595,7 @@
       <c r="AP184" s="19"/>
       <c r="AQ184" s="19"/>
       <c r="AR184" s="22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="1:44" x14ac:dyDescent="0.25">
@@ -11327,7 +11643,7 @@
       <c r="AP185" s="19"/>
       <c r="AQ185" s="19"/>
       <c r="AR185" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:44" x14ac:dyDescent="0.25">
@@ -11375,7 +11691,7 @@
       <c r="AP186" s="19"/>
       <c r="AQ186" s="19"/>
       <c r="AR186" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:44" x14ac:dyDescent="0.25">
@@ -11423,7 +11739,7 @@
       <c r="AP187" s="19"/>
       <c r="AQ187" s="19"/>
       <c r="AR187" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="188" spans="1:44" x14ac:dyDescent="0.25">
@@ -11471,7 +11787,7 @@
       <c r="AP188" s="19"/>
       <c r="AQ188" s="19"/>
       <c r="AR188" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.25">
@@ -11519,7 +11835,7 @@
       <c r="AP189" s="19"/>
       <c r="AQ189" s="19"/>
       <c r="AR189" s="22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:44" x14ac:dyDescent="0.25">
@@ -11567,7 +11883,7 @@
       <c r="AP190" s="19"/>
       <c r="AQ190" s="19"/>
       <c r="AR190" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="191" spans="1:44" x14ac:dyDescent="0.25">
@@ -11615,7 +11931,7 @@
       <c r="AP191" s="19"/>
       <c r="AQ191" s="19"/>
       <c r="AR191" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:44" x14ac:dyDescent="0.25">
@@ -11663,7 +11979,7 @@
       <c r="AP192" s="19"/>
       <c r="AQ192" s="19"/>
       <c r="AR192" s="22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="1:44" x14ac:dyDescent="0.25">
@@ -11711,7 +12027,7 @@
       <c r="AP193" s="19"/>
       <c r="AQ193" s="19"/>
       <c r="AR193" s="22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:44" x14ac:dyDescent="0.25">
@@ -11759,7 +12075,7 @@
       <c r="AP194" s="19"/>
       <c r="AQ194" s="19"/>
       <c r="AR194" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" spans="1:44" x14ac:dyDescent="0.25">
@@ -11807,7 +12123,7 @@
       <c r="AP195" s="19"/>
       <c r="AQ195" s="19"/>
       <c r="AR195" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="1:44" x14ac:dyDescent="0.25">
@@ -11855,7 +12171,7 @@
       <c r="AP196" s="19"/>
       <c r="AQ196" s="19"/>
       <c r="AR196" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.25">
@@ -11903,7 +12219,7 @@
       <c r="AP197" s="19"/>
       <c r="AQ197" s="19"/>
       <c r="AR197" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:44" x14ac:dyDescent="0.25">
@@ -11951,7 +12267,7 @@
       <c r="AP198" s="19"/>
       <c r="AQ198" s="19"/>
       <c r="AR198" s="22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:44" x14ac:dyDescent="0.25">
@@ -11999,7 +12315,7 @@
       <c r="AP199" s="19"/>
       <c r="AQ199" s="19"/>
       <c r="AR199" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:44" x14ac:dyDescent="0.25">
@@ -12047,7 +12363,7 @@
       <c r="AP200" s="19"/>
       <c r="AQ200" s="19"/>
       <c r="AR200" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="1:44" x14ac:dyDescent="0.25">
@@ -12095,7 +12411,7 @@
       <c r="AP201" s="19"/>
       <c r="AQ201" s="19"/>
       <c r="AR201" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="1:44" x14ac:dyDescent="0.25">
@@ -12143,7 +12459,7 @@
       <c r="AP202" s="19"/>
       <c r="AQ202" s="19"/>
       <c r="AR202" s="22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" spans="1:44" x14ac:dyDescent="0.25">
@@ -12191,7 +12507,7 @@
       <c r="AP203" s="19"/>
       <c r="AQ203" s="19"/>
       <c r="AR203" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="1:44" x14ac:dyDescent="0.25">
@@ -12239,7 +12555,7 @@
       <c r="AP204" s="19"/>
       <c r="AQ204" s="19"/>
       <c r="AR204" s="22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:44" x14ac:dyDescent="0.25">
@@ -12287,7 +12603,7 @@
       <c r="AP205" s="19"/>
       <c r="AQ205" s="19"/>
       <c r="AR205" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="1:44" x14ac:dyDescent="0.25">
@@ -12335,7 +12651,7 @@
       <c r="AP206" s="19"/>
       <c r="AQ206" s="19"/>
       <c r="AR206" s="22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207" spans="1:44" x14ac:dyDescent="0.25">
@@ -12383,7 +12699,7 @@
       <c r="AP207" s="19"/>
       <c r="AQ207" s="19"/>
       <c r="AR207" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="1:44" x14ac:dyDescent="0.25">
@@ -12431,7 +12747,7 @@
       <c r="AP208" s="19"/>
       <c r="AQ208" s="19"/>
       <c r="AR208" s="22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:44" x14ac:dyDescent="0.25">
@@ -12479,7 +12795,7 @@
       <c r="AP209" s="19"/>
       <c r="AQ209" s="19"/>
       <c r="AR209" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" spans="1:44" x14ac:dyDescent="0.25">
@@ -12527,7 +12843,7 @@
       <c r="AP210" s="19"/>
       <c r="AQ210" s="19"/>
       <c r="AR210" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="1:44" x14ac:dyDescent="0.25">
@@ -12575,7 +12891,7 @@
       <c r="AP211" s="19"/>
       <c r="AQ211" s="19"/>
       <c r="AR211" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="212" spans="1:44" x14ac:dyDescent="0.25">
@@ -12623,7 +12939,7 @@
       <c r="AP212" s="19"/>
       <c r="AQ212" s="19"/>
       <c r="AR212" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.25">
@@ -12671,7 +12987,7 @@
       <c r="AP213" s="19"/>
       <c r="AQ213" s="19"/>
       <c r="AR213" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:44" x14ac:dyDescent="0.25">
@@ -12719,7 +13035,7 @@
       <c r="AP214" s="19"/>
       <c r="AQ214" s="19"/>
       <c r="AR214" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="215" spans="1:44" x14ac:dyDescent="0.25">
@@ -12767,7 +13083,7 @@
       <c r="AP215" s="19"/>
       <c r="AQ215" s="19"/>
       <c r="AR215" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="216" spans="1:44" x14ac:dyDescent="0.25">
@@ -12815,7 +13131,7 @@
       <c r="AP216" s="19"/>
       <c r="AQ216" s="19"/>
       <c r="AR216" s="22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="1:44" x14ac:dyDescent="0.25">
@@ -12863,7 +13179,7 @@
       <c r="AP217" s="19"/>
       <c r="AQ217" s="19"/>
       <c r="AR217" s="22" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="218" spans="1:44" x14ac:dyDescent="0.25">
@@ -12911,7 +13227,7 @@
       <c r="AP218" s="19"/>
       <c r="AQ218" s="19"/>
       <c r="AR218" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:44" x14ac:dyDescent="0.25">
@@ -12959,7 +13275,7 @@
       <c r="AP219" s="19"/>
       <c r="AQ219" s="19"/>
       <c r="AR219" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220" spans="1:44" x14ac:dyDescent="0.25">
@@ -13007,7 +13323,7 @@
       <c r="AP220" s="19"/>
       <c r="AQ220" s="19"/>
       <c r="AR220" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="221" spans="1:44" x14ac:dyDescent="0.25">
@@ -13055,7 +13371,7 @@
       <c r="AP221" s="19"/>
       <c r="AQ221" s="19"/>
       <c r="AR221" s="22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" spans="1:44" x14ac:dyDescent="0.25">
@@ -13103,7 +13419,7 @@
       <c r="AP222" s="19"/>
       <c r="AQ222" s="19"/>
       <c r="AR222" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="223" spans="1:44" x14ac:dyDescent="0.25">
@@ -13151,7 +13467,7 @@
       <c r="AP223" s="19"/>
       <c r="AQ223" s="19"/>
       <c r="AR223" s="22" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="1:44" x14ac:dyDescent="0.25">
@@ -13199,7 +13515,7 @@
       <c r="AP224" s="19"/>
       <c r="AQ224" s="19"/>
       <c r="AR224" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225" spans="1:44" x14ac:dyDescent="0.25">
@@ -13247,7 +13563,7 @@
       <c r="AP225" s="19"/>
       <c r="AQ225" s="19"/>
       <c r="AR225" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="1:44" x14ac:dyDescent="0.25">
@@ -13295,7 +13611,7 @@
       <c r="AP226" s="19"/>
       <c r="AQ226" s="19"/>
       <c r="AR226" s="22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="227" spans="1:44" x14ac:dyDescent="0.25">
@@ -13343,7 +13659,7 @@
       <c r="AP227" s="19"/>
       <c r="AQ227" s="19"/>
       <c r="AR227" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" spans="1:44" x14ac:dyDescent="0.25">
@@ -13391,7 +13707,7 @@
       <c r="AP228" s="19"/>
       <c r="AQ228" s="19"/>
       <c r="AR228" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="1:44" x14ac:dyDescent="0.25">
@@ -13439,7 +13755,7 @@
       <c r="AP229" s="19"/>
       <c r="AQ229" s="19"/>
       <c r="AR229" s="22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:44" x14ac:dyDescent="0.25">
@@ -13487,7 +13803,7 @@
       <c r="AP230" s="19"/>
       <c r="AQ230" s="19"/>
       <c r="AR230" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="231" spans="1:44" x14ac:dyDescent="0.25">
@@ -13535,7 +13851,7 @@
       <c r="AP231" s="19"/>
       <c r="AQ231" s="19"/>
       <c r="AR231" s="22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" spans="1:44" x14ac:dyDescent="0.25">
@@ -13583,7 +13899,7 @@
       <c r="AP232" s="19"/>
       <c r="AQ232" s="19"/>
       <c r="AR232" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" spans="1:44" x14ac:dyDescent="0.25">
@@ -13631,7 +13947,7 @@
       <c r="AP233" s="19"/>
       <c r="AQ233" s="19"/>
       <c r="AR233" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="234" spans="1:44" x14ac:dyDescent="0.25">
@@ -13679,7 +13995,7 @@
       <c r="AP234" s="19"/>
       <c r="AQ234" s="19"/>
       <c r="AR234" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235" spans="1:44" x14ac:dyDescent="0.25">
@@ -13727,7 +14043,7 @@
       <c r="AP235" s="19"/>
       <c r="AQ235" s="19"/>
       <c r="AR235" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="236" spans="1:44" x14ac:dyDescent="0.25">
@@ -13775,7 +14091,7 @@
       <c r="AP236" s="19"/>
       <c r="AQ236" s="19"/>
       <c r="AR236" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" spans="1:44" x14ac:dyDescent="0.25">
@@ -13823,7 +14139,7 @@
       <c r="AP237" s="19"/>
       <c r="AQ237" s="19"/>
       <c r="AR237" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" spans="1:44" x14ac:dyDescent="0.25">
@@ -13871,7 +14187,7 @@
       <c r="AP238" s="19"/>
       <c r="AQ238" s="19"/>
       <c r="AR238" s="22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="239" spans="1:44" x14ac:dyDescent="0.25">
@@ -13919,7 +14235,7 @@
       <c r="AP239" s="19"/>
       <c r="AQ239" s="19"/>
       <c r="AR239" s="22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="240" spans="1:44" x14ac:dyDescent="0.25">
@@ -13967,7 +14283,7 @@
       <c r="AP240" s="19"/>
       <c r="AQ240" s="19"/>
       <c r="AR240" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="241" spans="1:44" x14ac:dyDescent="0.25">
@@ -14015,7 +14331,7 @@
       <c r="AP241" s="19"/>
       <c r="AQ241" s="19"/>
       <c r="AR241" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="242" spans="1:44" x14ac:dyDescent="0.25">
@@ -14063,7 +14379,7 @@
       <c r="AP242" s="19"/>
       <c r="AQ242" s="19"/>
       <c r="AR242" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="243" spans="1:44" x14ac:dyDescent="0.25">
@@ -14111,7 +14427,7 @@
       <c r="AP243" s="19"/>
       <c r="AQ243" s="19"/>
       <c r="AR243" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="244" spans="1:44" x14ac:dyDescent="0.25">
@@ -14159,7 +14475,7 @@
       <c r="AP244" s="19"/>
       <c r="AQ244" s="19"/>
       <c r="AR244" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="245" spans="1:44" x14ac:dyDescent="0.25">
@@ -14207,7 +14523,7 @@
       <c r="AP245" s="19"/>
       <c r="AQ245" s="19"/>
       <c r="AR245" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="246" spans="1:44" x14ac:dyDescent="0.25">
@@ -14255,7 +14571,7 @@
       <c r="AP246" s="19"/>
       <c r="AQ246" s="19"/>
       <c r="AR246" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="247" spans="1:44" x14ac:dyDescent="0.25">
@@ -14303,7 +14619,7 @@
       <c r="AP247" s="19"/>
       <c r="AQ247" s="19"/>
       <c r="AR247" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="248" spans="1:44" x14ac:dyDescent="0.25">
@@ -14351,7 +14667,7 @@
       <c r="AP248" s="19"/>
       <c r="AQ248" s="19"/>
       <c r="AR248" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="249" spans="1:44" x14ac:dyDescent="0.25">
@@ -14399,7 +14715,7 @@
       <c r="AP249" s="19"/>
       <c r="AQ249" s="19"/>
       <c r="AR249" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="250" spans="1:44" x14ac:dyDescent="0.25">
@@ -14447,7 +14763,7 @@
       <c r="AP250" s="19"/>
       <c r="AQ250" s="19"/>
       <c r="AR250" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="251" spans="1:44" x14ac:dyDescent="0.25">
@@ -14495,7 +14811,7 @@
       <c r="AP251" s="19"/>
       <c r="AQ251" s="19"/>
       <c r="AR251" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="252" spans="1:44" x14ac:dyDescent="0.25">
@@ -14543,7 +14859,7 @@
       <c r="AP252" s="19"/>
       <c r="AQ252" s="19"/>
       <c r="AR252" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:44" x14ac:dyDescent="0.25">
@@ -14591,7 +14907,7 @@
       <c r="AP253" s="19"/>
       <c r="AQ253" s="19"/>
       <c r="AR253" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="254" spans="1:44" x14ac:dyDescent="0.25">
@@ -14639,7 +14955,7 @@
       <c r="AP254" s="19"/>
       <c r="AQ254" s="19"/>
       <c r="AR254" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="255" spans="1:44" x14ac:dyDescent="0.25">
@@ -14687,7 +15003,7 @@
       <c r="AP255" s="19"/>
       <c r="AQ255" s="19"/>
       <c r="AR255" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="256" spans="1:44" x14ac:dyDescent="0.25">
@@ -14735,7 +15051,7 @@
       <c r="AP256" s="19"/>
       <c r="AQ256" s="19"/>
       <c r="AR256" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="257" spans="1:44" x14ac:dyDescent="0.25">
@@ -14783,7 +15099,7 @@
       <c r="AP257" s="19"/>
       <c r="AQ257" s="19"/>
       <c r="AR257" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="258" spans="1:44" x14ac:dyDescent="0.25">
@@ -14831,7 +15147,7 @@
       <c r="AP258" s="19"/>
       <c r="AQ258" s="19"/>
       <c r="AR258" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="259" spans="1:44" x14ac:dyDescent="0.25">
@@ -14879,7 +15195,7 @@
       <c r="AP259" s="19"/>
       <c r="AQ259" s="19"/>
       <c r="AR259" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="260" spans="1:44" x14ac:dyDescent="0.25">
@@ -14927,7 +15243,7 @@
       <c r="AP260" s="19"/>
       <c r="AQ260" s="19"/>
       <c r="AR260" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="261" spans="1:44" x14ac:dyDescent="0.25">
@@ -14975,7 +15291,7 @@
       <c r="AP261" s="19"/>
       <c r="AQ261" s="19"/>
       <c r="AR261" s="22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="262" spans="1:44" x14ac:dyDescent="0.25">
@@ -15023,7 +15339,7 @@
       <c r="AP262" s="19"/>
       <c r="AQ262" s="19"/>
       <c r="AR262" s="22" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="263" spans="1:44" x14ac:dyDescent="0.25">
@@ -15071,7 +15387,7 @@
       <c r="AP263" s="19"/>
       <c r="AQ263" s="19"/>
       <c r="AR263" s="22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="264" spans="1:44" x14ac:dyDescent="0.25">
@@ -15119,7 +15435,7 @@
       <c r="AP264" s="19"/>
       <c r="AQ264" s="19"/>
       <c r="AR264" s="22" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="265" spans="1:44" x14ac:dyDescent="0.25">
@@ -15167,7 +15483,7 @@
       <c r="AP265" s="19"/>
       <c r="AQ265" s="19"/>
       <c r="AR265" s="22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="266" spans="1:44" x14ac:dyDescent="0.25">
@@ -15215,7 +15531,7 @@
       <c r="AP266" s="19"/>
       <c r="AQ266" s="19"/>
       <c r="AR266" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="267" spans="1:44" x14ac:dyDescent="0.25">
@@ -15263,7 +15579,7 @@
       <c r="AP267" s="19"/>
       <c r="AQ267" s="19"/>
       <c r="AR267" s="22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="268" spans="1:44" x14ac:dyDescent="0.25">
@@ -15311,7 +15627,7 @@
       <c r="AP268" s="19"/>
       <c r="AQ268" s="19"/>
       <c r="AR268" s="22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="269" spans="1:44" x14ac:dyDescent="0.25">
@@ -15359,7 +15675,7 @@
       <c r="AP269" s="19"/>
       <c r="AQ269" s="19"/>
       <c r="AR269" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="270" spans="1:44" x14ac:dyDescent="0.25">
@@ -15407,7 +15723,7 @@
       <c r="AP270" s="19"/>
       <c r="AQ270" s="19"/>
       <c r="AR270" s="22" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="271" spans="1:44" x14ac:dyDescent="0.25">
@@ -15455,7 +15771,7 @@
       <c r="AP271" s="19"/>
       <c r="AQ271" s="19"/>
       <c r="AR271" s="22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="272" spans="1:44" x14ac:dyDescent="0.25">
@@ -15503,7 +15819,7 @@
       <c r="AP272" s="19"/>
       <c r="AQ272" s="19"/>
       <c r="AR272" s="22" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="273" spans="1:44" x14ac:dyDescent="0.25">
@@ -15551,7 +15867,7 @@
       <c r="AP273" s="19"/>
       <c r="AQ273" s="19"/>
       <c r="AR273" s="22" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="274" spans="1:44" x14ac:dyDescent="0.25">
@@ -15599,7 +15915,7 @@
       <c r="AP274" s="19"/>
       <c r="AQ274" s="19"/>
       <c r="AR274" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="275" spans="1:44" x14ac:dyDescent="0.25">
@@ -15647,7 +15963,7 @@
       <c r="AP275" s="19"/>
       <c r="AQ275" s="19"/>
       <c r="AR275" s="22" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:44" x14ac:dyDescent="0.25">
@@ -15695,7 +16011,7 @@
       <c r="AP276" s="19"/>
       <c r="AQ276" s="19"/>
       <c r="AR276" s="22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="277" spans="1:44" x14ac:dyDescent="0.25">
@@ -15743,7 +16059,7 @@
       <c r="AP277" s="19"/>
       <c r="AQ277" s="19"/>
       <c r="AR277" s="22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278" spans="1:44" x14ac:dyDescent="0.25">
@@ -15791,7 +16107,7 @@
       <c r="AP278" s="19"/>
       <c r="AQ278" s="19"/>
       <c r="AR278" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="279" spans="1:44" x14ac:dyDescent="0.25">
@@ -15839,7 +16155,7 @@
       <c r="AP279" s="19"/>
       <c r="AQ279" s="19"/>
       <c r="AR279" s="22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="280" spans="1:44" x14ac:dyDescent="0.25">
@@ -15887,7 +16203,7 @@
       <c r="AP280" s="19"/>
       <c r="AQ280" s="19"/>
       <c r="AR280" s="22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="281" spans="1:44" x14ac:dyDescent="0.25">
@@ -15935,7 +16251,7 @@
       <c r="AP281" s="19"/>
       <c r="AQ281" s="19"/>
       <c r="AR281" s="22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="282" spans="1:44" x14ac:dyDescent="0.25">
@@ -15983,7 +16299,7 @@
       <c r="AP282" s="19"/>
       <c r="AQ282" s="19"/>
       <c r="AR282" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="283" spans="1:44" x14ac:dyDescent="0.25">
@@ -16031,7 +16347,7 @@
       <c r="AP283" s="19"/>
       <c r="AQ283" s="19"/>
       <c r="AR283" s="22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="284" spans="1:44" x14ac:dyDescent="0.25">
@@ -16079,7 +16395,7 @@
       <c r="AP284" s="19"/>
       <c r="AQ284" s="19"/>
       <c r="AR284" s="22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="285" spans="1:44" x14ac:dyDescent="0.25">
@@ -16127,7 +16443,7 @@
       <c r="AP285" s="19"/>
       <c r="AQ285" s="19"/>
       <c r="AR285" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:44" x14ac:dyDescent="0.25">
@@ -16175,7 +16491,7 @@
       <c r="AP286" s="19"/>
       <c r="AQ286" s="19"/>
       <c r="AR286" s="22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="287" spans="1:44" x14ac:dyDescent="0.25">
@@ -16223,7 +16539,7 @@
       <c r="AP287" s="19"/>
       <c r="AQ287" s="19"/>
       <c r="AR287" s="22" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="1:44" x14ac:dyDescent="0.25">
@@ -16271,7 +16587,7 @@
       <c r="AP288" s="19"/>
       <c r="AQ288" s="19"/>
       <c r="AR288" s="22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="289" spans="1:44" x14ac:dyDescent="0.25">
@@ -16319,7 +16635,7 @@
       <c r="AP289" s="19"/>
       <c r="AQ289" s="19"/>
       <c r="AR289" s="22" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290" spans="1:44" x14ac:dyDescent="0.25">
@@ -16367,7 +16683,7 @@
       <c r="AP290" s="19"/>
       <c r="AQ290" s="19"/>
       <c r="AR290" s="22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="291" spans="1:44" x14ac:dyDescent="0.25">
@@ -16415,7 +16731,7 @@
       <c r="AP291" s="19"/>
       <c r="AQ291" s="19"/>
       <c r="AR291" s="22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="292" spans="1:44" x14ac:dyDescent="0.25">
@@ -16463,7 +16779,7 @@
       <c r="AP292" s="19"/>
       <c r="AQ292" s="19"/>
       <c r="AR292" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="293" spans="1:44" x14ac:dyDescent="0.25">
@@ -16511,7 +16827,7 @@
       <c r="AP293" s="19"/>
       <c r="AQ293" s="19"/>
       <c r="AR293" s="22" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="294" spans="1:44" x14ac:dyDescent="0.25">
@@ -16559,7 +16875,7 @@
       <c r="AP294" s="19"/>
       <c r="AQ294" s="19"/>
       <c r="AR294" s="22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="295" spans="1:44" x14ac:dyDescent="0.25">
@@ -16607,7 +16923,7 @@
       <c r="AP295" s="19"/>
       <c r="AQ295" s="19"/>
       <c r="AR295" s="22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="296" spans="1:44" x14ac:dyDescent="0.25">
@@ -16655,7 +16971,7 @@
       <c r="AP296" s="19"/>
       <c r="AQ296" s="19"/>
       <c r="AR296" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="297" spans="1:44" x14ac:dyDescent="0.25">
@@ -16703,7 +17019,7 @@
       <c r="AP297" s="19"/>
       <c r="AQ297" s="19"/>
       <c r="AR297" s="22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="298" spans="1:44" x14ac:dyDescent="0.25">
@@ -16751,7 +17067,7 @@
       <c r="AP298" s="19"/>
       <c r="AQ298" s="19"/>
       <c r="AR298" s="22" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="299" spans="1:44" x14ac:dyDescent="0.25">
@@ -16799,7 +17115,7 @@
       <c r="AP299" s="19"/>
       <c r="AQ299" s="19"/>
       <c r="AR299" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="300" spans="1:44" x14ac:dyDescent="0.25">
@@ -16847,7 +17163,7 @@
       <c r="AP300" s="19"/>
       <c r="AQ300" s="19"/>
       <c r="AR300" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="301" spans="1:44" x14ac:dyDescent="0.25">
@@ -16895,7 +17211,7 @@
       <c r="AP301" s="19"/>
       <c r="AQ301" s="19"/>
       <c r="AR301" s="22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="302" spans="1:44" x14ac:dyDescent="0.25">
@@ -16943,7 +17259,7 @@
       <c r="AP302" s="19"/>
       <c r="AQ302" s="19"/>
       <c r="AR302" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="303" spans="1:44" x14ac:dyDescent="0.25">
@@ -16991,7 +17307,7 @@
       <c r="AP303" s="19"/>
       <c r="AQ303" s="19"/>
       <c r="AR303" s="22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="304" spans="1:44" x14ac:dyDescent="0.25">
@@ -17039,7 +17355,7 @@
       <c r="AP304" s="19"/>
       <c r="AQ304" s="19"/>
       <c r="AR304" s="22" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="305" spans="1:44" x14ac:dyDescent="0.25">
@@ -17087,7 +17403,7 @@
       <c r="AP305" s="19"/>
       <c r="AQ305" s="19"/>
       <c r="AR305" s="22" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="306" spans="1:44" x14ac:dyDescent="0.25">
@@ -17135,7 +17451,7 @@
       <c r="AP306" s="19"/>
       <c r="AQ306" s="19"/>
       <c r="AR306" s="22" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="307" spans="1:44" x14ac:dyDescent="0.25">
@@ -17183,7 +17499,7 @@
       <c r="AP307" s="19"/>
       <c r="AQ307" s="19"/>
       <c r="AR307" s="22" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="308" spans="1:44" x14ac:dyDescent="0.25">
@@ -17231,7 +17547,7 @@
       <c r="AP308" s="19"/>
       <c r="AQ308" s="19"/>
       <c r="AR308" s="22" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="309" spans="1:44" x14ac:dyDescent="0.25">
@@ -17279,7 +17595,7 @@
       <c r="AP309" s="19"/>
       <c r="AQ309" s="19"/>
       <c r="AR309" s="22" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="310" spans="1:44" x14ac:dyDescent="0.25">
@@ -17327,7 +17643,7 @@
       <c r="AP310" s="19"/>
       <c r="AQ310" s="19"/>
       <c r="AR310" s="22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="311" spans="1:44" x14ac:dyDescent="0.25">
@@ -17375,7 +17691,7 @@
       <c r="AP311" s="19"/>
       <c r="AQ311" s="19"/>
       <c r="AR311" s="22" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="312" spans="1:44" x14ac:dyDescent="0.25">
@@ -17423,7 +17739,7 @@
       <c r="AP312" s="19"/>
       <c r="AQ312" s="19"/>
       <c r="AR312" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="313" spans="1:44" x14ac:dyDescent="0.25">
@@ -17471,7 +17787,7 @@
       <c r="AP313" s="19"/>
       <c r="AQ313" s="19"/>
       <c r="AR313" s="22" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="314" spans="1:44" x14ac:dyDescent="0.25">
@@ -17519,7 +17835,7 @@
       <c r="AP314" s="19"/>
       <c r="AQ314" s="19"/>
       <c r="AR314" s="22" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="315" spans="1:44" x14ac:dyDescent="0.25">
@@ -17567,7 +17883,7 @@
       <c r="AP315" s="19"/>
       <c r="AQ315" s="19"/>
       <c r="AR315" s="22" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="316" spans="1:44" x14ac:dyDescent="0.25">
@@ -17615,7 +17931,7 @@
       <c r="AP316" s="19"/>
       <c r="AQ316" s="19"/>
       <c r="AR316" s="22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="317" spans="1:44" x14ac:dyDescent="0.25">
@@ -17663,7 +17979,7 @@
       <c r="AP317" s="19"/>
       <c r="AQ317" s="19"/>
       <c r="AR317" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="318" spans="1:44" x14ac:dyDescent="0.25">
@@ -17711,7 +18027,7 @@
       <c r="AP318" s="19"/>
       <c r="AQ318" s="19"/>
       <c r="AR318" s="22" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="319" spans="1:44" x14ac:dyDescent="0.25">
@@ -17759,7 +18075,7 @@
       <c r="AP319" s="19"/>
       <c r="AQ319" s="19"/>
       <c r="AR319" s="22" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="320" spans="1:44" x14ac:dyDescent="0.25">
@@ -17807,7 +18123,7 @@
       <c r="AP320" s="19"/>
       <c r="AQ320" s="19"/>
       <c r="AR320" s="22" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="321" spans="1:44" x14ac:dyDescent="0.25">
@@ -17855,7 +18171,7 @@
       <c r="AP321" s="19"/>
       <c r="AQ321" s="19"/>
       <c r="AR321" s="22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="322" spans="1:44" x14ac:dyDescent="0.25">
@@ -17903,7 +18219,7 @@
       <c r="AP322" s="19"/>
       <c r="AQ322" s="19"/>
       <c r="AR322" s="22" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="323" spans="1:44" x14ac:dyDescent="0.25">
@@ -17951,7 +18267,7 @@
       <c r="AP323" s="19"/>
       <c r="AQ323" s="19"/>
       <c r="AR323" s="22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="324" spans="1:44" x14ac:dyDescent="0.25">
@@ -17999,7 +18315,7 @@
       <c r="AP324" s="19"/>
       <c r="AQ324" s="19"/>
       <c r="AR324" s="22" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="325" spans="1:44" x14ac:dyDescent="0.25">
@@ -18047,7 +18363,7 @@
       <c r="AP325" s="19"/>
       <c r="AQ325" s="19"/>
       <c r="AR325" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="326" spans="1:44" x14ac:dyDescent="0.25">
@@ -18095,7 +18411,7 @@
       <c r="AP326" s="19"/>
       <c r="AQ326" s="19"/>
       <c r="AR326" s="22" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="327" spans="1:44" x14ac:dyDescent="0.25">
@@ -18143,7 +18459,7 @@
       <c r="AP327" s="19"/>
       <c r="AQ327" s="19"/>
       <c r="AR327" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="328" spans="1:44" x14ac:dyDescent="0.25">
@@ -18191,7 +18507,7 @@
       <c r="AP328" s="19"/>
       <c r="AQ328" s="19"/>
       <c r="AR328" s="22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="329" spans="1:44" x14ac:dyDescent="0.25">
@@ -18239,7 +18555,7 @@
       <c r="AP329" s="19"/>
       <c r="AQ329" s="19"/>
       <c r="AR329" s="22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="330" spans="1:44" x14ac:dyDescent="0.25">
@@ -18287,7 +18603,7 @@
       <c r="AP330" s="19"/>
       <c r="AQ330" s="19"/>
       <c r="AR330" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="331" spans="1:44" x14ac:dyDescent="0.25">
@@ -18335,7 +18651,7 @@
       <c r="AP331" s="19"/>
       <c r="AQ331" s="19"/>
       <c r="AR331" s="22" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="332" spans="1:44" x14ac:dyDescent="0.25">
@@ -18383,7 +18699,7 @@
       <c r="AP332" s="19"/>
       <c r="AQ332" s="19"/>
       <c r="AR332" s="22" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="333" spans="1:44" x14ac:dyDescent="0.25">
@@ -18431,7 +18747,7 @@
       <c r="AP333" s="19"/>
       <c r="AQ333" s="19"/>
       <c r="AR333" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="334" spans="1:44" x14ac:dyDescent="0.25">
@@ -18479,7 +18795,7 @@
       <c r="AP334" s="19"/>
       <c r="AQ334" s="19"/>
       <c r="AR334" s="22" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="335" spans="1:44" x14ac:dyDescent="0.25">
@@ -18527,7 +18843,7 @@
       <c r="AP335" s="19"/>
       <c r="AQ335" s="19"/>
       <c r="AR335" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="336" spans="1:44" x14ac:dyDescent="0.25">
@@ -18575,7 +18891,7 @@
       <c r="AP336" s="19"/>
       <c r="AQ336" s="19"/>
       <c r="AR336" s="22" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="337" spans="1:44" x14ac:dyDescent="0.25">
@@ -18623,7 +18939,7 @@
       <c r="AP337" s="19"/>
       <c r="AQ337" s="19"/>
       <c r="AR337" s="22" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="338" spans="1:44" x14ac:dyDescent="0.25">
@@ -18671,7 +18987,7 @@
       <c r="AP338" s="19"/>
       <c r="AQ338" s="19"/>
       <c r="AR338" s="22" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="339" spans="1:44" x14ac:dyDescent="0.25">
@@ -18719,7 +19035,7 @@
       <c r="AP339" s="19"/>
       <c r="AQ339" s="19"/>
       <c r="AR339" s="22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="340" spans="1:44" x14ac:dyDescent="0.25">
@@ -18767,7 +19083,7 @@
       <c r="AP340" s="19"/>
       <c r="AQ340" s="19"/>
       <c r="AR340" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="341" spans="1:44" x14ac:dyDescent="0.25">
@@ -18815,7 +19131,7 @@
       <c r="AP341" s="19"/>
       <c r="AQ341" s="19"/>
       <c r="AR341" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="342" spans="1:44" x14ac:dyDescent="0.25">
@@ -18863,7 +19179,7 @@
       <c r="AP342" s="19"/>
       <c r="AQ342" s="19"/>
       <c r="AR342" s="22" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="343" spans="1:44" x14ac:dyDescent="0.25">
@@ -18911,7 +19227,7 @@
       <c r="AP343" s="19"/>
       <c r="AQ343" s="19"/>
       <c r="AR343" s="22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="344" spans="1:44" x14ac:dyDescent="0.25">
@@ -18959,7 +19275,7 @@
       <c r="AP344" s="19"/>
       <c r="AQ344" s="19"/>
       <c r="AR344" s="22" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="345" spans="1:44" x14ac:dyDescent="0.25">
@@ -19007,7 +19323,7 @@
       <c r="AP345" s="19"/>
       <c r="AQ345" s="19"/>
       <c r="AR345" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="346" spans="1:44" x14ac:dyDescent="0.25">
@@ -19055,7 +19371,7 @@
       <c r="AP346" s="19"/>
       <c r="AQ346" s="19"/>
       <c r="AR346" s="22" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="347" spans="1:44" x14ac:dyDescent="0.25">
@@ -19103,7 +19419,7 @@
       <c r="AP347" s="19"/>
       <c r="AQ347" s="19"/>
       <c r="AR347" s="22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="348" spans="1:44" x14ac:dyDescent="0.25">
@@ -19151,7 +19467,7 @@
       <c r="AP348" s="19"/>
       <c r="AQ348" s="19"/>
       <c r="AR348" s="22" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="349" spans="1:44" x14ac:dyDescent="0.25">
@@ -19199,7 +19515,7 @@
       <c r="AP349" s="19"/>
       <c r="AQ349" s="19"/>
       <c r="AR349" s="22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="350" spans="1:44" x14ac:dyDescent="0.25">
@@ -19247,7 +19563,7 @@
       <c r="AP350" s="19"/>
       <c r="AQ350" s="19"/>
       <c r="AR350" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="351" spans="1:44" x14ac:dyDescent="0.25">
@@ -19295,7 +19611,7 @@
       <c r="AP351" s="19"/>
       <c r="AQ351" s="19"/>
       <c r="AR351" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="352" spans="1:44" x14ac:dyDescent="0.25">
@@ -19343,7 +19659,7 @@
       <c r="AP352" s="19"/>
       <c r="AQ352" s="19"/>
       <c r="AR352" s="22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="353" spans="1:44" x14ac:dyDescent="0.25">
@@ -19391,7 +19707,7 @@
       <c r="AP353" s="19"/>
       <c r="AQ353" s="19"/>
       <c r="AR353" s="22" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="354" spans="1:44" x14ac:dyDescent="0.25">
@@ -19439,7 +19755,7 @@
       <c r="AP354" s="19"/>
       <c r="AQ354" s="19"/>
       <c r="AR354" s="22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="355" spans="1:44" x14ac:dyDescent="0.25">
@@ -19487,7 +19803,7 @@
       <c r="AP355" s="19"/>
       <c r="AQ355" s="19"/>
       <c r="AR355" s="22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="356" spans="1:44" x14ac:dyDescent="0.25">
@@ -19535,7 +19851,7 @@
       <c r="AP356" s="19"/>
       <c r="AQ356" s="19"/>
       <c r="AR356" s="22" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="357" spans="1:44" x14ac:dyDescent="0.25">
@@ -19583,7 +19899,7 @@
       <c r="AP357" s="19"/>
       <c r="AQ357" s="19"/>
       <c r="AR357" s="22" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="358" spans="1:44" x14ac:dyDescent="0.25">
@@ -19631,7 +19947,7 @@
       <c r="AP358" s="19"/>
       <c r="AQ358" s="19"/>
       <c r="AR358" s="22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="359" spans="1:44" x14ac:dyDescent="0.25">
@@ -19679,7 +19995,7 @@
       <c r="AP359" s="19"/>
       <c r="AQ359" s="19"/>
       <c r="AR359" s="22" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="360" spans="1:44" x14ac:dyDescent="0.25">
@@ -19727,7 +20043,7 @@
       <c r="AP360" s="19"/>
       <c r="AQ360" s="19"/>
       <c r="AR360" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="361" spans="1:44" x14ac:dyDescent="0.25">
@@ -19775,7 +20091,7 @@
       <c r="AP361" s="19"/>
       <c r="AQ361" s="19"/>
       <c r="AR361" s="22" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="362" spans="1:44" x14ac:dyDescent="0.25">
@@ -19823,7 +20139,7 @@
       <c r="AP362" s="19"/>
       <c r="AQ362" s="19"/>
       <c r="AR362" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="363" spans="1:44" x14ac:dyDescent="0.25">
@@ -19871,7 +20187,7 @@
       <c r="AP363" s="19"/>
       <c r="AQ363" s="19"/>
       <c r="AR363" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="364" spans="1:44" x14ac:dyDescent="0.25">
@@ -19919,7 +20235,7 @@
       <c r="AP364" s="19"/>
       <c r="AQ364" s="19"/>
       <c r="AR364" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="365" spans="1:44" x14ac:dyDescent="0.25">
@@ -19967,7 +20283,7 @@
       <c r="AP365" s="19"/>
       <c r="AQ365" s="19"/>
       <c r="AR365" s="22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="366" spans="1:44" x14ac:dyDescent="0.25">
@@ -20015,7 +20331,7 @@
       <c r="AP366" s="19"/>
       <c r="AQ366" s="19"/>
       <c r="AR366" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="367" spans="1:44" x14ac:dyDescent="0.25">
@@ -20063,7 +20379,7 @@
       <c r="AP367" s="19"/>
       <c r="AQ367" s="19"/>
       <c r="AR367" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="368" spans="1:44" x14ac:dyDescent="0.25">
@@ -20111,7 +20427,7 @@
       <c r="AP368" s="19"/>
       <c r="AQ368" s="19"/>
       <c r="AR368" s="22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="369" spans="1:44" x14ac:dyDescent="0.25">
@@ -20159,7 +20475,7 @@
       <c r="AP369" s="19"/>
       <c r="AQ369" s="19"/>
       <c r="AR369" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="370" spans="1:44" x14ac:dyDescent="0.25">
@@ -20207,7 +20523,7 @@
       <c r="AP370" s="19"/>
       <c r="AQ370" s="19"/>
       <c r="AR370" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="371" spans="1:44" x14ac:dyDescent="0.25">
@@ -20255,7 +20571,7 @@
       <c r="AP371" s="19"/>
       <c r="AQ371" s="19"/>
       <c r="AR371" s="22" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="372" spans="1:44" x14ac:dyDescent="0.25">
@@ -20303,7 +20619,7 @@
       <c r="AP372" s="19"/>
       <c r="AQ372" s="19"/>
       <c r="AR372" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="373" spans="1:44" x14ac:dyDescent="0.25">
@@ -20351,7 +20667,7 @@
       <c r="AP373" s="19"/>
       <c r="AQ373" s="19"/>
       <c r="AR373" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="374" spans="1:44" x14ac:dyDescent="0.25">
@@ -20399,7 +20715,7 @@
       <c r="AP374" s="19"/>
       <c r="AQ374" s="19"/>
       <c r="AR374" s="22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="375" spans="1:44" x14ac:dyDescent="0.25">
@@ -20447,7 +20763,7 @@
       <c r="AP375" s="19"/>
       <c r="AQ375" s="19"/>
       <c r="AR375" s="22" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="376" spans="1:44" x14ac:dyDescent="0.25">
@@ -20495,7 +20811,7 @@
       <c r="AP376" s="19"/>
       <c r="AQ376" s="19"/>
       <c r="AR376" s="22" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="377" spans="1:44" x14ac:dyDescent="0.25">
@@ -20543,7 +20859,7 @@
       <c r="AP377" s="19"/>
       <c r="AQ377" s="19"/>
       <c r="AR377" s="22" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="378" spans="1:44" x14ac:dyDescent="0.25">
@@ -20591,7 +20907,7 @@
       <c r="AP378" s="19"/>
       <c r="AQ378" s="19"/>
       <c r="AR378" s="22" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="379" spans="1:44" x14ac:dyDescent="0.25">
@@ -20639,7 +20955,7 @@
       <c r="AP379" s="19"/>
       <c r="AQ379" s="19"/>
       <c r="AR379" s="22" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="380" spans="1:44" x14ac:dyDescent="0.25">
@@ -20687,7 +21003,7 @@
       <c r="AP380" s="19"/>
       <c r="AQ380" s="19"/>
       <c r="AR380" s="22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="381" spans="1:44" x14ac:dyDescent="0.25">
@@ -20735,7 +21051,7 @@
       <c r="AP381" s="19"/>
       <c r="AQ381" s="19"/>
       <c r="AR381" s="22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="382" spans="1:44" x14ac:dyDescent="0.25">
@@ -20783,7 +21099,7 @@
       <c r="AP382" s="19"/>
       <c r="AQ382" s="19"/>
       <c r="AR382" s="22" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="383" spans="1:44" x14ac:dyDescent="0.25">
@@ -20831,7 +21147,7 @@
       <c r="AP383" s="19"/>
       <c r="AQ383" s="19"/>
       <c r="AR383" s="22" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="384" spans="1:44" x14ac:dyDescent="0.25">
@@ -20879,7 +21195,7 @@
       <c r="AP384" s="19"/>
       <c r="AQ384" s="19"/>
       <c r="AR384" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="385" spans="1:44" x14ac:dyDescent="0.25">
@@ -20927,7 +21243,7 @@
       <c r="AP385" s="19"/>
       <c r="AQ385" s="19"/>
       <c r="AR385" s="22" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="386" spans="1:44" x14ac:dyDescent="0.25">
@@ -20975,7 +21291,7 @@
       <c r="AP386" s="19"/>
       <c r="AQ386" s="19"/>
       <c r="AR386" s="22" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="387" spans="1:44" x14ac:dyDescent="0.25">
@@ -21023,7 +21339,7 @@
       <c r="AP387" s="19"/>
       <c r="AQ387" s="19"/>
       <c r="AR387" s="22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="388" spans="1:44" x14ac:dyDescent="0.25">
@@ -21071,7 +21387,7 @@
       <c r="AP388" s="19"/>
       <c r="AQ388" s="19"/>
       <c r="AR388" s="22" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="389" spans="1:44" x14ac:dyDescent="0.25">
@@ -21119,7 +21435,7 @@
       <c r="AP389" s="19"/>
       <c r="AQ389" s="19"/>
       <c r="AR389" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="390" spans="1:44" x14ac:dyDescent="0.25">
@@ -21167,7 +21483,7 @@
       <c r="AP390" s="19"/>
       <c r="AQ390" s="19"/>
       <c r="AR390" s="22" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="391" spans="1:44" x14ac:dyDescent="0.25">
@@ -21215,7 +21531,7 @@
       <c r="AP391" s="19"/>
       <c r="AQ391" s="19"/>
       <c r="AR391" s="22" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="392" spans="1:44" x14ac:dyDescent="0.25">
@@ -21263,7 +21579,7 @@
       <c r="AP392" s="19"/>
       <c r="AQ392" s="19"/>
       <c r="AR392" s="22" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="393" spans="1:44" x14ac:dyDescent="0.25">
@@ -21311,7 +21627,7 @@
       <c r="AP393" s="19"/>
       <c r="AQ393" s="19"/>
       <c r="AR393" s="22" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="394" spans="1:44" x14ac:dyDescent="0.25">
@@ -21359,7 +21675,7 @@
       <c r="AP394" s="19"/>
       <c r="AQ394" s="19"/>
       <c r="AR394" s="22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="395" spans="1:44" x14ac:dyDescent="0.25">
@@ -21407,7 +21723,7 @@
       <c r="AP395" s="19"/>
       <c r="AQ395" s="19"/>
       <c r="AR395" s="22" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="396" spans="1:44" x14ac:dyDescent="0.25">
@@ -21455,7 +21771,7 @@
       <c r="AP396" s="19"/>
       <c r="AQ396" s="19"/>
       <c r="AR396" s="22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="397" spans="1:44" x14ac:dyDescent="0.25">
@@ -21503,7 +21819,7 @@
       <c r="AP397" s="19"/>
       <c r="AQ397" s="19"/>
       <c r="AR397" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="398" spans="1:44" x14ac:dyDescent="0.25">
@@ -21551,7 +21867,7 @@
       <c r="AP398" s="19"/>
       <c r="AQ398" s="19"/>
       <c r="AR398" s="22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="399" spans="1:44" x14ac:dyDescent="0.25">
@@ -21599,7 +21915,7 @@
       <c r="AP399" s="19"/>
       <c r="AQ399" s="19"/>
       <c r="AR399" s="22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="400" spans="1:44" x14ac:dyDescent="0.25">
@@ -21647,7 +21963,7 @@
       <c r="AP400" s="19"/>
       <c r="AQ400" s="19"/>
       <c r="AR400" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="401" spans="1:44" x14ac:dyDescent="0.25">
@@ -21695,7 +22011,7 @@
       <c r="AP401" s="19"/>
       <c r="AQ401" s="19"/>
       <c r="AR401" s="22" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="402" spans="1:44" x14ac:dyDescent="0.25">
@@ -21743,7 +22059,7 @@
       <c r="AP402" s="19"/>
       <c r="AQ402" s="19"/>
       <c r="AR402" s="22" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="403" spans="1:44" x14ac:dyDescent="0.25">
@@ -21791,7 +22107,7 @@
       <c r="AP403" s="19"/>
       <c r="AQ403" s="19"/>
       <c r="AR403" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="404" spans="1:44" x14ac:dyDescent="0.25">
@@ -21839,7 +22155,7 @@
       <c r="AP404" s="19"/>
       <c r="AQ404" s="19"/>
       <c r="AR404" s="22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="405" spans="1:44" x14ac:dyDescent="0.25">
@@ -21887,7 +22203,7 @@
       <c r="AP405" s="19"/>
       <c r="AQ405" s="19"/>
       <c r="AR405" s="22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="406" spans="1:44" x14ac:dyDescent="0.25">
@@ -21935,7 +22251,7 @@
       <c r="AP406" s="19"/>
       <c r="AQ406" s="19"/>
       <c r="AR406" s="22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="407" spans="1:44" x14ac:dyDescent="0.25">
@@ -21983,7 +22299,7 @@
       <c r="AP407" s="19"/>
       <c r="AQ407" s="19"/>
       <c r="AR407" s="22" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="408" spans="1:44" x14ac:dyDescent="0.25">
@@ -22031,7 +22347,7 @@
       <c r="AP408" s="19"/>
       <c r="AQ408" s="19"/>
       <c r="AR408" s="22" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="409" spans="1:44" x14ac:dyDescent="0.25">
@@ -22079,7 +22395,7 @@
       <c r="AP409" s="19"/>
       <c r="AQ409" s="19"/>
       <c r="AR409" s="22" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="410" spans="1:44" x14ac:dyDescent="0.25">
@@ -22127,7 +22443,7 @@
       <c r="AP410" s="19"/>
       <c r="AQ410" s="19"/>
       <c r="AR410" s="22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="411" spans="1:44" x14ac:dyDescent="0.25">
@@ -22175,7 +22491,7 @@
       <c r="AP411" s="19"/>
       <c r="AQ411" s="19"/>
       <c r="AR411" s="22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="412" spans="1:44" x14ac:dyDescent="0.25">
@@ -22223,7 +22539,7 @@
       <c r="AP412" s="19"/>
       <c r="AQ412" s="19"/>
       <c r="AR412" s="22" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="413" spans="1:44" x14ac:dyDescent="0.25">
@@ -22271,7 +22587,7 @@
       <c r="AP413" s="19"/>
       <c r="AQ413" s="19"/>
       <c r="AR413" s="22" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="414" spans="1:44" x14ac:dyDescent="0.25">
@@ -22319,7 +22635,7 @@
       <c r="AP414" s="19"/>
       <c r="AQ414" s="19"/>
       <c r="AR414" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="415" spans="1:44" x14ac:dyDescent="0.25">
@@ -22367,7 +22683,7 @@
       <c r="AP415" s="19"/>
       <c r="AQ415" s="19"/>
       <c r="AR415" s="22" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="416" spans="1:44" x14ac:dyDescent="0.25">
@@ -22415,7 +22731,7 @@
       <c r="AP416" s="19"/>
       <c r="AQ416" s="19"/>
       <c r="AR416" s="22" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="417" spans="1:44" x14ac:dyDescent="0.25">
@@ -22463,7 +22779,7 @@
       <c r="AP417" s="19"/>
       <c r="AQ417" s="19"/>
       <c r="AR417" s="22" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="418" spans="1:44" x14ac:dyDescent="0.25">
@@ -22511,7 +22827,7 @@
       <c r="AP418" s="19"/>
       <c r="AQ418" s="19"/>
       <c r="AR418" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="419" spans="1:44" x14ac:dyDescent="0.25">
@@ -22559,7 +22875,7 @@
       <c r="AP419" s="19"/>
       <c r="AQ419" s="19"/>
       <c r="AR419" s="22" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="420" spans="1:44" x14ac:dyDescent="0.25">
@@ -22607,7 +22923,7 @@
       <c r="AP420" s="19"/>
       <c r="AQ420" s="19"/>
       <c r="AR420" s="22" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="421" spans="1:44" x14ac:dyDescent="0.25">
@@ -22655,7 +22971,7 @@
       <c r="AP421" s="19"/>
       <c r="AQ421" s="19"/>
       <c r="AR421" s="22" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="422" spans="1:44" x14ac:dyDescent="0.25">
@@ -22703,7 +23019,7 @@
       <c r="AP422" s="19"/>
       <c r="AQ422" s="19"/>
       <c r="AR422" s="22" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="423" spans="1:44" x14ac:dyDescent="0.25">
@@ -22751,7 +23067,7 @@
       <c r="AP423" s="19"/>
       <c r="AQ423" s="19"/>
       <c r="AR423" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="424" spans="1:44" x14ac:dyDescent="0.25">
@@ -22799,7 +23115,7 @@
       <c r="AP424" s="19"/>
       <c r="AQ424" s="19"/>
       <c r="AR424" s="22" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="425" spans="1:44" x14ac:dyDescent="0.25">
@@ -22847,7 +23163,7 @@
       <c r="AP425" s="19"/>
       <c r="AQ425" s="19"/>
       <c r="AR425" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="426" spans="1:44" x14ac:dyDescent="0.25">
@@ -22895,7 +23211,7 @@
       <c r="AP426" s="19"/>
       <c r="AQ426" s="19"/>
       <c r="AR426" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="427" spans="1:44" x14ac:dyDescent="0.25">
@@ -22943,7 +23259,7 @@
       <c r="AP427" s="19"/>
       <c r="AQ427" s="19"/>
       <c r="AR427" s="22" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="428" spans="1:44" x14ac:dyDescent="0.25">
@@ -22991,7 +23307,7 @@
       <c r="AP428" s="19"/>
       <c r="AQ428" s="19"/>
       <c r="AR428" s="22" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="429" spans="1:44" x14ac:dyDescent="0.25">
@@ -23039,7 +23355,7 @@
       <c r="AP429" s="19"/>
       <c r="AQ429" s="19"/>
       <c r="AR429" s="22" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="430" spans="1:44" x14ac:dyDescent="0.25">
@@ -23087,7 +23403,7 @@
       <c r="AP430" s="19"/>
       <c r="AQ430" s="19"/>
       <c r="AR430" s="22" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="431" spans="1:44" x14ac:dyDescent="0.25">
@@ -23135,7 +23451,7 @@
       <c r="AP431" s="19"/>
       <c r="AQ431" s="19"/>
       <c r="AR431" s="22" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="432" spans="1:44" x14ac:dyDescent="0.25">
@@ -23183,7 +23499,7 @@
       <c r="AP432" s="19"/>
       <c r="AQ432" s="19"/>
       <c r="AR432" s="22" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="433" spans="1:44" x14ac:dyDescent="0.25">
@@ -23231,7 +23547,7 @@
       <c r="AP433" s="19"/>
       <c r="AQ433" s="19"/>
       <c r="AR433" s="22" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="434" spans="1:44" x14ac:dyDescent="0.25">
@@ -23279,7 +23595,7 @@
       <c r="AP434" s="19"/>
       <c r="AQ434" s="19"/>
       <c r="AR434" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="435" spans="1:44" x14ac:dyDescent="0.25">
@@ -23327,7 +23643,7 @@
       <c r="AP435" s="19"/>
       <c r="AQ435" s="19"/>
       <c r="AR435" s="22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="436" spans="1:44" x14ac:dyDescent="0.25">
@@ -23375,7 +23691,7 @@
       <c r="AP436" s="19"/>
       <c r="AQ436" s="19"/>
       <c r="AR436" s="22" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="437" spans="1:44" x14ac:dyDescent="0.25">
@@ -23423,7 +23739,7 @@
       <c r="AP437" s="19"/>
       <c r="AQ437" s="19"/>
       <c r="AR437" s="22" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="438" spans="1:44" x14ac:dyDescent="0.25">
@@ -23471,7 +23787,7 @@
       <c r="AP438" s="19"/>
       <c r="AQ438" s="19"/>
       <c r="AR438" s="22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="439" spans="1:44" x14ac:dyDescent="0.25">
@@ -23519,7 +23835,7 @@
       <c r="AP439" s="19"/>
       <c r="AQ439" s="19"/>
       <c r="AR439" s="22" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="440" spans="1:44" x14ac:dyDescent="0.25">
@@ -23567,7 +23883,7 @@
       <c r="AP440" s="19"/>
       <c r="AQ440" s="19"/>
       <c r="AR440" s="22" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="441" spans="1:44" x14ac:dyDescent="0.25">
@@ -23615,7 +23931,7 @@
       <c r="AP441" s="19"/>
       <c r="AQ441" s="19"/>
       <c r="AR441" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="442" spans="1:44" x14ac:dyDescent="0.25">
@@ -23663,7 +23979,7 @@
       <c r="AP442" s="19"/>
       <c r="AQ442" s="19"/>
       <c r="AR442" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="443" spans="1:44" x14ac:dyDescent="0.25">
@@ -23711,7 +24027,7 @@
       <c r="AP443" s="19"/>
       <c r="AQ443" s="19"/>
       <c r="AR443" s="22" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="444" spans="1:44" x14ac:dyDescent="0.25">
@@ -23759,7 +24075,7 @@
       <c r="AP444" s="19"/>
       <c r="AQ444" s="19"/>
       <c r="AR444" s="22" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="445" spans="1:44" x14ac:dyDescent="0.25">
@@ -23807,7 +24123,7 @@
       <c r="AP445" s="19"/>
       <c r="AQ445" s="19"/>
       <c r="AR445" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="446" spans="1:44" x14ac:dyDescent="0.25">
@@ -23855,7 +24171,7 @@
       <c r="AP446" s="19"/>
       <c r="AQ446" s="19"/>
       <c r="AR446" s="22" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="447" spans="1:44" x14ac:dyDescent="0.25">
@@ -23903,7 +24219,7 @@
       <c r="AP447" s="19"/>
       <c r="AQ447" s="19"/>
       <c r="AR447" s="22" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="448" spans="1:44" x14ac:dyDescent="0.25">
@@ -23951,7 +24267,7 @@
       <c r="AP448" s="19"/>
       <c r="AQ448" s="19"/>
       <c r="AR448" s="22" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="449" spans="1:44" x14ac:dyDescent="0.25">
@@ -23999,7 +24315,7 @@
       <c r="AP449" s="19"/>
       <c r="AQ449" s="19"/>
       <c r="AR449" s="22" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="450" spans="1:44" x14ac:dyDescent="0.25">
@@ -24047,7 +24363,7 @@
       <c r="AP450" s="19"/>
       <c r="AQ450" s="19"/>
       <c r="AR450" s="22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="451" spans="1:44" x14ac:dyDescent="0.25">
@@ -24095,7 +24411,7 @@
       <c r="AP451" s="19"/>
       <c r="AQ451" s="19"/>
       <c r="AR451" s="22" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="452" spans="1:44" x14ac:dyDescent="0.25">
@@ -24143,7 +24459,7 @@
       <c r="AP452" s="19"/>
       <c r="AQ452" s="19"/>
       <c r="AR452" s="22" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="453" spans="1:44" x14ac:dyDescent="0.25">
@@ -24191,7 +24507,7 @@
       <c r="AP453" s="19"/>
       <c r="AQ453" s="19"/>
       <c r="AR453" s="22" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="454" spans="1:44" x14ac:dyDescent="0.25">
@@ -24239,7 +24555,7 @@
       <c r="AP454" s="19"/>
       <c r="AQ454" s="19"/>
       <c r="AR454" s="22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="455" spans="1:44" x14ac:dyDescent="0.25">
@@ -24287,7 +24603,7 @@
       <c r="AP455" s="19"/>
       <c r="AQ455" s="19"/>
       <c r="AR455" s="22" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="456" spans="1:44" x14ac:dyDescent="0.25">
@@ -24335,7 +24651,7 @@
       <c r="AP456" s="19"/>
       <c r="AQ456" s="19"/>
       <c r="AR456" s="22" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="457" spans="1:44" x14ac:dyDescent="0.25">
@@ -24383,7 +24699,7 @@
       <c r="AP457" s="19"/>
       <c r="AQ457" s="19"/>
       <c r="AR457" s="22" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="458" spans="1:44" x14ac:dyDescent="0.25">
@@ -24431,7 +24747,7 @@
       <c r="AP458" s="19"/>
       <c r="AQ458" s="19"/>
       <c r="AR458" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="459" spans="1:44" x14ac:dyDescent="0.25">
@@ -24479,7 +24795,7 @@
       <c r="AP459" s="19"/>
       <c r="AQ459" s="19"/>
       <c r="AR459" s="22" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="460" spans="1:44" x14ac:dyDescent="0.25">
@@ -24527,7 +24843,7 @@
       <c r="AP460" s="19"/>
       <c r="AQ460" s="19"/>
       <c r="AR460" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="461" spans="1:44" x14ac:dyDescent="0.25">
@@ -24575,12 +24891,163 @@
       <c r="AP461" s="19"/>
       <c r="AQ461" s="19"/>
       <c r="AR461" s="22" t="s">
-        <v>494</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="462" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A462" s="8"/>
+      <c r="B462" s="19"/>
+      <c r="C462" s="19"/>
+      <c r="D462" s="19"/>
+      <c r="E462" s="19"/>
+      <c r="F462" s="19"/>
+      <c r="G462" s="19"/>
+      <c r="H462" s="19"/>
+      <c r="I462" s="19"/>
+      <c r="J462" s="19"/>
+      <c r="K462" s="19"/>
+      <c r="L462" s="19"/>
+      <c r="M462" s="19"/>
+      <c r="N462" s="19"/>
+      <c r="O462" s="19"/>
+      <c r="P462" s="19"/>
+      <c r="Q462" s="19"/>
+      <c r="R462" s="19"/>
+      <c r="S462" s="19"/>
+      <c r="T462" s="19"/>
+      <c r="U462" s="19"/>
+      <c r="V462" s="19"/>
+      <c r="W462" s="19"/>
+      <c r="X462" s="19"/>
+      <c r="Y462" s="19"/>
+      <c r="Z462" s="19"/>
+      <c r="AA462" s="19"/>
+      <c r="AB462" s="19"/>
+      <c r="AC462" s="19"/>
+      <c r="AD462" s="19"/>
+      <c r="AE462" s="19"/>
+      <c r="AF462" s="19"/>
+      <c r="AG462" s="19"/>
+      <c r="AH462" s="19"/>
+      <c r="AI462" s="19"/>
+      <c r="AJ462" s="19"/>
+      <c r="AK462" s="19"/>
+      <c r="AL462" s="19"/>
+      <c r="AM462" s="19"/>
+      <c r="AN462" s="19"/>
+      <c r="AO462" s="19"/>
+      <c r="AP462" s="19"/>
+      <c r="AQ462" s="19"/>
+      <c r="AR462" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="463" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A463" s="8"/>
+      <c r="B463" s="19"/>
+      <c r="C463" s="19"/>
+      <c r="D463" s="19"/>
+      <c r="E463" s="19"/>
+      <c r="F463" s="19"/>
+      <c r="G463" s="19"/>
+      <c r="H463" s="19"/>
+      <c r="I463" s="19"/>
+      <c r="J463" s="19"/>
+      <c r="K463" s="19"/>
+      <c r="L463" s="19"/>
+      <c r="M463" s="19"/>
+      <c r="N463" s="19"/>
+      <c r="O463" s="19"/>
+      <c r="P463" s="19"/>
+      <c r="Q463" s="19"/>
+      <c r="R463" s="19"/>
+      <c r="S463" s="19"/>
+      <c r="T463" s="19"/>
+      <c r="U463" s="19"/>
+      <c r="V463" s="19"/>
+      <c r="W463" s="19"/>
+      <c r="X463" s="19"/>
+      <c r="Y463" s="19"/>
+      <c r="Z463" s="19"/>
+      <c r="AA463" s="19"/>
+      <c r="AB463" s="19"/>
+      <c r="AC463" s="19"/>
+      <c r="AD463" s="19"/>
+      <c r="AE463" s="19"/>
+      <c r="AF463" s="19"/>
+      <c r="AG463" s="19"/>
+      <c r="AH463" s="19"/>
+      <c r="AI463" s="19"/>
+      <c r="AJ463" s="19"/>
+      <c r="AK463" s="19"/>
+      <c r="AL463" s="19"/>
+      <c r="AM463" s="19"/>
+      <c r="AN463" s="19"/>
+      <c r="AO463" s="19"/>
+      <c r="AP463" s="19"/>
+      <c r="AQ463" s="19"/>
+      <c r="AR463" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="464" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A464" s="8"/>
+      <c r="B464" s="19"/>
+      <c r="C464" s="19"/>
+      <c r="D464" s="19"/>
+      <c r="E464" s="19"/>
+      <c r="F464" s="19"/>
+      <c r="G464" s="19"/>
+      <c r="H464" s="19"/>
+      <c r="I464" s="19"/>
+      <c r="J464" s="19"/>
+      <c r="K464" s="19"/>
+      <c r="L464" s="19"/>
+      <c r="M464" s="19"/>
+      <c r="N464" s="19"/>
+      <c r="O464" s="19"/>
+      <c r="P464" s="19"/>
+      <c r="Q464" s="19"/>
+      <c r="R464" s="19"/>
+      <c r="S464" s="19"/>
+      <c r="T464" s="19"/>
+      <c r="U464" s="19"/>
+      <c r="V464" s="19"/>
+      <c r="W464" s="19"/>
+      <c r="X464" s="19"/>
+      <c r="Y464" s="19"/>
+      <c r="Z464" s="19"/>
+      <c r="AA464" s="19"/>
+      <c r="AB464" s="19"/>
+      <c r="AC464" s="19"/>
+      <c r="AD464" s="19"/>
+      <c r="AE464" s="19"/>
+      <c r="AF464" s="19"/>
+      <c r="AG464" s="19"/>
+      <c r="AH464" s="19"/>
+      <c r="AI464" s="19"/>
+      <c r="AJ464" s="19"/>
+      <c r="AK464" s="19"/>
+      <c r="AL464" s="19"/>
+      <c r="AM464" s="19"/>
+      <c r="AN464" s="19"/>
+      <c r="AO464" s="19"/>
+      <c r="AP464" s="19"/>
+      <c r="AQ464" s="19"/>
+      <c r="AR464" s="22" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T1"/>
+  <hyperlinks>
+    <hyperlink ref="AA3" r:id="rId1"/>
+    <hyperlink ref="AA7" r:id="rId2"/>
+    <hyperlink ref="AA4" r:id="rId3"/>
+    <hyperlink ref="AA5" r:id="rId4"/>
+    <hyperlink ref="AA6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="539">
   <si>
     <t>TITAN</t>
   </si>
@@ -1668,6 +1668,21 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1827,12 +1842,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,6 +1952,15 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2191,7 +2252,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AL3" sqref="AL3"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2554,9 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="26" t="s">
+        <v>538</v>
+      </c>
       <c r="B3" s="6" t="b">
         <v>1</v>
       </c>
@@ -2611,11 +2674,11 @@
         <v>19</v>
       </c>
       <c r="AR3" s="22" t="s">
-        <v>38</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="b">
         <v>1</v>
       </c>
@@ -2737,7 +2800,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6" t="b">
         <v>1</v>
       </c>
@@ -2855,11 +2918,11 @@
         <v>19</v>
       </c>
       <c r="AR5" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="6" t="b">
         <v>1</v>
       </c>
@@ -2977,7 +3040,7 @@
         <v>19</v>
       </c>
       <c r="AR6" s="22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -3099,7 +3162,7 @@
         <v>19</v>
       </c>
       <c r="AR7" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -3147,7 +3210,7 @@
       <c r="AP8" s="19"/>
       <c r="AQ8" s="19"/>
       <c r="AR8" s="22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -3195,7 +3258,7 @@
       <c r="AP9" s="19"/>
       <c r="AQ9" s="19"/>
       <c r="AR9" s="22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -3243,7 +3306,7 @@
       <c r="AP10" s="19"/>
       <c r="AQ10" s="19"/>
       <c r="AR10" s="22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -3291,7 +3354,7 @@
       <c r="AP11" s="19"/>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -3339,7 +3402,7 @@
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
       <c r="AR12" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -3387,7 +3450,7 @@
       <c r="AP13" s="19"/>
       <c r="AQ13" s="19"/>
       <c r="AR13" s="22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -3435,7 +3498,7 @@
       <c r="AP14" s="19"/>
       <c r="AQ14" s="19"/>
       <c r="AR14" s="22" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -3483,7 +3546,7 @@
       <c r="AP15" s="19"/>
       <c r="AQ15" s="19"/>
       <c r="AR15" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -3531,7 +3594,7 @@
       <c r="AP16" s="19"/>
       <c r="AQ16" s="19"/>
       <c r="AR16" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -3579,7 +3642,7 @@
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
       <c r="AR17" s="22" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
@@ -3627,7 +3690,7 @@
       <c r="AP18" s="19"/>
       <c r="AQ18" s="19"/>
       <c r="AR18" s="22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
@@ -3675,7 +3738,7 @@
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -3723,7 +3786,7 @@
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="22" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
@@ -3771,7 +3834,7 @@
       <c r="AP21" s="19"/>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
@@ -3819,7 +3882,7 @@
       <c r="AP22" s="19"/>
       <c r="AQ22" s="19"/>
       <c r="AR22" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
@@ -3867,7 +3930,7 @@
       <c r="AP23" s="19"/>
       <c r="AQ23" s="19"/>
       <c r="AR23" s="22" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
@@ -3915,7 +3978,7 @@
       <c r="AP24" s="19"/>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
@@ -3963,7 +4026,7 @@
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
@@ -4011,7 +4074,7 @@
       <c r="AP26" s="19"/>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
@@ -4059,7 +4122,7 @@
       <c r="AP27" s="19"/>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
@@ -4107,7 +4170,7 @@
       <c r="AP28" s="19"/>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
@@ -4155,7 +4218,7 @@
       <c r="AP29" s="19"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
@@ -4203,7 +4266,7 @@
       <c r="AP30" s="19"/>
       <c r="AQ30" s="19"/>
       <c r="AR30" s="22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
@@ -4251,7 +4314,7 @@
       <c r="AP31" s="19"/>
       <c r="AQ31" s="19"/>
       <c r="AR31" s="22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
@@ -4299,7 +4362,7 @@
       <c r="AP32" s="19"/>
       <c r="AQ32" s="19"/>
       <c r="AR32" s="22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
@@ -4347,7 +4410,7 @@
       <c r="AP33" s="19"/>
       <c r="AQ33" s="19"/>
       <c r="AR33" s="22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
@@ -4395,7 +4458,7 @@
       <c r="AP34" s="19"/>
       <c r="AQ34" s="19"/>
       <c r="AR34" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -4443,7 +4506,7 @@
       <c r="AP35" s="19"/>
       <c r="AQ35" s="19"/>
       <c r="AR35" s="22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
@@ -4491,7 +4554,7 @@
       <c r="AP36" s="19"/>
       <c r="AQ36" s="19"/>
       <c r="AR36" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
@@ -4539,7 +4602,7 @@
       <c r="AP37" s="19"/>
       <c r="AQ37" s="19"/>
       <c r="AR37" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
@@ -4587,7 +4650,7 @@
       <c r="AP38" s="19"/>
       <c r="AQ38" s="19"/>
       <c r="AR38" s="22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
@@ -4635,7 +4698,7 @@
       <c r="AP39" s="19"/>
       <c r="AQ39" s="19"/>
       <c r="AR39" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
@@ -4683,7 +4746,7 @@
       <c r="AP40" s="19"/>
       <c r="AQ40" s="19"/>
       <c r="AR40" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
@@ -4731,7 +4794,7 @@
       <c r="AP41" s="19"/>
       <c r="AQ41" s="19"/>
       <c r="AR41" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
@@ -4779,7 +4842,7 @@
       <c r="AP42" s="19"/>
       <c r="AQ42" s="19"/>
       <c r="AR42" s="22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
@@ -4827,7 +4890,7 @@
       <c r="AP43" s="19"/>
       <c r="AQ43" s="19"/>
       <c r="AR43" s="22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
@@ -4875,7 +4938,7 @@
       <c r="AP44" s="19"/>
       <c r="AQ44" s="19"/>
       <c r="AR44" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
@@ -4923,7 +4986,7 @@
       <c r="AP45" s="19"/>
       <c r="AQ45" s="19"/>
       <c r="AR45" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
@@ -4971,7 +5034,7 @@
       <c r="AP46" s="19"/>
       <c r="AQ46" s="19"/>
       <c r="AR46" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
@@ -5019,7 +5082,7 @@
       <c r="AP47" s="19"/>
       <c r="AQ47" s="19"/>
       <c r="AR47" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
@@ -5067,7 +5130,7 @@
       <c r="AP48" s="19"/>
       <c r="AQ48" s="19"/>
       <c r="AR48" s="22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.25">
@@ -5115,7 +5178,7 @@
       <c r="AP49" s="19"/>
       <c r="AQ49" s="19"/>
       <c r="AR49" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
@@ -5163,7 +5226,7 @@
       <c r="AP50" s="19"/>
       <c r="AQ50" s="19"/>
       <c r="AR50" s="22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
@@ -5211,7 +5274,7 @@
       <c r="AP51" s="19"/>
       <c r="AQ51" s="19"/>
       <c r="AR51" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
@@ -5259,7 +5322,7 @@
       <c r="AP52" s="19"/>
       <c r="AQ52" s="19"/>
       <c r="AR52" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
@@ -5307,7 +5370,7 @@
       <c r="AP53" s="19"/>
       <c r="AQ53" s="19"/>
       <c r="AR53" s="22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
@@ -5355,7 +5418,7 @@
       <c r="AP54" s="19"/>
       <c r="AQ54" s="19"/>
       <c r="AR54" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
@@ -5403,7 +5466,7 @@
       <c r="AP55" s="19"/>
       <c r="AQ55" s="19"/>
       <c r="AR55" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
@@ -5451,7 +5514,7 @@
       <c r="AP56" s="19"/>
       <c r="AQ56" s="19"/>
       <c r="AR56" s="22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
@@ -5499,7 +5562,7 @@
       <c r="AP57" s="19"/>
       <c r="AQ57" s="19"/>
       <c r="AR57" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
@@ -5547,7 +5610,7 @@
       <c r="AP58" s="19"/>
       <c r="AQ58" s="19"/>
       <c r="AR58" s="22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
@@ -5595,7 +5658,7 @@
       <c r="AP59" s="19"/>
       <c r="AQ59" s="19"/>
       <c r="AR59" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
@@ -5643,7 +5706,7 @@
       <c r="AP60" s="19"/>
       <c r="AQ60" s="19"/>
       <c r="AR60" s="22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
@@ -5691,7 +5754,7 @@
       <c r="AP61" s="19"/>
       <c r="AQ61" s="19"/>
       <c r="AR61" s="22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
@@ -5739,7 +5802,7 @@
       <c r="AP62" s="19"/>
       <c r="AQ62" s="19"/>
       <c r="AR62" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
@@ -5787,7 +5850,7 @@
       <c r="AP63" s="19"/>
       <c r="AQ63" s="19"/>
       <c r="AR63" s="22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
@@ -5835,7 +5898,7 @@
       <c r="AP64" s="19"/>
       <c r="AQ64" s="19"/>
       <c r="AR64" s="22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
@@ -5883,7 +5946,7 @@
       <c r="AP65" s="19"/>
       <c r="AQ65" s="19"/>
       <c r="AR65" s="22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
@@ -5931,7 +5994,7 @@
       <c r="AP66" s="19"/>
       <c r="AQ66" s="19"/>
       <c r="AR66" s="22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
@@ -5979,7 +6042,7 @@
       <c r="AP67" s="19"/>
       <c r="AQ67" s="19"/>
       <c r="AR67" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
@@ -6027,7 +6090,7 @@
       <c r="AP68" s="19"/>
       <c r="AQ68" s="19"/>
       <c r="AR68" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
@@ -6075,7 +6138,7 @@
       <c r="AP69" s="19"/>
       <c r="AQ69" s="19"/>
       <c r="AR69" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
@@ -6123,7 +6186,7 @@
       <c r="AP70" s="19"/>
       <c r="AQ70" s="19"/>
       <c r="AR70" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
@@ -6171,7 +6234,7 @@
       <c r="AP71" s="19"/>
       <c r="AQ71" s="19"/>
       <c r="AR71" s="22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
@@ -6219,7 +6282,7 @@
       <c r="AP72" s="19"/>
       <c r="AQ72" s="19"/>
       <c r="AR72" s="22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
@@ -6267,7 +6330,7 @@
       <c r="AP73" s="19"/>
       <c r="AQ73" s="19"/>
       <c r="AR73" s="22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.25">
@@ -6315,7 +6378,7 @@
       <c r="AP74" s="19"/>
       <c r="AQ74" s="19"/>
       <c r="AR74" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.25">
@@ -6363,7 +6426,7 @@
       <c r="AP75" s="19"/>
       <c r="AQ75" s="19"/>
       <c r="AR75" s="22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.25">
@@ -6411,7 +6474,7 @@
       <c r="AP76" s="19"/>
       <c r="AQ76" s="19"/>
       <c r="AR76" s="22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
@@ -6459,7 +6522,7 @@
       <c r="AP77" s="19"/>
       <c r="AQ77" s="19"/>
       <c r="AR77" s="22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.25">
@@ -6507,7 +6570,7 @@
       <c r="AP78" s="19"/>
       <c r="AQ78" s="19"/>
       <c r="AR78" s="22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.25">
@@ -6555,7 +6618,7 @@
       <c r="AP79" s="19"/>
       <c r="AQ79" s="19"/>
       <c r="AR79" s="22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.25">
@@ -6603,7 +6666,7 @@
       <c r="AP80" s="19"/>
       <c r="AQ80" s="19"/>
       <c r="AR80" s="22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
@@ -6651,7 +6714,7 @@
       <c r="AP81" s="19"/>
       <c r="AQ81" s="19"/>
       <c r="AR81" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.25">
@@ -6699,7 +6762,7 @@
       <c r="AP82" s="19"/>
       <c r="AQ82" s="19"/>
       <c r="AR82" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
@@ -6747,7 +6810,7 @@
       <c r="AP83" s="19"/>
       <c r="AQ83" s="19"/>
       <c r="AR83" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
@@ -6795,7 +6858,7 @@
       <c r="AP84" s="19"/>
       <c r="AQ84" s="19"/>
       <c r="AR84" s="22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
@@ -6843,7 +6906,7 @@
       <c r="AP85" s="19"/>
       <c r="AQ85" s="19"/>
       <c r="AR85" s="22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
@@ -6891,7 +6954,7 @@
       <c r="AP86" s="19"/>
       <c r="AQ86" s="19"/>
       <c r="AR86" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
@@ -6939,7 +7002,7 @@
       <c r="AP87" s="19"/>
       <c r="AQ87" s="19"/>
       <c r="AR87" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
@@ -6987,7 +7050,7 @@
       <c r="AP88" s="19"/>
       <c r="AQ88" s="19"/>
       <c r="AR88" s="22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
@@ -7035,7 +7098,7 @@
       <c r="AP89" s="19"/>
       <c r="AQ89" s="19"/>
       <c r="AR89" s="22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.25">
@@ -7083,7 +7146,7 @@
       <c r="AP90" s="19"/>
       <c r="AQ90" s="19"/>
       <c r="AR90" s="22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.25">
@@ -7131,7 +7194,7 @@
       <c r="AP91" s="19"/>
       <c r="AQ91" s="19"/>
       <c r="AR91" s="22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.25">
@@ -7179,7 +7242,7 @@
       <c r="AP92" s="19"/>
       <c r="AQ92" s="19"/>
       <c r="AR92" s="22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
@@ -7227,7 +7290,7 @@
       <c r="AP93" s="19"/>
       <c r="AQ93" s="19"/>
       <c r="AR93" s="22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
@@ -7275,7 +7338,7 @@
       <c r="AP94" s="19"/>
       <c r="AQ94" s="19"/>
       <c r="AR94" s="22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
@@ -7323,7 +7386,7 @@
       <c r="AP95" s="19"/>
       <c r="AQ95" s="19"/>
       <c r="AR95" s="22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.25">
@@ -7371,7 +7434,7 @@
       <c r="AP96" s="19"/>
       <c r="AQ96" s="19"/>
       <c r="AR96" s="22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.25">
@@ -7419,7 +7482,7 @@
       <c r="AP97" s="19"/>
       <c r="AQ97" s="19"/>
       <c r="AR97" s="22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.25">
@@ -7467,7 +7530,7 @@
       <c r="AP98" s="19"/>
       <c r="AQ98" s="19"/>
       <c r="AR98" s="22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.25">
@@ -7515,7 +7578,7 @@
       <c r="AP99" s="19"/>
       <c r="AQ99" s="19"/>
       <c r="AR99" s="22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.25">
@@ -7563,7 +7626,7 @@
       <c r="AP100" s="19"/>
       <c r="AQ100" s="19"/>
       <c r="AR100" s="22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.25">
@@ -7611,7 +7674,7 @@
       <c r="AP101" s="19"/>
       <c r="AQ101" s="19"/>
       <c r="AR101" s="22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.25">
@@ -7659,7 +7722,7 @@
       <c r="AP102" s="19"/>
       <c r="AQ102" s="19"/>
       <c r="AR102" s="22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.25">
@@ -7707,7 +7770,7 @@
       <c r="AP103" s="19"/>
       <c r="AQ103" s="19"/>
       <c r="AR103" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.25">
@@ -7755,7 +7818,7 @@
       <c r="AP104" s="19"/>
       <c r="AQ104" s="19"/>
       <c r="AR104" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.25">
@@ -7803,7 +7866,7 @@
       <c r="AP105" s="19"/>
       <c r="AQ105" s="19"/>
       <c r="AR105" s="22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.25">
@@ -7851,7 +7914,7 @@
       <c r="AP106" s="19"/>
       <c r="AQ106" s="19"/>
       <c r="AR106" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
@@ -7899,7 +7962,7 @@
       <c r="AP107" s="19"/>
       <c r="AQ107" s="19"/>
       <c r="AR107" s="22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
@@ -7947,7 +8010,7 @@
       <c r="AP108" s="19"/>
       <c r="AQ108" s="19"/>
       <c r="AR108" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.25">
@@ -7995,7 +8058,7 @@
       <c r="AP109" s="19"/>
       <c r="AQ109" s="19"/>
       <c r="AR109" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.25">
@@ -8043,7 +8106,7 @@
       <c r="AP110" s="19"/>
       <c r="AQ110" s="19"/>
       <c r="AR110" s="22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.25">
@@ -8091,7 +8154,7 @@
       <c r="AP111" s="19"/>
       <c r="AQ111" s="19"/>
       <c r="AR111" s="22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.25">
@@ -8139,7 +8202,7 @@
       <c r="AP112" s="19"/>
       <c r="AQ112" s="19"/>
       <c r="AR112" s="22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.25">
@@ -8187,7 +8250,7 @@
       <c r="AP113" s="19"/>
       <c r="AQ113" s="19"/>
       <c r="AR113" s="22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.25">
@@ -8235,7 +8298,7 @@
       <c r="AP114" s="19"/>
       <c r="AQ114" s="19"/>
       <c r="AR114" s="22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.25">
@@ -8283,7 +8346,7 @@
       <c r="AP115" s="19"/>
       <c r="AQ115" s="19"/>
       <c r="AR115" s="22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.25">
@@ -8331,7 +8394,7 @@
       <c r="AP116" s="19"/>
       <c r="AQ116" s="19"/>
       <c r="AR116" s="22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.25">
@@ -8379,7 +8442,7 @@
       <c r="AP117" s="19"/>
       <c r="AQ117" s="19"/>
       <c r="AR117" s="22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.25">
@@ -8427,7 +8490,7 @@
       <c r="AP118" s="19"/>
       <c r="AQ118" s="19"/>
       <c r="AR118" s="22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.25">
@@ -8475,7 +8538,7 @@
       <c r="AP119" s="19"/>
       <c r="AQ119" s="19"/>
       <c r="AR119" s="22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.25">
@@ -8523,7 +8586,7 @@
       <c r="AP120" s="19"/>
       <c r="AQ120" s="19"/>
       <c r="AR120" s="22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.25">
@@ -8571,7 +8634,7 @@
       <c r="AP121" s="19"/>
       <c r="AQ121" s="19"/>
       <c r="AR121" s="22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.25">
@@ -8619,7 +8682,7 @@
       <c r="AP122" s="19"/>
       <c r="AQ122" s="19"/>
       <c r="AR122" s="22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.25">
@@ -8667,7 +8730,7 @@
       <c r="AP123" s="19"/>
       <c r="AQ123" s="19"/>
       <c r="AR123" s="22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:44" x14ac:dyDescent="0.25">
@@ -8715,7 +8778,7 @@
       <c r="AP124" s="19"/>
       <c r="AQ124" s="19"/>
       <c r="AR124" s="22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.25">
@@ -8763,7 +8826,7 @@
       <c r="AP125" s="19"/>
       <c r="AQ125" s="19"/>
       <c r="AR125" s="22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.25">
@@ -8811,7 +8874,7 @@
       <c r="AP126" s="19"/>
       <c r="AQ126" s="19"/>
       <c r="AR126" s="22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.25">
@@ -8859,7 +8922,7 @@
       <c r="AP127" s="19"/>
       <c r="AQ127" s="19"/>
       <c r="AR127" s="22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.25">
@@ -8907,7 +8970,7 @@
       <c r="AP128" s="19"/>
       <c r="AQ128" s="19"/>
       <c r="AR128" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.25">
@@ -8955,7 +9018,7 @@
       <c r="AP129" s="19"/>
       <c r="AQ129" s="19"/>
       <c r="AR129" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.25">
@@ -9003,7 +9066,7 @@
       <c r="AP130" s="19"/>
       <c r="AQ130" s="19"/>
       <c r="AR130" s="22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.25">
@@ -9051,7 +9114,7 @@
       <c r="AP131" s="19"/>
       <c r="AQ131" s="19"/>
       <c r="AR131" s="22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.25">
@@ -9099,7 +9162,7 @@
       <c r="AP132" s="19"/>
       <c r="AQ132" s="19"/>
       <c r="AR132" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.25">
@@ -9147,7 +9210,7 @@
       <c r="AP133" s="19"/>
       <c r="AQ133" s="19"/>
       <c r="AR133" s="22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:44" x14ac:dyDescent="0.25">
@@ -9195,7 +9258,7 @@
       <c r="AP134" s="19"/>
       <c r="AQ134" s="19"/>
       <c r="AR134" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:44" x14ac:dyDescent="0.25">
@@ -9243,7 +9306,7 @@
       <c r="AP135" s="19"/>
       <c r="AQ135" s="19"/>
       <c r="AR135" s="22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:44" x14ac:dyDescent="0.25">
@@ -9291,7 +9354,7 @@
       <c r="AP136" s="19"/>
       <c r="AQ136" s="19"/>
       <c r="AR136" s="22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:44" x14ac:dyDescent="0.25">
@@ -9339,7 +9402,7 @@
       <c r="AP137" s="19"/>
       <c r="AQ137" s="19"/>
       <c r="AR137" s="22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:44" x14ac:dyDescent="0.25">
@@ -9387,7 +9450,7 @@
       <c r="AP138" s="19"/>
       <c r="AQ138" s="19"/>
       <c r="AR138" s="22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:44" x14ac:dyDescent="0.25">
@@ -9435,7 +9498,7 @@
       <c r="AP139" s="19"/>
       <c r="AQ139" s="19"/>
       <c r="AR139" s="22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.25">
@@ -9483,7 +9546,7 @@
       <c r="AP140" s="19"/>
       <c r="AQ140" s="19"/>
       <c r="AR140" s="22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.25">
@@ -9531,7 +9594,7 @@
       <c r="AP141" s="19"/>
       <c r="AQ141" s="19"/>
       <c r="AR141" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:44" x14ac:dyDescent="0.25">
@@ -9579,7 +9642,7 @@
       <c r="AP142" s="19"/>
       <c r="AQ142" s="19"/>
       <c r="AR142" s="22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:44" x14ac:dyDescent="0.25">
@@ -9627,7 +9690,7 @@
       <c r="AP143" s="19"/>
       <c r="AQ143" s="19"/>
       <c r="AR143" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144" spans="1:44" x14ac:dyDescent="0.25">
@@ -9675,7 +9738,7 @@
       <c r="AP144" s="19"/>
       <c r="AQ144" s="19"/>
       <c r="AR144" s="22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.25">
@@ -9723,7 +9786,7 @@
       <c r="AP145" s="19"/>
       <c r="AQ145" s="19"/>
       <c r="AR145" s="22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.25">
@@ -9771,7 +9834,7 @@
       <c r="AP146" s="19"/>
       <c r="AQ146" s="19"/>
       <c r="AR146" s="22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.25">
@@ -9819,7 +9882,7 @@
       <c r="AP147" s="19"/>
       <c r="AQ147" s="19"/>
       <c r="AR147" s="22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.25">
@@ -9867,7 +9930,7 @@
       <c r="AP148" s="19"/>
       <c r="AQ148" s="19"/>
       <c r="AR148" s="22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.25">
@@ -9915,7 +9978,7 @@
       <c r="AP149" s="19"/>
       <c r="AQ149" s="19"/>
       <c r="AR149" s="22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.25">
@@ -9963,7 +10026,7 @@
       <c r="AP150" s="19"/>
       <c r="AQ150" s="19"/>
       <c r="AR150" s="22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:44" x14ac:dyDescent="0.25">
@@ -10011,7 +10074,7 @@
       <c r="AP151" s="19"/>
       <c r="AQ151" s="19"/>
       <c r="AR151" s="22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:44" x14ac:dyDescent="0.25">
@@ -10059,7 +10122,7 @@
       <c r="AP152" s="19"/>
       <c r="AQ152" s="19"/>
       <c r="AR152" s="22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.25">
@@ -10107,7 +10170,7 @@
       <c r="AP153" s="19"/>
       <c r="AQ153" s="19"/>
       <c r="AR153" s="22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.25">
@@ -10155,7 +10218,7 @@
       <c r="AP154" s="19"/>
       <c r="AQ154" s="19"/>
       <c r="AR154" s="22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.25">
@@ -10203,7 +10266,7 @@
       <c r="AP155" s="19"/>
       <c r="AQ155" s="19"/>
       <c r="AR155" s="22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.25">
@@ -10251,7 +10314,7 @@
       <c r="AP156" s="19"/>
       <c r="AQ156" s="19"/>
       <c r="AR156" s="22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.25">
@@ -10299,7 +10362,7 @@
       <c r="AP157" s="19"/>
       <c r="AQ157" s="19"/>
       <c r="AR157" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.25">
@@ -10347,7 +10410,7 @@
       <c r="AP158" s="19"/>
       <c r="AQ158" s="19"/>
       <c r="AR158" s="22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.25">
@@ -10395,7 +10458,7 @@
       <c r="AP159" s="19"/>
       <c r="AQ159" s="19"/>
       <c r="AR159" s="22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.25">
@@ -10443,7 +10506,7 @@
       <c r="AP160" s="19"/>
       <c r="AQ160" s="19"/>
       <c r="AR160" s="22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.25">
@@ -10491,7 +10554,7 @@
       <c r="AP161" s="19"/>
       <c r="AQ161" s="19"/>
       <c r="AR161" s="22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.25">
@@ -10539,7 +10602,7 @@
       <c r="AP162" s="19"/>
       <c r="AQ162" s="19"/>
       <c r="AR162" s="22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:44" x14ac:dyDescent="0.25">
@@ -10587,7 +10650,7 @@
       <c r="AP163" s="19"/>
       <c r="AQ163" s="19"/>
       <c r="AR163" s="22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:44" x14ac:dyDescent="0.25">
@@ -10635,7 +10698,7 @@
       <c r="AP164" s="19"/>
       <c r="AQ164" s="19"/>
       <c r="AR164" s="22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.25">
@@ -10683,7 +10746,7 @@
       <c r="AP165" s="19"/>
       <c r="AQ165" s="19"/>
       <c r="AR165" s="22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:44" x14ac:dyDescent="0.25">
@@ -10731,7 +10794,7 @@
       <c r="AP166" s="19"/>
       <c r="AQ166" s="19"/>
       <c r="AR166" s="22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:44" x14ac:dyDescent="0.25">
@@ -10779,7 +10842,7 @@
       <c r="AP167" s="19"/>
       <c r="AQ167" s="19"/>
       <c r="AR167" s="22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:44" x14ac:dyDescent="0.25">
@@ -10827,7 +10890,7 @@
       <c r="AP168" s="19"/>
       <c r="AQ168" s="19"/>
       <c r="AR168" s="22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:44" x14ac:dyDescent="0.25">
@@ -10875,7 +10938,7 @@
       <c r="AP169" s="19"/>
       <c r="AQ169" s="19"/>
       <c r="AR169" s="22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:44" x14ac:dyDescent="0.25">
@@ -10923,7 +10986,7 @@
       <c r="AP170" s="19"/>
       <c r="AQ170" s="19"/>
       <c r="AR170" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:44" x14ac:dyDescent="0.25">
@@ -10971,7 +11034,7 @@
       <c r="AP171" s="19"/>
       <c r="AQ171" s="19"/>
       <c r="AR171" s="22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:44" x14ac:dyDescent="0.25">
@@ -11019,7 +11082,7 @@
       <c r="AP172" s="19"/>
       <c r="AQ172" s="19"/>
       <c r="AR172" s="22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.25">
@@ -11067,7 +11130,7 @@
       <c r="AP173" s="19"/>
       <c r="AQ173" s="19"/>
       <c r="AR173" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:44" x14ac:dyDescent="0.25">
@@ -11115,7 +11178,7 @@
       <c r="AP174" s="19"/>
       <c r="AQ174" s="19"/>
       <c r="AR174" s="22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:44" x14ac:dyDescent="0.25">
@@ -11163,7 +11226,7 @@
       <c r="AP175" s="19"/>
       <c r="AQ175" s="19"/>
       <c r="AR175" s="22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:44" x14ac:dyDescent="0.25">
@@ -11211,7 +11274,7 @@
       <c r="AP176" s="19"/>
       <c r="AQ176" s="19"/>
       <c r="AR176" s="22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:44" x14ac:dyDescent="0.25">
@@ -11259,7 +11322,7 @@
       <c r="AP177" s="19"/>
       <c r="AQ177" s="19"/>
       <c r="AR177" s="22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:44" x14ac:dyDescent="0.25">
@@ -11307,7 +11370,7 @@
       <c r="AP178" s="19"/>
       <c r="AQ178" s="19"/>
       <c r="AR178" s="22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" spans="1:44" x14ac:dyDescent="0.25">
@@ -11355,7 +11418,7 @@
       <c r="AP179" s="19"/>
       <c r="AQ179" s="19"/>
       <c r="AR179" s="22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:44" x14ac:dyDescent="0.25">
@@ -11403,7 +11466,7 @@
       <c r="AP180" s="19"/>
       <c r="AQ180" s="19"/>
       <c r="AR180" s="22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.25">
@@ -11451,7 +11514,7 @@
       <c r="AP181" s="19"/>
       <c r="AQ181" s="19"/>
       <c r="AR181" s="22" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182" spans="1:44" x14ac:dyDescent="0.25">
@@ -11499,7 +11562,7 @@
       <c r="AP182" s="19"/>
       <c r="AQ182" s="19"/>
       <c r="AR182" s="22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:44" x14ac:dyDescent="0.25">
@@ -11547,7 +11610,7 @@
       <c r="AP183" s="19"/>
       <c r="AQ183" s="19"/>
       <c r="AR183" s="22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="184" spans="1:44" x14ac:dyDescent="0.25">
@@ -11595,7 +11658,7 @@
       <c r="AP184" s="19"/>
       <c r="AQ184" s="19"/>
       <c r="AR184" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="185" spans="1:44" x14ac:dyDescent="0.25">
@@ -11643,7 +11706,7 @@
       <c r="AP185" s="19"/>
       <c r="AQ185" s="19"/>
       <c r="AR185" s="22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:44" x14ac:dyDescent="0.25">
@@ -11691,7 +11754,7 @@
       <c r="AP186" s="19"/>
       <c r="AQ186" s="19"/>
       <c r="AR186" s="22" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="1:44" x14ac:dyDescent="0.25">
@@ -11739,7 +11802,7 @@
       <c r="AP187" s="19"/>
       <c r="AQ187" s="19"/>
       <c r="AR187" s="22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="188" spans="1:44" x14ac:dyDescent="0.25">
@@ -11787,7 +11850,7 @@
       <c r="AP188" s="19"/>
       <c r="AQ188" s="19"/>
       <c r="AR188" s="22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.25">
@@ -11835,7 +11898,7 @@
       <c r="AP189" s="19"/>
       <c r="AQ189" s="19"/>
       <c r="AR189" s="22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="190" spans="1:44" x14ac:dyDescent="0.25">
@@ -11883,7 +11946,7 @@
       <c r="AP190" s="19"/>
       <c r="AQ190" s="19"/>
       <c r="AR190" s="22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:44" x14ac:dyDescent="0.25">
@@ -11931,7 +11994,7 @@
       <c r="AP191" s="19"/>
       <c r="AQ191" s="19"/>
       <c r="AR191" s="22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="192" spans="1:44" x14ac:dyDescent="0.25">
@@ -11979,7 +12042,7 @@
       <c r="AP192" s="19"/>
       <c r="AQ192" s="19"/>
       <c r="AR192" s="22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193" spans="1:44" x14ac:dyDescent="0.25">
@@ -12027,7 +12090,7 @@
       <c r="AP193" s="19"/>
       <c r="AQ193" s="19"/>
       <c r="AR193" s="22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" spans="1:44" x14ac:dyDescent="0.25">
@@ -12075,7 +12138,7 @@
       <c r="AP194" s="19"/>
       <c r="AQ194" s="19"/>
       <c r="AR194" s="22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:44" x14ac:dyDescent="0.25">
@@ -12123,7 +12186,7 @@
       <c r="AP195" s="19"/>
       <c r="AQ195" s="19"/>
       <c r="AR195" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:44" x14ac:dyDescent="0.25">
@@ -12171,7 +12234,7 @@
       <c r="AP196" s="19"/>
       <c r="AQ196" s="19"/>
       <c r="AR196" s="22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.25">
@@ -12219,7 +12282,7 @@
       <c r="AP197" s="19"/>
       <c r="AQ197" s="19"/>
       <c r="AR197" s="22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:44" x14ac:dyDescent="0.25">
@@ -12267,7 +12330,7 @@
       <c r="AP198" s="19"/>
       <c r="AQ198" s="19"/>
       <c r="AR198" s="22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="1:44" x14ac:dyDescent="0.25">
@@ -12315,7 +12378,7 @@
       <c r="AP199" s="19"/>
       <c r="AQ199" s="19"/>
       <c r="AR199" s="22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="200" spans="1:44" x14ac:dyDescent="0.25">
@@ -12363,7 +12426,7 @@
       <c r="AP200" s="19"/>
       <c r="AQ200" s="19"/>
       <c r="AR200" s="22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="201" spans="1:44" x14ac:dyDescent="0.25">
@@ -12411,7 +12474,7 @@
       <c r="AP201" s="19"/>
       <c r="AQ201" s="19"/>
       <c r="AR201" s="22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:44" x14ac:dyDescent="0.25">
@@ -12459,7 +12522,7 @@
       <c r="AP202" s="19"/>
       <c r="AQ202" s="19"/>
       <c r="AR202" s="22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" spans="1:44" x14ac:dyDescent="0.25">
@@ -12507,7 +12570,7 @@
       <c r="AP203" s="19"/>
       <c r="AQ203" s="19"/>
       <c r="AR203" s="22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:44" x14ac:dyDescent="0.25">
@@ -12555,7 +12618,7 @@
       <c r="AP204" s="19"/>
       <c r="AQ204" s="19"/>
       <c r="AR204" s="22" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="205" spans="1:44" x14ac:dyDescent="0.25">
@@ -12603,7 +12666,7 @@
       <c r="AP205" s="19"/>
       <c r="AQ205" s="19"/>
       <c r="AR205" s="22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" spans="1:44" x14ac:dyDescent="0.25">
@@ -12651,7 +12714,7 @@
       <c r="AP206" s="19"/>
       <c r="AQ206" s="19"/>
       <c r="AR206" s="22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="207" spans="1:44" x14ac:dyDescent="0.25">
@@ -12699,7 +12762,7 @@
       <c r="AP207" s="19"/>
       <c r="AQ207" s="19"/>
       <c r="AR207" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" spans="1:44" x14ac:dyDescent="0.25">
@@ -12747,7 +12810,7 @@
       <c r="AP208" s="19"/>
       <c r="AQ208" s="19"/>
       <c r="AR208" s="22" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" spans="1:44" x14ac:dyDescent="0.25">
@@ -12795,7 +12858,7 @@
       <c r="AP209" s="19"/>
       <c r="AQ209" s="19"/>
       <c r="AR209" s="22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:44" x14ac:dyDescent="0.25">
@@ -12843,7 +12906,7 @@
       <c r="AP210" s="19"/>
       <c r="AQ210" s="19"/>
       <c r="AR210" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:44" x14ac:dyDescent="0.25">
@@ -12891,7 +12954,7 @@
       <c r="AP211" s="19"/>
       <c r="AQ211" s="19"/>
       <c r="AR211" s="22" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:44" x14ac:dyDescent="0.25">
@@ -12939,7 +13002,7 @@
       <c r="AP212" s="19"/>
       <c r="AQ212" s="19"/>
       <c r="AR212" s="22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.25">
@@ -12987,7 +13050,7 @@
       <c r="AP213" s="19"/>
       <c r="AQ213" s="19"/>
       <c r="AR213" s="22" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:44" x14ac:dyDescent="0.25">
@@ -13035,7 +13098,7 @@
       <c r="AP214" s="19"/>
       <c r="AQ214" s="19"/>
       <c r="AR214" s="22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:44" x14ac:dyDescent="0.25">
@@ -13083,7 +13146,7 @@
       <c r="AP215" s="19"/>
       <c r="AQ215" s="19"/>
       <c r="AR215" s="22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:44" x14ac:dyDescent="0.25">
@@ -13131,7 +13194,7 @@
       <c r="AP216" s="19"/>
       <c r="AQ216" s="19"/>
       <c r="AR216" s="22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="1:44" x14ac:dyDescent="0.25">
@@ -13179,7 +13242,7 @@
       <c r="AP217" s="19"/>
       <c r="AQ217" s="19"/>
       <c r="AR217" s="22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="1:44" x14ac:dyDescent="0.25">
@@ -13227,7 +13290,7 @@
       <c r="AP218" s="19"/>
       <c r="AQ218" s="19"/>
       <c r="AR218" s="22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:44" x14ac:dyDescent="0.25">
@@ -13275,7 +13338,7 @@
       <c r="AP219" s="19"/>
       <c r="AQ219" s="19"/>
       <c r="AR219" s="22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="220" spans="1:44" x14ac:dyDescent="0.25">
@@ -13323,7 +13386,7 @@
       <c r="AP220" s="19"/>
       <c r="AQ220" s="19"/>
       <c r="AR220" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:44" x14ac:dyDescent="0.25">
@@ -13371,7 +13434,7 @@
       <c r="AP221" s="19"/>
       <c r="AQ221" s="19"/>
       <c r="AR221" s="22" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:44" x14ac:dyDescent="0.25">
@@ -13419,7 +13482,7 @@
       <c r="AP222" s="19"/>
       <c r="AQ222" s="19"/>
       <c r="AR222" s="22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:44" x14ac:dyDescent="0.25">
@@ -13467,7 +13530,7 @@
       <c r="AP223" s="19"/>
       <c r="AQ223" s="19"/>
       <c r="AR223" s="22" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="1:44" x14ac:dyDescent="0.25">
@@ -13515,7 +13578,7 @@
       <c r="AP224" s="19"/>
       <c r="AQ224" s="19"/>
       <c r="AR224" s="22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:44" x14ac:dyDescent="0.25">
@@ -13563,7 +13626,7 @@
       <c r="AP225" s="19"/>
       <c r="AQ225" s="19"/>
       <c r="AR225" s="22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:44" x14ac:dyDescent="0.25">
@@ -13611,7 +13674,7 @@
       <c r="AP226" s="19"/>
       <c r="AQ226" s="19"/>
       <c r="AR226" s="22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:44" x14ac:dyDescent="0.25">
@@ -13659,7 +13722,7 @@
       <c r="AP227" s="19"/>
       <c r="AQ227" s="19"/>
       <c r="AR227" s="22" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" spans="1:44" x14ac:dyDescent="0.25">
@@ -13707,7 +13770,7 @@
       <c r="AP228" s="19"/>
       <c r="AQ228" s="19"/>
       <c r="AR228" s="22" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:44" x14ac:dyDescent="0.25">
@@ -13755,7 +13818,7 @@
       <c r="AP229" s="19"/>
       <c r="AQ229" s="19"/>
       <c r="AR229" s="22" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:44" x14ac:dyDescent="0.25">
@@ -13803,7 +13866,7 @@
       <c r="AP230" s="19"/>
       <c r="AQ230" s="19"/>
       <c r="AR230" s="22" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:44" x14ac:dyDescent="0.25">
@@ -13851,7 +13914,7 @@
       <c r="AP231" s="19"/>
       <c r="AQ231" s="19"/>
       <c r="AR231" s="22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="1:44" x14ac:dyDescent="0.25">
@@ -13899,7 +13962,7 @@
       <c r="AP232" s="19"/>
       <c r="AQ232" s="19"/>
       <c r="AR232" s="22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" spans="1:44" x14ac:dyDescent="0.25">
@@ -13947,7 +14010,7 @@
       <c r="AP233" s="19"/>
       <c r="AQ233" s="19"/>
       <c r="AR233" s="22" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:44" x14ac:dyDescent="0.25">
@@ -13995,7 +14058,7 @@
       <c r="AP234" s="19"/>
       <c r="AQ234" s="19"/>
       <c r="AR234" s="22" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="1:44" x14ac:dyDescent="0.25">
@@ -14043,7 +14106,7 @@
       <c r="AP235" s="19"/>
       <c r="AQ235" s="19"/>
       <c r="AR235" s="22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:44" x14ac:dyDescent="0.25">
@@ -14091,7 +14154,7 @@
       <c r="AP236" s="19"/>
       <c r="AQ236" s="19"/>
       <c r="AR236" s="22" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="237" spans="1:44" x14ac:dyDescent="0.25">
@@ -14139,7 +14202,7 @@
       <c r="AP237" s="19"/>
       <c r="AQ237" s="19"/>
       <c r="AR237" s="22" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="238" spans="1:44" x14ac:dyDescent="0.25">
@@ -14187,7 +14250,7 @@
       <c r="AP238" s="19"/>
       <c r="AQ238" s="19"/>
       <c r="AR238" s="22" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="239" spans="1:44" x14ac:dyDescent="0.25">
@@ -14235,7 +14298,7 @@
       <c r="AP239" s="19"/>
       <c r="AQ239" s="19"/>
       <c r="AR239" s="22" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240" spans="1:44" x14ac:dyDescent="0.25">
@@ -14283,7 +14346,7 @@
       <c r="AP240" s="19"/>
       <c r="AQ240" s="19"/>
       <c r="AR240" s="22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="241" spans="1:44" x14ac:dyDescent="0.25">
@@ -14331,7 +14394,7 @@
       <c r="AP241" s="19"/>
       <c r="AQ241" s="19"/>
       <c r="AR241" s="22" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="242" spans="1:44" x14ac:dyDescent="0.25">
@@ -14379,7 +14442,7 @@
       <c r="AP242" s="19"/>
       <c r="AQ242" s="19"/>
       <c r="AR242" s="22" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="243" spans="1:44" x14ac:dyDescent="0.25">
@@ -14427,7 +14490,7 @@
       <c r="AP243" s="19"/>
       <c r="AQ243" s="19"/>
       <c r="AR243" s="22" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="244" spans="1:44" x14ac:dyDescent="0.25">
@@ -14475,7 +14538,7 @@
       <c r="AP244" s="19"/>
       <c r="AQ244" s="19"/>
       <c r="AR244" s="22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="245" spans="1:44" x14ac:dyDescent="0.25">
@@ -14523,7 +14586,7 @@
       <c r="AP245" s="19"/>
       <c r="AQ245" s="19"/>
       <c r="AR245" s="22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:44" x14ac:dyDescent="0.25">
@@ -14571,7 +14634,7 @@
       <c r="AP246" s="19"/>
       <c r="AQ246" s="19"/>
       <c r="AR246" s="22" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="247" spans="1:44" x14ac:dyDescent="0.25">
@@ -14619,7 +14682,7 @@
       <c r="AP247" s="19"/>
       <c r="AQ247" s="19"/>
       <c r="AR247" s="22" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:44" x14ac:dyDescent="0.25">
@@ -14667,7 +14730,7 @@
       <c r="AP248" s="19"/>
       <c r="AQ248" s="19"/>
       <c r="AR248" s="22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="249" spans="1:44" x14ac:dyDescent="0.25">
@@ -14715,7 +14778,7 @@
       <c r="AP249" s="19"/>
       <c r="AQ249" s="19"/>
       <c r="AR249" s="22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:44" x14ac:dyDescent="0.25">
@@ -14763,7 +14826,7 @@
       <c r="AP250" s="19"/>
       <c r="AQ250" s="19"/>
       <c r="AR250" s="22" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="251" spans="1:44" x14ac:dyDescent="0.25">
@@ -14811,7 +14874,7 @@
       <c r="AP251" s="19"/>
       <c r="AQ251" s="19"/>
       <c r="AR251" s="22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="252" spans="1:44" x14ac:dyDescent="0.25">
@@ -14859,7 +14922,7 @@
       <c r="AP252" s="19"/>
       <c r="AQ252" s="19"/>
       <c r="AR252" s="22" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="253" spans="1:44" x14ac:dyDescent="0.25">
@@ -14907,7 +14970,7 @@
       <c r="AP253" s="19"/>
       <c r="AQ253" s="19"/>
       <c r="AR253" s="22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="254" spans="1:44" x14ac:dyDescent="0.25">
@@ -14955,7 +15018,7 @@
       <c r="AP254" s="19"/>
       <c r="AQ254" s="19"/>
       <c r="AR254" s="22" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="255" spans="1:44" x14ac:dyDescent="0.25">
@@ -15003,7 +15066,7 @@
       <c r="AP255" s="19"/>
       <c r="AQ255" s="19"/>
       <c r="AR255" s="22" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="256" spans="1:44" x14ac:dyDescent="0.25">
@@ -15051,7 +15114,7 @@
       <c r="AP256" s="19"/>
       <c r="AQ256" s="19"/>
       <c r="AR256" s="22" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="257" spans="1:44" x14ac:dyDescent="0.25">
@@ -15099,7 +15162,7 @@
       <c r="AP257" s="19"/>
       <c r="AQ257" s="19"/>
       <c r="AR257" s="22" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="258" spans="1:44" x14ac:dyDescent="0.25">
@@ -15147,7 +15210,7 @@
       <c r="AP258" s="19"/>
       <c r="AQ258" s="19"/>
       <c r="AR258" s="22" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="259" spans="1:44" x14ac:dyDescent="0.25">
@@ -15195,7 +15258,7 @@
       <c r="AP259" s="19"/>
       <c r="AQ259" s="19"/>
       <c r="AR259" s="22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="260" spans="1:44" x14ac:dyDescent="0.25">
@@ -15243,7 +15306,7 @@
       <c r="AP260" s="19"/>
       <c r="AQ260" s="19"/>
       <c r="AR260" s="22" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="261" spans="1:44" x14ac:dyDescent="0.25">
@@ -15291,7 +15354,7 @@
       <c r="AP261" s="19"/>
       <c r="AQ261" s="19"/>
       <c r="AR261" s="22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="262" spans="1:44" x14ac:dyDescent="0.25">
@@ -15339,7 +15402,7 @@
       <c r="AP262" s="19"/>
       <c r="AQ262" s="19"/>
       <c r="AR262" s="22" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="263" spans="1:44" x14ac:dyDescent="0.25">
@@ -15387,7 +15450,7 @@
       <c r="AP263" s="19"/>
       <c r="AQ263" s="19"/>
       <c r="AR263" s="22" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="264" spans="1:44" x14ac:dyDescent="0.25">
@@ -15435,7 +15498,7 @@
       <c r="AP264" s="19"/>
       <c r="AQ264" s="19"/>
       <c r="AR264" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="265" spans="1:44" x14ac:dyDescent="0.25">
@@ -15483,7 +15546,7 @@
       <c r="AP265" s="19"/>
       <c r="AQ265" s="19"/>
       <c r="AR265" s="22" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="266" spans="1:44" x14ac:dyDescent="0.25">
@@ -15531,7 +15594,7 @@
       <c r="AP266" s="19"/>
       <c r="AQ266" s="19"/>
       <c r="AR266" s="22" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="267" spans="1:44" x14ac:dyDescent="0.25">
@@ -15579,7 +15642,7 @@
       <c r="AP267" s="19"/>
       <c r="AQ267" s="19"/>
       <c r="AR267" s="22" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="268" spans="1:44" x14ac:dyDescent="0.25">
@@ -15627,7 +15690,7 @@
       <c r="AP268" s="19"/>
       <c r="AQ268" s="19"/>
       <c r="AR268" s="22" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="269" spans="1:44" x14ac:dyDescent="0.25">
@@ -15675,7 +15738,7 @@
       <c r="AP269" s="19"/>
       <c r="AQ269" s="19"/>
       <c r="AR269" s="22" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="270" spans="1:44" x14ac:dyDescent="0.25">
@@ -15723,7 +15786,7 @@
       <c r="AP270" s="19"/>
       <c r="AQ270" s="19"/>
       <c r="AR270" s="22" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="271" spans="1:44" x14ac:dyDescent="0.25">
@@ -15771,7 +15834,7 @@
       <c r="AP271" s="19"/>
       <c r="AQ271" s="19"/>
       <c r="AR271" s="22" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="272" spans="1:44" x14ac:dyDescent="0.25">
@@ -15819,7 +15882,7 @@
       <c r="AP272" s="19"/>
       <c r="AQ272" s="19"/>
       <c r="AR272" s="22" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="273" spans="1:44" x14ac:dyDescent="0.25">
@@ -15867,7 +15930,7 @@
       <c r="AP273" s="19"/>
       <c r="AQ273" s="19"/>
       <c r="AR273" s="22" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="274" spans="1:44" x14ac:dyDescent="0.25">
@@ -15915,7 +15978,7 @@
       <c r="AP274" s="19"/>
       <c r="AQ274" s="19"/>
       <c r="AR274" s="22" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="275" spans="1:44" x14ac:dyDescent="0.25">
@@ -15963,7 +16026,7 @@
       <c r="AP275" s="19"/>
       <c r="AQ275" s="19"/>
       <c r="AR275" s="22" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="276" spans="1:44" x14ac:dyDescent="0.25">
@@ -16011,7 +16074,7 @@
       <c r="AP276" s="19"/>
       <c r="AQ276" s="19"/>
       <c r="AR276" s="22" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="277" spans="1:44" x14ac:dyDescent="0.25">
@@ -16059,7 +16122,7 @@
       <c r="AP277" s="19"/>
       <c r="AQ277" s="19"/>
       <c r="AR277" s="22" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="278" spans="1:44" x14ac:dyDescent="0.25">
@@ -16107,7 +16170,7 @@
       <c r="AP278" s="19"/>
       <c r="AQ278" s="19"/>
       <c r="AR278" s="22" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="279" spans="1:44" x14ac:dyDescent="0.25">
@@ -16155,7 +16218,7 @@
       <c r="AP279" s="19"/>
       <c r="AQ279" s="19"/>
       <c r="AR279" s="22" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="280" spans="1:44" x14ac:dyDescent="0.25">
@@ -16203,7 +16266,7 @@
       <c r="AP280" s="19"/>
       <c r="AQ280" s="19"/>
       <c r="AR280" s="22" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="281" spans="1:44" x14ac:dyDescent="0.25">
@@ -16251,7 +16314,7 @@
       <c r="AP281" s="19"/>
       <c r="AQ281" s="19"/>
       <c r="AR281" s="22" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="282" spans="1:44" x14ac:dyDescent="0.25">
@@ -16299,7 +16362,7 @@
       <c r="AP282" s="19"/>
       <c r="AQ282" s="19"/>
       <c r="AR282" s="22" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="283" spans="1:44" x14ac:dyDescent="0.25">
@@ -16347,7 +16410,7 @@
       <c r="AP283" s="19"/>
       <c r="AQ283" s="19"/>
       <c r="AR283" s="22" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="284" spans="1:44" x14ac:dyDescent="0.25">
@@ -16395,7 +16458,7 @@
       <c r="AP284" s="19"/>
       <c r="AQ284" s="19"/>
       <c r="AR284" s="22" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="285" spans="1:44" x14ac:dyDescent="0.25">
@@ -16443,7 +16506,7 @@
       <c r="AP285" s="19"/>
       <c r="AQ285" s="19"/>
       <c r="AR285" s="22" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="286" spans="1:44" x14ac:dyDescent="0.25">
@@ -16491,7 +16554,7 @@
       <c r="AP286" s="19"/>
       <c r="AQ286" s="19"/>
       <c r="AR286" s="22" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="287" spans="1:44" x14ac:dyDescent="0.25">
@@ -16539,7 +16602,7 @@
       <c r="AP287" s="19"/>
       <c r="AQ287" s="19"/>
       <c r="AR287" s="22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="288" spans="1:44" x14ac:dyDescent="0.25">
@@ -16587,7 +16650,7 @@
       <c r="AP288" s="19"/>
       <c r="AQ288" s="19"/>
       <c r="AR288" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="289" spans="1:44" x14ac:dyDescent="0.25">
@@ -16635,7 +16698,7 @@
       <c r="AP289" s="19"/>
       <c r="AQ289" s="19"/>
       <c r="AR289" s="22" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="290" spans="1:44" x14ac:dyDescent="0.25">
@@ -16683,7 +16746,7 @@
       <c r="AP290" s="19"/>
       <c r="AQ290" s="19"/>
       <c r="AR290" s="22" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="291" spans="1:44" x14ac:dyDescent="0.25">
@@ -16731,7 +16794,7 @@
       <c r="AP291" s="19"/>
       <c r="AQ291" s="19"/>
       <c r="AR291" s="22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="292" spans="1:44" x14ac:dyDescent="0.25">
@@ -16779,7 +16842,7 @@
       <c r="AP292" s="19"/>
       <c r="AQ292" s="19"/>
       <c r="AR292" s="22" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="293" spans="1:44" x14ac:dyDescent="0.25">
@@ -16827,7 +16890,7 @@
       <c r="AP293" s="19"/>
       <c r="AQ293" s="19"/>
       <c r="AR293" s="22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="294" spans="1:44" x14ac:dyDescent="0.25">
@@ -16875,7 +16938,7 @@
       <c r="AP294" s="19"/>
       <c r="AQ294" s="19"/>
       <c r="AR294" s="22" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="295" spans="1:44" x14ac:dyDescent="0.25">
@@ -16923,7 +16986,7 @@
       <c r="AP295" s="19"/>
       <c r="AQ295" s="19"/>
       <c r="AR295" s="22" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="296" spans="1:44" x14ac:dyDescent="0.25">
@@ -16971,7 +17034,7 @@
       <c r="AP296" s="19"/>
       <c r="AQ296" s="19"/>
       <c r="AR296" s="22" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="297" spans="1:44" x14ac:dyDescent="0.25">
@@ -17019,7 +17082,7 @@
       <c r="AP297" s="19"/>
       <c r="AQ297" s="19"/>
       <c r="AR297" s="22" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="298" spans="1:44" x14ac:dyDescent="0.25">
@@ -17067,7 +17130,7 @@
       <c r="AP298" s="19"/>
       <c r="AQ298" s="19"/>
       <c r="AR298" s="22" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="299" spans="1:44" x14ac:dyDescent="0.25">
@@ -17115,7 +17178,7 @@
       <c r="AP299" s="19"/>
       <c r="AQ299" s="19"/>
       <c r="AR299" s="22" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="300" spans="1:44" x14ac:dyDescent="0.25">
@@ -17163,7 +17226,7 @@
       <c r="AP300" s="19"/>
       <c r="AQ300" s="19"/>
       <c r="AR300" s="22" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="301" spans="1:44" x14ac:dyDescent="0.25">
@@ -17211,7 +17274,7 @@
       <c r="AP301" s="19"/>
       <c r="AQ301" s="19"/>
       <c r="AR301" s="22" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="302" spans="1:44" x14ac:dyDescent="0.25">
@@ -17259,7 +17322,7 @@
       <c r="AP302" s="19"/>
       <c r="AQ302" s="19"/>
       <c r="AR302" s="22" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="303" spans="1:44" x14ac:dyDescent="0.25">
@@ -17307,7 +17370,7 @@
       <c r="AP303" s="19"/>
       <c r="AQ303" s="19"/>
       <c r="AR303" s="22" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="304" spans="1:44" x14ac:dyDescent="0.25">
@@ -17355,7 +17418,7 @@
       <c r="AP304" s="19"/>
       <c r="AQ304" s="19"/>
       <c r="AR304" s="22" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="305" spans="1:44" x14ac:dyDescent="0.25">
@@ -17403,7 +17466,7 @@
       <c r="AP305" s="19"/>
       <c r="AQ305" s="19"/>
       <c r="AR305" s="22" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="306" spans="1:44" x14ac:dyDescent="0.25">
@@ -17451,7 +17514,7 @@
       <c r="AP306" s="19"/>
       <c r="AQ306" s="19"/>
       <c r="AR306" s="22" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="307" spans="1:44" x14ac:dyDescent="0.25">
@@ -17499,7 +17562,7 @@
       <c r="AP307" s="19"/>
       <c r="AQ307" s="19"/>
       <c r="AR307" s="22" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="308" spans="1:44" x14ac:dyDescent="0.25">
@@ -17547,7 +17610,7 @@
       <c r="AP308" s="19"/>
       <c r="AQ308" s="19"/>
       <c r="AR308" s="22" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="309" spans="1:44" x14ac:dyDescent="0.25">
@@ -17595,7 +17658,7 @@
       <c r="AP309" s="19"/>
       <c r="AQ309" s="19"/>
       <c r="AR309" s="22" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="310" spans="1:44" x14ac:dyDescent="0.25">
@@ -17643,7 +17706,7 @@
       <c r="AP310" s="19"/>
       <c r="AQ310" s="19"/>
       <c r="AR310" s="22" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="311" spans="1:44" x14ac:dyDescent="0.25">
@@ -17691,7 +17754,7 @@
       <c r="AP311" s="19"/>
       <c r="AQ311" s="19"/>
       <c r="AR311" s="22" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="312" spans="1:44" x14ac:dyDescent="0.25">
@@ -17739,7 +17802,7 @@
       <c r="AP312" s="19"/>
       <c r="AQ312" s="19"/>
       <c r="AR312" s="22" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:44" x14ac:dyDescent="0.25">
@@ -17787,7 +17850,7 @@
       <c r="AP313" s="19"/>
       <c r="AQ313" s="19"/>
       <c r="AR313" s="22" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="314" spans="1:44" x14ac:dyDescent="0.25">
@@ -17835,7 +17898,7 @@
       <c r="AP314" s="19"/>
       <c r="AQ314" s="19"/>
       <c r="AR314" s="22" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:44" x14ac:dyDescent="0.25">
@@ -17883,7 +17946,7 @@
       <c r="AP315" s="19"/>
       <c r="AQ315" s="19"/>
       <c r="AR315" s="22" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="316" spans="1:44" x14ac:dyDescent="0.25">
@@ -17931,7 +17994,7 @@
       <c r="AP316" s="19"/>
       <c r="AQ316" s="19"/>
       <c r="AR316" s="22" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="317" spans="1:44" x14ac:dyDescent="0.25">
@@ -17979,7 +18042,7 @@
       <c r="AP317" s="19"/>
       <c r="AQ317" s="19"/>
       <c r="AR317" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="318" spans="1:44" x14ac:dyDescent="0.25">
@@ -18027,7 +18090,7 @@
       <c r="AP318" s="19"/>
       <c r="AQ318" s="19"/>
       <c r="AR318" s="22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="319" spans="1:44" x14ac:dyDescent="0.25">
@@ -18075,7 +18138,7 @@
       <c r="AP319" s="19"/>
       <c r="AQ319" s="19"/>
       <c r="AR319" s="22" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="320" spans="1:44" x14ac:dyDescent="0.25">
@@ -18123,7 +18186,7 @@
       <c r="AP320" s="19"/>
       <c r="AQ320" s="19"/>
       <c r="AR320" s="22" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="321" spans="1:44" x14ac:dyDescent="0.25">
@@ -18171,7 +18234,7 @@
       <c r="AP321" s="19"/>
       <c r="AQ321" s="19"/>
       <c r="AR321" s="22" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="322" spans="1:44" x14ac:dyDescent="0.25">
@@ -18219,7 +18282,7 @@
       <c r="AP322" s="19"/>
       <c r="AQ322" s="19"/>
       <c r="AR322" s="22" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="323" spans="1:44" x14ac:dyDescent="0.25">
@@ -18267,7 +18330,7 @@
       <c r="AP323" s="19"/>
       <c r="AQ323" s="19"/>
       <c r="AR323" s="22" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="324" spans="1:44" x14ac:dyDescent="0.25">
@@ -18315,7 +18378,7 @@
       <c r="AP324" s="19"/>
       <c r="AQ324" s="19"/>
       <c r="AR324" s="22" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="325" spans="1:44" x14ac:dyDescent="0.25">
@@ -18363,7 +18426,7 @@
       <c r="AP325" s="19"/>
       <c r="AQ325" s="19"/>
       <c r="AR325" s="22" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="326" spans="1:44" x14ac:dyDescent="0.25">
@@ -18411,7 +18474,7 @@
       <c r="AP326" s="19"/>
       <c r="AQ326" s="19"/>
       <c r="AR326" s="22" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="327" spans="1:44" x14ac:dyDescent="0.25">
@@ -18459,7 +18522,7 @@
       <c r="AP327" s="19"/>
       <c r="AQ327" s="19"/>
       <c r="AR327" s="22" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="328" spans="1:44" x14ac:dyDescent="0.25">
@@ -18507,7 +18570,7 @@
       <c r="AP328" s="19"/>
       <c r="AQ328" s="19"/>
       <c r="AR328" s="22" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="329" spans="1:44" x14ac:dyDescent="0.25">
@@ -18555,7 +18618,7 @@
       <c r="AP329" s="19"/>
       <c r="AQ329" s="19"/>
       <c r="AR329" s="22" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="330" spans="1:44" x14ac:dyDescent="0.25">
@@ -18603,7 +18666,7 @@
       <c r="AP330" s="19"/>
       <c r="AQ330" s="19"/>
       <c r="AR330" s="22" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="331" spans="1:44" x14ac:dyDescent="0.25">
@@ -18651,7 +18714,7 @@
       <c r="AP331" s="19"/>
       <c r="AQ331" s="19"/>
       <c r="AR331" s="22" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="332" spans="1:44" x14ac:dyDescent="0.25">
@@ -18699,7 +18762,7 @@
       <c r="AP332" s="19"/>
       <c r="AQ332" s="19"/>
       <c r="AR332" s="22" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="333" spans="1:44" x14ac:dyDescent="0.25">
@@ -18747,7 +18810,7 @@
       <c r="AP333" s="19"/>
       <c r="AQ333" s="19"/>
       <c r="AR333" s="22" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="334" spans="1:44" x14ac:dyDescent="0.25">
@@ -18795,7 +18858,7 @@
       <c r="AP334" s="19"/>
       <c r="AQ334" s="19"/>
       <c r="AR334" s="22" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="335" spans="1:44" x14ac:dyDescent="0.25">
@@ -18843,7 +18906,7 @@
       <c r="AP335" s="19"/>
       <c r="AQ335" s="19"/>
       <c r="AR335" s="22" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="336" spans="1:44" x14ac:dyDescent="0.25">
@@ -18891,7 +18954,7 @@
       <c r="AP336" s="19"/>
       <c r="AQ336" s="19"/>
       <c r="AR336" s="22" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="337" spans="1:44" x14ac:dyDescent="0.25">
@@ -18939,7 +19002,7 @@
       <c r="AP337" s="19"/>
       <c r="AQ337" s="19"/>
       <c r="AR337" s="22" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="338" spans="1:44" x14ac:dyDescent="0.25">
@@ -18987,7 +19050,7 @@
       <c r="AP338" s="19"/>
       <c r="AQ338" s="19"/>
       <c r="AR338" s="22" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="339" spans="1:44" x14ac:dyDescent="0.25">
@@ -19035,7 +19098,7 @@
       <c r="AP339" s="19"/>
       <c r="AQ339" s="19"/>
       <c r="AR339" s="22" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="340" spans="1:44" x14ac:dyDescent="0.25">
@@ -19083,7 +19146,7 @@
       <c r="AP340" s="19"/>
       <c r="AQ340" s="19"/>
       <c r="AR340" s="22" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="341" spans="1:44" x14ac:dyDescent="0.25">
@@ -19131,7 +19194,7 @@
       <c r="AP341" s="19"/>
       <c r="AQ341" s="19"/>
       <c r="AR341" s="22" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="342" spans="1:44" x14ac:dyDescent="0.25">
@@ -19179,7 +19242,7 @@
       <c r="AP342" s="19"/>
       <c r="AQ342" s="19"/>
       <c r="AR342" s="22" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="343" spans="1:44" x14ac:dyDescent="0.25">
@@ -19227,7 +19290,7 @@
       <c r="AP343" s="19"/>
       <c r="AQ343" s="19"/>
       <c r="AR343" s="22" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="344" spans="1:44" x14ac:dyDescent="0.25">
@@ -19275,7 +19338,7 @@
       <c r="AP344" s="19"/>
       <c r="AQ344" s="19"/>
       <c r="AR344" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="345" spans="1:44" x14ac:dyDescent="0.25">
@@ -19323,7 +19386,7 @@
       <c r="AP345" s="19"/>
       <c r="AQ345" s="19"/>
       <c r="AR345" s="22" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="346" spans="1:44" x14ac:dyDescent="0.25">
@@ -19371,7 +19434,7 @@
       <c r="AP346" s="19"/>
       <c r="AQ346" s="19"/>
       <c r="AR346" s="22" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="347" spans="1:44" x14ac:dyDescent="0.25">
@@ -19419,7 +19482,7 @@
       <c r="AP347" s="19"/>
       <c r="AQ347" s="19"/>
       <c r="AR347" s="22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="348" spans="1:44" x14ac:dyDescent="0.25">
@@ -19467,7 +19530,7 @@
       <c r="AP348" s="19"/>
       <c r="AQ348" s="19"/>
       <c r="AR348" s="22" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="349" spans="1:44" x14ac:dyDescent="0.25">
@@ -19515,7 +19578,7 @@
       <c r="AP349" s="19"/>
       <c r="AQ349" s="19"/>
       <c r="AR349" s="22" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="350" spans="1:44" x14ac:dyDescent="0.25">
@@ -19563,7 +19626,7 @@
       <c r="AP350" s="19"/>
       <c r="AQ350" s="19"/>
       <c r="AR350" s="22" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="351" spans="1:44" x14ac:dyDescent="0.25">
@@ -19611,7 +19674,7 @@
       <c r="AP351" s="19"/>
       <c r="AQ351" s="19"/>
       <c r="AR351" s="22" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="352" spans="1:44" x14ac:dyDescent="0.25">
@@ -19659,7 +19722,7 @@
       <c r="AP352" s="19"/>
       <c r="AQ352" s="19"/>
       <c r="AR352" s="22" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="353" spans="1:44" x14ac:dyDescent="0.25">
@@ -19707,7 +19770,7 @@
       <c r="AP353" s="19"/>
       <c r="AQ353" s="19"/>
       <c r="AR353" s="22" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="354" spans="1:44" x14ac:dyDescent="0.25">
@@ -19755,7 +19818,7 @@
       <c r="AP354" s="19"/>
       <c r="AQ354" s="19"/>
       <c r="AR354" s="22" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="355" spans="1:44" x14ac:dyDescent="0.25">
@@ -19803,7 +19866,7 @@
       <c r="AP355" s="19"/>
       <c r="AQ355" s="19"/>
       <c r="AR355" s="22" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="356" spans="1:44" x14ac:dyDescent="0.25">
@@ -19851,7 +19914,7 @@
       <c r="AP356" s="19"/>
       <c r="AQ356" s="19"/>
       <c r="AR356" s="22" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="357" spans="1:44" x14ac:dyDescent="0.25">
@@ -19899,7 +19962,7 @@
       <c r="AP357" s="19"/>
       <c r="AQ357" s="19"/>
       <c r="AR357" s="22" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="358" spans="1:44" x14ac:dyDescent="0.25">
@@ -19947,7 +20010,7 @@
       <c r="AP358" s="19"/>
       <c r="AQ358" s="19"/>
       <c r="AR358" s="22" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="359" spans="1:44" x14ac:dyDescent="0.25">
@@ -19995,7 +20058,7 @@
       <c r="AP359" s="19"/>
       <c r="AQ359" s="19"/>
       <c r="AR359" s="22" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="360" spans="1:44" x14ac:dyDescent="0.25">
@@ -20043,7 +20106,7 @@
       <c r="AP360" s="19"/>
       <c r="AQ360" s="19"/>
       <c r="AR360" s="22" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="361" spans="1:44" x14ac:dyDescent="0.25">
@@ -20091,7 +20154,7 @@
       <c r="AP361" s="19"/>
       <c r="AQ361" s="19"/>
       <c r="AR361" s="22" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="362" spans="1:44" x14ac:dyDescent="0.25">
@@ -20139,7 +20202,7 @@
       <c r="AP362" s="19"/>
       <c r="AQ362" s="19"/>
       <c r="AR362" s="22" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="363" spans="1:44" x14ac:dyDescent="0.25">
@@ -20187,7 +20250,7 @@
       <c r="AP363" s="19"/>
       <c r="AQ363" s="19"/>
       <c r="AR363" s="22" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="364" spans="1:44" x14ac:dyDescent="0.25">
@@ -20235,7 +20298,7 @@
       <c r="AP364" s="19"/>
       <c r="AQ364" s="19"/>
       <c r="AR364" s="22" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="365" spans="1:44" x14ac:dyDescent="0.25">
@@ -20283,7 +20346,7 @@
       <c r="AP365" s="19"/>
       <c r="AQ365" s="19"/>
       <c r="AR365" s="22" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="366" spans="1:44" x14ac:dyDescent="0.25">
@@ -20331,7 +20394,7 @@
       <c r="AP366" s="19"/>
       <c r="AQ366" s="19"/>
       <c r="AR366" s="22" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="367" spans="1:44" x14ac:dyDescent="0.25">
@@ -20379,7 +20442,7 @@
       <c r="AP367" s="19"/>
       <c r="AQ367" s="19"/>
       <c r="AR367" s="22" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="368" spans="1:44" x14ac:dyDescent="0.25">
@@ -20427,7 +20490,7 @@
       <c r="AP368" s="19"/>
       <c r="AQ368" s="19"/>
       <c r="AR368" s="22" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="369" spans="1:44" x14ac:dyDescent="0.25">
@@ -20475,7 +20538,7 @@
       <c r="AP369" s="19"/>
       <c r="AQ369" s="19"/>
       <c r="AR369" s="22" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="370" spans="1:44" x14ac:dyDescent="0.25">
@@ -20523,7 +20586,7 @@
       <c r="AP370" s="19"/>
       <c r="AQ370" s="19"/>
       <c r="AR370" s="22" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="371" spans="1:44" x14ac:dyDescent="0.25">
@@ -20571,7 +20634,7 @@
       <c r="AP371" s="19"/>
       <c r="AQ371" s="19"/>
       <c r="AR371" s="22" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="372" spans="1:44" x14ac:dyDescent="0.25">
@@ -20619,7 +20682,7 @@
       <c r="AP372" s="19"/>
       <c r="AQ372" s="19"/>
       <c r="AR372" s="22" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="373" spans="1:44" x14ac:dyDescent="0.25">
@@ -20667,7 +20730,7 @@
       <c r="AP373" s="19"/>
       <c r="AQ373" s="19"/>
       <c r="AR373" s="22" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="374" spans="1:44" x14ac:dyDescent="0.25">
@@ -20715,7 +20778,7 @@
       <c r="AP374" s="19"/>
       <c r="AQ374" s="19"/>
       <c r="AR374" s="22" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="375" spans="1:44" x14ac:dyDescent="0.25">
@@ -20763,7 +20826,7 @@
       <c r="AP375" s="19"/>
       <c r="AQ375" s="19"/>
       <c r="AR375" s="22" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="376" spans="1:44" x14ac:dyDescent="0.25">
@@ -20811,7 +20874,7 @@
       <c r="AP376" s="19"/>
       <c r="AQ376" s="19"/>
       <c r="AR376" s="22" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="377" spans="1:44" x14ac:dyDescent="0.25">
@@ -20859,7 +20922,7 @@
       <c r="AP377" s="19"/>
       <c r="AQ377" s="19"/>
       <c r="AR377" s="22" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="378" spans="1:44" x14ac:dyDescent="0.25">
@@ -20907,7 +20970,7 @@
       <c r="AP378" s="19"/>
       <c r="AQ378" s="19"/>
       <c r="AR378" s="22" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="379" spans="1:44" x14ac:dyDescent="0.25">
@@ -20955,7 +21018,7 @@
       <c r="AP379" s="19"/>
       <c r="AQ379" s="19"/>
       <c r="AR379" s="22" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="380" spans="1:44" x14ac:dyDescent="0.25">
@@ -21003,7 +21066,7 @@
       <c r="AP380" s="19"/>
       <c r="AQ380" s="19"/>
       <c r="AR380" s="22" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="381" spans="1:44" x14ac:dyDescent="0.25">
@@ -21051,7 +21114,7 @@
       <c r="AP381" s="19"/>
       <c r="AQ381" s="19"/>
       <c r="AR381" s="22" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="382" spans="1:44" x14ac:dyDescent="0.25">
@@ -21099,7 +21162,7 @@
       <c r="AP382" s="19"/>
       <c r="AQ382" s="19"/>
       <c r="AR382" s="22" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="383" spans="1:44" x14ac:dyDescent="0.25">
@@ -21147,7 +21210,7 @@
       <c r="AP383" s="19"/>
       <c r="AQ383" s="19"/>
       <c r="AR383" s="22" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="384" spans="1:44" x14ac:dyDescent="0.25">
@@ -21195,7 +21258,7 @@
       <c r="AP384" s="19"/>
       <c r="AQ384" s="19"/>
       <c r="AR384" s="22" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="385" spans="1:44" x14ac:dyDescent="0.25">
@@ -21243,7 +21306,7 @@
       <c r="AP385" s="19"/>
       <c r="AQ385" s="19"/>
       <c r="AR385" s="22" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="386" spans="1:44" x14ac:dyDescent="0.25">
@@ -21291,7 +21354,7 @@
       <c r="AP386" s="19"/>
       <c r="AQ386" s="19"/>
       <c r="AR386" s="22" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="387" spans="1:44" x14ac:dyDescent="0.25">
@@ -21339,7 +21402,7 @@
       <c r="AP387" s="19"/>
       <c r="AQ387" s="19"/>
       <c r="AR387" s="22" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="388" spans="1:44" x14ac:dyDescent="0.25">
@@ -21387,7 +21450,7 @@
       <c r="AP388" s="19"/>
       <c r="AQ388" s="19"/>
       <c r="AR388" s="22" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="389" spans="1:44" x14ac:dyDescent="0.25">
@@ -21435,7 +21498,7 @@
       <c r="AP389" s="19"/>
       <c r="AQ389" s="19"/>
       <c r="AR389" s="22" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="390" spans="1:44" x14ac:dyDescent="0.25">
@@ -21483,7 +21546,7 @@
       <c r="AP390" s="19"/>
       <c r="AQ390" s="19"/>
       <c r="AR390" s="22" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="391" spans="1:44" x14ac:dyDescent="0.25">
@@ -21531,7 +21594,7 @@
       <c r="AP391" s="19"/>
       <c r="AQ391" s="19"/>
       <c r="AR391" s="22" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="392" spans="1:44" x14ac:dyDescent="0.25">
@@ -21579,7 +21642,7 @@
       <c r="AP392" s="19"/>
       <c r="AQ392" s="19"/>
       <c r="AR392" s="22" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="393" spans="1:44" x14ac:dyDescent="0.25">
@@ -21627,7 +21690,7 @@
       <c r="AP393" s="19"/>
       <c r="AQ393" s="19"/>
       <c r="AR393" s="22" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="394" spans="1:44" x14ac:dyDescent="0.25">
@@ -21675,7 +21738,7 @@
       <c r="AP394" s="19"/>
       <c r="AQ394" s="19"/>
       <c r="AR394" s="22" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="395" spans="1:44" x14ac:dyDescent="0.25">
@@ -21723,7 +21786,7 @@
       <c r="AP395" s="19"/>
       <c r="AQ395" s="19"/>
       <c r="AR395" s="22" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="396" spans="1:44" x14ac:dyDescent="0.25">
@@ -21771,7 +21834,7 @@
       <c r="AP396" s="19"/>
       <c r="AQ396" s="19"/>
       <c r="AR396" s="22" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="397" spans="1:44" x14ac:dyDescent="0.25">
@@ -21819,7 +21882,7 @@
       <c r="AP397" s="19"/>
       <c r="AQ397" s="19"/>
       <c r="AR397" s="22" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="398" spans="1:44" x14ac:dyDescent="0.25">
@@ -21867,7 +21930,7 @@
       <c r="AP398" s="19"/>
       <c r="AQ398" s="19"/>
       <c r="AR398" s="22" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="399" spans="1:44" x14ac:dyDescent="0.25">
@@ -21915,7 +21978,7 @@
       <c r="AP399" s="19"/>
       <c r="AQ399" s="19"/>
       <c r="AR399" s="22" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="400" spans="1:44" x14ac:dyDescent="0.25">
@@ -21963,7 +22026,7 @@
       <c r="AP400" s="19"/>
       <c r="AQ400" s="19"/>
       <c r="AR400" s="22" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="401" spans="1:44" x14ac:dyDescent="0.25">
@@ -22011,7 +22074,7 @@
       <c r="AP401" s="19"/>
       <c r="AQ401" s="19"/>
       <c r="AR401" s="22" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="402" spans="1:44" x14ac:dyDescent="0.25">
@@ -22059,7 +22122,7 @@
       <c r="AP402" s="19"/>
       <c r="AQ402" s="19"/>
       <c r="AR402" s="22" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="403" spans="1:44" x14ac:dyDescent="0.25">
@@ -22107,7 +22170,7 @@
       <c r="AP403" s="19"/>
       <c r="AQ403" s="19"/>
       <c r="AR403" s="22" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="404" spans="1:44" x14ac:dyDescent="0.25">
@@ -22155,7 +22218,7 @@
       <c r="AP404" s="19"/>
       <c r="AQ404" s="19"/>
       <c r="AR404" s="22" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="405" spans="1:44" x14ac:dyDescent="0.25">
@@ -22203,7 +22266,7 @@
       <c r="AP405" s="19"/>
       <c r="AQ405" s="19"/>
       <c r="AR405" s="22" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="406" spans="1:44" x14ac:dyDescent="0.25">
@@ -22251,7 +22314,7 @@
       <c r="AP406" s="19"/>
       <c r="AQ406" s="19"/>
       <c r="AR406" s="22" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="407" spans="1:44" x14ac:dyDescent="0.25">
@@ -22299,7 +22362,7 @@
       <c r="AP407" s="19"/>
       <c r="AQ407" s="19"/>
       <c r="AR407" s="22" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="408" spans="1:44" x14ac:dyDescent="0.25">
@@ -22347,7 +22410,7 @@
       <c r="AP408" s="19"/>
       <c r="AQ408" s="19"/>
       <c r="AR408" s="22" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="409" spans="1:44" x14ac:dyDescent="0.25">
@@ -22395,7 +22458,7 @@
       <c r="AP409" s="19"/>
       <c r="AQ409" s="19"/>
       <c r="AR409" s="22" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="410" spans="1:44" x14ac:dyDescent="0.25">
@@ -22443,7 +22506,7 @@
       <c r="AP410" s="19"/>
       <c r="AQ410" s="19"/>
       <c r="AR410" s="22" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="411" spans="1:44" x14ac:dyDescent="0.25">
@@ -22491,7 +22554,7 @@
       <c r="AP411" s="19"/>
       <c r="AQ411" s="19"/>
       <c r="AR411" s="22" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="412" spans="1:44" x14ac:dyDescent="0.25">
@@ -22539,7 +22602,7 @@
       <c r="AP412" s="19"/>
       <c r="AQ412" s="19"/>
       <c r="AR412" s="22" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="413" spans="1:44" x14ac:dyDescent="0.25">
@@ -22587,7 +22650,7 @@
       <c r="AP413" s="19"/>
       <c r="AQ413" s="19"/>
       <c r="AR413" s="22" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="414" spans="1:44" x14ac:dyDescent="0.25">
@@ -22635,7 +22698,7 @@
       <c r="AP414" s="19"/>
       <c r="AQ414" s="19"/>
       <c r="AR414" s="22" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="415" spans="1:44" x14ac:dyDescent="0.25">
@@ -22683,7 +22746,7 @@
       <c r="AP415" s="19"/>
       <c r="AQ415" s="19"/>
       <c r="AR415" s="22" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="416" spans="1:44" x14ac:dyDescent="0.25">
@@ -22731,7 +22794,7 @@
       <c r="AP416" s="19"/>
       <c r="AQ416" s="19"/>
       <c r="AR416" s="22" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="417" spans="1:44" x14ac:dyDescent="0.25">
@@ -22779,7 +22842,7 @@
       <c r="AP417" s="19"/>
       <c r="AQ417" s="19"/>
       <c r="AR417" s="22" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="418" spans="1:44" x14ac:dyDescent="0.25">
@@ -22827,7 +22890,7 @@
       <c r="AP418" s="19"/>
       <c r="AQ418" s="19"/>
       <c r="AR418" s="22" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="419" spans="1:44" x14ac:dyDescent="0.25">
@@ -22875,7 +22938,7 @@
       <c r="AP419" s="19"/>
       <c r="AQ419" s="19"/>
       <c r="AR419" s="22" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="420" spans="1:44" x14ac:dyDescent="0.25">
@@ -22923,7 +22986,7 @@
       <c r="AP420" s="19"/>
       <c r="AQ420" s="19"/>
       <c r="AR420" s="22" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="421" spans="1:44" x14ac:dyDescent="0.25">
@@ -22971,7 +23034,7 @@
       <c r="AP421" s="19"/>
       <c r="AQ421" s="19"/>
       <c r="AR421" s="22" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="422" spans="1:44" x14ac:dyDescent="0.25">
@@ -23019,7 +23082,7 @@
       <c r="AP422" s="19"/>
       <c r="AQ422" s="19"/>
       <c r="AR422" s="22" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="423" spans="1:44" x14ac:dyDescent="0.25">
@@ -23067,7 +23130,7 @@
       <c r="AP423" s="19"/>
       <c r="AQ423" s="19"/>
       <c r="AR423" s="22" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="424" spans="1:44" x14ac:dyDescent="0.25">
@@ -23115,7 +23178,7 @@
       <c r="AP424" s="19"/>
       <c r="AQ424" s="19"/>
       <c r="AR424" s="22" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="425" spans="1:44" x14ac:dyDescent="0.25">
@@ -23163,7 +23226,7 @@
       <c r="AP425" s="19"/>
       <c r="AQ425" s="19"/>
       <c r="AR425" s="22" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="426" spans="1:44" x14ac:dyDescent="0.25">
@@ -23211,7 +23274,7 @@
       <c r="AP426" s="19"/>
       <c r="AQ426" s="19"/>
       <c r="AR426" s="22" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="427" spans="1:44" x14ac:dyDescent="0.25">
@@ -23259,7 +23322,7 @@
       <c r="AP427" s="19"/>
       <c r="AQ427" s="19"/>
       <c r="AR427" s="22" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="428" spans="1:44" x14ac:dyDescent="0.25">
@@ -23307,7 +23370,7 @@
       <c r="AP428" s="19"/>
       <c r="AQ428" s="19"/>
       <c r="AR428" s="22" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="429" spans="1:44" x14ac:dyDescent="0.25">
@@ -23355,7 +23418,7 @@
       <c r="AP429" s="19"/>
       <c r="AQ429" s="19"/>
       <c r="AR429" s="22" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="430" spans="1:44" x14ac:dyDescent="0.25">
@@ -23403,7 +23466,7 @@
       <c r="AP430" s="19"/>
       <c r="AQ430" s="19"/>
       <c r="AR430" s="22" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="431" spans="1:44" x14ac:dyDescent="0.25">
@@ -23451,7 +23514,7 @@
       <c r="AP431" s="19"/>
       <c r="AQ431" s="19"/>
       <c r="AR431" s="22" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="432" spans="1:44" x14ac:dyDescent="0.25">
@@ -23499,7 +23562,7 @@
       <c r="AP432" s="19"/>
       <c r="AQ432" s="19"/>
       <c r="AR432" s="22" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="433" spans="1:44" x14ac:dyDescent="0.25">
@@ -23547,7 +23610,7 @@
       <c r="AP433" s="19"/>
       <c r="AQ433" s="19"/>
       <c r="AR433" s="22" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="434" spans="1:44" x14ac:dyDescent="0.25">
@@ -23595,7 +23658,7 @@
       <c r="AP434" s="19"/>
       <c r="AQ434" s="19"/>
       <c r="AR434" s="22" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="435" spans="1:44" x14ac:dyDescent="0.25">
@@ -23643,7 +23706,7 @@
       <c r="AP435" s="19"/>
       <c r="AQ435" s="19"/>
       <c r="AR435" s="22" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="436" spans="1:44" x14ac:dyDescent="0.25">
@@ -23691,7 +23754,7 @@
       <c r="AP436" s="19"/>
       <c r="AQ436" s="19"/>
       <c r="AR436" s="22" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="437" spans="1:44" x14ac:dyDescent="0.25">
@@ -23739,7 +23802,7 @@
       <c r="AP437" s="19"/>
       <c r="AQ437" s="19"/>
       <c r="AR437" s="22" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="438" spans="1:44" x14ac:dyDescent="0.25">
@@ -23787,7 +23850,7 @@
       <c r="AP438" s="19"/>
       <c r="AQ438" s="19"/>
       <c r="AR438" s="22" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="439" spans="1:44" x14ac:dyDescent="0.25">
@@ -23835,7 +23898,7 @@
       <c r="AP439" s="19"/>
       <c r="AQ439" s="19"/>
       <c r="AR439" s="22" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="440" spans="1:44" x14ac:dyDescent="0.25">
@@ -23883,7 +23946,7 @@
       <c r="AP440" s="19"/>
       <c r="AQ440" s="19"/>
       <c r="AR440" s="22" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="441" spans="1:44" x14ac:dyDescent="0.25">
@@ -23931,7 +23994,7 @@
       <c r="AP441" s="19"/>
       <c r="AQ441" s="19"/>
       <c r="AR441" s="22" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="442" spans="1:44" x14ac:dyDescent="0.25">
@@ -23979,7 +24042,7 @@
       <c r="AP442" s="19"/>
       <c r="AQ442" s="19"/>
       <c r="AR442" s="22" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="443" spans="1:44" x14ac:dyDescent="0.25">
@@ -24027,7 +24090,7 @@
       <c r="AP443" s="19"/>
       <c r="AQ443" s="19"/>
       <c r="AR443" s="22" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="444" spans="1:44" x14ac:dyDescent="0.25">
@@ -24075,7 +24138,7 @@
       <c r="AP444" s="19"/>
       <c r="AQ444" s="19"/>
       <c r="AR444" s="22" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="445" spans="1:44" x14ac:dyDescent="0.25">
@@ -24123,7 +24186,7 @@
       <c r="AP445" s="19"/>
       <c r="AQ445" s="19"/>
       <c r="AR445" s="22" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="446" spans="1:44" x14ac:dyDescent="0.25">
@@ -24171,7 +24234,7 @@
       <c r="AP446" s="19"/>
       <c r="AQ446" s="19"/>
       <c r="AR446" s="22" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="447" spans="1:44" x14ac:dyDescent="0.25">
@@ -24219,7 +24282,7 @@
       <c r="AP447" s="19"/>
       <c r="AQ447" s="19"/>
       <c r="AR447" s="22" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="448" spans="1:44" x14ac:dyDescent="0.25">
@@ -24267,7 +24330,7 @@
       <c r="AP448" s="19"/>
       <c r="AQ448" s="19"/>
       <c r="AR448" s="22" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="449" spans="1:44" x14ac:dyDescent="0.25">
@@ -24315,7 +24378,7 @@
       <c r="AP449" s="19"/>
       <c r="AQ449" s="19"/>
       <c r="AR449" s="22" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="450" spans="1:44" x14ac:dyDescent="0.25">
@@ -24363,7 +24426,7 @@
       <c r="AP450" s="19"/>
       <c r="AQ450" s="19"/>
       <c r="AR450" s="22" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="451" spans="1:44" x14ac:dyDescent="0.25">
@@ -24411,7 +24474,7 @@
       <c r="AP451" s="19"/>
       <c r="AQ451" s="19"/>
       <c r="AR451" s="22" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="452" spans="1:44" x14ac:dyDescent="0.25">
@@ -24459,7 +24522,7 @@
       <c r="AP452" s="19"/>
       <c r="AQ452" s="19"/>
       <c r="AR452" s="22" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="453" spans="1:44" x14ac:dyDescent="0.25">
@@ -24507,7 +24570,7 @@
       <c r="AP453" s="19"/>
       <c r="AQ453" s="19"/>
       <c r="AR453" s="22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="454" spans="1:44" x14ac:dyDescent="0.25">
@@ -24555,7 +24618,7 @@
       <c r="AP454" s="19"/>
       <c r="AQ454" s="19"/>
       <c r="AR454" s="22" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="455" spans="1:44" x14ac:dyDescent="0.25">
@@ -24603,7 +24666,7 @@
       <c r="AP455" s="19"/>
       <c r="AQ455" s="19"/>
       <c r="AR455" s="22" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="456" spans="1:44" x14ac:dyDescent="0.25">
@@ -24651,7 +24714,7 @@
       <c r="AP456" s="19"/>
       <c r="AQ456" s="19"/>
       <c r="AR456" s="22" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="457" spans="1:44" x14ac:dyDescent="0.25">
@@ -24699,7 +24762,7 @@
       <c r="AP457" s="19"/>
       <c r="AQ457" s="19"/>
       <c r="AR457" s="22" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="458" spans="1:44" x14ac:dyDescent="0.25">
@@ -24747,7 +24810,7 @@
       <c r="AP458" s="19"/>
       <c r="AQ458" s="19"/>
       <c r="AR458" s="22" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="459" spans="1:44" x14ac:dyDescent="0.25">
@@ -24795,7 +24858,7 @@
       <c r="AP459" s="19"/>
       <c r="AQ459" s="19"/>
       <c r="AR459" s="22" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="460" spans="1:44" x14ac:dyDescent="0.25">
@@ -24843,7 +24906,7 @@
       <c r="AP460" s="19"/>
       <c r="AQ460" s="19"/>
       <c r="AR460" s="22" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="461" spans="1:44" x14ac:dyDescent="0.25">
@@ -24891,7 +24954,7 @@
       <c r="AP461" s="19"/>
       <c r="AQ461" s="19"/>
       <c r="AR461" s="22" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="462" spans="1:44" x14ac:dyDescent="0.25">
@@ -24939,7 +25002,7 @@
       <c r="AP462" s="19"/>
       <c r="AQ462" s="19"/>
       <c r="AR462" s="22" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
     </row>
     <row r="463" spans="1:44" x14ac:dyDescent="0.25">
@@ -24987,7 +25050,7 @@
       <c r="AP463" s="19"/>
       <c r="AQ463" s="19"/>
       <c r="AR463" s="22" t="s">
-        <v>492</v>
+        <v>537</v>
       </c>
     </row>
     <row r="464" spans="1:44" x14ac:dyDescent="0.25">
@@ -25035,11 +25098,14 @@
       <c r="AP464" s="19"/>
       <c r="AQ464" s="19"/>
       <c r="AR464" s="22" t="s">
-        <v>493</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A6"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA3" r:id="rId1"/>
     <hyperlink ref="AA7" r:id="rId2"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="540">
   <si>
     <t>TITAN</t>
   </si>
@@ -1683,6 +1683,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>HOLDEN</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2255,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,7 +2514,7 @@
         <v>523</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>51</v>
+        <v>539</v>
       </c>
       <c r="AF2" s="20" t="s">
         <v>34</v>
@@ -2639,7 +2642,7 @@
         <v>523</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>51</v>
+        <v>539</v>
       </c>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
@@ -2761,7 +2764,7 @@
         <v>523</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>51</v>
+        <v>539</v>
       </c>
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
@@ -2883,7 +2886,7 @@
         <v>523</v>
       </c>
       <c r="AE5" s="20" t="s">
-        <v>51</v>
+        <v>539</v>
       </c>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
@@ -3005,7 +3008,7 @@
         <v>523</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>51</v>
+        <v>539</v>
       </c>
       <c r="AF6" s="20"/>
       <c r="AG6" s="20"/>
@@ -3045,17 +3048,17 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="b">
-        <v>0</v>
+      <c r="B7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D7" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="10" t="b">
-        <v>0</v>
+      <c r="E7" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F7" s="10" t="b">
         <v>0</v>
@@ -3127,7 +3130,7 @@
         <v>523</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>51</v>
+        <v>539</v>
       </c>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="539">
   <si>
     <t>TITAN</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>var_CustomerType</t>
-  </si>
-  <si>
-    <t>111148</t>
   </si>
   <si>
     <t>EXIST</t>
@@ -1634,9 +1631,6 @@
     <t>var_EndServiceDate</t>
   </si>
   <si>
-    <t>10717</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -1664,9 +1658,6 @@
     <t>NEW</t>
   </si>
   <si>
-    <t>QATEST</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -1685,7 +1676,13 @@
     <t>OK</t>
   </si>
   <si>
-    <t>HOLDEN</t>
+    <t>299560</t>
+  </si>
+  <si>
+    <t>MY16</t>
+  </si>
+  <si>
+    <t>FIAT</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2252,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,13 +2304,13 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
@@ -2322,7 +2319,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -2331,10 +2328,10 @@
         <v>16</v>
       </c>
       <c r="N1" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>520</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>521</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>17</v>
@@ -2346,58 +2343,58 @@
         <v>7</v>
       </c>
       <c r="S1" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>515</v>
       </c>
       <c r="AK1" s="4" t="s">
         <v>4</v>
@@ -2406,13 +2403,13 @@
         <v>5</v>
       </c>
       <c r="AM1" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="AP1" s="5" t="s">
         <v>3</v>
@@ -2421,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="AR1" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:44" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2460,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>0</v>
@@ -2478,64 +2475,64 @@
         <v>1</v>
       </c>
       <c r="S2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="V2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="W2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="X2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="Y2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Z2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="AB2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC2" s="20" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AD2" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AH2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="AJ2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM2" s="10" t="b">
         <v>0</v>
@@ -2550,15 +2547,15 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR2" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B3" s="6" t="b">
         <v>1</v>
@@ -2594,72 +2591,72 @@
         <v>0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="X3" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA3" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="V3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="X3" s="20" t="s">
+      <c r="AB3" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="Y3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA3" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>531</v>
-      </c>
       <c r="AC3" s="20" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AD3" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
       <c r="AH3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="AJ3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="AM3" s="10" t="b">
         <v>0</v>
@@ -2674,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR3" s="22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -2716,72 +2713,72 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="X4" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA4" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="V4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="X4" s="20" t="s">
+      <c r="AB4" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="Y4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA4" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>531</v>
-      </c>
       <c r="AC4" s="20" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AD4" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
       <c r="AH4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="AJ4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AM4" s="10" t="b">
         <v>0</v>
@@ -2796,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -2838,72 +2835,72 @@
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="X5" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA5" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="V5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="X5" s="20" t="s">
+      <c r="AB5" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="Y5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>531</v>
-      </c>
       <c r="AC5" s="20" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AD5" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AE5" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
       <c r="AH5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AI5" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="AJ5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM5" s="10" t="b">
         <v>0</v>
@@ -2918,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR5" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -2960,72 +2957,72 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="X6" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA6" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="V6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="X6" s="20" t="s">
+      <c r="AB6" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="Y6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA6" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="AB6" s="10" t="s">
-        <v>531</v>
-      </c>
       <c r="AC6" s="20" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AD6" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF6" s="20"/>
       <c r="AG6" s="20"/>
       <c r="AH6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AI6" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="AJ6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AM6" s="10" t="b">
         <v>0</v>
@@ -3040,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -3082,72 +3079,72 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>18</v>
+        <v>536</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="W7" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="U7" s="20" t="s">
+      <c r="X7" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA7" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="V7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="W7" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="X7" s="20" t="s">
+      <c r="AB7" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="Y7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA7" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>531</v>
-      </c>
       <c r="AC7" s="20" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AD7" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20"/>
       <c r="AH7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AI7" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="AJ7" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM7" s="10" t="b">
         <v>0</v>
@@ -3162,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR7" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -3213,7 +3210,7 @@
       <c r="AP8" s="19"/>
       <c r="AQ8" s="19"/>
       <c r="AR8" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -3261,7 +3258,7 @@
       <c r="AP9" s="19"/>
       <c r="AQ9" s="19"/>
       <c r="AR9" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -3309,7 +3306,7 @@
       <c r="AP10" s="19"/>
       <c r="AQ10" s="19"/>
       <c r="AR10" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -3357,7 +3354,7 @@
       <c r="AP11" s="19"/>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -3405,7 +3402,7 @@
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
       <c r="AR12" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -3453,7 +3450,7 @@
       <c r="AP13" s="19"/>
       <c r="AQ13" s="19"/>
       <c r="AR13" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -3501,7 +3498,7 @@
       <c r="AP14" s="19"/>
       <c r="AQ14" s="19"/>
       <c r="AR14" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -3549,7 +3546,7 @@
       <c r="AP15" s="19"/>
       <c r="AQ15" s="19"/>
       <c r="AR15" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -3597,7 +3594,7 @@
       <c r="AP16" s="19"/>
       <c r="AQ16" s="19"/>
       <c r="AR16" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -3645,7 +3642,7 @@
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
       <c r="AR17" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
@@ -3693,7 +3690,7 @@
       <c r="AP18" s="19"/>
       <c r="AQ18" s="19"/>
       <c r="AR18" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
@@ -3741,7 +3738,7 @@
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -3789,7 +3786,7 @@
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
@@ -3837,7 +3834,7 @@
       <c r="AP21" s="19"/>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
@@ -3885,7 +3882,7 @@
       <c r="AP22" s="19"/>
       <c r="AQ22" s="19"/>
       <c r="AR22" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
@@ -3933,7 +3930,7 @@
       <c r="AP23" s="19"/>
       <c r="AQ23" s="19"/>
       <c r="AR23" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
@@ -3981,7 +3978,7 @@
       <c r="AP24" s="19"/>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
@@ -4029,7 +4026,7 @@
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
@@ -4077,7 +4074,7 @@
       <c r="AP26" s="19"/>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
@@ -4125,7 +4122,7 @@
       <c r="AP27" s="19"/>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
@@ -4173,7 +4170,7 @@
       <c r="AP28" s="19"/>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
@@ -4221,7 +4218,7 @@
       <c r="AP29" s="19"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
@@ -4269,7 +4266,7 @@
       <c r="AP30" s="19"/>
       <c r="AQ30" s="19"/>
       <c r="AR30" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
@@ -4317,7 +4314,7 @@
       <c r="AP31" s="19"/>
       <c r="AQ31" s="19"/>
       <c r="AR31" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
@@ -4365,7 +4362,7 @@
       <c r="AP32" s="19"/>
       <c r="AQ32" s="19"/>
       <c r="AR32" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
@@ -4413,7 +4410,7 @@
       <c r="AP33" s="19"/>
       <c r="AQ33" s="19"/>
       <c r="AR33" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
@@ -4461,7 +4458,7 @@
       <c r="AP34" s="19"/>
       <c r="AQ34" s="19"/>
       <c r="AR34" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -4509,7 +4506,7 @@
       <c r="AP35" s="19"/>
       <c r="AQ35" s="19"/>
       <c r="AR35" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
@@ -4557,7 +4554,7 @@
       <c r="AP36" s="19"/>
       <c r="AQ36" s="19"/>
       <c r="AR36" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
@@ -4605,7 +4602,7 @@
       <c r="AP37" s="19"/>
       <c r="AQ37" s="19"/>
       <c r="AR37" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
@@ -4653,7 +4650,7 @@
       <c r="AP38" s="19"/>
       <c r="AQ38" s="19"/>
       <c r="AR38" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
@@ -4701,7 +4698,7 @@
       <c r="AP39" s="19"/>
       <c r="AQ39" s="19"/>
       <c r="AR39" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
@@ -4749,7 +4746,7 @@
       <c r="AP40" s="19"/>
       <c r="AQ40" s="19"/>
       <c r="AR40" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
@@ -4797,7 +4794,7 @@
       <c r="AP41" s="19"/>
       <c r="AQ41" s="19"/>
       <c r="AR41" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
@@ -4845,7 +4842,7 @@
       <c r="AP42" s="19"/>
       <c r="AQ42" s="19"/>
       <c r="AR42" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
@@ -4893,7 +4890,7 @@
       <c r="AP43" s="19"/>
       <c r="AQ43" s="19"/>
       <c r="AR43" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
@@ -4941,7 +4938,7 @@
       <c r="AP44" s="19"/>
       <c r="AQ44" s="19"/>
       <c r="AR44" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
@@ -4989,7 +4986,7 @@
       <c r="AP45" s="19"/>
       <c r="AQ45" s="19"/>
       <c r="AR45" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
@@ -5037,7 +5034,7 @@
       <c r="AP46" s="19"/>
       <c r="AQ46" s="19"/>
       <c r="AR46" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
@@ -5085,7 +5082,7 @@
       <c r="AP47" s="19"/>
       <c r="AQ47" s="19"/>
       <c r="AR47" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
@@ -5133,7 +5130,7 @@
       <c r="AP48" s="19"/>
       <c r="AQ48" s="19"/>
       <c r="AR48" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.25">
@@ -5181,7 +5178,7 @@
       <c r="AP49" s="19"/>
       <c r="AQ49" s="19"/>
       <c r="AR49" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
@@ -5229,7 +5226,7 @@
       <c r="AP50" s="19"/>
       <c r="AQ50" s="19"/>
       <c r="AR50" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
@@ -5277,7 +5274,7 @@
       <c r="AP51" s="19"/>
       <c r="AQ51" s="19"/>
       <c r="AR51" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
@@ -5325,7 +5322,7 @@
       <c r="AP52" s="19"/>
       <c r="AQ52" s="19"/>
       <c r="AR52" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
@@ -5373,7 +5370,7 @@
       <c r="AP53" s="19"/>
       <c r="AQ53" s="19"/>
       <c r="AR53" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
@@ -5421,7 +5418,7 @@
       <c r="AP54" s="19"/>
       <c r="AQ54" s="19"/>
       <c r="AR54" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
@@ -5469,7 +5466,7 @@
       <c r="AP55" s="19"/>
       <c r="AQ55" s="19"/>
       <c r="AR55" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
@@ -5517,7 +5514,7 @@
       <c r="AP56" s="19"/>
       <c r="AQ56" s="19"/>
       <c r="AR56" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
@@ -5565,7 +5562,7 @@
       <c r="AP57" s="19"/>
       <c r="AQ57" s="19"/>
       <c r="AR57" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
@@ -5613,7 +5610,7 @@
       <c r="AP58" s="19"/>
       <c r="AQ58" s="19"/>
       <c r="AR58" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
@@ -5661,7 +5658,7 @@
       <c r="AP59" s="19"/>
       <c r="AQ59" s="19"/>
       <c r="AR59" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
@@ -5709,7 +5706,7 @@
       <c r="AP60" s="19"/>
       <c r="AQ60" s="19"/>
       <c r="AR60" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
@@ -5757,7 +5754,7 @@
       <c r="AP61" s="19"/>
       <c r="AQ61" s="19"/>
       <c r="AR61" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
@@ -5805,7 +5802,7 @@
       <c r="AP62" s="19"/>
       <c r="AQ62" s="19"/>
       <c r="AR62" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
@@ -5853,7 +5850,7 @@
       <c r="AP63" s="19"/>
       <c r="AQ63" s="19"/>
       <c r="AR63" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
@@ -5901,7 +5898,7 @@
       <c r="AP64" s="19"/>
       <c r="AQ64" s="19"/>
       <c r="AR64" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
@@ -5949,7 +5946,7 @@
       <c r="AP65" s="19"/>
       <c r="AQ65" s="19"/>
       <c r="AR65" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
@@ -5997,7 +5994,7 @@
       <c r="AP66" s="19"/>
       <c r="AQ66" s="19"/>
       <c r="AR66" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
@@ -6045,7 +6042,7 @@
       <c r="AP67" s="19"/>
       <c r="AQ67" s="19"/>
       <c r="AR67" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
@@ -6093,7 +6090,7 @@
       <c r="AP68" s="19"/>
       <c r="AQ68" s="19"/>
       <c r="AR68" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
@@ -6141,7 +6138,7 @@
       <c r="AP69" s="19"/>
       <c r="AQ69" s="19"/>
       <c r="AR69" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
@@ -6189,7 +6186,7 @@
       <c r="AP70" s="19"/>
       <c r="AQ70" s="19"/>
       <c r="AR70" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
@@ -6237,7 +6234,7 @@
       <c r="AP71" s="19"/>
       <c r="AQ71" s="19"/>
       <c r="AR71" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
@@ -6285,7 +6282,7 @@
       <c r="AP72" s="19"/>
       <c r="AQ72" s="19"/>
       <c r="AR72" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
@@ -6333,7 +6330,7 @@
       <c r="AP73" s="19"/>
       <c r="AQ73" s="19"/>
       <c r="AR73" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.25">
@@ -6381,7 +6378,7 @@
       <c r="AP74" s="19"/>
       <c r="AQ74" s="19"/>
       <c r="AR74" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.25">
@@ -6429,7 +6426,7 @@
       <c r="AP75" s="19"/>
       <c r="AQ75" s="19"/>
       <c r="AR75" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.25">
@@ -6477,7 +6474,7 @@
       <c r="AP76" s="19"/>
       <c r="AQ76" s="19"/>
       <c r="AR76" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
@@ -6525,7 +6522,7 @@
       <c r="AP77" s="19"/>
       <c r="AQ77" s="19"/>
       <c r="AR77" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.25">
@@ -6573,7 +6570,7 @@
       <c r="AP78" s="19"/>
       <c r="AQ78" s="19"/>
       <c r="AR78" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.25">
@@ -6621,7 +6618,7 @@
       <c r="AP79" s="19"/>
       <c r="AQ79" s="19"/>
       <c r="AR79" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.25">
@@ -6669,7 +6666,7 @@
       <c r="AP80" s="19"/>
       <c r="AQ80" s="19"/>
       <c r="AR80" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
@@ -6717,7 +6714,7 @@
       <c r="AP81" s="19"/>
       <c r="AQ81" s="19"/>
       <c r="AR81" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.25">
@@ -6765,7 +6762,7 @@
       <c r="AP82" s="19"/>
       <c r="AQ82" s="19"/>
       <c r="AR82" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
@@ -6813,7 +6810,7 @@
       <c r="AP83" s="19"/>
       <c r="AQ83" s="19"/>
       <c r="AR83" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
@@ -6861,7 +6858,7 @@
       <c r="AP84" s="19"/>
       <c r="AQ84" s="19"/>
       <c r="AR84" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
@@ -6909,7 +6906,7 @@
       <c r="AP85" s="19"/>
       <c r="AQ85" s="19"/>
       <c r="AR85" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
@@ -6957,7 +6954,7 @@
       <c r="AP86" s="19"/>
       <c r="AQ86" s="19"/>
       <c r="AR86" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
@@ -7005,7 +7002,7 @@
       <c r="AP87" s="19"/>
       <c r="AQ87" s="19"/>
       <c r="AR87" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
@@ -7053,7 +7050,7 @@
       <c r="AP88" s="19"/>
       <c r="AQ88" s="19"/>
       <c r="AR88" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
@@ -7101,7 +7098,7 @@
       <c r="AP89" s="19"/>
       <c r="AQ89" s="19"/>
       <c r="AR89" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.25">
@@ -7149,7 +7146,7 @@
       <c r="AP90" s="19"/>
       <c r="AQ90" s="19"/>
       <c r="AR90" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.25">
@@ -7197,7 +7194,7 @@
       <c r="AP91" s="19"/>
       <c r="AQ91" s="19"/>
       <c r="AR91" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.25">
@@ -7245,7 +7242,7 @@
       <c r="AP92" s="19"/>
       <c r="AQ92" s="19"/>
       <c r="AR92" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
@@ -7293,7 +7290,7 @@
       <c r="AP93" s="19"/>
       <c r="AQ93" s="19"/>
       <c r="AR93" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
@@ -7341,7 +7338,7 @@
       <c r="AP94" s="19"/>
       <c r="AQ94" s="19"/>
       <c r="AR94" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
@@ -7389,7 +7386,7 @@
       <c r="AP95" s="19"/>
       <c r="AQ95" s="19"/>
       <c r="AR95" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.25">
@@ -7437,7 +7434,7 @@
       <c r="AP96" s="19"/>
       <c r="AQ96" s="19"/>
       <c r="AR96" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.25">
@@ -7485,7 +7482,7 @@
       <c r="AP97" s="19"/>
       <c r="AQ97" s="19"/>
       <c r="AR97" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.25">
@@ -7533,7 +7530,7 @@
       <c r="AP98" s="19"/>
       <c r="AQ98" s="19"/>
       <c r="AR98" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.25">
@@ -7581,7 +7578,7 @@
       <c r="AP99" s="19"/>
       <c r="AQ99" s="19"/>
       <c r="AR99" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.25">
@@ -7629,7 +7626,7 @@
       <c r="AP100" s="19"/>
       <c r="AQ100" s="19"/>
       <c r="AR100" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.25">
@@ -7677,7 +7674,7 @@
       <c r="AP101" s="19"/>
       <c r="AQ101" s="19"/>
       <c r="AR101" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.25">
@@ -7725,7 +7722,7 @@
       <c r="AP102" s="19"/>
       <c r="AQ102" s="19"/>
       <c r="AR102" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.25">
@@ -7773,7 +7770,7 @@
       <c r="AP103" s="19"/>
       <c r="AQ103" s="19"/>
       <c r="AR103" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.25">
@@ -7821,7 +7818,7 @@
       <c r="AP104" s="19"/>
       <c r="AQ104" s="19"/>
       <c r="AR104" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.25">
@@ -7869,7 +7866,7 @@
       <c r="AP105" s="19"/>
       <c r="AQ105" s="19"/>
       <c r="AR105" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.25">
@@ -7917,7 +7914,7 @@
       <c r="AP106" s="19"/>
       <c r="AQ106" s="19"/>
       <c r="AR106" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
@@ -7965,7 +7962,7 @@
       <c r="AP107" s="19"/>
       <c r="AQ107" s="19"/>
       <c r="AR107" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
@@ -8013,7 +8010,7 @@
       <c r="AP108" s="19"/>
       <c r="AQ108" s="19"/>
       <c r="AR108" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.25">
@@ -8061,7 +8058,7 @@
       <c r="AP109" s="19"/>
       <c r="AQ109" s="19"/>
       <c r="AR109" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.25">
@@ -8109,7 +8106,7 @@
       <c r="AP110" s="19"/>
       <c r="AQ110" s="19"/>
       <c r="AR110" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.25">
@@ -8157,7 +8154,7 @@
       <c r="AP111" s="19"/>
       <c r="AQ111" s="19"/>
       <c r="AR111" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.25">
@@ -8205,7 +8202,7 @@
       <c r="AP112" s="19"/>
       <c r="AQ112" s="19"/>
       <c r="AR112" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.25">
@@ -8253,7 +8250,7 @@
       <c r="AP113" s="19"/>
       <c r="AQ113" s="19"/>
       <c r="AR113" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.25">
@@ -8301,7 +8298,7 @@
       <c r="AP114" s="19"/>
       <c r="AQ114" s="19"/>
       <c r="AR114" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.25">
@@ -8349,7 +8346,7 @@
       <c r="AP115" s="19"/>
       <c r="AQ115" s="19"/>
       <c r="AR115" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.25">
@@ -8397,7 +8394,7 @@
       <c r="AP116" s="19"/>
       <c r="AQ116" s="19"/>
       <c r="AR116" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.25">
@@ -8445,7 +8442,7 @@
       <c r="AP117" s="19"/>
       <c r="AQ117" s="19"/>
       <c r="AR117" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.25">
@@ -8493,7 +8490,7 @@
       <c r="AP118" s="19"/>
       <c r="AQ118" s="19"/>
       <c r="AR118" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.25">
@@ -8541,7 +8538,7 @@
       <c r="AP119" s="19"/>
       <c r="AQ119" s="19"/>
       <c r="AR119" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.25">
@@ -8589,7 +8586,7 @@
       <c r="AP120" s="19"/>
       <c r="AQ120" s="19"/>
       <c r="AR120" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.25">
@@ -8637,7 +8634,7 @@
       <c r="AP121" s="19"/>
       <c r="AQ121" s="19"/>
       <c r="AR121" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.25">
@@ -8685,7 +8682,7 @@
       <c r="AP122" s="19"/>
       <c r="AQ122" s="19"/>
       <c r="AR122" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.25">
@@ -8733,7 +8730,7 @@
       <c r="AP123" s="19"/>
       <c r="AQ123" s="19"/>
       <c r="AR123" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:44" x14ac:dyDescent="0.25">
@@ -8781,7 +8778,7 @@
       <c r="AP124" s="19"/>
       <c r="AQ124" s="19"/>
       <c r="AR124" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.25">
@@ -8829,7 +8826,7 @@
       <c r="AP125" s="19"/>
       <c r="AQ125" s="19"/>
       <c r="AR125" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.25">
@@ -8877,7 +8874,7 @@
       <c r="AP126" s="19"/>
       <c r="AQ126" s="19"/>
       <c r="AR126" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.25">
@@ -8925,7 +8922,7 @@
       <c r="AP127" s="19"/>
       <c r="AQ127" s="19"/>
       <c r="AR127" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.25">
@@ -8973,7 +8970,7 @@
       <c r="AP128" s="19"/>
       <c r="AQ128" s="19"/>
       <c r="AR128" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.25">
@@ -9021,7 +9018,7 @@
       <c r="AP129" s="19"/>
       <c r="AQ129" s="19"/>
       <c r="AR129" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.25">
@@ -9069,7 +9066,7 @@
       <c r="AP130" s="19"/>
       <c r="AQ130" s="19"/>
       <c r="AR130" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.25">
@@ -9117,7 +9114,7 @@
       <c r="AP131" s="19"/>
       <c r="AQ131" s="19"/>
       <c r="AR131" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.25">
@@ -9165,7 +9162,7 @@
       <c r="AP132" s="19"/>
       <c r="AQ132" s="19"/>
       <c r="AR132" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.25">
@@ -9213,7 +9210,7 @@
       <c r="AP133" s="19"/>
       <c r="AQ133" s="19"/>
       <c r="AR133" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:44" x14ac:dyDescent="0.25">
@@ -9261,7 +9258,7 @@
       <c r="AP134" s="19"/>
       <c r="AQ134" s="19"/>
       <c r="AR134" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:44" x14ac:dyDescent="0.25">
@@ -9309,7 +9306,7 @@
       <c r="AP135" s="19"/>
       <c r="AQ135" s="19"/>
       <c r="AR135" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:44" x14ac:dyDescent="0.25">
@@ -9357,7 +9354,7 @@
       <c r="AP136" s="19"/>
       <c r="AQ136" s="19"/>
       <c r="AR136" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:44" x14ac:dyDescent="0.25">
@@ -9405,7 +9402,7 @@
       <c r="AP137" s="19"/>
       <c r="AQ137" s="19"/>
       <c r="AR137" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:44" x14ac:dyDescent="0.25">
@@ -9453,7 +9450,7 @@
       <c r="AP138" s="19"/>
       <c r="AQ138" s="19"/>
       <c r="AR138" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:44" x14ac:dyDescent="0.25">
@@ -9501,7 +9498,7 @@
       <c r="AP139" s="19"/>
       <c r="AQ139" s="19"/>
       <c r="AR139" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.25">
@@ -9549,7 +9546,7 @@
       <c r="AP140" s="19"/>
       <c r="AQ140" s="19"/>
       <c r="AR140" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.25">
@@ -9597,7 +9594,7 @@
       <c r="AP141" s="19"/>
       <c r="AQ141" s="19"/>
       <c r="AR141" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:44" x14ac:dyDescent="0.25">
@@ -9645,7 +9642,7 @@
       <c r="AP142" s="19"/>
       <c r="AQ142" s="19"/>
       <c r="AR142" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" spans="1:44" x14ac:dyDescent="0.25">
@@ -9693,7 +9690,7 @@
       <c r="AP143" s="19"/>
       <c r="AQ143" s="19"/>
       <c r="AR143" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:44" x14ac:dyDescent="0.25">
@@ -9741,7 +9738,7 @@
       <c r="AP144" s="19"/>
       <c r="AQ144" s="19"/>
       <c r="AR144" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.25">
@@ -9789,7 +9786,7 @@
       <c r="AP145" s="19"/>
       <c r="AQ145" s="19"/>
       <c r="AR145" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.25">
@@ -9837,7 +9834,7 @@
       <c r="AP146" s="19"/>
       <c r="AQ146" s="19"/>
       <c r="AR146" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.25">
@@ -9885,7 +9882,7 @@
       <c r="AP147" s="19"/>
       <c r="AQ147" s="19"/>
       <c r="AR147" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.25">
@@ -9933,7 +9930,7 @@
       <c r="AP148" s="19"/>
       <c r="AQ148" s="19"/>
       <c r="AR148" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.25">
@@ -9981,7 +9978,7 @@
       <c r="AP149" s="19"/>
       <c r="AQ149" s="19"/>
       <c r="AR149" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.25">
@@ -10029,7 +10026,7 @@
       <c r="AP150" s="19"/>
       <c r="AQ150" s="19"/>
       <c r="AR150" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:44" x14ac:dyDescent="0.25">
@@ -10077,7 +10074,7 @@
       <c r="AP151" s="19"/>
       <c r="AQ151" s="19"/>
       <c r="AR151" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:44" x14ac:dyDescent="0.25">
@@ -10125,7 +10122,7 @@
       <c r="AP152" s="19"/>
       <c r="AQ152" s="19"/>
       <c r="AR152" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.25">
@@ -10173,7 +10170,7 @@
       <c r="AP153" s="19"/>
       <c r="AQ153" s="19"/>
       <c r="AR153" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.25">
@@ -10221,7 +10218,7 @@
       <c r="AP154" s="19"/>
       <c r="AQ154" s="19"/>
       <c r="AR154" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.25">
@@ -10269,7 +10266,7 @@
       <c r="AP155" s="19"/>
       <c r="AQ155" s="19"/>
       <c r="AR155" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.25">
@@ -10317,7 +10314,7 @@
       <c r="AP156" s="19"/>
       <c r="AQ156" s="19"/>
       <c r="AR156" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.25">
@@ -10365,7 +10362,7 @@
       <c r="AP157" s="19"/>
       <c r="AQ157" s="19"/>
       <c r="AR157" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.25">
@@ -10413,7 +10410,7 @@
       <c r="AP158" s="19"/>
       <c r="AQ158" s="19"/>
       <c r="AR158" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.25">
@@ -10461,7 +10458,7 @@
       <c r="AP159" s="19"/>
       <c r="AQ159" s="19"/>
       <c r="AR159" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.25">
@@ -10509,7 +10506,7 @@
       <c r="AP160" s="19"/>
       <c r="AQ160" s="19"/>
       <c r="AR160" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.25">
@@ -10557,7 +10554,7 @@
       <c r="AP161" s="19"/>
       <c r="AQ161" s="19"/>
       <c r="AR161" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.25">
@@ -10605,7 +10602,7 @@
       <c r="AP162" s="19"/>
       <c r="AQ162" s="19"/>
       <c r="AR162" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:44" x14ac:dyDescent="0.25">
@@ -10653,7 +10650,7 @@
       <c r="AP163" s="19"/>
       <c r="AQ163" s="19"/>
       <c r="AR163" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:44" x14ac:dyDescent="0.25">
@@ -10701,7 +10698,7 @@
       <c r="AP164" s="19"/>
       <c r="AQ164" s="19"/>
       <c r="AR164" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.25">
@@ -10749,7 +10746,7 @@
       <c r="AP165" s="19"/>
       <c r="AQ165" s="19"/>
       <c r="AR165" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:44" x14ac:dyDescent="0.25">
@@ -10797,7 +10794,7 @@
       <c r="AP166" s="19"/>
       <c r="AQ166" s="19"/>
       <c r="AR166" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:44" x14ac:dyDescent="0.25">
@@ -10845,7 +10842,7 @@
       <c r="AP167" s="19"/>
       <c r="AQ167" s="19"/>
       <c r="AR167" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:44" x14ac:dyDescent="0.25">
@@ -10893,7 +10890,7 @@
       <c r="AP168" s="19"/>
       <c r="AQ168" s="19"/>
       <c r="AR168" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:44" x14ac:dyDescent="0.25">
@@ -10941,7 +10938,7 @@
       <c r="AP169" s="19"/>
       <c r="AQ169" s="19"/>
       <c r="AR169" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:44" x14ac:dyDescent="0.25">
@@ -10989,7 +10986,7 @@
       <c r="AP170" s="19"/>
       <c r="AQ170" s="19"/>
       <c r="AR170" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="171" spans="1:44" x14ac:dyDescent="0.25">
@@ -11037,7 +11034,7 @@
       <c r="AP171" s="19"/>
       <c r="AQ171" s="19"/>
       <c r="AR171" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:44" x14ac:dyDescent="0.25">
@@ -11085,7 +11082,7 @@
       <c r="AP172" s="19"/>
       <c r="AQ172" s="19"/>
       <c r="AR172" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" spans="1:44" x14ac:dyDescent="0.25">
@@ -11133,7 +11130,7 @@
       <c r="AP173" s="19"/>
       <c r="AQ173" s="19"/>
       <c r="AR173" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" spans="1:44" x14ac:dyDescent="0.25">
@@ -11181,7 +11178,7 @@
       <c r="AP174" s="19"/>
       <c r="AQ174" s="19"/>
       <c r="AR174" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="1:44" x14ac:dyDescent="0.25">
@@ -11229,7 +11226,7 @@
       <c r="AP175" s="19"/>
       <c r="AQ175" s="19"/>
       <c r="AR175" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:44" x14ac:dyDescent="0.25">
@@ -11277,7 +11274,7 @@
       <c r="AP176" s="19"/>
       <c r="AQ176" s="19"/>
       <c r="AR176" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:44" x14ac:dyDescent="0.25">
@@ -11325,7 +11322,7 @@
       <c r="AP177" s="19"/>
       <c r="AQ177" s="19"/>
       <c r="AR177" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="178" spans="1:44" x14ac:dyDescent="0.25">
@@ -11373,7 +11370,7 @@
       <c r="AP178" s="19"/>
       <c r="AQ178" s="19"/>
       <c r="AR178" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:44" x14ac:dyDescent="0.25">
@@ -11421,7 +11418,7 @@
       <c r="AP179" s="19"/>
       <c r="AQ179" s="19"/>
       <c r="AR179" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:44" x14ac:dyDescent="0.25">
@@ -11469,7 +11466,7 @@
       <c r="AP180" s="19"/>
       <c r="AQ180" s="19"/>
       <c r="AR180" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:44" x14ac:dyDescent="0.25">
@@ -11517,7 +11514,7 @@
       <c r="AP181" s="19"/>
       <c r="AQ181" s="19"/>
       <c r="AR181" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182" spans="1:44" x14ac:dyDescent="0.25">
@@ -11565,7 +11562,7 @@
       <c r="AP182" s="19"/>
       <c r="AQ182" s="19"/>
       <c r="AR182" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="1:44" x14ac:dyDescent="0.25">
@@ -11613,7 +11610,7 @@
       <c r="AP183" s="19"/>
       <c r="AQ183" s="19"/>
       <c r="AR183" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:44" x14ac:dyDescent="0.25">
@@ -11661,7 +11658,7 @@
       <c r="AP184" s="19"/>
       <c r="AQ184" s="19"/>
       <c r="AR184" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:44" x14ac:dyDescent="0.25">
@@ -11709,7 +11706,7 @@
       <c r="AP185" s="19"/>
       <c r="AQ185" s="19"/>
       <c r="AR185" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" spans="1:44" x14ac:dyDescent="0.25">
@@ -11757,7 +11754,7 @@
       <c r="AP186" s="19"/>
       <c r="AQ186" s="19"/>
       <c r="AR186" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:44" x14ac:dyDescent="0.25">
@@ -11805,7 +11802,7 @@
       <c r="AP187" s="19"/>
       <c r="AQ187" s="19"/>
       <c r="AR187" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" spans="1:44" x14ac:dyDescent="0.25">
@@ -11853,7 +11850,7 @@
       <c r="AP188" s="19"/>
       <c r="AQ188" s="19"/>
       <c r="AR188" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="189" spans="1:44" x14ac:dyDescent="0.25">
@@ -11901,7 +11898,7 @@
       <c r="AP189" s="19"/>
       <c r="AQ189" s="19"/>
       <c r="AR189" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:44" x14ac:dyDescent="0.25">
@@ -11949,7 +11946,7 @@
       <c r="AP190" s="19"/>
       <c r="AQ190" s="19"/>
       <c r="AR190" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="1:44" x14ac:dyDescent="0.25">
@@ -11997,7 +11994,7 @@
       <c r="AP191" s="19"/>
       <c r="AQ191" s="19"/>
       <c r="AR191" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="1:44" x14ac:dyDescent="0.25">
@@ -12045,7 +12042,7 @@
       <c r="AP192" s="19"/>
       <c r="AQ192" s="19"/>
       <c r="AR192" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" spans="1:44" x14ac:dyDescent="0.25">
@@ -12093,7 +12090,7 @@
       <c r="AP193" s="19"/>
       <c r="AQ193" s="19"/>
       <c r="AR193" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:44" x14ac:dyDescent="0.25">
@@ -12141,7 +12138,7 @@
       <c r="AP194" s="19"/>
       <c r="AQ194" s="19"/>
       <c r="AR194" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="1:44" x14ac:dyDescent="0.25">
@@ -12189,7 +12186,7 @@
       <c r="AP195" s="19"/>
       <c r="AQ195" s="19"/>
       <c r="AR195" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" spans="1:44" x14ac:dyDescent="0.25">
@@ -12237,7 +12234,7 @@
       <c r="AP196" s="19"/>
       <c r="AQ196" s="19"/>
       <c r="AR196" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:44" x14ac:dyDescent="0.25">
@@ -12285,7 +12282,7 @@
       <c r="AP197" s="19"/>
       <c r="AQ197" s="19"/>
       <c r="AR197" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="198" spans="1:44" x14ac:dyDescent="0.25">
@@ -12333,7 +12330,7 @@
       <c r="AP198" s="19"/>
       <c r="AQ198" s="19"/>
       <c r="AR198" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:44" x14ac:dyDescent="0.25">
@@ -12381,7 +12378,7 @@
       <c r="AP199" s="19"/>
       <c r="AQ199" s="19"/>
       <c r="AR199" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:44" x14ac:dyDescent="0.25">
@@ -12429,7 +12426,7 @@
       <c r="AP200" s="19"/>
       <c r="AQ200" s="19"/>
       <c r="AR200" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="1:44" x14ac:dyDescent="0.25">
@@ -12477,7 +12474,7 @@
       <c r="AP201" s="19"/>
       <c r="AQ201" s="19"/>
       <c r="AR201" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" spans="1:44" x14ac:dyDescent="0.25">
@@ -12525,7 +12522,7 @@
       <c r="AP202" s="19"/>
       <c r="AQ202" s="19"/>
       <c r="AR202" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:44" x14ac:dyDescent="0.25">
@@ -12573,7 +12570,7 @@
       <c r="AP203" s="19"/>
       <c r="AQ203" s="19"/>
       <c r="AR203" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:44" x14ac:dyDescent="0.25">
@@ -12621,7 +12618,7 @@
       <c r="AP204" s="19"/>
       <c r="AQ204" s="19"/>
       <c r="AR204" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:44" x14ac:dyDescent="0.25">
@@ -12669,7 +12666,7 @@
       <c r="AP205" s="19"/>
       <c r="AQ205" s="19"/>
       <c r="AR205" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:44" x14ac:dyDescent="0.25">
@@ -12717,7 +12714,7 @@
       <c r="AP206" s="19"/>
       <c r="AQ206" s="19"/>
       <c r="AR206" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:44" x14ac:dyDescent="0.25">
@@ -12765,7 +12762,7 @@
       <c r="AP207" s="19"/>
       <c r="AQ207" s="19"/>
       <c r="AR207" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:44" x14ac:dyDescent="0.25">
@@ -12813,7 +12810,7 @@
       <c r="AP208" s="19"/>
       <c r="AQ208" s="19"/>
       <c r="AR208" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" spans="1:44" x14ac:dyDescent="0.25">
@@ -12861,7 +12858,7 @@
       <c r="AP209" s="19"/>
       <c r="AQ209" s="19"/>
       <c r="AR209" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:44" x14ac:dyDescent="0.25">
@@ -12909,7 +12906,7 @@
       <c r="AP210" s="19"/>
       <c r="AQ210" s="19"/>
       <c r="AR210" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:44" x14ac:dyDescent="0.25">
@@ -12957,7 +12954,7 @@
       <c r="AP211" s="19"/>
       <c r="AQ211" s="19"/>
       <c r="AR211" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:44" x14ac:dyDescent="0.25">
@@ -13005,7 +13002,7 @@
       <c r="AP212" s="19"/>
       <c r="AQ212" s="19"/>
       <c r="AR212" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:44" x14ac:dyDescent="0.25">
@@ -13053,7 +13050,7 @@
       <c r="AP213" s="19"/>
       <c r="AQ213" s="19"/>
       <c r="AR213" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="214" spans="1:44" x14ac:dyDescent="0.25">
@@ -13101,7 +13098,7 @@
       <c r="AP214" s="19"/>
       <c r="AQ214" s="19"/>
       <c r="AR214" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:44" x14ac:dyDescent="0.25">
@@ -13149,7 +13146,7 @@
       <c r="AP215" s="19"/>
       <c r="AQ215" s="19"/>
       <c r="AR215" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:44" x14ac:dyDescent="0.25">
@@ -13197,7 +13194,7 @@
       <c r="AP216" s="19"/>
       <c r="AQ216" s="19"/>
       <c r="AR216" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:44" x14ac:dyDescent="0.25">
@@ -13245,7 +13242,7 @@
       <c r="AP217" s="19"/>
       <c r="AQ217" s="19"/>
       <c r="AR217" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:44" x14ac:dyDescent="0.25">
@@ -13293,7 +13290,7 @@
       <c r="AP218" s="19"/>
       <c r="AQ218" s="19"/>
       <c r="AR218" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" spans="1:44" x14ac:dyDescent="0.25">
@@ -13341,7 +13338,7 @@
       <c r="AP219" s="19"/>
       <c r="AQ219" s="19"/>
       <c r="AR219" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="1:44" x14ac:dyDescent="0.25">
@@ -13389,7 +13386,7 @@
       <c r="AP220" s="19"/>
       <c r="AQ220" s="19"/>
       <c r="AR220" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="221" spans="1:44" x14ac:dyDescent="0.25">
@@ -13437,7 +13434,7 @@
       <c r="AP221" s="19"/>
       <c r="AQ221" s="19"/>
       <c r="AR221" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:44" x14ac:dyDescent="0.25">
@@ -13485,7 +13482,7 @@
       <c r="AP222" s="19"/>
       <c r="AQ222" s="19"/>
       <c r="AR222" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" spans="1:44" x14ac:dyDescent="0.25">
@@ -13533,7 +13530,7 @@
       <c r="AP223" s="19"/>
       <c r="AQ223" s="19"/>
       <c r="AR223" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" spans="1:44" x14ac:dyDescent="0.25">
@@ -13581,7 +13578,7 @@
       <c r="AP224" s="19"/>
       <c r="AQ224" s="19"/>
       <c r="AR224" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="225" spans="1:44" x14ac:dyDescent="0.25">
@@ -13629,7 +13626,7 @@
       <c r="AP225" s="19"/>
       <c r="AQ225" s="19"/>
       <c r="AR225" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="1:44" x14ac:dyDescent="0.25">
@@ -13677,7 +13674,7 @@
       <c r="AP226" s="19"/>
       <c r="AQ226" s="19"/>
       <c r="AR226" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:44" x14ac:dyDescent="0.25">
@@ -13725,7 +13722,7 @@
       <c r="AP227" s="19"/>
       <c r="AQ227" s="19"/>
       <c r="AR227" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:44" x14ac:dyDescent="0.25">
@@ -13773,7 +13770,7 @@
       <c r="AP228" s="19"/>
       <c r="AQ228" s="19"/>
       <c r="AR228" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="229" spans="1:44" x14ac:dyDescent="0.25">
@@ -13821,7 +13818,7 @@
       <c r="AP229" s="19"/>
       <c r="AQ229" s="19"/>
       <c r="AR229" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="1:44" x14ac:dyDescent="0.25">
@@ -13869,7 +13866,7 @@
       <c r="AP230" s="19"/>
       <c r="AQ230" s="19"/>
       <c r="AR230" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="231" spans="1:44" x14ac:dyDescent="0.25">
@@ -13917,7 +13914,7 @@
       <c r="AP231" s="19"/>
       <c r="AQ231" s="19"/>
       <c r="AR231" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="232" spans="1:44" x14ac:dyDescent="0.25">
@@ -13965,7 +13962,7 @@
       <c r="AP232" s="19"/>
       <c r="AQ232" s="19"/>
       <c r="AR232" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="1:44" x14ac:dyDescent="0.25">
@@ -14013,7 +14010,7 @@
       <c r="AP233" s="19"/>
       <c r="AQ233" s="19"/>
       <c r="AR233" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="234" spans="1:44" x14ac:dyDescent="0.25">
@@ -14061,7 +14058,7 @@
       <c r="AP234" s="19"/>
       <c r="AQ234" s="19"/>
       <c r="AR234" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="1:44" x14ac:dyDescent="0.25">
@@ -14109,7 +14106,7 @@
       <c r="AP235" s="19"/>
       <c r="AQ235" s="19"/>
       <c r="AR235" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" spans="1:44" x14ac:dyDescent="0.25">
@@ -14157,7 +14154,7 @@
       <c r="AP236" s="19"/>
       <c r="AQ236" s="19"/>
       <c r="AR236" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="237" spans="1:44" x14ac:dyDescent="0.25">
@@ -14205,7 +14202,7 @@
       <c r="AP237" s="19"/>
       <c r="AQ237" s="19"/>
       <c r="AR237" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" spans="1:44" x14ac:dyDescent="0.25">
@@ -14253,7 +14250,7 @@
       <c r="AP238" s="19"/>
       <c r="AQ238" s="19"/>
       <c r="AR238" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="239" spans="1:44" x14ac:dyDescent="0.25">
@@ -14301,7 +14298,7 @@
       <c r="AP239" s="19"/>
       <c r="AQ239" s="19"/>
       <c r="AR239" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" spans="1:44" x14ac:dyDescent="0.25">
@@ -14349,7 +14346,7 @@
       <c r="AP240" s="19"/>
       <c r="AQ240" s="19"/>
       <c r="AR240" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" spans="1:44" x14ac:dyDescent="0.25">
@@ -14397,7 +14394,7 @@
       <c r="AP241" s="19"/>
       <c r="AQ241" s="19"/>
       <c r="AR241" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="242" spans="1:44" x14ac:dyDescent="0.25">
@@ -14445,7 +14442,7 @@
       <c r="AP242" s="19"/>
       <c r="AQ242" s="19"/>
       <c r="AR242" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="243" spans="1:44" x14ac:dyDescent="0.25">
@@ -14493,7 +14490,7 @@
       <c r="AP243" s="19"/>
       <c r="AQ243" s="19"/>
       <c r="AR243" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" spans="1:44" x14ac:dyDescent="0.25">
@@ -14541,7 +14538,7 @@
       <c r="AP244" s="19"/>
       <c r="AQ244" s="19"/>
       <c r="AR244" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="245" spans="1:44" x14ac:dyDescent="0.25">
@@ -14589,7 +14586,7 @@
       <c r="AP245" s="19"/>
       <c r="AQ245" s="19"/>
       <c r="AR245" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="246" spans="1:44" x14ac:dyDescent="0.25">
@@ -14637,7 +14634,7 @@
       <c r="AP246" s="19"/>
       <c r="AQ246" s="19"/>
       <c r="AR246" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" spans="1:44" x14ac:dyDescent="0.25">
@@ -14685,7 +14682,7 @@
       <c r="AP247" s="19"/>
       <c r="AQ247" s="19"/>
       <c r="AR247" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" spans="1:44" x14ac:dyDescent="0.25">
@@ -14733,7 +14730,7 @@
       <c r="AP248" s="19"/>
       <c r="AQ248" s="19"/>
       <c r="AR248" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:44" x14ac:dyDescent="0.25">
@@ -14781,7 +14778,7 @@
       <c r="AP249" s="19"/>
       <c r="AQ249" s="19"/>
       <c r="AR249" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" spans="1:44" x14ac:dyDescent="0.25">
@@ -14829,7 +14826,7 @@
       <c r="AP250" s="19"/>
       <c r="AQ250" s="19"/>
       <c r="AR250" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="1:44" x14ac:dyDescent="0.25">
@@ -14877,7 +14874,7 @@
       <c r="AP251" s="19"/>
       <c r="AQ251" s="19"/>
       <c r="AR251" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="252" spans="1:44" x14ac:dyDescent="0.25">
@@ -14925,7 +14922,7 @@
       <c r="AP252" s="19"/>
       <c r="AQ252" s="19"/>
       <c r="AR252" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" spans="1:44" x14ac:dyDescent="0.25">
@@ -14973,7 +14970,7 @@
       <c r="AP253" s="19"/>
       <c r="AQ253" s="19"/>
       <c r="AR253" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="254" spans="1:44" x14ac:dyDescent="0.25">
@@ -15021,7 +15018,7 @@
       <c r="AP254" s="19"/>
       <c r="AQ254" s="19"/>
       <c r="AR254" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="255" spans="1:44" x14ac:dyDescent="0.25">
@@ -15069,7 +15066,7 @@
       <c r="AP255" s="19"/>
       <c r="AQ255" s="19"/>
       <c r="AR255" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="256" spans="1:44" x14ac:dyDescent="0.25">
@@ -15117,7 +15114,7 @@
       <c r="AP256" s="19"/>
       <c r="AQ256" s="19"/>
       <c r="AR256" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="257" spans="1:44" x14ac:dyDescent="0.25">
@@ -15165,7 +15162,7 @@
       <c r="AP257" s="19"/>
       <c r="AQ257" s="19"/>
       <c r="AR257" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" spans="1:44" x14ac:dyDescent="0.25">
@@ -15213,7 +15210,7 @@
       <c r="AP258" s="19"/>
       <c r="AQ258" s="19"/>
       <c r="AR258" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="259" spans="1:44" x14ac:dyDescent="0.25">
@@ -15261,7 +15258,7 @@
       <c r="AP259" s="19"/>
       <c r="AQ259" s="19"/>
       <c r="AR259" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="260" spans="1:44" x14ac:dyDescent="0.25">
@@ -15309,7 +15306,7 @@
       <c r="AP260" s="19"/>
       <c r="AQ260" s="19"/>
       <c r="AR260" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="261" spans="1:44" x14ac:dyDescent="0.25">
@@ -15357,7 +15354,7 @@
       <c r="AP261" s="19"/>
       <c r="AQ261" s="19"/>
       <c r="AR261" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="262" spans="1:44" x14ac:dyDescent="0.25">
@@ -15405,7 +15402,7 @@
       <c r="AP262" s="19"/>
       <c r="AQ262" s="19"/>
       <c r="AR262" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="263" spans="1:44" x14ac:dyDescent="0.25">
@@ -15453,7 +15450,7 @@
       <c r="AP263" s="19"/>
       <c r="AQ263" s="19"/>
       <c r="AR263" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="264" spans="1:44" x14ac:dyDescent="0.25">
@@ -15501,7 +15498,7 @@
       <c r="AP264" s="19"/>
       <c r="AQ264" s="19"/>
       <c r="AR264" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="265" spans="1:44" x14ac:dyDescent="0.25">
@@ -15549,7 +15546,7 @@
       <c r="AP265" s="19"/>
       <c r="AQ265" s="19"/>
       <c r="AR265" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="266" spans="1:44" x14ac:dyDescent="0.25">
@@ -15597,7 +15594,7 @@
       <c r="AP266" s="19"/>
       <c r="AQ266" s="19"/>
       <c r="AR266" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="267" spans="1:44" x14ac:dyDescent="0.25">
@@ -15645,7 +15642,7 @@
       <c r="AP267" s="19"/>
       <c r="AQ267" s="19"/>
       <c r="AR267" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="268" spans="1:44" x14ac:dyDescent="0.25">
@@ -15693,7 +15690,7 @@
       <c r="AP268" s="19"/>
       <c r="AQ268" s="19"/>
       <c r="AR268" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="269" spans="1:44" x14ac:dyDescent="0.25">
@@ -15741,7 +15738,7 @@
       <c r="AP269" s="19"/>
       <c r="AQ269" s="19"/>
       <c r="AR269" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" spans="1:44" x14ac:dyDescent="0.25">
@@ -15789,7 +15786,7 @@
       <c r="AP270" s="19"/>
       <c r="AQ270" s="19"/>
       <c r="AR270" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="271" spans="1:44" x14ac:dyDescent="0.25">
@@ -15837,7 +15834,7 @@
       <c r="AP271" s="19"/>
       <c r="AQ271" s="19"/>
       <c r="AR271" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272" spans="1:44" x14ac:dyDescent="0.25">
@@ -15885,7 +15882,7 @@
       <c r="AP272" s="19"/>
       <c r="AQ272" s="19"/>
       <c r="AR272" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" spans="1:44" x14ac:dyDescent="0.25">
@@ -15933,7 +15930,7 @@
       <c r="AP273" s="19"/>
       <c r="AQ273" s="19"/>
       <c r="AR273" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:44" x14ac:dyDescent="0.25">
@@ -15981,7 +15978,7 @@
       <c r="AP274" s="19"/>
       <c r="AQ274" s="19"/>
       <c r="AR274" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" spans="1:44" x14ac:dyDescent="0.25">
@@ -16029,7 +16026,7 @@
       <c r="AP275" s="19"/>
       <c r="AQ275" s="19"/>
       <c r="AR275" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" spans="1:44" x14ac:dyDescent="0.25">
@@ -16077,7 +16074,7 @@
       <c r="AP276" s="19"/>
       <c r="AQ276" s="19"/>
       <c r="AR276" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="277" spans="1:44" x14ac:dyDescent="0.25">
@@ -16125,7 +16122,7 @@
       <c r="AP277" s="19"/>
       <c r="AQ277" s="19"/>
       <c r="AR277" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="278" spans="1:44" x14ac:dyDescent="0.25">
@@ -16173,7 +16170,7 @@
       <c r="AP278" s="19"/>
       <c r="AQ278" s="19"/>
       <c r="AR278" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="279" spans="1:44" x14ac:dyDescent="0.25">
@@ -16221,7 +16218,7 @@
       <c r="AP279" s="19"/>
       <c r="AQ279" s="19"/>
       <c r="AR279" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="280" spans="1:44" x14ac:dyDescent="0.25">
@@ -16269,7 +16266,7 @@
       <c r="AP280" s="19"/>
       <c r="AQ280" s="19"/>
       <c r="AR280" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" spans="1:44" x14ac:dyDescent="0.25">
@@ -16317,7 +16314,7 @@
       <c r="AP281" s="19"/>
       <c r="AQ281" s="19"/>
       <c r="AR281" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="282" spans="1:44" x14ac:dyDescent="0.25">
@@ -16365,7 +16362,7 @@
       <c r="AP282" s="19"/>
       <c r="AQ282" s="19"/>
       <c r="AR282" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" spans="1:44" x14ac:dyDescent="0.25">
@@ -16413,7 +16410,7 @@
       <c r="AP283" s="19"/>
       <c r="AQ283" s="19"/>
       <c r="AR283" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="1:44" x14ac:dyDescent="0.25">
@@ -16461,7 +16458,7 @@
       <c r="AP284" s="19"/>
       <c r="AQ284" s="19"/>
       <c r="AR284" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285" spans="1:44" x14ac:dyDescent="0.25">
@@ -16509,7 +16506,7 @@
       <c r="AP285" s="19"/>
       <c r="AQ285" s="19"/>
       <c r="AR285" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="1:44" x14ac:dyDescent="0.25">
@@ -16557,7 +16554,7 @@
       <c r="AP286" s="19"/>
       <c r="AQ286" s="19"/>
       <c r="AR286" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="1:44" x14ac:dyDescent="0.25">
@@ -16605,7 +16602,7 @@
       <c r="AP287" s="19"/>
       <c r="AQ287" s="19"/>
       <c r="AR287" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="288" spans="1:44" x14ac:dyDescent="0.25">
@@ -16653,7 +16650,7 @@
       <c r="AP288" s="19"/>
       <c r="AQ288" s="19"/>
       <c r="AR288" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="289" spans="1:44" x14ac:dyDescent="0.25">
@@ -16701,7 +16698,7 @@
       <c r="AP289" s="19"/>
       <c r="AQ289" s="19"/>
       <c r="AR289" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290" spans="1:44" x14ac:dyDescent="0.25">
@@ -16749,7 +16746,7 @@
       <c r="AP290" s="19"/>
       <c r="AQ290" s="19"/>
       <c r="AR290" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="291" spans="1:44" x14ac:dyDescent="0.25">
@@ -16797,7 +16794,7 @@
       <c r="AP291" s="19"/>
       <c r="AQ291" s="19"/>
       <c r="AR291" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="292" spans="1:44" x14ac:dyDescent="0.25">
@@ -16845,7 +16842,7 @@
       <c r="AP292" s="19"/>
       <c r="AQ292" s="19"/>
       <c r="AR292" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="293" spans="1:44" x14ac:dyDescent="0.25">
@@ -16893,7 +16890,7 @@
       <c r="AP293" s="19"/>
       <c r="AQ293" s="19"/>
       <c r="AR293" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="294" spans="1:44" x14ac:dyDescent="0.25">
@@ -16941,7 +16938,7 @@
       <c r="AP294" s="19"/>
       <c r="AQ294" s="19"/>
       <c r="AR294" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="295" spans="1:44" x14ac:dyDescent="0.25">
@@ -16989,7 +16986,7 @@
       <c r="AP295" s="19"/>
       <c r="AQ295" s="19"/>
       <c r="AR295" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="296" spans="1:44" x14ac:dyDescent="0.25">
@@ -17037,7 +17034,7 @@
       <c r="AP296" s="19"/>
       <c r="AQ296" s="19"/>
       <c r="AR296" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="297" spans="1:44" x14ac:dyDescent="0.25">
@@ -17085,7 +17082,7 @@
       <c r="AP297" s="19"/>
       <c r="AQ297" s="19"/>
       <c r="AR297" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="298" spans="1:44" x14ac:dyDescent="0.25">
@@ -17133,7 +17130,7 @@
       <c r="AP298" s="19"/>
       <c r="AQ298" s="19"/>
       <c r="AR298" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" spans="1:44" x14ac:dyDescent="0.25">
@@ -17181,7 +17178,7 @@
       <c r="AP299" s="19"/>
       <c r="AQ299" s="19"/>
       <c r="AR299" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" spans="1:44" x14ac:dyDescent="0.25">
@@ -17229,7 +17226,7 @@
       <c r="AP300" s="19"/>
       <c r="AQ300" s="19"/>
       <c r="AR300" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" spans="1:44" x14ac:dyDescent="0.25">
@@ -17277,7 +17274,7 @@
       <c r="AP301" s="19"/>
       <c r="AQ301" s="19"/>
       <c r="AR301" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" spans="1:44" x14ac:dyDescent="0.25">
@@ -17325,7 +17322,7 @@
       <c r="AP302" s="19"/>
       <c r="AQ302" s="19"/>
       <c r="AR302" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="303" spans="1:44" x14ac:dyDescent="0.25">
@@ -17373,7 +17370,7 @@
       <c r="AP303" s="19"/>
       <c r="AQ303" s="19"/>
       <c r="AR303" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="304" spans="1:44" x14ac:dyDescent="0.25">
@@ -17421,7 +17418,7 @@
       <c r="AP304" s="19"/>
       <c r="AQ304" s="19"/>
       <c r="AR304" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="1:44" x14ac:dyDescent="0.25">
@@ -17469,7 +17466,7 @@
       <c r="AP305" s="19"/>
       <c r="AQ305" s="19"/>
       <c r="AR305" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306" spans="1:44" x14ac:dyDescent="0.25">
@@ -17517,7 +17514,7 @@
       <c r="AP306" s="19"/>
       <c r="AQ306" s="19"/>
       <c r="AR306" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="307" spans="1:44" x14ac:dyDescent="0.25">
@@ -17565,7 +17562,7 @@
       <c r="AP307" s="19"/>
       <c r="AQ307" s="19"/>
       <c r="AR307" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" spans="1:44" x14ac:dyDescent="0.25">
@@ -17613,7 +17610,7 @@
       <c r="AP308" s="19"/>
       <c r="AQ308" s="19"/>
       <c r="AR308" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309" spans="1:44" x14ac:dyDescent="0.25">
@@ -17661,7 +17658,7 @@
       <c r="AP309" s="19"/>
       <c r="AQ309" s="19"/>
       <c r="AR309" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310" spans="1:44" x14ac:dyDescent="0.25">
@@ -17709,7 +17706,7 @@
       <c r="AP310" s="19"/>
       <c r="AQ310" s="19"/>
       <c r="AR310" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="311" spans="1:44" x14ac:dyDescent="0.25">
@@ -17757,7 +17754,7 @@
       <c r="AP311" s="19"/>
       <c r="AQ311" s="19"/>
       <c r="AR311" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" spans="1:44" x14ac:dyDescent="0.25">
@@ -17805,7 +17802,7 @@
       <c r="AP312" s="19"/>
       <c r="AQ312" s="19"/>
       <c r="AR312" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313" spans="1:44" x14ac:dyDescent="0.25">
@@ -17853,7 +17850,7 @@
       <c r="AP313" s="19"/>
       <c r="AQ313" s="19"/>
       <c r="AR313" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314" spans="1:44" x14ac:dyDescent="0.25">
@@ -17901,7 +17898,7 @@
       <c r="AP314" s="19"/>
       <c r="AQ314" s="19"/>
       <c r="AR314" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" spans="1:44" x14ac:dyDescent="0.25">
@@ -17949,7 +17946,7 @@
       <c r="AP315" s="19"/>
       <c r="AQ315" s="19"/>
       <c r="AR315" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316" spans="1:44" x14ac:dyDescent="0.25">
@@ -17997,7 +17994,7 @@
       <c r="AP316" s="19"/>
       <c r="AQ316" s="19"/>
       <c r="AR316" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" spans="1:44" x14ac:dyDescent="0.25">
@@ -18045,7 +18042,7 @@
       <c r="AP317" s="19"/>
       <c r="AQ317" s="19"/>
       <c r="AR317" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318" spans="1:44" x14ac:dyDescent="0.25">
@@ -18093,7 +18090,7 @@
       <c r="AP318" s="19"/>
       <c r="AQ318" s="19"/>
       <c r="AR318" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="319" spans="1:44" x14ac:dyDescent="0.25">
@@ -18141,7 +18138,7 @@
       <c r="AP319" s="19"/>
       <c r="AQ319" s="19"/>
       <c r="AR319" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="320" spans="1:44" x14ac:dyDescent="0.25">
@@ -18189,7 +18186,7 @@
       <c r="AP320" s="19"/>
       <c r="AQ320" s="19"/>
       <c r="AR320" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="321" spans="1:44" x14ac:dyDescent="0.25">
@@ -18237,7 +18234,7 @@
       <c r="AP321" s="19"/>
       <c r="AQ321" s="19"/>
       <c r="AR321" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="322" spans="1:44" x14ac:dyDescent="0.25">
@@ -18285,7 +18282,7 @@
       <c r="AP322" s="19"/>
       <c r="AQ322" s="19"/>
       <c r="AR322" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="323" spans="1:44" x14ac:dyDescent="0.25">
@@ -18333,7 +18330,7 @@
       <c r="AP323" s="19"/>
       <c r="AQ323" s="19"/>
       <c r="AR323" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="324" spans="1:44" x14ac:dyDescent="0.25">
@@ -18381,7 +18378,7 @@
       <c r="AP324" s="19"/>
       <c r="AQ324" s="19"/>
       <c r="AR324" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325" spans="1:44" x14ac:dyDescent="0.25">
@@ -18429,7 +18426,7 @@
       <c r="AP325" s="19"/>
       <c r="AQ325" s="19"/>
       <c r="AR325" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="326" spans="1:44" x14ac:dyDescent="0.25">
@@ -18477,7 +18474,7 @@
       <c r="AP326" s="19"/>
       <c r="AQ326" s="19"/>
       <c r="AR326" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="327" spans="1:44" x14ac:dyDescent="0.25">
@@ -18525,7 +18522,7 @@
       <c r="AP327" s="19"/>
       <c r="AQ327" s="19"/>
       <c r="AR327" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="328" spans="1:44" x14ac:dyDescent="0.25">
@@ -18573,7 +18570,7 @@
       <c r="AP328" s="19"/>
       <c r="AQ328" s="19"/>
       <c r="AR328" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="329" spans="1:44" x14ac:dyDescent="0.25">
@@ -18621,7 +18618,7 @@
       <c r="AP329" s="19"/>
       <c r="AQ329" s="19"/>
       <c r="AR329" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="330" spans="1:44" x14ac:dyDescent="0.25">
@@ -18669,7 +18666,7 @@
       <c r="AP330" s="19"/>
       <c r="AQ330" s="19"/>
       <c r="AR330" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="331" spans="1:44" x14ac:dyDescent="0.25">
@@ -18717,7 +18714,7 @@
       <c r="AP331" s="19"/>
       <c r="AQ331" s="19"/>
       <c r="AR331" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" spans="1:44" x14ac:dyDescent="0.25">
@@ -18765,7 +18762,7 @@
       <c r="AP332" s="19"/>
       <c r="AQ332" s="19"/>
       <c r="AR332" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="333" spans="1:44" x14ac:dyDescent="0.25">
@@ -18813,7 +18810,7 @@
       <c r="AP333" s="19"/>
       <c r="AQ333" s="19"/>
       <c r="AR333" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" spans="1:44" x14ac:dyDescent="0.25">
@@ -18861,7 +18858,7 @@
       <c r="AP334" s="19"/>
       <c r="AQ334" s="19"/>
       <c r="AR334" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="335" spans="1:44" x14ac:dyDescent="0.25">
@@ -18909,7 +18906,7 @@
       <c r="AP335" s="19"/>
       <c r="AQ335" s="19"/>
       <c r="AR335" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="336" spans="1:44" x14ac:dyDescent="0.25">
@@ -18957,7 +18954,7 @@
       <c r="AP336" s="19"/>
       <c r="AQ336" s="19"/>
       <c r="AR336" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" spans="1:44" x14ac:dyDescent="0.25">
@@ -19005,7 +19002,7 @@
       <c r="AP337" s="19"/>
       <c r="AQ337" s="19"/>
       <c r="AR337" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="338" spans="1:44" x14ac:dyDescent="0.25">
@@ -19053,7 +19050,7 @@
       <c r="AP338" s="19"/>
       <c r="AQ338" s="19"/>
       <c r="AR338" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" spans="1:44" x14ac:dyDescent="0.25">
@@ -19101,7 +19098,7 @@
       <c r="AP339" s="19"/>
       <c r="AQ339" s="19"/>
       <c r="AR339" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="340" spans="1:44" x14ac:dyDescent="0.25">
@@ -19149,7 +19146,7 @@
       <c r="AP340" s="19"/>
       <c r="AQ340" s="19"/>
       <c r="AR340" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="341" spans="1:44" x14ac:dyDescent="0.25">
@@ -19197,7 +19194,7 @@
       <c r="AP341" s="19"/>
       <c r="AQ341" s="19"/>
       <c r="AR341" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" spans="1:44" x14ac:dyDescent="0.25">
@@ -19245,7 +19242,7 @@
       <c r="AP342" s="19"/>
       <c r="AQ342" s="19"/>
       <c r="AR342" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="343" spans="1:44" x14ac:dyDescent="0.25">
@@ -19293,7 +19290,7 @@
       <c r="AP343" s="19"/>
       <c r="AQ343" s="19"/>
       <c r="AR343" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" spans="1:44" x14ac:dyDescent="0.25">
@@ -19341,7 +19338,7 @@
       <c r="AP344" s="19"/>
       <c r="AQ344" s="19"/>
       <c r="AR344" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="345" spans="1:44" x14ac:dyDescent="0.25">
@@ -19389,7 +19386,7 @@
       <c r="AP345" s="19"/>
       <c r="AQ345" s="19"/>
       <c r="AR345" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="346" spans="1:44" x14ac:dyDescent="0.25">
@@ -19437,7 +19434,7 @@
       <c r="AP346" s="19"/>
       <c r="AQ346" s="19"/>
       <c r="AR346" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="347" spans="1:44" x14ac:dyDescent="0.25">
@@ -19485,7 +19482,7 @@
       <c r="AP347" s="19"/>
       <c r="AQ347" s="19"/>
       <c r="AR347" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="348" spans="1:44" x14ac:dyDescent="0.25">
@@ -19533,7 +19530,7 @@
       <c r="AP348" s="19"/>
       <c r="AQ348" s="19"/>
       <c r="AR348" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="349" spans="1:44" x14ac:dyDescent="0.25">
@@ -19581,7 +19578,7 @@
       <c r="AP349" s="19"/>
       <c r="AQ349" s="19"/>
       <c r="AR349" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="350" spans="1:44" x14ac:dyDescent="0.25">
@@ -19629,7 +19626,7 @@
       <c r="AP350" s="19"/>
       <c r="AQ350" s="19"/>
       <c r="AR350" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="351" spans="1:44" x14ac:dyDescent="0.25">
@@ -19677,7 +19674,7 @@
       <c r="AP351" s="19"/>
       <c r="AQ351" s="19"/>
       <c r="AR351" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="352" spans="1:44" x14ac:dyDescent="0.25">
@@ -19725,7 +19722,7 @@
       <c r="AP352" s="19"/>
       <c r="AQ352" s="19"/>
       <c r="AR352" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="353" spans="1:44" x14ac:dyDescent="0.25">
@@ -19773,7 +19770,7 @@
       <c r="AP353" s="19"/>
       <c r="AQ353" s="19"/>
       <c r="AR353" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="354" spans="1:44" x14ac:dyDescent="0.25">
@@ -19821,7 +19818,7 @@
       <c r="AP354" s="19"/>
       <c r="AQ354" s="19"/>
       <c r="AR354" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="355" spans="1:44" x14ac:dyDescent="0.25">
@@ -19869,7 +19866,7 @@
       <c r="AP355" s="19"/>
       <c r="AQ355" s="19"/>
       <c r="AR355" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="356" spans="1:44" x14ac:dyDescent="0.25">
@@ -19917,7 +19914,7 @@
       <c r="AP356" s="19"/>
       <c r="AQ356" s="19"/>
       <c r="AR356" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="357" spans="1:44" x14ac:dyDescent="0.25">
@@ -19965,7 +19962,7 @@
       <c r="AP357" s="19"/>
       <c r="AQ357" s="19"/>
       <c r="AR357" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="358" spans="1:44" x14ac:dyDescent="0.25">
@@ -20013,7 +20010,7 @@
       <c r="AP358" s="19"/>
       <c r="AQ358" s="19"/>
       <c r="AR358" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="359" spans="1:44" x14ac:dyDescent="0.25">
@@ -20061,7 +20058,7 @@
       <c r="AP359" s="19"/>
       <c r="AQ359" s="19"/>
       <c r="AR359" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="360" spans="1:44" x14ac:dyDescent="0.25">
@@ -20109,7 +20106,7 @@
       <c r="AP360" s="19"/>
       <c r="AQ360" s="19"/>
       <c r="AR360" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="361" spans="1:44" x14ac:dyDescent="0.25">
@@ -20157,7 +20154,7 @@
       <c r="AP361" s="19"/>
       <c r="AQ361" s="19"/>
       <c r="AR361" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="362" spans="1:44" x14ac:dyDescent="0.25">
@@ -20205,7 +20202,7 @@
       <c r="AP362" s="19"/>
       <c r="AQ362" s="19"/>
       <c r="AR362" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="363" spans="1:44" x14ac:dyDescent="0.25">
@@ -20253,7 +20250,7 @@
       <c r="AP363" s="19"/>
       <c r="AQ363" s="19"/>
       <c r="AR363" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="364" spans="1:44" x14ac:dyDescent="0.25">
@@ -20301,7 +20298,7 @@
       <c r="AP364" s="19"/>
       <c r="AQ364" s="19"/>
       <c r="AR364" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="365" spans="1:44" x14ac:dyDescent="0.25">
@@ -20349,7 +20346,7 @@
       <c r="AP365" s="19"/>
       <c r="AQ365" s="19"/>
       <c r="AR365" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="366" spans="1:44" x14ac:dyDescent="0.25">
@@ -20397,7 +20394,7 @@
       <c r="AP366" s="19"/>
       <c r="AQ366" s="19"/>
       <c r="AR366" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="367" spans="1:44" x14ac:dyDescent="0.25">
@@ -20445,7 +20442,7 @@
       <c r="AP367" s="19"/>
       <c r="AQ367" s="19"/>
       <c r="AR367" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="368" spans="1:44" x14ac:dyDescent="0.25">
@@ -20493,7 +20490,7 @@
       <c r="AP368" s="19"/>
       <c r="AQ368" s="19"/>
       <c r="AR368" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="369" spans="1:44" x14ac:dyDescent="0.25">
@@ -20541,7 +20538,7 @@
       <c r="AP369" s="19"/>
       <c r="AQ369" s="19"/>
       <c r="AR369" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="370" spans="1:44" x14ac:dyDescent="0.25">
@@ -20589,7 +20586,7 @@
       <c r="AP370" s="19"/>
       <c r="AQ370" s="19"/>
       <c r="AR370" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="371" spans="1:44" x14ac:dyDescent="0.25">
@@ -20637,7 +20634,7 @@
       <c r="AP371" s="19"/>
       <c r="AQ371" s="19"/>
       <c r="AR371" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="372" spans="1:44" x14ac:dyDescent="0.25">
@@ -20685,7 +20682,7 @@
       <c r="AP372" s="19"/>
       <c r="AQ372" s="19"/>
       <c r="AR372" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="373" spans="1:44" x14ac:dyDescent="0.25">
@@ -20733,7 +20730,7 @@
       <c r="AP373" s="19"/>
       <c r="AQ373" s="19"/>
       <c r="AR373" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="374" spans="1:44" x14ac:dyDescent="0.25">
@@ -20781,7 +20778,7 @@
       <c r="AP374" s="19"/>
       <c r="AQ374" s="19"/>
       <c r="AR374" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="375" spans="1:44" x14ac:dyDescent="0.25">
@@ -20829,7 +20826,7 @@
       <c r="AP375" s="19"/>
       <c r="AQ375" s="19"/>
       <c r="AR375" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="376" spans="1:44" x14ac:dyDescent="0.25">
@@ -20877,7 +20874,7 @@
       <c r="AP376" s="19"/>
       <c r="AQ376" s="19"/>
       <c r="AR376" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="377" spans="1:44" x14ac:dyDescent="0.25">
@@ -20925,7 +20922,7 @@
       <c r="AP377" s="19"/>
       <c r="AQ377" s="19"/>
       <c r="AR377" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="378" spans="1:44" x14ac:dyDescent="0.25">
@@ -20973,7 +20970,7 @@
       <c r="AP378" s="19"/>
       <c r="AQ378" s="19"/>
       <c r="AR378" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="379" spans="1:44" x14ac:dyDescent="0.25">
@@ -21021,7 +21018,7 @@
       <c r="AP379" s="19"/>
       <c r="AQ379" s="19"/>
       <c r="AR379" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="380" spans="1:44" x14ac:dyDescent="0.25">
@@ -21069,7 +21066,7 @@
       <c r="AP380" s="19"/>
       <c r="AQ380" s="19"/>
       <c r="AR380" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="381" spans="1:44" x14ac:dyDescent="0.25">
@@ -21117,7 +21114,7 @@
       <c r="AP381" s="19"/>
       <c r="AQ381" s="19"/>
       <c r="AR381" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="382" spans="1:44" x14ac:dyDescent="0.25">
@@ -21165,7 +21162,7 @@
       <c r="AP382" s="19"/>
       <c r="AQ382" s="19"/>
       <c r="AR382" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="383" spans="1:44" x14ac:dyDescent="0.25">
@@ -21213,7 +21210,7 @@
       <c r="AP383" s="19"/>
       <c r="AQ383" s="19"/>
       <c r="AR383" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="384" spans="1:44" x14ac:dyDescent="0.25">
@@ -21261,7 +21258,7 @@
       <c r="AP384" s="19"/>
       <c r="AQ384" s="19"/>
       <c r="AR384" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="385" spans="1:44" x14ac:dyDescent="0.25">
@@ -21309,7 +21306,7 @@
       <c r="AP385" s="19"/>
       <c r="AQ385" s="19"/>
       <c r="AR385" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="386" spans="1:44" x14ac:dyDescent="0.25">
@@ -21357,7 +21354,7 @@
       <c r="AP386" s="19"/>
       <c r="AQ386" s="19"/>
       <c r="AR386" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="387" spans="1:44" x14ac:dyDescent="0.25">
@@ -21405,7 +21402,7 @@
       <c r="AP387" s="19"/>
       <c r="AQ387" s="19"/>
       <c r="AR387" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="388" spans="1:44" x14ac:dyDescent="0.25">
@@ -21453,7 +21450,7 @@
       <c r="AP388" s="19"/>
       <c r="AQ388" s="19"/>
       <c r="AR388" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="389" spans="1:44" x14ac:dyDescent="0.25">
@@ -21501,7 +21498,7 @@
       <c r="AP389" s="19"/>
       <c r="AQ389" s="19"/>
       <c r="AR389" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="390" spans="1:44" x14ac:dyDescent="0.25">
@@ -21549,7 +21546,7 @@
       <c r="AP390" s="19"/>
       <c r="AQ390" s="19"/>
       <c r="AR390" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="391" spans="1:44" x14ac:dyDescent="0.25">
@@ -21597,7 +21594,7 @@
       <c r="AP391" s="19"/>
       <c r="AQ391" s="19"/>
       <c r="AR391" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="392" spans="1:44" x14ac:dyDescent="0.25">
@@ -21645,7 +21642,7 @@
       <c r="AP392" s="19"/>
       <c r="AQ392" s="19"/>
       <c r="AR392" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="393" spans="1:44" x14ac:dyDescent="0.25">
@@ -21693,7 +21690,7 @@
       <c r="AP393" s="19"/>
       <c r="AQ393" s="19"/>
       <c r="AR393" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="394" spans="1:44" x14ac:dyDescent="0.25">
@@ -21741,7 +21738,7 @@
       <c r="AP394" s="19"/>
       <c r="AQ394" s="19"/>
       <c r="AR394" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="395" spans="1:44" x14ac:dyDescent="0.25">
@@ -21789,7 +21786,7 @@
       <c r="AP395" s="19"/>
       <c r="AQ395" s="19"/>
       <c r="AR395" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="396" spans="1:44" x14ac:dyDescent="0.25">
@@ -21837,7 +21834,7 @@
       <c r="AP396" s="19"/>
       <c r="AQ396" s="19"/>
       <c r="AR396" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="397" spans="1:44" x14ac:dyDescent="0.25">
@@ -21885,7 +21882,7 @@
       <c r="AP397" s="19"/>
       <c r="AQ397" s="19"/>
       <c r="AR397" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="398" spans="1:44" x14ac:dyDescent="0.25">
@@ -21933,7 +21930,7 @@
       <c r="AP398" s="19"/>
       <c r="AQ398" s="19"/>
       <c r="AR398" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="399" spans="1:44" x14ac:dyDescent="0.25">
@@ -21981,7 +21978,7 @@
       <c r="AP399" s="19"/>
       <c r="AQ399" s="19"/>
       <c r="AR399" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="400" spans="1:44" x14ac:dyDescent="0.25">
@@ -22029,7 +22026,7 @@
       <c r="AP400" s="19"/>
       <c r="AQ400" s="19"/>
       <c r="AR400" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="401" spans="1:44" x14ac:dyDescent="0.25">
@@ -22077,7 +22074,7 @@
       <c r="AP401" s="19"/>
       <c r="AQ401" s="19"/>
       <c r="AR401" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="402" spans="1:44" x14ac:dyDescent="0.25">
@@ -22125,7 +22122,7 @@
       <c r="AP402" s="19"/>
       <c r="AQ402" s="19"/>
       <c r="AR402" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="403" spans="1:44" x14ac:dyDescent="0.25">
@@ -22173,7 +22170,7 @@
       <c r="AP403" s="19"/>
       <c r="AQ403" s="19"/>
       <c r="AR403" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="404" spans="1:44" x14ac:dyDescent="0.25">
@@ -22221,7 +22218,7 @@
       <c r="AP404" s="19"/>
       <c r="AQ404" s="19"/>
       <c r="AR404" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="405" spans="1:44" x14ac:dyDescent="0.25">
@@ -22269,7 +22266,7 @@
       <c r="AP405" s="19"/>
       <c r="AQ405" s="19"/>
       <c r="AR405" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="406" spans="1:44" x14ac:dyDescent="0.25">
@@ -22317,7 +22314,7 @@
       <c r="AP406" s="19"/>
       <c r="AQ406" s="19"/>
       <c r="AR406" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="407" spans="1:44" x14ac:dyDescent="0.25">
@@ -22365,7 +22362,7 @@
       <c r="AP407" s="19"/>
       <c r="AQ407" s="19"/>
       <c r="AR407" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="408" spans="1:44" x14ac:dyDescent="0.25">
@@ -22413,7 +22410,7 @@
       <c r="AP408" s="19"/>
       <c r="AQ408" s="19"/>
       <c r="AR408" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="409" spans="1:44" x14ac:dyDescent="0.25">
@@ -22461,7 +22458,7 @@
       <c r="AP409" s="19"/>
       <c r="AQ409" s="19"/>
       <c r="AR409" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="410" spans="1:44" x14ac:dyDescent="0.25">
@@ -22509,7 +22506,7 @@
       <c r="AP410" s="19"/>
       <c r="AQ410" s="19"/>
       <c r="AR410" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="411" spans="1:44" x14ac:dyDescent="0.25">
@@ -22557,7 +22554,7 @@
       <c r="AP411" s="19"/>
       <c r="AQ411" s="19"/>
       <c r="AR411" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="412" spans="1:44" x14ac:dyDescent="0.25">
@@ -22605,7 +22602,7 @@
       <c r="AP412" s="19"/>
       <c r="AQ412" s="19"/>
       <c r="AR412" s="22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="413" spans="1:44" x14ac:dyDescent="0.25">
@@ -22653,7 +22650,7 @@
       <c r="AP413" s="19"/>
       <c r="AQ413" s="19"/>
       <c r="AR413" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="414" spans="1:44" x14ac:dyDescent="0.25">
@@ -22701,7 +22698,7 @@
       <c r="AP414" s="19"/>
       <c r="AQ414" s="19"/>
       <c r="AR414" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="415" spans="1:44" x14ac:dyDescent="0.25">
@@ -22749,7 +22746,7 @@
       <c r="AP415" s="19"/>
       <c r="AQ415" s="19"/>
       <c r="AR415" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="416" spans="1:44" x14ac:dyDescent="0.25">
@@ -22797,7 +22794,7 @@
       <c r="AP416" s="19"/>
       <c r="AQ416" s="19"/>
       <c r="AR416" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="417" spans="1:44" x14ac:dyDescent="0.25">
@@ -22845,7 +22842,7 @@
       <c r="AP417" s="19"/>
       <c r="AQ417" s="19"/>
       <c r="AR417" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="418" spans="1:44" x14ac:dyDescent="0.25">
@@ -22893,7 +22890,7 @@
       <c r="AP418" s="19"/>
       <c r="AQ418" s="19"/>
       <c r="AR418" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="419" spans="1:44" x14ac:dyDescent="0.25">
@@ -22941,7 +22938,7 @@
       <c r="AP419" s="19"/>
       <c r="AQ419" s="19"/>
       <c r="AR419" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="420" spans="1:44" x14ac:dyDescent="0.25">
@@ -22989,7 +22986,7 @@
       <c r="AP420" s="19"/>
       <c r="AQ420" s="19"/>
       <c r="AR420" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="421" spans="1:44" x14ac:dyDescent="0.25">
@@ -23037,7 +23034,7 @@
       <c r="AP421" s="19"/>
       <c r="AQ421" s="19"/>
       <c r="AR421" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="422" spans="1:44" x14ac:dyDescent="0.25">
@@ -23085,7 +23082,7 @@
       <c r="AP422" s="19"/>
       <c r="AQ422" s="19"/>
       <c r="AR422" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="423" spans="1:44" x14ac:dyDescent="0.25">
@@ -23133,7 +23130,7 @@
       <c r="AP423" s="19"/>
       <c r="AQ423" s="19"/>
       <c r="AR423" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="424" spans="1:44" x14ac:dyDescent="0.25">
@@ -23181,7 +23178,7 @@
       <c r="AP424" s="19"/>
       <c r="AQ424" s="19"/>
       <c r="AR424" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="425" spans="1:44" x14ac:dyDescent="0.25">
@@ -23229,7 +23226,7 @@
       <c r="AP425" s="19"/>
       <c r="AQ425" s="19"/>
       <c r="AR425" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="426" spans="1:44" x14ac:dyDescent="0.25">
@@ -23277,7 +23274,7 @@
       <c r="AP426" s="19"/>
       <c r="AQ426" s="19"/>
       <c r="AR426" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="427" spans="1:44" x14ac:dyDescent="0.25">
@@ -23325,7 +23322,7 @@
       <c r="AP427" s="19"/>
       <c r="AQ427" s="19"/>
       <c r="AR427" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="428" spans="1:44" x14ac:dyDescent="0.25">
@@ -23373,7 +23370,7 @@
       <c r="AP428" s="19"/>
       <c r="AQ428" s="19"/>
       <c r="AR428" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="429" spans="1:44" x14ac:dyDescent="0.25">
@@ -23421,7 +23418,7 @@
       <c r="AP429" s="19"/>
       <c r="AQ429" s="19"/>
       <c r="AR429" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="430" spans="1:44" x14ac:dyDescent="0.25">
@@ -23469,7 +23466,7 @@
       <c r="AP430" s="19"/>
       <c r="AQ430" s="19"/>
       <c r="AR430" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="431" spans="1:44" x14ac:dyDescent="0.25">
@@ -23517,7 +23514,7 @@
       <c r="AP431" s="19"/>
       <c r="AQ431" s="19"/>
       <c r="AR431" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="432" spans="1:44" x14ac:dyDescent="0.25">
@@ -23565,7 +23562,7 @@
       <c r="AP432" s="19"/>
       <c r="AQ432" s="19"/>
       <c r="AR432" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="433" spans="1:44" x14ac:dyDescent="0.25">
@@ -23613,7 +23610,7 @@
       <c r="AP433" s="19"/>
       <c r="AQ433" s="19"/>
       <c r="AR433" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="434" spans="1:44" x14ac:dyDescent="0.25">
@@ -23661,7 +23658,7 @@
       <c r="AP434" s="19"/>
       <c r="AQ434" s="19"/>
       <c r="AR434" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="435" spans="1:44" x14ac:dyDescent="0.25">
@@ -23709,7 +23706,7 @@
       <c r="AP435" s="19"/>
       <c r="AQ435" s="19"/>
       <c r="AR435" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="436" spans="1:44" x14ac:dyDescent="0.25">
@@ -23757,7 +23754,7 @@
       <c r="AP436" s="19"/>
       <c r="AQ436" s="19"/>
       <c r="AR436" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="437" spans="1:44" x14ac:dyDescent="0.25">
@@ -23805,7 +23802,7 @@
       <c r="AP437" s="19"/>
       <c r="AQ437" s="19"/>
       <c r="AR437" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="438" spans="1:44" x14ac:dyDescent="0.25">
@@ -23853,7 +23850,7 @@
       <c r="AP438" s="19"/>
       <c r="AQ438" s="19"/>
       <c r="AR438" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="439" spans="1:44" x14ac:dyDescent="0.25">
@@ -23901,7 +23898,7 @@
       <c r="AP439" s="19"/>
       <c r="AQ439" s="19"/>
       <c r="AR439" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="440" spans="1:44" x14ac:dyDescent="0.25">
@@ -23949,7 +23946,7 @@
       <c r="AP440" s="19"/>
       <c r="AQ440" s="19"/>
       <c r="AR440" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="441" spans="1:44" x14ac:dyDescent="0.25">
@@ -23997,7 +23994,7 @@
       <c r="AP441" s="19"/>
       <c r="AQ441" s="19"/>
       <c r="AR441" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="442" spans="1:44" x14ac:dyDescent="0.25">
@@ -24045,7 +24042,7 @@
       <c r="AP442" s="19"/>
       <c r="AQ442" s="19"/>
       <c r="AR442" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="443" spans="1:44" x14ac:dyDescent="0.25">
@@ -24093,7 +24090,7 @@
       <c r="AP443" s="19"/>
       <c r="AQ443" s="19"/>
       <c r="AR443" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="444" spans="1:44" x14ac:dyDescent="0.25">
@@ -24141,7 +24138,7 @@
       <c r="AP444" s="19"/>
       <c r="AQ444" s="19"/>
       <c r="AR444" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="445" spans="1:44" x14ac:dyDescent="0.25">
@@ -24189,7 +24186,7 @@
       <c r="AP445" s="19"/>
       <c r="AQ445" s="19"/>
       <c r="AR445" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="446" spans="1:44" x14ac:dyDescent="0.25">
@@ -24237,7 +24234,7 @@
       <c r="AP446" s="19"/>
       <c r="AQ446" s="19"/>
       <c r="AR446" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="447" spans="1:44" x14ac:dyDescent="0.25">
@@ -24285,7 +24282,7 @@
       <c r="AP447" s="19"/>
       <c r="AQ447" s="19"/>
       <c r="AR447" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="448" spans="1:44" x14ac:dyDescent="0.25">
@@ -24333,7 +24330,7 @@
       <c r="AP448" s="19"/>
       <c r="AQ448" s="19"/>
       <c r="AR448" s="22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="449" spans="1:44" x14ac:dyDescent="0.25">
@@ -24381,7 +24378,7 @@
       <c r="AP449" s="19"/>
       <c r="AQ449" s="19"/>
       <c r="AR449" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="450" spans="1:44" x14ac:dyDescent="0.25">
@@ -24429,7 +24426,7 @@
       <c r="AP450" s="19"/>
       <c r="AQ450" s="19"/>
       <c r="AR450" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="451" spans="1:44" x14ac:dyDescent="0.25">
@@ -24477,7 +24474,7 @@
       <c r="AP451" s="19"/>
       <c r="AQ451" s="19"/>
       <c r="AR451" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="452" spans="1:44" x14ac:dyDescent="0.25">
@@ -24525,7 +24522,7 @@
       <c r="AP452" s="19"/>
       <c r="AQ452" s="19"/>
       <c r="AR452" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="453" spans="1:44" x14ac:dyDescent="0.25">
@@ -24573,7 +24570,7 @@
       <c r="AP453" s="19"/>
       <c r="AQ453" s="19"/>
       <c r="AR453" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="454" spans="1:44" x14ac:dyDescent="0.25">
@@ -24621,7 +24618,7 @@
       <c r="AP454" s="19"/>
       <c r="AQ454" s="19"/>
       <c r="AR454" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="455" spans="1:44" x14ac:dyDescent="0.25">
@@ -24669,7 +24666,7 @@
       <c r="AP455" s="19"/>
       <c r="AQ455" s="19"/>
       <c r="AR455" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="456" spans="1:44" x14ac:dyDescent="0.25">
@@ -24717,7 +24714,7 @@
       <c r="AP456" s="19"/>
       <c r="AQ456" s="19"/>
       <c r="AR456" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="457" spans="1:44" x14ac:dyDescent="0.25">
@@ -24765,7 +24762,7 @@
       <c r="AP457" s="19"/>
       <c r="AQ457" s="19"/>
       <c r="AR457" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="458" spans="1:44" x14ac:dyDescent="0.25">
@@ -24813,7 +24810,7 @@
       <c r="AP458" s="19"/>
       <c r="AQ458" s="19"/>
       <c r="AR458" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="459" spans="1:44" x14ac:dyDescent="0.25">
@@ -24861,7 +24858,7 @@
       <c r="AP459" s="19"/>
       <c r="AQ459" s="19"/>
       <c r="AR459" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="460" spans="1:44" x14ac:dyDescent="0.25">
@@ -24909,7 +24906,7 @@
       <c r="AP460" s="19"/>
       <c r="AQ460" s="19"/>
       <c r="AR460" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="461" spans="1:44" x14ac:dyDescent="0.25">
@@ -24957,7 +24954,7 @@
       <c r="AP461" s="19"/>
       <c r="AQ461" s="19"/>
       <c r="AR461" s="22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="462" spans="1:44" x14ac:dyDescent="0.25">
@@ -25005,7 +25002,7 @@
       <c r="AP462" s="19"/>
       <c r="AQ462" s="19"/>
       <c r="AR462" s="22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="463" spans="1:44" x14ac:dyDescent="0.25">
@@ -25053,7 +25050,7 @@
       <c r="AP463" s="19"/>
       <c r="AQ463" s="19"/>
       <c r="AR463" s="22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="464" spans="1:44" x14ac:dyDescent="0.25">
@@ -25101,7 +25098,7 @@
       <c r="AP464" s="19"/>
       <c r="AQ464" s="19"/>
       <c r="AR464" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="539">
   <si>
     <t>TITAN</t>
   </si>
@@ -1652,9 +1652,6 @@
     <t>VN</t>
   </si>
   <si>
-    <t>NOTEXIST</t>
-  </si>
-  <si>
     <t>NEW</t>
   </si>
   <si>
@@ -1683,6 +1680,9 @@
   </si>
   <si>
     <t>FIAT</t>
+  </si>
+  <si>
+    <t>DEMO</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1962,6 +1962,9 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1969,6 +1972,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2252,7 +2260,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>21</v>
@@ -2505,13 +2513,13 @@
         <v>19</v>
       </c>
       <c r="AC2" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AD2" s="20" t="s">
         <v>521</v>
       </c>
       <c r="AE2" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF2" s="20" t="s">
         <v>33</v>
@@ -2555,7 +2563,7 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B3" s="6" t="b">
         <v>1</v>
@@ -2591,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>21</v>
@@ -2600,7 +2608,7 @@
         <v>21</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -2630,16 +2638,16 @@
         <v>526</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AD3" s="20" t="s">
         <v>521</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
@@ -2674,7 +2682,7 @@
         <v>18</v>
       </c>
       <c r="AR3" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -2713,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>21</v>
@@ -2722,7 +2730,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
@@ -2752,16 +2760,16 @@
         <v>526</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC4" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AD4" s="20" t="s">
         <v>521</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
@@ -2778,7 +2786,7 @@
         <v>20</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM4" s="10" t="b">
         <v>0</v>
@@ -2835,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>21</v>
@@ -2844,7 +2852,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
@@ -2874,16 +2882,16 @@
         <v>526</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC5" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AD5" s="20" t="s">
         <v>521</v>
       </c>
       <c r="AE5" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF5" s="20"/>
       <c r="AG5" s="20"/>
@@ -2957,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>21</v>
@@ -2966,7 +2974,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -2996,16 +3004,16 @@
         <v>526</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC6" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AD6" s="20" t="s">
         <v>521</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF6" s="20"/>
       <c r="AG6" s="20"/>
@@ -3022,7 +3030,7 @@
         <v>21</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM6" s="10" t="b">
         <v>0</v>
@@ -3044,21 +3052,23 @@
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6" t="b">
+      <c r="A7" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="b">
         <v>1</v>
-      </c>
-      <c r="C7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="b">
-        <v>0</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>0</v>
@@ -3066,11 +3076,11 @@
       <c r="H7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="b">
-        <v>0</v>
+      <c r="I7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="K7" s="10" t="b">
         <v>0</v>
@@ -3079,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>21</v>
@@ -3088,7 +3098,7 @@
         <v>21</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
@@ -3118,16 +3128,16 @@
         <v>526</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC7" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AD7" s="20" t="s">
         <v>521</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20"/>
@@ -3138,7 +3148,7 @@
         <v>36</v>
       </c>
       <c r="AJ7" s="10" t="s">
-        <v>528</v>
+        <v>18</v>
       </c>
       <c r="AK7" s="11" t="s">
         <v>21</v>
@@ -25002,7 +25012,7 @@
       <c r="AP462" s="19"/>
       <c r="AQ462" s="19"/>
       <c r="AR462" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="463" spans="1:44" x14ac:dyDescent="0.25">
@@ -25050,7 +25060,7 @@
       <c r="AP463" s="19"/>
       <c r="AQ463" s="19"/>
       <c r="AR463" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="464" spans="1:44" x14ac:dyDescent="0.25">
@@ -25098,7 +25108,7 @@
       <c r="AP464" s="19"/>
       <c r="AQ464" s="19"/>
       <c r="AR464" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -25108,10 +25118,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA3" r:id="rId1"/>
-    <hyperlink ref="AA7" r:id="rId2"/>
-    <hyperlink ref="AA4" r:id="rId3"/>
-    <hyperlink ref="AA5" r:id="rId4"/>
-    <hyperlink ref="AA6" r:id="rId5"/>
+    <hyperlink ref="AA4" r:id="rId2"/>
+    <hyperlink ref="AA5" r:id="rId3"/>
+    <hyperlink ref="AA6" r:id="rId4"/>
+    <hyperlink ref="AA7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
+++ b/Data Files/Holden/DATA_DRIVEN_HOLDEN.xlsx
@@ -1953,6 +1953,9 @@
     <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1961,9 +1964,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2260,7 +2260,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,7 +2562,7 @@
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>534</v>
       </c>
       <c r="B3" s="6" t="b">
@@ -2686,7 +2686,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="6" t="b">
         <v>1</v>
       </c>
@@ -2808,7 +2808,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="b">
         <v>1</v>
       </c>
@@ -2930,7 +2930,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="6" t="b">
         <v>1</v>
       </c>
@@ -3052,23 +3052,23 @@
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="10" t="b">
+      <c r="B7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="b">
         <v>0</v>
-      </c>
-      <c r="C7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="b">
-        <v>1</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>0</v>
@@ -3076,11 +3076,11 @@
       <c r="H7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="b">
-        <v>1</v>
+      <c r="I7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="K7" s="10" t="b">
         <v>0</v>
